--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7644A9-CB2D-4FBF-8FFB-4482780D7977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42602EC-5B5C-42C3-820D-FD8CA33C6F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12590" yWindow="0" windowWidth="11740" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Default_Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill_List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Level</t>
   </si>
@@ -73,6 +74,51 @@
   </si>
   <si>
     <t>Exp_Need</t>
+  </si>
+  <si>
+    <t>Skill_Name</t>
+  </si>
+  <si>
+    <t>Skill_ID</t>
+  </si>
+  <si>
+    <t>Skill_Category</t>
+  </si>
+  <si>
+    <t>Hammer_Basic01</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Hammer_Basic02</t>
+  </si>
+  <si>
+    <t>Hammer_Basic03</t>
+  </si>
+  <si>
+    <t>Gordian_Wheel</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Dragon_Hammer</t>
+  </si>
+  <si>
+    <t>Attraction_Field</t>
+  </si>
+  <si>
+    <t>Samsara</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>Weapon_ID</t>
+  </si>
+  <si>
+    <t>Sword_Basic01</t>
   </si>
 </sst>
 </file>
@@ -115,7 +161,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +177,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF2CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -177,6 +235,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -459,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" activeCellId="1" sqref="O2 P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -625,4 +695,146 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29.5" thickBot="1">
+      <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9">
+        <v>101101</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.5" thickBot="1">
+      <c r="A3" s="1">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9">
+        <v>102101</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29.5" thickBot="1">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
+        <v>102102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.5" thickBot="1">
+      <c r="A5" s="1">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9">
+        <v>102103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.5" thickBot="1">
+      <c r="A6" s="1">
+        <v>102</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9">
+        <v>102201</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.5" thickBot="1">
+      <c r="A7" s="1">
+        <v>102</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9">
+        <v>102202</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.5" thickBot="1">
+      <c r="A8" s="1">
+        <v>102</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9">
+        <v>102203</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.5" thickBot="1">
+      <c r="A9" s="1">
+        <v>102</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9">
+        <v>102301</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42602EC-5B5C-42C3-820D-FD8CA33C6F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2881E9-D689-4175-833F-1F636BA8A09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12590" yWindow="0" windowWidth="11740" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Player_Default_Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Skill_List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Level</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Max_Hp</t>
   </si>
   <si>
-    <t>Critical_Chance</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
@@ -76,15 +73,6 @@
     <t>Exp_Need</t>
   </si>
   <si>
-    <t>Skill_Name</t>
-  </si>
-  <si>
-    <t>Skill_ID</t>
-  </si>
-  <si>
-    <t>Skill_Category</t>
-  </si>
-  <si>
     <t>Hammer_Basic01</t>
   </si>
   <si>
@@ -119,13 +107,26 @@
   </si>
   <si>
     <t>Sword_Basic01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +160,14 @@
       <name val="Malgun Gothic"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="6">
@@ -220,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -244,8 +253,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -578,11 +590,8 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.5" thickBot="1">
@@ -596,7 +605,7 @@
         <v>500</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -614,26 +623,24 @@
         <v>1</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L2" s="5">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="M2" s="5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N2" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O2" s="5">
-        <v>20</v>
-      </c>
-      <c r="P2" s="5">
         <v>1000</v>
       </c>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="17.5" thickBot="1">
       <c r="A3" s="4"/>
@@ -688,8 +695,7 @@
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -702,135 +708,138 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.5" thickBot="1">
+    <row r="1" spans="1:4" ht="29.5" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:4" ht="17.5" thickBot="1">
+      <c r="A2" s="9">
         <v>101</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C2" s="9">
         <v>101101</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A3" s="1">
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A3" s="9">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="9">
         <v>102101</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A4" s="1">
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A4" s="9">
         <v>102</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="9">
         <v>102102</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A5" s="1">
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A5" s="9">
         <v>102</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>22</v>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="9">
         <v>102103</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A6" s="1">
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.5" thickBot="1">
+      <c r="A6" s="9">
         <v>102</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="9">
         <v>102201</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A7" s="1">
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34.5" thickBot="1">
+      <c r="A7" s="9">
         <v>102</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="9">
         <v>102202</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A8" s="1">
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.5" thickBot="1">
+      <c r="A8" s="9">
         <v>102</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="9">
         <v>102203</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.5" thickBot="1">
-      <c r="A9" s="1">
+      <c r="A9" s="9">
         <v>102</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>27</v>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="9">
         <v>102301</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>28</v>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2881E9-D689-4175-833F-1F636BA8A09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5A1AC0-84F0-4B9C-A918-29C1AB12C282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12590" yWindow="0" windowWidth="11740" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12930" yWindow="300" windowWidth="11740" windowHeight="13280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Skill_List" sheetId="2" r:id="rId2"/>
+    <sheet name="Skill_Info_List" sheetId="3" r:id="rId3"/>
+    <sheet name="Skill_Hit_Frame" sheetId="4" r:id="rId4"/>
+    <sheet name="Weapon_List" sheetId="5" r:id="rId5"/>
+    <sheet name="Armor_List" sheetId="6" r:id="rId6"/>
+    <sheet name="Creature_List" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t>Level</t>
   </si>
@@ -73,52 +89,216 @@
     <t>Exp_Need</t>
   </si>
   <si>
-    <t>Hammer_Basic01</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>Hammer_Basic02</t>
-  </si>
-  <si>
-    <t>Hammer_Basic03</t>
-  </si>
-  <si>
-    <t>Gordian_Wheel</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Dragon_Hammer</t>
-  </si>
-  <si>
-    <t>Attraction_Field</t>
-  </si>
-  <si>
-    <t>Samsara</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
     <t>Weapon_ID</t>
-  </si>
-  <si>
-    <t>Sword_Basic01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Category</t>
+    <t>Skill_ID</t>
+  </si>
+  <si>
+    <t>Skill_Level_Max</t>
+  </si>
+  <si>
+    <t>Charge_Max</t>
+  </si>
+  <si>
+    <t>Hit_Max</t>
+  </si>
+  <si>
+    <t>Skill_Name</t>
+  </si>
+  <si>
+    <t>부스트 해머 일반 공격</t>
+  </si>
+  <si>
+    <t>고르디우스의 바퀴</t>
+  </si>
+  <si>
+    <t>승룡추</t>
+  </si>
+  <si>
+    <t>인력장</t>
+  </si>
+  <si>
+    <t>윤회</t>
+  </si>
+  <si>
+    <t>나락</t>
+  </si>
+  <si>
+    <t>플라즈마 라이플 일반 공격</t>
+  </si>
+  <si>
+    <t>Skill_Level</t>
+  </si>
+  <si>
+    <t>Charge_Level</t>
+  </si>
+  <si>
+    <t>Damage_A</t>
+  </si>
+  <si>
+    <t>Damage_B</t>
+  </si>
+  <si>
+    <t>Stagger_Time</t>
+  </si>
+  <si>
+    <t>Stun_Time</t>
+  </si>
+  <si>
+    <t>Airborne_Time</t>
+  </si>
+  <si>
+    <t>Knockback_Distance</t>
+  </si>
+  <si>
+    <t>Cool_Time</t>
+  </si>
+  <si>
+    <t>Need_Damage</t>
+  </si>
+  <si>
+    <t>Invincible_Time</t>
+  </si>
+  <si>
+    <t>Buff_A</t>
+  </si>
+  <si>
+    <t>Buff_B</t>
+  </si>
+  <si>
+    <t>Buff_C</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
+  <si>
+    <t>CC, Charging</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CC, Invincible</t>
+  </si>
+  <si>
+    <t>Hit_01</t>
+  </si>
+  <si>
+    <t>Hit_02</t>
+  </si>
+  <si>
+    <t>Hit_03</t>
+  </si>
+  <si>
+    <t>Hit_04</t>
+  </si>
+  <si>
+    <t>Hit_05</t>
+  </si>
+  <si>
+    <t>Physics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical_Chance</t>
+  </si>
+  <si>
+    <t>Critical_Mag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_Speed</t>
+  </si>
+  <si>
+    <t>Physics_Cut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Cut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water_Cut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric_Cut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Cut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_Cut</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack_Speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Groggy_HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지드 소드 일반 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category_ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,10 +347,18 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,13 +379,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFD9"/>
+        <fgColor rgb="FFFEF2CB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEF2CB"/>
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -244,19 +474,53 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -705,141 +969,4023 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.5" thickBot="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A2" s="7">
+        <v>100</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A3" s="7">
+        <v>200</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" thickBot="1">
+      <c r="A4" s="7">
+        <v>201</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A5" s="7">
+        <v>202</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A6" s="7">
+        <v>203</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A7" s="7">
+        <v>231</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A8" s="7">
+        <v>232</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A9" s="7">
+        <v>300</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
+  <dimension ref="A1:P67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G48" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59:K67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="51.5" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.5" thickBot="1">
-      <c r="A2" s="9">
-        <v>101</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="9">
-        <v>101101</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="D1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A2" s="20">
+        <v>200021101</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="20">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O2" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P2" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A3" s="20">
+        <v>200021102</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O3" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P3" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A4" s="20">
+        <v>201022101</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>20</v>
+      </c>
+      <c r="L4" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O4" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P4" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A5" s="20">
+        <v>201022102</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>20</v>
+      </c>
+      <c r="L5" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+      <c r="N5" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O5" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P5" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A6" s="20">
+        <v>201022201</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="20">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>18</v>
+      </c>
+      <c r="L6" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O6" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P6" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A7" s="20">
+        <v>201022202</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="20">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>18</v>
+      </c>
+      <c r="L7" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O7" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P7" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A8" s="20">
+        <v>201022301</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="20">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5" thickBot="1">
-      <c r="A3" s="9">
-        <v>102</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="L8" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O8" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P8" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A9" s="20">
+        <v>201022302</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>16</v>
+      </c>
+      <c r="L9" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O9" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P9" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A10" s="20">
+        <v>201022401</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>14</v>
+      </c>
+      <c r="L10" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O10" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P10" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A11" s="20">
+        <v>201022402</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="20">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <v>14</v>
+      </c>
+      <c r="L11" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O11" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P11" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A12" s="20">
+        <v>201022501</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="20">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <v>12</v>
+      </c>
+      <c r="L12" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0</v>
+      </c>
+      <c r="N12" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O12" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P12" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A13" s="20">
+        <v>201022502</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="20">
+        <v>5</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1.75</v>
+      </c>
+      <c r="F13" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <v>12</v>
+      </c>
+      <c r="L13" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O13" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P13" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A14" s="20">
+        <v>201022111</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <v>20</v>
+      </c>
+      <c r="L14" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O14" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P14" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A15" s="20">
+        <v>201022112</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="F15" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="20">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20">
+        <v>100</v>
+      </c>
+      <c r="K15" s="20">
+        <v>20</v>
+      </c>
+      <c r="L15" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0</v>
+      </c>
+      <c r="N15" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O15" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P15" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A16" s="20">
+        <v>201022211</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="20">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20">
+        <v>18</v>
+      </c>
+      <c r="L16" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0</v>
+      </c>
+      <c r="N16" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O16" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P16" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A17" s="20">
+        <v>201022212</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="20">
+        <v>2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <v>100</v>
+      </c>
+      <c r="K17" s="20">
+        <v>18</v>
+      </c>
+      <c r="L17" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0</v>
+      </c>
+      <c r="N17" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O17" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P17" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A18" s="20">
+        <v>201022311</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="20">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <v>16</v>
+      </c>
+      <c r="L18" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="20">
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O18" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P18" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A19" s="20">
+        <v>201022312</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="20">
+        <v>3</v>
+      </c>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <v>100</v>
+      </c>
+      <c r="K19" s="20">
+        <v>16</v>
+      </c>
+      <c r="L19" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="20">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O19" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P19" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A20" s="20">
+        <v>201022411</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <v>14</v>
+      </c>
+      <c r="L20" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O20" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P20" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A21" s="20">
+        <v>201022412</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="20">
+        <v>4</v>
+      </c>
+      <c r="D21" s="20">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <v>100</v>
+      </c>
+      <c r="K21" s="20">
+        <v>14</v>
+      </c>
+      <c r="L21" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="20">
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O21" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P21" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A22" s="20">
+        <v>201022511</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="20">
+        <v>5</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <v>12</v>
+      </c>
+      <c r="L22" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O22" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P22" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A23" s="20">
+        <v>201022512</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="20">
+        <v>5</v>
+      </c>
+      <c r="D23" s="20">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <v>100</v>
+      </c>
+      <c r="K23" s="20">
+        <v>12</v>
+      </c>
+      <c r="L23" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="20">
+        <v>0</v>
+      </c>
+      <c r="N23" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O23" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P23" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A24" s="20">
+        <v>201022121</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
+        <v>2</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20">
+        <v>0</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0</v>
+      </c>
+      <c r="K24" s="20">
+        <v>20</v>
+      </c>
+      <c r="L24" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="20">
+        <v>0</v>
+      </c>
+      <c r="N24" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O24" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P24" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A25" s="20">
+        <v>201022122</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <v>100</v>
+      </c>
+      <c r="K25" s="20">
+        <v>20</v>
+      </c>
+      <c r="L25" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="20">
+        <v>0</v>
+      </c>
+      <c r="N25" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O25" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P25" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A26" s="20">
+        <v>201022123</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20">
+        <v>2</v>
+      </c>
+      <c r="E26" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
+      <c r="J26" s="20">
+        <v>100</v>
+      </c>
+      <c r="K26" s="20">
+        <v>20</v>
+      </c>
+      <c r="L26" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="20">
+        <v>0</v>
+      </c>
+      <c r="N26" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O26" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P26" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A27" s="20">
+        <v>201022221</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="20">
+        <v>2</v>
+      </c>
+      <c r="D27" s="20">
+        <v>2</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0</v>
+      </c>
+      <c r="K27" s="20">
+        <v>18</v>
+      </c>
+      <c r="L27" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="20">
+        <v>0</v>
+      </c>
+      <c r="N27" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O27" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P27" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A28" s="20">
+        <v>201022222</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="20">
+        <v>2</v>
+      </c>
+      <c r="D28" s="20">
+        <v>2</v>
+      </c>
+      <c r="E28" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
+        <v>0</v>
+      </c>
+      <c r="J28" s="20">
+        <v>100</v>
+      </c>
+      <c r="K28" s="20">
+        <v>18</v>
+      </c>
+      <c r="L28" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="20">
+        <v>0</v>
+      </c>
+      <c r="N28" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O28" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P28" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A29" s="20">
+        <v>201022223</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="20">
+        <v>2</v>
+      </c>
+      <c r="D29" s="20">
+        <v>2</v>
+      </c>
+      <c r="E29" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
+      <c r="J29" s="20">
+        <v>100</v>
+      </c>
+      <c r="K29" s="20">
+        <v>18</v>
+      </c>
+      <c r="L29" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="20">
+        <v>0</v>
+      </c>
+      <c r="N29" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O29" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P29" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A30" s="20">
+        <v>201022321</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="20">
+        <v>3</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20">
+        <v>0</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0</v>
+      </c>
+      <c r="K30" s="20">
+        <v>16</v>
+      </c>
+      <c r="L30" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="20">
+        <v>0</v>
+      </c>
+      <c r="N30" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O30" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P30" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A31" s="20">
+        <v>201022322</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="20">
+        <v>3</v>
+      </c>
+      <c r="D31" s="20">
+        <v>2</v>
+      </c>
+      <c r="E31" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F31" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20">
+        <v>0</v>
+      </c>
+      <c r="J31" s="20">
+        <v>100</v>
+      </c>
+      <c r="K31" s="20">
+        <v>16</v>
+      </c>
+      <c r="L31" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="20">
+        <v>0</v>
+      </c>
+      <c r="N31" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O31" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P31" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A32" s="20">
+        <v>201022323</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="20">
+        <v>3</v>
+      </c>
+      <c r="D32" s="20">
+        <v>2</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F32" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20">
+        <v>1</v>
+      </c>
+      <c r="J32" s="20">
+        <v>100</v>
+      </c>
+      <c r="K32" s="20">
+        <v>16</v>
+      </c>
+      <c r="L32" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="20">
+        <v>0</v>
+      </c>
+      <c r="N32" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O32" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P32" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A33" s="20">
+        <v>201022421</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="20">
+        <v>4</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G33" s="20">
+        <v>1</v>
+      </c>
+      <c r="H33" s="20">
+        <v>0</v>
+      </c>
+      <c r="I33" s="20">
+        <v>0</v>
+      </c>
+      <c r="J33" s="20">
+        <v>0</v>
+      </c>
+      <c r="K33" s="20">
+        <v>14</v>
+      </c>
+      <c r="L33" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0</v>
+      </c>
+      <c r="N33" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O33" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P33" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A34" s="20">
+        <v>201022422</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="20">
+        <v>4</v>
+      </c>
+      <c r="D34" s="20">
+        <v>2</v>
+      </c>
+      <c r="E34" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="20">
+        <v>1</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
+      </c>
+      <c r="J34" s="20">
+        <v>100</v>
+      </c>
+      <c r="K34" s="20">
+        <v>14</v>
+      </c>
+      <c r="L34" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="20">
+        <v>0</v>
+      </c>
+      <c r="N34" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O34" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P34" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A35" s="20">
+        <v>201022423</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="20">
+        <v>4</v>
+      </c>
+      <c r="D35" s="20">
+        <v>2</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F35" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="20">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20">
+        <v>0</v>
+      </c>
+      <c r="I35" s="20">
+        <v>1</v>
+      </c>
+      <c r="J35" s="20">
+        <v>100</v>
+      </c>
+      <c r="K35" s="20">
+        <v>14</v>
+      </c>
+      <c r="L35" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="20">
+        <v>0</v>
+      </c>
+      <c r="N35" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O35" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P35" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A36" s="20">
+        <v>201022521</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="20">
+        <v>5</v>
+      </c>
+      <c r="D36" s="20">
+        <v>2</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G36" s="20">
+        <v>1</v>
+      </c>
+      <c r="H36" s="20">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0</v>
+      </c>
+      <c r="K36" s="20">
+        <v>12</v>
+      </c>
+      <c r="L36" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="20">
+        <v>0</v>
+      </c>
+      <c r="N36" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O36" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P36" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A37" s="20">
+        <v>201022522</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="20">
+        <v>5</v>
+      </c>
+      <c r="D37" s="20">
+        <v>2</v>
+      </c>
+      <c r="E37" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F37" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="20">
+        <v>1</v>
+      </c>
+      <c r="H37" s="20">
+        <v>0</v>
+      </c>
+      <c r="I37" s="20">
+        <v>0</v>
+      </c>
+      <c r="J37" s="20">
+        <v>100</v>
+      </c>
+      <c r="K37" s="20">
+        <v>12</v>
+      </c>
+      <c r="L37" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="20">
+        <v>0</v>
+      </c>
+      <c r="N37" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O37" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P37" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A38" s="20">
+        <v>201022523</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="20">
+        <v>5</v>
+      </c>
+      <c r="D38" s="20">
+        <v>2</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="F38" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20">
+        <v>1</v>
+      </c>
+      <c r="J38" s="20">
+        <v>100</v>
+      </c>
+      <c r="K38" s="20">
+        <v>12</v>
+      </c>
+      <c r="L38" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="20">
+        <v>0</v>
+      </c>
+      <c r="N38" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O38" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P38" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A39" s="20">
+        <v>202022101</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="20">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20">
+        <v>0</v>
+      </c>
+      <c r="E39" s="20">
+        <v>1.85</v>
+      </c>
+      <c r="F39" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="G39" s="20">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="20">
+        <v>0</v>
+      </c>
+      <c r="K39" s="20">
+        <v>5</v>
+      </c>
+      <c r="L39" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="20">
+        <v>0</v>
+      </c>
+      <c r="N39" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O39" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P39" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A40" s="20">
+        <v>202022201</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="20">
+        <v>2</v>
+      </c>
+      <c r="D40" s="20">
+        <v>0</v>
+      </c>
+      <c r="E40" s="20">
+        <v>1.85</v>
+      </c>
+      <c r="F40" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0</v>
+      </c>
+      <c r="K40" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="L40" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="20">
+        <v>0</v>
+      </c>
+      <c r="N40" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O40" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P40" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A41" s="20">
+        <v>202022301</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="20">
+        <v>3</v>
+      </c>
+      <c r="D41" s="20">
+        <v>0</v>
+      </c>
+      <c r="E41" s="20">
+        <v>1.85</v>
+      </c>
+      <c r="F41" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="G41" s="20">
+        <v>0</v>
+      </c>
+      <c r="H41" s="20">
+        <v>0</v>
+      </c>
+      <c r="I41" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="20">
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <v>4</v>
+      </c>
+      <c r="L41" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="20">
+        <v>0</v>
+      </c>
+      <c r="N41" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O41" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P41" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A42" s="20">
+        <v>202022401</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="20">
+        <v>4</v>
+      </c>
+      <c r="D42" s="20">
+        <v>0</v>
+      </c>
+      <c r="E42" s="20">
+        <v>1.85</v>
+      </c>
+      <c r="F42" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="G42" s="20">
+        <v>0</v>
+      </c>
+      <c r="H42" s="20">
+        <v>0</v>
+      </c>
+      <c r="I42" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="20">
+        <v>0</v>
+      </c>
+      <c r="K42" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="L42" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="20">
+        <v>0</v>
+      </c>
+      <c r="N42" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O42" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P42" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A43" s="20">
+        <v>202022501</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="20">
+        <v>5</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0</v>
+      </c>
+      <c r="E43" s="20">
+        <v>1.85</v>
+      </c>
+      <c r="F43" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="G43" s="20">
+        <v>0</v>
+      </c>
+      <c r="H43" s="20">
+        <v>0</v>
+      </c>
+      <c r="I43" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="20">
+        <v>0</v>
+      </c>
+      <c r="K43" s="20">
+        <v>3</v>
+      </c>
+      <c r="L43" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M43" s="20">
+        <v>0</v>
+      </c>
+      <c r="N43" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O43" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P43" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A44" s="20">
+        <v>203022101</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0</v>
+      </c>
+      <c r="E44" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F44" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G44" s="20">
+        <v>1</v>
+      </c>
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20">
+        <v>0</v>
+      </c>
+      <c r="J44" s="20">
+        <v>0</v>
+      </c>
+      <c r="K44" s="20">
+        <v>13</v>
+      </c>
+      <c r="L44" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M44" s="20">
+        <v>0</v>
+      </c>
+      <c r="N44" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O44" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P44" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A45" s="20">
+        <v>203022102</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G45" s="20">
+        <v>1</v>
+      </c>
+      <c r="H45" s="20">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20">
+        <v>0</v>
+      </c>
+      <c r="J45" s="20">
+        <v>0</v>
+      </c>
+      <c r="K45" s="20">
+        <v>13</v>
+      </c>
+      <c r="L45" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="20">
+        <v>0</v>
+      </c>
+      <c r="N45" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O45" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P45" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A46" s="20">
+        <v>203022103</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="20">
+        <v>1</v>
+      </c>
+      <c r="D46" s="20">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20">
+        <v>2</v>
+      </c>
+      <c r="F46" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="20">
+        <v>0</v>
+      </c>
+      <c r="H46" s="20">
+        <v>1</v>
+      </c>
+      <c r="I46" s="20">
+        <v>0</v>
+      </c>
+      <c r="J46" s="20">
+        <v>0</v>
+      </c>
+      <c r="K46" s="20">
+        <v>13</v>
+      </c>
+      <c r="L46" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="20">
+        <v>0</v>
+      </c>
+      <c r="N46" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O46" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P46" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A47" s="20">
+        <v>203022201</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="20">
+        <v>2</v>
+      </c>
+      <c r="D47" s="20">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0</v>
+      </c>
+      <c r="I47" s="20">
+        <v>0</v>
+      </c>
+      <c r="J47" s="20">
+        <v>0</v>
+      </c>
+      <c r="K47" s="20">
+        <v>12.5</v>
+      </c>
+      <c r="L47" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M47" s="20">
+        <v>0</v>
+      </c>
+      <c r="N47" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O47" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P47" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A48" s="20">
+        <v>203022202</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="20">
+        <v>2</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F48" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="20">
+        <v>1</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0</v>
+      </c>
+      <c r="I48" s="20">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <v>0</v>
+      </c>
+      <c r="K48" s="20">
+        <v>12.5</v>
+      </c>
+      <c r="L48" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M48" s="20">
+        <v>0</v>
+      </c>
+      <c r="N48" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O48" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P48" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A49" s="20">
+        <v>203022203</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="20">
+        <v>2</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>2</v>
+      </c>
+      <c r="F49" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="20">
+        <v>1</v>
+      </c>
+      <c r="I49" s="20">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20">
+        <v>0</v>
+      </c>
+      <c r="K49" s="20">
+        <v>12.5</v>
+      </c>
+      <c r="L49" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M49" s="20">
+        <v>0</v>
+      </c>
+      <c r="N49" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O49" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P49" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A50" s="20">
+        <v>203022301</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="20">
+        <v>3</v>
+      </c>
+      <c r="D50" s="20">
+        <v>0</v>
+      </c>
+      <c r="E50" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G50" s="20">
+        <v>1</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0</v>
+      </c>
+      <c r="I50" s="20">
+        <v>0</v>
+      </c>
+      <c r="J50" s="20">
+        <v>0</v>
+      </c>
+      <c r="K50" s="20">
+        <v>12</v>
+      </c>
+      <c r="L50" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M50" s="20">
+        <v>0</v>
+      </c>
+      <c r="N50" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O50" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P50" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A51" s="20">
+        <v>203022302</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="20">
+        <v>3</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F51" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
+      <c r="H51" s="20">
+        <v>0</v>
+      </c>
+      <c r="I51" s="20">
+        <v>0</v>
+      </c>
+      <c r="J51" s="20">
+        <v>0</v>
+      </c>
+      <c r="K51" s="20">
+        <v>12</v>
+      </c>
+      <c r="L51" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M51" s="20">
+        <v>0</v>
+      </c>
+      <c r="N51" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O51" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P51" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A52" s="20">
+        <v>203022303</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="20">
+        <v>3</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0</v>
+      </c>
+      <c r="E52" s="20">
+        <v>2</v>
+      </c>
+      <c r="F52" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G52" s="20">
+        <v>0</v>
+      </c>
+      <c r="H52" s="20">
+        <v>1</v>
+      </c>
+      <c r="I52" s="20">
+        <v>0</v>
+      </c>
+      <c r="J52" s="20">
+        <v>0</v>
+      </c>
+      <c r="K52" s="20">
+        <v>12</v>
+      </c>
+      <c r="L52" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M52" s="20">
+        <v>0</v>
+      </c>
+      <c r="N52" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O52" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P52" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A53" s="20">
+        <v>203022401</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="20">
+        <v>4</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F53" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G53" s="20">
+        <v>1</v>
+      </c>
+      <c r="H53" s="20">
+        <v>0</v>
+      </c>
+      <c r="I53" s="20">
+        <v>0</v>
+      </c>
+      <c r="J53" s="20">
+        <v>0</v>
+      </c>
+      <c r="K53" s="20">
+        <v>11</v>
+      </c>
+      <c r="L53" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M53" s="20">
+        <v>0</v>
+      </c>
+      <c r="N53" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O53" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P53" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A54" s="20">
+        <v>203022402</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="20">
+        <v>4</v>
+      </c>
+      <c r="D54" s="20">
+        <v>0</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F54" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1</v>
+      </c>
+      <c r="H54" s="20">
+        <v>0</v>
+      </c>
+      <c r="I54" s="20">
+        <v>0</v>
+      </c>
+      <c r="J54" s="20">
+        <v>0</v>
+      </c>
+      <c r="K54" s="20">
+        <v>11</v>
+      </c>
+      <c r="L54" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M54" s="20">
+        <v>0</v>
+      </c>
+      <c r="N54" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O54" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P54" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A55" s="20">
+        <v>203022403</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="20">
+        <v>4</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
+        <v>2</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0</v>
+      </c>
+      <c r="H55" s="20">
+        <v>1</v>
+      </c>
+      <c r="I55" s="20">
+        <v>0</v>
+      </c>
+      <c r="J55" s="20">
+        <v>0</v>
+      </c>
+      <c r="K55" s="20">
+        <v>11</v>
+      </c>
+      <c r="L55" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M55" s="20">
+        <v>0</v>
+      </c>
+      <c r="N55" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O55" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P55" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A56" s="20">
+        <v>203022501</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="20">
+        <v>5</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0</v>
+      </c>
+      <c r="E56" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="F56" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G56" s="20">
+        <v>1</v>
+      </c>
+      <c r="H56" s="20">
+        <v>0</v>
+      </c>
+      <c r="I56" s="20">
+        <v>0</v>
+      </c>
+      <c r="J56" s="20">
+        <v>0</v>
+      </c>
+      <c r="K56" s="20">
+        <v>10</v>
+      </c>
+      <c r="L56" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M56" s="20">
+        <v>0</v>
+      </c>
+      <c r="N56" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O56" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P56" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A57" s="20">
+        <v>203022502</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="20">
+        <v>5</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="F57" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G57" s="20">
+        <v>1</v>
+      </c>
+      <c r="H57" s="20">
+        <v>0</v>
+      </c>
+      <c r="I57" s="20">
+        <v>0</v>
+      </c>
+      <c r="J57" s="20">
+        <v>0</v>
+      </c>
+      <c r="K57" s="20">
+        <v>10</v>
+      </c>
+      <c r="L57" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M57" s="20">
+        <v>0</v>
+      </c>
+      <c r="N57" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O57" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P57" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A58" s="20">
+        <v>203022503</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="20">
+        <v>5</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="20">
+        <v>2</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20">
+        <v>1</v>
+      </c>
+      <c r="I58" s="20">
+        <v>0</v>
+      </c>
+      <c r="J58" s="20">
+        <v>0</v>
+      </c>
+      <c r="K58" s="20">
+        <v>10</v>
+      </c>
+      <c r="L58" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M58" s="20">
+        <v>0</v>
+      </c>
+      <c r="N58" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O58" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P58" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A59" s="20">
+        <v>231023101</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="20">
+        <v>1</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="20">
+        <v>1</v>
+      </c>
+      <c r="F59" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <v>0</v>
+      </c>
+      <c r="I59" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="20">
+        <v>0</v>
+      </c>
+      <c r="K59" s="20">
+        <v>0</v>
+      </c>
+      <c r="L59" s="20">
+        <v>60000</v>
+      </c>
+      <c r="M59" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N59" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O59" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P59" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A60" s="20">
+        <v>231023201</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="20">
+        <v>2</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0</v>
+      </c>
+      <c r="E60" s="20">
+        <v>1</v>
+      </c>
+      <c r="F60" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20">
+        <v>0</v>
+      </c>
+      <c r="I60" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="20">
+        <v>0</v>
+      </c>
+      <c r="K60" s="20">
+        <v>0</v>
+      </c>
+      <c r="L60" s="20">
+        <v>55000</v>
+      </c>
+      <c r="M60" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N60" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O60" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P60" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A61" s="20">
+        <v>231023301</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="20">
+        <v>3</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="20">
+        <v>1</v>
+      </c>
+      <c r="F61" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
+      <c r="H61" s="20">
+        <v>0</v>
+      </c>
+      <c r="I61" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="J61" s="20">
+        <v>0</v>
+      </c>
+      <c r="K61" s="20">
+        <v>0</v>
+      </c>
+      <c r="L61" s="20">
+        <v>50000</v>
+      </c>
+      <c r="M61" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N61" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O61" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P61" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A62" s="20">
+        <v>232023101</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0</v>
+      </c>
+      <c r="E62" s="20">
+        <v>1</v>
+      </c>
+      <c r="F62" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="G62" s="20">
+        <v>1</v>
+      </c>
+      <c r="H62" s="20">
+        <v>0</v>
+      </c>
+      <c r="I62" s="20">
+        <v>0</v>
+      </c>
+      <c r="J62" s="20">
+        <v>0</v>
+      </c>
+      <c r="K62" s="20">
+        <v>0</v>
+      </c>
+      <c r="L62" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M62" s="20">
+        <v>0</v>
+      </c>
+      <c r="N62" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O62" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P62" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A63" s="20">
+        <v>232023102</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
+        <v>9.5</v>
+      </c>
+      <c r="F63" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="20">
+        <v>2</v>
+      </c>
+      <c r="I63" s="20">
+        <v>0</v>
+      </c>
+      <c r="J63" s="20">
+        <v>0</v>
+      </c>
+      <c r="K63" s="20">
+        <v>0</v>
+      </c>
+      <c r="L63" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M63" s="20">
+        <v>0</v>
+      </c>
+      <c r="N63" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O63" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P63" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A64" s="20">
+        <v>232023201</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="20">
+        <v>2</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0</v>
+      </c>
+      <c r="E64" s="20">
+        <v>1</v>
+      </c>
+      <c r="F64" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="G64" s="20">
+        <v>1</v>
+      </c>
+      <c r="H64" s="20">
+        <v>0</v>
+      </c>
+      <c r="I64" s="20">
+        <v>0</v>
+      </c>
+      <c r="J64" s="20">
+        <v>0</v>
+      </c>
+      <c r="K64" s="20">
+        <v>0</v>
+      </c>
+      <c r="L64" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M64" s="20">
+        <v>0</v>
+      </c>
+      <c r="N64" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O64" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P64" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A65" s="20">
+        <v>232023202</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="20">
+        <v>2</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="20">
+        <v>9.5</v>
+      </c>
+      <c r="F65" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0</v>
+      </c>
+      <c r="H65" s="20">
+        <v>2</v>
+      </c>
+      <c r="I65" s="20">
+        <v>0</v>
+      </c>
+      <c r="J65" s="20">
+        <v>0</v>
+      </c>
+      <c r="K65" s="20">
+        <v>0</v>
+      </c>
+      <c r="L65" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M65" s="20">
+        <v>0</v>
+      </c>
+      <c r="N65" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O65" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P65" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A66" s="20">
+        <v>232023301</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="20">
+        <v>3</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0</v>
+      </c>
+      <c r="E66" s="20">
+        <v>1</v>
+      </c>
+      <c r="F66" s="20">
+        <v>0.33</v>
+      </c>
+      <c r="G66" s="20">
+        <v>1</v>
+      </c>
+      <c r="H66" s="20">
+        <v>0</v>
+      </c>
+      <c r="I66" s="20">
+        <v>0</v>
+      </c>
+      <c r="J66" s="20">
+        <v>0</v>
+      </c>
+      <c r="K66" s="20">
+        <v>0</v>
+      </c>
+      <c r="L66" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M66" s="20">
+        <v>0</v>
+      </c>
+      <c r="N66" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O66" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P66" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A67" s="20">
+        <v>232023302</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="20">
+        <v>3</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
+        <v>9.5</v>
+      </c>
+      <c r="F67" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20">
+        <v>2</v>
+      </c>
+      <c r="I67" s="20">
+        <v>0</v>
+      </c>
+      <c r="J67" s="20">
+        <v>0</v>
+      </c>
+      <c r="K67" s="20">
+        <v>0</v>
+      </c>
+      <c r="L67" s="20">
+        <v>-1</v>
+      </c>
+      <c r="M67" s="20">
+        <v>0</v>
+      </c>
+      <c r="N67" s="20">
+        <v>-999</v>
+      </c>
+      <c r="O67" s="20">
+        <v>-999</v>
+      </c>
+      <c r="P67" s="20">
+        <v>-999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A2" s="20">
+        <v>100</v>
+      </c>
+      <c r="B2" s="20">
+        <v>6</v>
+      </c>
+      <c r="C2" s="20">
+        <v>48</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A3" s="20">
+        <v>200</v>
+      </c>
+      <c r="B3" s="20">
+        <v>11</v>
+      </c>
+      <c r="C3" s="20">
+        <v>71</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A4" s="20">
+        <v>201</v>
+      </c>
+      <c r="B4" s="20">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20">
+        <v>29</v>
+      </c>
+      <c r="D4" s="20">
+        <v>33</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A5" s="20">
+        <v>202</v>
+      </c>
+      <c r="B5" s="20">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A6" s="20">
+        <v>203</v>
+      </c>
+      <c r="B6" s="20">
+        <v>7</v>
+      </c>
+      <c r="C6" s="20">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
-        <v>102101</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="D6" s="20">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.5" thickBot="1">
-      <c r="A4" s="9">
-        <v>102</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9">
-        <v>102102</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A7" s="20">
+        <v>231</v>
+      </c>
+      <c r="B7" s="20">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A8" s="20">
+        <v>232</v>
+      </c>
+      <c r="B8" s="20">
+        <v>6</v>
+      </c>
+      <c r="C8" s="20">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A9" s="20">
+        <v>300</v>
+      </c>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="13.4140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.5" thickBot="1">
-      <c r="A5" s="9">
-        <v>102</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9">
-        <v>102103</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA2E81-D44D-4A2E-AECA-D182B5D7BC40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.5" thickBot="1">
-      <c r="A6" s="9">
-        <v>102</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="9">
-        <v>102201</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34.5" thickBot="1">
-      <c r="A7" s="9">
-        <v>102</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9">
-        <v>102202</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.5" thickBot="1">
-      <c r="A8" s="9">
-        <v>102</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9">
-        <v>102203</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.5" thickBot="1">
-      <c r="A9" s="9">
-        <v>102</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9">
-        <v>102301</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0422A1-DF52-46D1-8CD6-B0941C3DE760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A8A40-CF71-4240-8186-FDD42D40C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>Level</t>
   </si>
@@ -359,6 +359,34 @@
   </si>
   <si>
     <t>Category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS_Basic</t>
+  </si>
+  <si>
+    <t>BH_Basic</t>
+  </si>
+  <si>
+    <t>Gordian_Wheel</t>
+  </si>
+  <si>
+    <t>Dragon_Hammer</t>
+  </si>
+  <si>
+    <t>Attraction_Field</t>
+  </si>
+  <si>
+    <t>Samsara</t>
+  </si>
+  <si>
+    <t>Naraka</t>
+  </si>
+  <si>
+    <t>PR_Basic</t>
+  </si>
+  <si>
+    <t>Skill_Name_Eng</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1062,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1075,7 +1103,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" thickBot="1">
+    <row r="1" spans="1:8" ht="34.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1097,8 +1125,11 @@
       <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" thickBot="1">
+      <c r="H1" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -1120,8 +1151,11 @@
       <c r="G2" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="34.5" thickBot="1">
+      <c r="H2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" thickBot="1">
       <c r="A3" s="6">
         <v>200</v>
       </c>
@@ -1143,8 +1177,11 @@
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="34.5" thickBot="1">
+      <c r="H3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" thickBot="1">
       <c r="A4" s="6">
         <v>201</v>
       </c>
@@ -1166,8 +1203,11 @@
       <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+      <c r="H4" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>202</v>
       </c>
@@ -1189,8 +1229,11 @@
       <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+      <c r="H5" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.5" thickBot="1">
       <c r="A6" s="6">
         <v>203</v>
       </c>
@@ -1212,8 +1255,11 @@
       <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+      <c r="H6" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.5" thickBot="1">
       <c r="A7" s="6">
         <v>231</v>
       </c>
@@ -1235,8 +1281,11 @@
       <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+      <c r="H7" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.5" thickBot="1">
       <c r="A8" s="6">
         <v>232</v>
       </c>
@@ -1258,8 +1307,11 @@
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+      <c r="H8" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>300</v>
       </c>
@@ -1280,6 +1332,9 @@
       </c>
       <c r="G9" s="9" t="s">
         <v>28</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -5100,7 +5155,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="A1:XFD1048576"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A8A40-CF71-4240-8186-FDD42D40C3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD51A6-D26F-4FD2-9A63-DD5B93E09490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1092,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
@@ -4719,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4753,7 +4753,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="19">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" s="19">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="19">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D3" s="19">
         <v>0</v>
@@ -4790,13 +4790,13 @@
         <v>201</v>
       </c>
       <c r="B4" s="19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C4" s="19">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D4" s="19">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E4" s="19">
         <v>0</v>
@@ -4833,10 +4833,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="19">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E6" s="19">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD51A6-D26F-4FD2-9A63-DD5B93E09490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75FF866-214F-4E1E-8257-BC34758940B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -617,9 +617,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4717,197 +4714,412 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A2" s="19">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A2" s="6">
         <v>100</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="6">
         <v>6</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="6">
         <v>42</v>
       </c>
-      <c r="D2" s="19">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A3" s="19">
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A3" s="6">
         <v>200</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="6">
         <v>11</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="6">
         <v>60</v>
       </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A4" s="19">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A4" s="6">
         <v>201</v>
       </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19">
-        <v>13</v>
-      </c>
-      <c r="D4" s="19">
-        <v>4</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A5" s="19">
+      <c r="B4" s="6">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A5" s="6">
         <v>202</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="6">
         <v>9</v>
       </c>
-      <c r="C5" s="19">
-        <v>0</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A6" s="19">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A6" s="6">
         <v>203</v>
       </c>
-      <c r="B6" s="19">
-        <v>7</v>
-      </c>
-      <c r="C6" s="19">
-        <v>8</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A7" s="19">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A7" s="6">
         <v>231</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="19">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A8" s="19">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A8" s="6">
         <v>232</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="6">
         <v>9</v>
       </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A9" s="19">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A9" s="6">
         <v>300</v>
       </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4921,63 +5133,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="27"/>
-    <col min="2" max="2" width="14" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="27" customWidth="1"/>
-    <col min="4" max="8" width="8.6640625" style="27"/>
-    <col min="9" max="9" width="13.4140625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="27" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="27" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="27"/>
+    <col min="1" max="1" width="8.6640625" style="26"/>
+    <col min="2" max="2" width="14" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="26" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" style="26"/>
+    <col min="9" max="9" width="13.4140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="26" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5160,14 +5372,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="27"/>
+    <col min="1" max="16384" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -5176,52 +5388,52 @@
       <c r="D1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>82</v>
       </c>
       <c r="U1" s="7"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75FF866-214F-4E1E-8257-BC34758940B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB7CA56-3745-4116-A634-C72952B5227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
   <si>
     <t>Level</t>
   </si>
@@ -388,6 +388,24 @@
   <si>
     <t>Skill_Name_Eng</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG - 15</t>
+  </si>
+  <si>
+    <t>PG_15</t>
+  </si>
+  <si>
+    <t>철갑 사격</t>
+  </si>
+  <si>
+    <t>APHE_Shoot</t>
+  </si>
+  <si>
+    <t>핀 포인트 다운</t>
+  </si>
+  <si>
+    <t>Pin_Point_Down</t>
   </si>
 </sst>
 </file>
@@ -532,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -555,11 +573,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -581,12 +610,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,6 +663,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="A10" sqref="A10:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1101,237 +1136,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="27" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A2" s="6">
+      <c r="A2" s="17">
         <v>100</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A3" s="6">
+      <c r="A3" s="17">
         <v>200</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A4" s="6">
+      <c r="A4" s="17">
         <v>201</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="17">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="17">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="17">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A5" s="6">
+      <c r="A5" s="17">
         <v>202</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="17">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="17">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A6" s="6">
+      <c r="A6" s="17">
         <v>203</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="17">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="18" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A7" s="6">
+      <c r="A7" s="17">
         <v>231</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="17">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A8" s="6">
+      <c r="A8" s="17">
         <v>232</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A9" s="6">
+      <c r="A9" s="17">
         <v>300</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="18" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A10" s="17">
+        <v>301</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A11" s="17">
+        <v>302</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34.5" thickBot="1">
+      <c r="A12" s="17">
+        <v>303</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1354,3357 +1467,3357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A2" s="19">
+      <c r="A2" s="17">
         <v>200021101</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19">
-        <v>0</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
-        <v>1</v>
-      </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19">
-        <v>0</v>
-      </c>
-      <c r="K2" s="19">
-        <v>0</v>
-      </c>
-      <c r="L2" s="19">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19">
-        <v>0</v>
-      </c>
-      <c r="N2" s="19">
-        <v>0</v>
-      </c>
-      <c r="O2" s="19">
-        <v>0</v>
-      </c>
-      <c r="P2" s="19">
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>200021102</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>1</v>
-      </c>
-      <c r="G3" s="19">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19">
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>201022101</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>0.5</v>
       </c>
-      <c r="F4" s="19">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="F4" s="17">
+        <v>1</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="17">
         <v>20</v>
       </c>
-      <c r="L4" s="19">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19">
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>201022102</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17">
         <v>1.75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>0.25</v>
       </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="17">
         <v>20</v>
       </c>
-      <c r="L5" s="19">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>0</v>
-      </c>
-      <c r="P5" s="19">
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>201022201</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
         <v>0.5</v>
       </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
         <v>18</v>
       </c>
-      <c r="L6" s="19">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="19">
-        <v>0</v>
-      </c>
-      <c r="O6" s="19">
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>201022202</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
         <v>1.75</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>0.25</v>
       </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
         <v>18</v>
       </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="19">
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <v>201022301</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>3</v>
       </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
         <v>0.5</v>
       </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="17">
         <v>16</v>
       </c>
-      <c r="L8" s="19">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0</v>
-      </c>
-      <c r="P8" s="19">
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>201022302</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>3</v>
       </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <v>1.75</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>0.25</v>
       </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="G9" s="17">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
         <v>16</v>
       </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0</v>
-      </c>
-      <c r="P9" s="19">
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>201022401</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>4</v>
       </c>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>0.5</v>
       </c>
-      <c r="F10" s="19">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="17">
         <v>14</v>
       </c>
-      <c r="L10" s="19">
-        <v>0</v>
-      </c>
-      <c r="M10" s="19">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19">
-        <v>0</v>
-      </c>
-      <c r="P10" s="19">
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>201022402</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>4</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
         <v>1.75</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>0.25</v>
       </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17">
         <v>14</v>
       </c>
-      <c r="L11" s="19">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19">
-        <v>0</v>
-      </c>
-      <c r="N11" s="19">
-        <v>0</v>
-      </c>
-      <c r="O11" s="19">
-        <v>0</v>
-      </c>
-      <c r="P11" s="19">
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>201022501</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>5</v>
       </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>0.5</v>
       </c>
-      <c r="F12" s="19">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19">
-        <v>0</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0</v>
-      </c>
-      <c r="K12" s="19">
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
         <v>12</v>
       </c>
-      <c r="L12" s="19">
-        <v>0</v>
-      </c>
-      <c r="M12" s="19">
-        <v>0</v>
-      </c>
-      <c r="N12" s="19">
-        <v>0</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0</v>
-      </c>
-      <c r="P12" s="19">
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>201022502</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>5</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
         <v>1.75</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>0.25</v>
       </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19">
-        <v>0</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0</v>
+      </c>
+      <c r="K13" s="17">
         <v>12</v>
       </c>
-      <c r="L13" s="19">
-        <v>0</v>
-      </c>
-      <c r="M13" s="19">
-        <v>0</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19">
-        <v>0</v>
-      </c>
-      <c r="P13" s="19">
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>201022111</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
         <v>0.7</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>0.1</v>
       </c>
-      <c r="G14" s="19">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
         <v>20</v>
       </c>
-      <c r="L14" s="19">
-        <v>0</v>
-      </c>
-      <c r="M14" s="19">
-        <v>0</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0</v>
-      </c>
-      <c r="O14" s="19">
-        <v>0</v>
-      </c>
-      <c r="P14" s="19">
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>201022112</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="19">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
         <v>2.25</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>0.25</v>
       </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19">
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17">
         <v>10</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="17">
         <v>20</v>
       </c>
-      <c r="L15" s="19">
-        <v>0</v>
-      </c>
-      <c r="M15" s="19">
-        <v>0</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="19">
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>201022211</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>2</v>
       </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
         <v>0.7</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>0.1</v>
       </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19">
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0</v>
+      </c>
+      <c r="K16" s="17">
         <v>18</v>
       </c>
-      <c r="L16" s="19">
-        <v>0</v>
-      </c>
-      <c r="M16" s="19">
-        <v>0</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0</v>
-      </c>
-      <c r="O16" s="19">
-        <v>0</v>
-      </c>
-      <c r="P16" s="19">
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>201022212</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>2</v>
       </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
         <v>2.25</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>0.25</v>
       </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19">
-        <v>0</v>
-      </c>
-      <c r="J17" s="19">
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
         <v>10</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="17">
         <v>18</v>
       </c>
-      <c r="L17" s="19">
-        <v>0</v>
-      </c>
-      <c r="M17" s="19">
-        <v>0</v>
-      </c>
-      <c r="N17" s="19">
-        <v>0</v>
-      </c>
-      <c r="O17" s="19">
-        <v>0</v>
-      </c>
-      <c r="P17" s="19">
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>201022311</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>3</v>
       </c>
-      <c r="D18" s="19">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
         <v>0.7</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>0.1</v>
       </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19">
-        <v>0</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
         <v>16</v>
       </c>
-      <c r="L18" s="19">
-        <v>0</v>
-      </c>
-      <c r="M18" s="19">
-        <v>0</v>
-      </c>
-      <c r="N18" s="19">
-        <v>0</v>
-      </c>
-      <c r="O18" s="19">
-        <v>0</v>
-      </c>
-      <c r="P18" s="19">
+      <c r="L18" s="17">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>201022312</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>3</v>
       </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
         <v>2.25</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>0.25</v>
       </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19">
-        <v>0</v>
-      </c>
-      <c r="J19" s="19">
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
         <v>10</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <v>16</v>
       </c>
-      <c r="L19" s="19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="19">
-        <v>0</v>
-      </c>
-      <c r="O19" s="19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="19">
+      <c r="L19" s="17">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>201022411</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>4</v>
       </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
         <v>0.7</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>0.1</v>
       </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19">
-        <v>0</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
         <v>14</v>
       </c>
-      <c r="L20" s="19">
-        <v>0</v>
-      </c>
-      <c r="M20" s="19">
-        <v>0</v>
-      </c>
-      <c r="N20" s="19">
-        <v>0</v>
-      </c>
-      <c r="O20" s="19">
-        <v>0</v>
-      </c>
-      <c r="P20" s="19">
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>201022412</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>4</v>
       </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
         <v>2.25</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>0.25</v>
       </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19">
-        <v>0</v>
-      </c>
-      <c r="J21" s="19">
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17">
         <v>10</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="17">
         <v>14</v>
       </c>
-      <c r="L21" s="19">
-        <v>0</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="19">
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
-        <v>0</v>
-      </c>
-      <c r="P21" s="19">
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>201022511</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>5</v>
       </c>
-      <c r="D22" s="19">
-        <v>1</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
         <v>0.7</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="17">
         <v>0.1</v>
       </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="19">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19">
-        <v>0</v>
-      </c>
-      <c r="J22" s="19">
-        <v>0</v>
-      </c>
-      <c r="K22" s="19">
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
         <v>12</v>
       </c>
-      <c r="L22" s="19">
-        <v>0</v>
-      </c>
-      <c r="M22" s="19">
-        <v>0</v>
-      </c>
-      <c r="N22" s="19">
-        <v>0</v>
-      </c>
-      <c r="O22" s="19">
-        <v>0</v>
-      </c>
-      <c r="P22" s="19">
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>201022512</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>5</v>
       </c>
-      <c r="D23" s="19">
-        <v>1</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
         <v>2.25</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="17">
         <v>0.25</v>
       </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
-        <v>0</v>
-      </c>
-      <c r="J23" s="19">
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
         <v>10</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="17">
         <v>12</v>
       </c>
-      <c r="L23" s="19">
-        <v>0</v>
-      </c>
-      <c r="M23" s="19">
-        <v>0</v>
-      </c>
-      <c r="N23" s="19">
-        <v>0</v>
-      </c>
-      <c r="O23" s="19">
-        <v>0</v>
-      </c>
-      <c r="P23" s="19">
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>201022121</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="19">
-        <v>1</v>
-      </c>
-      <c r="D24" s="19">
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17">
         <v>2</v>
       </c>
-      <c r="E24" s="19">
-        <v>1</v>
-      </c>
-      <c r="F24" s="19">
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17">
         <v>0.1</v>
       </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
-        <v>0</v>
-      </c>
-      <c r="K24" s="19">
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
         <v>20</v>
       </c>
-      <c r="L24" s="19">
-        <v>0</v>
-      </c>
-      <c r="M24" s="19">
-        <v>0</v>
-      </c>
-      <c r="N24" s="19">
-        <v>0</v>
-      </c>
-      <c r="O24" s="19">
-        <v>0</v>
-      </c>
-      <c r="P24" s="19">
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>201022122</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
-      <c r="D25" s="19">
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17">
         <v>2</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>2.75</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <v>0.25</v>
       </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="19">
-        <v>0</v>
-      </c>
-      <c r="J25" s="19">
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
         <v>10</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="17">
         <v>20</v>
       </c>
-      <c r="L25" s="19">
-        <v>0</v>
-      </c>
-      <c r="M25" s="19">
-        <v>0</v>
-      </c>
-      <c r="N25" s="19">
-        <v>0</v>
-      </c>
-      <c r="O25" s="19">
-        <v>0</v>
-      </c>
-      <c r="P25" s="19">
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="17">
+        <v>0</v>
+      </c>
+      <c r="P25" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>201022123</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="19">
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
         <v>2</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <v>2.75</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="17">
         <v>0.25</v>
       </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19">
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
         <v>10</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="17">
         <v>20</v>
       </c>
-      <c r="L26" s="19">
-        <v>0</v>
-      </c>
-      <c r="M26" s="19">
-        <v>0</v>
-      </c>
-      <c r="N26" s="19">
-        <v>0</v>
-      </c>
-      <c r="O26" s="19">
-        <v>0</v>
-      </c>
-      <c r="P26" s="19">
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="17">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>201022221</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>2</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="17">
         <v>2</v>
       </c>
-      <c r="E27" s="19">
-        <v>1</v>
-      </c>
-      <c r="F27" s="19">
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17">
         <v>0.1</v>
       </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="19">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>0</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="17">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>0</v>
+      </c>
+      <c r="K27" s="17">
         <v>18</v>
       </c>
-      <c r="L27" s="19">
-        <v>0</v>
-      </c>
-      <c r="M27" s="19">
-        <v>0</v>
-      </c>
-      <c r="N27" s="19">
-        <v>0</v>
-      </c>
-      <c r="O27" s="19">
-        <v>0</v>
-      </c>
-      <c r="P27" s="19">
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="17">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>201022222</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>2</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="17">
         <v>2.75</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="17">
         <v>0.25</v>
       </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="19">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19">
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
         <v>10</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="17">
         <v>18</v>
       </c>
-      <c r="L28" s="19">
-        <v>0</v>
-      </c>
-      <c r="M28" s="19">
-        <v>0</v>
-      </c>
-      <c r="N28" s="19">
-        <v>0</v>
-      </c>
-      <c r="O28" s="19">
-        <v>0</v>
-      </c>
-      <c r="P28" s="19">
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>201022223</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="17">
         <v>2</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <v>2</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="17">
         <v>2.75</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="17">
         <v>0.25</v>
       </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <v>1</v>
-      </c>
-      <c r="J29" s="19">
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
+      <c r="J29" s="17">
         <v>10</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="17">
         <v>18</v>
       </c>
-      <c r="L29" s="19">
-        <v>0</v>
-      </c>
-      <c r="M29" s="19">
-        <v>0</v>
-      </c>
-      <c r="N29" s="19">
-        <v>0</v>
-      </c>
-      <c r="O29" s="19">
-        <v>0</v>
-      </c>
-      <c r="P29" s="19">
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>0</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>201022321</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <v>3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <v>2</v>
       </c>
-      <c r="E30" s="19">
-        <v>1</v>
-      </c>
-      <c r="F30" s="19">
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17">
         <v>0.1</v>
       </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-      <c r="I30" s="19">
-        <v>0</v>
-      </c>
-      <c r="J30" s="19">
-        <v>0</v>
-      </c>
-      <c r="K30" s="19">
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
         <v>16</v>
       </c>
-      <c r="L30" s="19">
-        <v>0</v>
-      </c>
-      <c r="M30" s="19">
-        <v>0</v>
-      </c>
-      <c r="N30" s="19">
-        <v>0</v>
-      </c>
-      <c r="O30" s="19">
-        <v>0</v>
-      </c>
-      <c r="P30" s="19">
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>201022322</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="17">
         <v>3</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="17">
         <v>2</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="17">
         <v>2.75</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="17">
         <v>0.25</v>
       </c>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="19">
-        <v>0</v>
-      </c>
-      <c r="J31" s="19">
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
         <v>10</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="17">
         <v>16</v>
       </c>
-      <c r="L31" s="19">
-        <v>0</v>
-      </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-      <c r="N31" s="19">
-        <v>0</v>
-      </c>
-      <c r="O31" s="19">
-        <v>0</v>
-      </c>
-      <c r="P31" s="19">
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>201022323</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <v>3</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <v>2</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <v>2.75</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="17">
         <v>0.25</v>
       </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19">
-        <v>1</v>
-      </c>
-      <c r="J32" s="19">
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="17">
         <v>10</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="17">
         <v>16</v>
       </c>
-      <c r="L32" s="19">
-        <v>0</v>
-      </c>
-      <c r="M32" s="19">
-        <v>0</v>
-      </c>
-      <c r="N32" s="19">
-        <v>0</v>
-      </c>
-      <c r="O32" s="19">
-        <v>0</v>
-      </c>
-      <c r="P32" s="19">
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>201022421</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <v>4</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <v>2</v>
       </c>
-      <c r="E33" s="19">
-        <v>1</v>
-      </c>
-      <c r="F33" s="19">
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17">
         <v>0.1</v>
       </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="19">
-        <v>0</v>
-      </c>
-      <c r="I33" s="19">
-        <v>0</v>
-      </c>
-      <c r="J33" s="19">
-        <v>0</v>
-      </c>
-      <c r="K33" s="19">
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0</v>
+      </c>
+      <c r="J33" s="17">
+        <v>0</v>
+      </c>
+      <c r="K33" s="17">
         <v>14</v>
       </c>
-      <c r="L33" s="19">
-        <v>0</v>
-      </c>
-      <c r="M33" s="19">
-        <v>0</v>
-      </c>
-      <c r="N33" s="19">
-        <v>0</v>
-      </c>
-      <c r="O33" s="19">
-        <v>0</v>
-      </c>
-      <c r="P33" s="19">
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A34" s="19">
+      <c r="A34" s="17">
         <v>201022422</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="17">
         <v>4</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <v>2</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>2.75</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <v>0.25</v>
       </c>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
-      <c r="H34" s="19">
-        <v>0</v>
-      </c>
-      <c r="I34" s="19">
-        <v>0</v>
-      </c>
-      <c r="J34" s="19">
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
         <v>10</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="17">
         <v>14</v>
       </c>
-      <c r="L34" s="19">
-        <v>0</v>
-      </c>
-      <c r="M34" s="19">
-        <v>0</v>
-      </c>
-      <c r="N34" s="19">
-        <v>0</v>
-      </c>
-      <c r="O34" s="19">
-        <v>0</v>
-      </c>
-      <c r="P34" s="19">
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>0</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17">
+        <v>0</v>
+      </c>
+      <c r="P34" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>201022423</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="17">
         <v>4</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="17">
         <v>2</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>2.75</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="17">
         <v>0.25</v>
       </c>
-      <c r="G35" s="19">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19">
-        <v>0</v>
-      </c>
-      <c r="I35" s="19">
-        <v>1</v>
-      </c>
-      <c r="J35" s="19">
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17">
         <v>10</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="17">
         <v>14</v>
       </c>
-      <c r="L35" s="19">
-        <v>0</v>
-      </c>
-      <c r="M35" s="19">
-        <v>0</v>
-      </c>
-      <c r="N35" s="19">
-        <v>0</v>
-      </c>
-      <c r="O35" s="19">
-        <v>0</v>
-      </c>
-      <c r="P35" s="19">
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35" s="17">
+        <v>0</v>
+      </c>
+      <c r="P35" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>201022521</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="17">
         <v>5</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="17">
         <v>2</v>
       </c>
-      <c r="E36" s="19">
-        <v>1</v>
-      </c>
-      <c r="F36" s="19">
+      <c r="E36" s="17">
+        <v>1</v>
+      </c>
+      <c r="F36" s="17">
         <v>0.1</v>
       </c>
-      <c r="G36" s="19">
-        <v>1</v>
-      </c>
-      <c r="H36" s="19">
-        <v>0</v>
-      </c>
-      <c r="I36" s="19">
-        <v>0</v>
-      </c>
-      <c r="J36" s="19">
-        <v>0</v>
-      </c>
-      <c r="K36" s="19">
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0</v>
+      </c>
+      <c r="K36" s="17">
         <v>12</v>
       </c>
-      <c r="L36" s="19">
-        <v>0</v>
-      </c>
-      <c r="M36" s="19">
-        <v>0</v>
-      </c>
-      <c r="N36" s="19">
-        <v>0</v>
-      </c>
-      <c r="O36" s="19">
-        <v>0</v>
-      </c>
-      <c r="P36" s="19">
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>0</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="17">
+        <v>0</v>
+      </c>
+      <c r="P36" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>201022522</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="17">
         <v>5</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="17">
         <v>2</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <v>2.75</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="17">
         <v>0.25</v>
       </c>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
-      <c r="H37" s="19">
-        <v>0</v>
-      </c>
-      <c r="I37" s="19">
-        <v>0</v>
-      </c>
-      <c r="J37" s="19">
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
         <v>10</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="17">
         <v>12</v>
       </c>
-      <c r="L37" s="19">
-        <v>0</v>
-      </c>
-      <c r="M37" s="19">
-        <v>0</v>
-      </c>
-      <c r="N37" s="19">
-        <v>0</v>
-      </c>
-      <c r="O37" s="19">
-        <v>0</v>
-      </c>
-      <c r="P37" s="19">
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>0</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="17">
+        <v>0</v>
+      </c>
+      <c r="P37" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>201022523</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="17">
         <v>5</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="17">
         <v>2</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="17">
         <v>2.75</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="17">
         <v>0.25</v>
       </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19">
-        <v>1</v>
-      </c>
-      <c r="J38" s="19">
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
         <v>10</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="17">
         <v>12</v>
       </c>
-      <c r="L38" s="19">
-        <v>0</v>
-      </c>
-      <c r="M38" s="19">
-        <v>0</v>
-      </c>
-      <c r="N38" s="19">
-        <v>0</v>
-      </c>
-      <c r="O38" s="19">
-        <v>0</v>
-      </c>
-      <c r="P38" s="19">
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0</v>
+      </c>
+      <c r="P38" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>202022101</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="19">
-        <v>1</v>
-      </c>
-      <c r="D39" s="19">
-        <v>0</v>
-      </c>
-      <c r="E39" s="19">
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0</v>
+      </c>
+      <c r="E39" s="17">
         <v>1.85</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="17">
         <v>0.15</v>
       </c>
-      <c r="G39" s="19">
-        <v>0</v>
-      </c>
-      <c r="H39" s="19">
-        <v>0</v>
-      </c>
-      <c r="I39" s="19">
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
         <v>0.5</v>
       </c>
-      <c r="J39" s="19">
-        <v>0</v>
-      </c>
-      <c r="K39" s="19">
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
         <v>5</v>
       </c>
-      <c r="L39" s="19">
-        <v>0</v>
-      </c>
-      <c r="M39" s="19">
-        <v>0</v>
-      </c>
-      <c r="N39" s="19">
-        <v>0</v>
-      </c>
-      <c r="O39" s="19">
-        <v>0</v>
-      </c>
-      <c r="P39" s="19">
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+      <c r="O39" s="17">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A40" s="19">
+      <c r="A40" s="17">
         <v>202022201</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="17">
         <v>2</v>
       </c>
-      <c r="D40" s="19">
-        <v>0</v>
-      </c>
-      <c r="E40" s="19">
+      <c r="D40" s="17">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
         <v>1.85</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="17">
         <v>0.15</v>
       </c>
-      <c r="G40" s="19">
-        <v>0</v>
-      </c>
-      <c r="H40" s="19">
-        <v>0</v>
-      </c>
-      <c r="I40" s="19">
+      <c r="G40" s="17">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17">
         <v>0.5</v>
       </c>
-      <c r="J40" s="19">
-        <v>0</v>
-      </c>
-      <c r="K40" s="19">
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="K40" s="17">
         <v>4.5</v>
       </c>
-      <c r="L40" s="19">
-        <v>0</v>
-      </c>
-      <c r="M40" s="19">
-        <v>0</v>
-      </c>
-      <c r="N40" s="19">
-        <v>0</v>
-      </c>
-      <c r="O40" s="19">
-        <v>0</v>
-      </c>
-      <c r="P40" s="19">
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
+        <v>0</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40" s="17">
+        <v>0</v>
+      </c>
+      <c r="P40" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A41" s="19">
+      <c r="A41" s="17">
         <v>202022301</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="17">
         <v>3</v>
       </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="19">
+      <c r="D41" s="17">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
         <v>1.85</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="17">
         <v>0.15</v>
       </c>
-      <c r="G41" s="19">
-        <v>0</v>
-      </c>
-      <c r="H41" s="19">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19">
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17">
         <v>0.5</v>
       </c>
-      <c r="J41" s="19">
-        <v>0</v>
-      </c>
-      <c r="K41" s="19">
+      <c r="J41" s="17">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17">
         <v>4</v>
       </c>
-      <c r="L41" s="19">
-        <v>0</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0</v>
-      </c>
-      <c r="N41" s="19">
-        <v>0</v>
-      </c>
-      <c r="O41" s="19">
-        <v>0</v>
-      </c>
-      <c r="P41" s="19">
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41" s="17">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A42" s="19">
+      <c r="A42" s="17">
         <v>202022401</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="17">
         <v>4</v>
       </c>
-      <c r="D42" s="19">
-        <v>0</v>
-      </c>
-      <c r="E42" s="19">
+      <c r="D42" s="17">
+        <v>0</v>
+      </c>
+      <c r="E42" s="17">
         <v>1.85</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="17">
         <v>0.15</v>
       </c>
-      <c r="G42" s="19">
-        <v>0</v>
-      </c>
-      <c r="H42" s="19">
-        <v>0</v>
-      </c>
-      <c r="I42" s="19">
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17">
         <v>0.5</v>
       </c>
-      <c r="J42" s="19">
-        <v>0</v>
-      </c>
-      <c r="K42" s="19">
+      <c r="J42" s="17">
+        <v>0</v>
+      </c>
+      <c r="K42" s="17">
         <v>3.5</v>
       </c>
-      <c r="L42" s="19">
-        <v>0</v>
-      </c>
-      <c r="M42" s="19">
-        <v>0</v>
-      </c>
-      <c r="N42" s="19">
-        <v>0</v>
-      </c>
-      <c r="O42" s="19">
-        <v>0</v>
-      </c>
-      <c r="P42" s="19">
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="17">
+        <v>0</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="17">
+        <v>0</v>
+      </c>
+      <c r="P42" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A43" s="19">
+      <c r="A43" s="17">
         <v>202022501</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="17">
         <v>5</v>
       </c>
-      <c r="D43" s="19">
-        <v>0</v>
-      </c>
-      <c r="E43" s="19">
+      <c r="D43" s="17">
+        <v>0</v>
+      </c>
+      <c r="E43" s="17">
         <v>1.85</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="17">
         <v>0.15</v>
       </c>
-      <c r="G43" s="19">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19">
-        <v>0</v>
-      </c>
-      <c r="I43" s="19">
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0</v>
+      </c>
+      <c r="I43" s="17">
         <v>0.5</v>
       </c>
-      <c r="J43" s="19">
-        <v>0</v>
-      </c>
-      <c r="K43" s="19">
+      <c r="J43" s="17">
+        <v>0</v>
+      </c>
+      <c r="K43" s="17">
         <v>3</v>
       </c>
-      <c r="L43" s="19">
-        <v>0</v>
-      </c>
-      <c r="M43" s="19">
-        <v>0</v>
-      </c>
-      <c r="N43" s="19">
-        <v>0</v>
-      </c>
-      <c r="O43" s="19">
-        <v>0</v>
-      </c>
-      <c r="P43" s="19">
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43" s="17">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A44" s="19">
+      <c r="A44" s="17">
         <v>203022101</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="19">
-        <v>1</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0</v>
-      </c>
-      <c r="E44" s="19">
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
         <v>1.5</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="17">
         <v>0.2</v>
       </c>
-      <c r="G44" s="19">
-        <v>1</v>
-      </c>
-      <c r="H44" s="19">
-        <v>0</v>
-      </c>
-      <c r="I44" s="19">
-        <v>0</v>
-      </c>
-      <c r="J44" s="19">
-        <v>0</v>
-      </c>
-      <c r="K44" s="19">
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17">
+        <v>0</v>
+      </c>
+      <c r="J44" s="17">
+        <v>0</v>
+      </c>
+      <c r="K44" s="17">
         <v>13</v>
       </c>
-      <c r="L44" s="19">
-        <v>0</v>
-      </c>
-      <c r="M44" s="19">
-        <v>0</v>
-      </c>
-      <c r="N44" s="19">
-        <v>0</v>
-      </c>
-      <c r="O44" s="19">
-        <v>0</v>
-      </c>
-      <c r="P44" s="19">
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="17">
+        <v>0</v>
+      </c>
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A45" s="19">
+      <c r="A45" s="17">
         <v>203022102</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="19">
-        <v>1</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0</v>
-      </c>
-      <c r="E45" s="19">
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
         <v>0.7</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="17">
         <v>0.1</v>
       </c>
-      <c r="G45" s="19">
-        <v>1</v>
-      </c>
-      <c r="H45" s="19">
-        <v>0</v>
-      </c>
-      <c r="I45" s="19">
-        <v>0</v>
-      </c>
-      <c r="J45" s="19">
-        <v>0</v>
-      </c>
-      <c r="K45" s="19">
+      <c r="G45" s="17">
+        <v>1</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0</v>
+      </c>
+      <c r="I45" s="17">
+        <v>0</v>
+      </c>
+      <c r="J45" s="17">
+        <v>0</v>
+      </c>
+      <c r="K45" s="17">
         <v>13</v>
       </c>
-      <c r="L45" s="19">
-        <v>0</v>
-      </c>
-      <c r="M45" s="19">
-        <v>0</v>
-      </c>
-      <c r="N45" s="19">
-        <v>0</v>
-      </c>
-      <c r="O45" s="19">
-        <v>0</v>
-      </c>
-      <c r="P45" s="19">
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17">
+        <v>0</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+      <c r="O45" s="17">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A46" s="19">
+      <c r="A46" s="17">
         <v>203022103</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="19">
-        <v>1</v>
-      </c>
-      <c r="D46" s="19">
-        <v>0</v>
-      </c>
-      <c r="E46" s="19">
+      <c r="C46" s="17">
+        <v>1</v>
+      </c>
+      <c r="D46" s="17">
+        <v>0</v>
+      </c>
+      <c r="E46" s="17">
         <v>2</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="17">
         <v>0.2</v>
       </c>
-      <c r="G46" s="19">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19">
-        <v>1</v>
-      </c>
-      <c r="I46" s="19">
-        <v>0</v>
-      </c>
-      <c r="J46" s="19">
-        <v>0</v>
-      </c>
-      <c r="K46" s="19">
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1</v>
+      </c>
+      <c r="I46" s="17">
+        <v>0</v>
+      </c>
+      <c r="J46" s="17">
+        <v>0</v>
+      </c>
+      <c r="K46" s="17">
         <v>13</v>
       </c>
-      <c r="L46" s="19">
-        <v>0</v>
-      </c>
-      <c r="M46" s="19">
-        <v>0</v>
-      </c>
-      <c r="N46" s="19">
-        <v>0</v>
-      </c>
-      <c r="O46" s="19">
-        <v>0</v>
-      </c>
-      <c r="P46" s="19">
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="17">
+        <v>0</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46" s="17">
+        <v>0</v>
+      </c>
+      <c r="P46" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A47" s="19">
+      <c r="A47" s="17">
         <v>203022201</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="17">
         <v>2</v>
       </c>
-      <c r="D47" s="19">
-        <v>0</v>
-      </c>
-      <c r="E47" s="19">
+      <c r="D47" s="17">
+        <v>0</v>
+      </c>
+      <c r="E47" s="17">
         <v>1.5</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="17">
         <v>0.2</v>
       </c>
-      <c r="G47" s="19">
-        <v>1</v>
-      </c>
-      <c r="H47" s="19">
-        <v>0</v>
-      </c>
-      <c r="I47" s="19">
-        <v>0</v>
-      </c>
-      <c r="J47" s="19">
-        <v>0</v>
-      </c>
-      <c r="K47" s="19">
+      <c r="G47" s="17">
+        <v>1</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17">
         <v>12.5</v>
       </c>
-      <c r="L47" s="19">
-        <v>0</v>
-      </c>
-      <c r="M47" s="19">
-        <v>0</v>
-      </c>
-      <c r="N47" s="19">
-        <v>0</v>
-      </c>
-      <c r="O47" s="19">
-        <v>0</v>
-      </c>
-      <c r="P47" s="19">
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17">
+        <v>0</v>
+      </c>
+      <c r="O47" s="17">
+        <v>0</v>
+      </c>
+      <c r="P47" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A48" s="19">
+      <c r="A48" s="17">
         <v>203022202</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="17">
         <v>2</v>
       </c>
-      <c r="D48" s="19">
-        <v>0</v>
-      </c>
-      <c r="E48" s="19">
+      <c r="D48" s="17">
+        <v>0</v>
+      </c>
+      <c r="E48" s="17">
         <v>0.7</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="17">
         <v>0.1</v>
       </c>
-      <c r="G48" s="19">
-        <v>1</v>
-      </c>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="19">
-        <v>0</v>
-      </c>
-      <c r="J48" s="19">
-        <v>0</v>
-      </c>
-      <c r="K48" s="19">
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0</v>
+      </c>
+      <c r="I48" s="17">
+        <v>0</v>
+      </c>
+      <c r="J48" s="17">
+        <v>0</v>
+      </c>
+      <c r="K48" s="17">
         <v>12.5</v>
       </c>
-      <c r="L48" s="19">
-        <v>0</v>
-      </c>
-      <c r="M48" s="19">
-        <v>0</v>
-      </c>
-      <c r="N48" s="19">
-        <v>0</v>
-      </c>
-      <c r="O48" s="19">
-        <v>0</v>
-      </c>
-      <c r="P48" s="19">
+      <c r="L48" s="17">
+        <v>0</v>
+      </c>
+      <c r="M48" s="17">
+        <v>0</v>
+      </c>
+      <c r="N48" s="17">
+        <v>0</v>
+      </c>
+      <c r="O48" s="17">
+        <v>0</v>
+      </c>
+      <c r="P48" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A49" s="19">
+      <c r="A49" s="17">
         <v>203022203</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="17">
         <v>2</v>
       </c>
-      <c r="D49" s="19">
-        <v>0</v>
-      </c>
-      <c r="E49" s="19">
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="17">
         <v>2</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="17">
         <v>0.2</v>
       </c>
-      <c r="G49" s="19">
-        <v>0</v>
-      </c>
-      <c r="H49" s="19">
-        <v>1</v>
-      </c>
-      <c r="I49" s="19">
-        <v>0</v>
-      </c>
-      <c r="J49" s="19">
-        <v>0</v>
-      </c>
-      <c r="K49" s="19">
+      <c r="G49" s="17">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17">
+        <v>1</v>
+      </c>
+      <c r="I49" s="17">
+        <v>0</v>
+      </c>
+      <c r="J49" s="17">
+        <v>0</v>
+      </c>
+      <c r="K49" s="17">
         <v>12.5</v>
       </c>
-      <c r="L49" s="19">
-        <v>0</v>
-      </c>
-      <c r="M49" s="19">
-        <v>0</v>
-      </c>
-      <c r="N49" s="19">
-        <v>0</v>
-      </c>
-      <c r="O49" s="19">
-        <v>0</v>
-      </c>
-      <c r="P49" s="19">
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+      <c r="O49" s="17">
+        <v>0</v>
+      </c>
+      <c r="P49" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A50" s="19">
+      <c r="A50" s="17">
         <v>203022301</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="17">
         <v>3</v>
       </c>
-      <c r="D50" s="19">
-        <v>0</v>
-      </c>
-      <c r="E50" s="19">
+      <c r="D50" s="17">
+        <v>0</v>
+      </c>
+      <c r="E50" s="17">
         <v>1.5</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="17">
         <v>0.2</v>
       </c>
-      <c r="G50" s="19">
-        <v>1</v>
-      </c>
-      <c r="H50" s="19">
-        <v>0</v>
-      </c>
-      <c r="I50" s="19">
-        <v>0</v>
-      </c>
-      <c r="J50" s="19">
-        <v>0</v>
-      </c>
-      <c r="K50" s="19">
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17">
+        <v>0</v>
+      </c>
+      <c r="I50" s="17">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17">
+        <v>0</v>
+      </c>
+      <c r="K50" s="17">
         <v>12</v>
       </c>
-      <c r="L50" s="19">
-        <v>0</v>
-      </c>
-      <c r="M50" s="19">
-        <v>0</v>
-      </c>
-      <c r="N50" s="19">
-        <v>0</v>
-      </c>
-      <c r="O50" s="19">
-        <v>0</v>
-      </c>
-      <c r="P50" s="19">
+      <c r="L50" s="17">
+        <v>0</v>
+      </c>
+      <c r="M50" s="17">
+        <v>0</v>
+      </c>
+      <c r="N50" s="17">
+        <v>0</v>
+      </c>
+      <c r="O50" s="17">
+        <v>0</v>
+      </c>
+      <c r="P50" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A51" s="19">
+      <c r="A51" s="17">
         <v>203022302</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="17">
         <v>3</v>
       </c>
-      <c r="D51" s="19">
-        <v>0</v>
-      </c>
-      <c r="E51" s="19">
+      <c r="D51" s="17">
+        <v>0</v>
+      </c>
+      <c r="E51" s="17">
         <v>0.7</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="17">
         <v>0.1</v>
       </c>
-      <c r="G51" s="19">
-        <v>1</v>
-      </c>
-      <c r="H51" s="19">
-        <v>0</v>
-      </c>
-      <c r="I51" s="19">
-        <v>0</v>
-      </c>
-      <c r="J51" s="19">
-        <v>0</v>
-      </c>
-      <c r="K51" s="19">
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17">
+        <v>0</v>
+      </c>
+      <c r="J51" s="17">
+        <v>0</v>
+      </c>
+      <c r="K51" s="17">
         <v>12</v>
       </c>
-      <c r="L51" s="19">
-        <v>0</v>
-      </c>
-      <c r="M51" s="19">
-        <v>0</v>
-      </c>
-      <c r="N51" s="19">
-        <v>0</v>
-      </c>
-      <c r="O51" s="19">
-        <v>0</v>
-      </c>
-      <c r="P51" s="19">
+      <c r="L51" s="17">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+      <c r="O51" s="17">
+        <v>0</v>
+      </c>
+      <c r="P51" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A52" s="19">
+      <c r="A52" s="17">
         <v>203022303</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="17">
         <v>3</v>
       </c>
-      <c r="D52" s="19">
-        <v>0</v>
-      </c>
-      <c r="E52" s="19">
+      <c r="D52" s="17">
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
         <v>2</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="17">
         <v>0.2</v>
       </c>
-      <c r="G52" s="19">
-        <v>0</v>
-      </c>
-      <c r="H52" s="19">
-        <v>1</v>
-      </c>
-      <c r="I52" s="19">
-        <v>0</v>
-      </c>
-      <c r="J52" s="19">
-        <v>0</v>
-      </c>
-      <c r="K52" s="19">
+      <c r="G52" s="17">
+        <v>0</v>
+      </c>
+      <c r="H52" s="17">
+        <v>1</v>
+      </c>
+      <c r="I52" s="17">
+        <v>0</v>
+      </c>
+      <c r="J52" s="17">
+        <v>0</v>
+      </c>
+      <c r="K52" s="17">
         <v>12</v>
       </c>
-      <c r="L52" s="19">
-        <v>0</v>
-      </c>
-      <c r="M52" s="19">
-        <v>0</v>
-      </c>
-      <c r="N52" s="19">
-        <v>0</v>
-      </c>
-      <c r="O52" s="19">
-        <v>0</v>
-      </c>
-      <c r="P52" s="19">
+      <c r="L52" s="17">
+        <v>0</v>
+      </c>
+      <c r="M52" s="17">
+        <v>0</v>
+      </c>
+      <c r="N52" s="17">
+        <v>0</v>
+      </c>
+      <c r="O52" s="17">
+        <v>0</v>
+      </c>
+      <c r="P52" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A53" s="19">
+      <c r="A53" s="17">
         <v>203022401</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="17">
         <v>4</v>
       </c>
-      <c r="D53" s="19">
-        <v>0</v>
-      </c>
-      <c r="E53" s="19">
+      <c r="D53" s="17">
+        <v>0</v>
+      </c>
+      <c r="E53" s="17">
         <v>1.5</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="17">
         <v>0.2</v>
       </c>
-      <c r="G53" s="19">
-        <v>1</v>
-      </c>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
-      <c r="I53" s="19">
-        <v>0</v>
-      </c>
-      <c r="J53" s="19">
-        <v>0</v>
-      </c>
-      <c r="K53" s="19">
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17">
+        <v>0</v>
+      </c>
+      <c r="I53" s="17">
+        <v>0</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0</v>
+      </c>
+      <c r="K53" s="17">
         <v>11</v>
       </c>
-      <c r="L53" s="19">
-        <v>0</v>
-      </c>
-      <c r="M53" s="19">
-        <v>0</v>
-      </c>
-      <c r="N53" s="19">
-        <v>0</v>
-      </c>
-      <c r="O53" s="19">
-        <v>0</v>
-      </c>
-      <c r="P53" s="19">
+      <c r="L53" s="17">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0</v>
+      </c>
+      <c r="N53" s="17">
+        <v>0</v>
+      </c>
+      <c r="O53" s="17">
+        <v>0</v>
+      </c>
+      <c r="P53" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A54" s="19">
+      <c r="A54" s="17">
         <v>203022402</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="17">
         <v>4</v>
       </c>
-      <c r="D54" s="19">
-        <v>0</v>
-      </c>
-      <c r="E54" s="19">
+      <c r="D54" s="17">
+        <v>0</v>
+      </c>
+      <c r="E54" s="17">
         <v>0.7</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="17">
         <v>0.1</v>
       </c>
-      <c r="G54" s="19">
-        <v>1</v>
-      </c>
-      <c r="H54" s="19">
-        <v>0</v>
-      </c>
-      <c r="I54" s="19">
-        <v>0</v>
-      </c>
-      <c r="J54" s="19">
-        <v>0</v>
-      </c>
-      <c r="K54" s="19">
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="17">
+        <v>0</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0</v>
+      </c>
+      <c r="J54" s="17">
+        <v>0</v>
+      </c>
+      <c r="K54" s="17">
         <v>11</v>
       </c>
-      <c r="L54" s="19">
-        <v>0</v>
-      </c>
-      <c r="M54" s="19">
-        <v>0</v>
-      </c>
-      <c r="N54" s="19">
-        <v>0</v>
-      </c>
-      <c r="O54" s="19">
-        <v>0</v>
-      </c>
-      <c r="P54" s="19">
+      <c r="L54" s="17">
+        <v>0</v>
+      </c>
+      <c r="M54" s="17">
+        <v>0</v>
+      </c>
+      <c r="N54" s="17">
+        <v>0</v>
+      </c>
+      <c r="O54" s="17">
+        <v>0</v>
+      </c>
+      <c r="P54" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A55" s="19">
+      <c r="A55" s="17">
         <v>203022403</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="17">
         <v>4</v>
       </c>
-      <c r="D55" s="19">
-        <v>0</v>
-      </c>
-      <c r="E55" s="19">
+      <c r="D55" s="17">
+        <v>0</v>
+      </c>
+      <c r="E55" s="17">
         <v>2</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="17">
         <v>0.2</v>
       </c>
-      <c r="G55" s="19">
-        <v>0</v>
-      </c>
-      <c r="H55" s="19">
-        <v>1</v>
-      </c>
-      <c r="I55" s="19">
-        <v>0</v>
-      </c>
-      <c r="J55" s="19">
-        <v>0</v>
-      </c>
-      <c r="K55" s="19">
+      <c r="G55" s="17">
+        <v>0</v>
+      </c>
+      <c r="H55" s="17">
+        <v>1</v>
+      </c>
+      <c r="I55" s="17">
+        <v>0</v>
+      </c>
+      <c r="J55" s="17">
+        <v>0</v>
+      </c>
+      <c r="K55" s="17">
         <v>11</v>
       </c>
-      <c r="L55" s="19">
-        <v>0</v>
-      </c>
-      <c r="M55" s="19">
-        <v>0</v>
-      </c>
-      <c r="N55" s="19">
-        <v>0</v>
-      </c>
-      <c r="O55" s="19">
-        <v>0</v>
-      </c>
-      <c r="P55" s="19">
+      <c r="L55" s="17">
+        <v>0</v>
+      </c>
+      <c r="M55" s="17">
+        <v>0</v>
+      </c>
+      <c r="N55" s="17">
+        <v>0</v>
+      </c>
+      <c r="O55" s="17">
+        <v>0</v>
+      </c>
+      <c r="P55" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A56" s="19">
+      <c r="A56" s="17">
         <v>203022501</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="17">
         <v>5</v>
       </c>
-      <c r="D56" s="19">
-        <v>0</v>
-      </c>
-      <c r="E56" s="19">
+      <c r="D56" s="17">
+        <v>0</v>
+      </c>
+      <c r="E56" s="17">
         <v>1.5</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="17">
         <v>0.2</v>
       </c>
-      <c r="G56" s="19">
-        <v>1</v>
-      </c>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="19">
-        <v>0</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0</v>
-      </c>
-      <c r="K56" s="19">
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17">
+        <v>0</v>
+      </c>
+      <c r="I56" s="17">
+        <v>0</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0</v>
+      </c>
+      <c r="K56" s="17">
         <v>10</v>
       </c>
-      <c r="L56" s="19">
-        <v>0</v>
-      </c>
-      <c r="M56" s="19">
-        <v>0</v>
-      </c>
-      <c r="N56" s="19">
-        <v>0</v>
-      </c>
-      <c r="O56" s="19">
-        <v>0</v>
-      </c>
-      <c r="P56" s="19">
+      <c r="L56" s="17">
+        <v>0</v>
+      </c>
+      <c r="M56" s="17">
+        <v>0</v>
+      </c>
+      <c r="N56" s="17">
+        <v>0</v>
+      </c>
+      <c r="O56" s="17">
+        <v>0</v>
+      </c>
+      <c r="P56" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A57" s="19">
+      <c r="A57" s="17">
         <v>203022502</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="17">
         <v>5</v>
       </c>
-      <c r="D57" s="19">
-        <v>0</v>
-      </c>
-      <c r="E57" s="19">
+      <c r="D57" s="17">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17">
         <v>0.7</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="17">
         <v>0.1</v>
       </c>
-      <c r="G57" s="19">
-        <v>1</v>
-      </c>
-      <c r="H57" s="19">
-        <v>0</v>
-      </c>
-      <c r="I57" s="19">
-        <v>0</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0</v>
-      </c>
-      <c r="K57" s="19">
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0</v>
+      </c>
+      <c r="I57" s="17">
+        <v>0</v>
+      </c>
+      <c r="J57" s="17">
+        <v>0</v>
+      </c>
+      <c r="K57" s="17">
         <v>10</v>
       </c>
-      <c r="L57" s="19">
-        <v>0</v>
-      </c>
-      <c r="M57" s="19">
-        <v>0</v>
-      </c>
-      <c r="N57" s="19">
-        <v>0</v>
-      </c>
-      <c r="O57" s="19">
-        <v>0</v>
-      </c>
-      <c r="P57" s="19">
+      <c r="L57" s="17">
+        <v>0</v>
+      </c>
+      <c r="M57" s="17">
+        <v>0</v>
+      </c>
+      <c r="N57" s="17">
+        <v>0</v>
+      </c>
+      <c r="O57" s="17">
+        <v>0</v>
+      </c>
+      <c r="P57" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A58" s="19">
+      <c r="A58" s="17">
         <v>203022503</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="17">
         <v>5</v>
       </c>
-      <c r="D58" s="19">
-        <v>0</v>
-      </c>
-      <c r="E58" s="19">
+      <c r="D58" s="17">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
         <v>2</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="17">
         <v>0.2</v>
       </c>
-      <c r="G58" s="19">
-        <v>0</v>
-      </c>
-      <c r="H58" s="19">
-        <v>1</v>
-      </c>
-      <c r="I58" s="19">
-        <v>0</v>
-      </c>
-      <c r="J58" s="19">
-        <v>0</v>
-      </c>
-      <c r="K58" s="19">
+      <c r="G58" s="17">
+        <v>0</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1</v>
+      </c>
+      <c r="I58" s="17">
+        <v>0</v>
+      </c>
+      <c r="J58" s="17">
+        <v>0</v>
+      </c>
+      <c r="K58" s="17">
         <v>10</v>
       </c>
-      <c r="L58" s="19">
-        <v>0</v>
-      </c>
-      <c r="M58" s="19">
-        <v>0</v>
-      </c>
-      <c r="N58" s="19">
-        <v>0</v>
-      </c>
-      <c r="O58" s="19">
-        <v>0</v>
-      </c>
-      <c r="P58" s="19">
+      <c r="L58" s="17">
+        <v>0</v>
+      </c>
+      <c r="M58" s="17">
+        <v>0</v>
+      </c>
+      <c r="N58" s="17">
+        <v>0</v>
+      </c>
+      <c r="O58" s="17">
+        <v>0</v>
+      </c>
+      <c r="P58" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A59" s="19">
+      <c r="A59" s="17">
         <v>231023101</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="19">
-        <v>1</v>
-      </c>
-      <c r="D59" s="19">
-        <v>0</v>
-      </c>
-      <c r="E59" s="19">
-        <v>1</v>
-      </c>
-      <c r="F59" s="19">
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17">
+        <v>1</v>
+      </c>
+      <c r="F59" s="17">
         <v>0.33</v>
       </c>
-      <c r="G59" s="19">
-        <v>0</v>
-      </c>
-      <c r="H59" s="19">
-        <v>0</v>
-      </c>
-      <c r="I59" s="19">
+      <c r="G59" s="17">
+        <v>0</v>
+      </c>
+      <c r="H59" s="17">
+        <v>0</v>
+      </c>
+      <c r="I59" s="17">
         <v>0.5</v>
       </c>
-      <c r="J59" s="19">
-        <v>0</v>
-      </c>
-      <c r="K59" s="19">
-        <v>0</v>
-      </c>
-      <c r="L59" s="19">
+      <c r="J59" s="17">
+        <v>0</v>
+      </c>
+      <c r="K59" s="17">
+        <v>0</v>
+      </c>
+      <c r="L59" s="17">
         <v>60000</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M59" s="17">
         <v>1.5</v>
       </c>
-      <c r="N59" s="19">
-        <v>0</v>
-      </c>
-      <c r="O59" s="19">
-        <v>0</v>
-      </c>
-      <c r="P59" s="19">
+      <c r="N59" s="17">
+        <v>0</v>
+      </c>
+      <c r="O59" s="17">
+        <v>0</v>
+      </c>
+      <c r="P59" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A60" s="19">
+      <c r="A60" s="17">
         <v>231023201</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="17">
         <v>2</v>
       </c>
-      <c r="D60" s="19">
-        <v>0</v>
-      </c>
-      <c r="E60" s="19">
-        <v>1</v>
-      </c>
-      <c r="F60" s="19">
+      <c r="D60" s="17">
+        <v>0</v>
+      </c>
+      <c r="E60" s="17">
+        <v>1</v>
+      </c>
+      <c r="F60" s="17">
         <v>0.33</v>
       </c>
-      <c r="G60" s="19">
-        <v>0</v>
-      </c>
-      <c r="H60" s="19">
-        <v>0</v>
-      </c>
-      <c r="I60" s="19">
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0</v>
+      </c>
+      <c r="I60" s="17">
         <v>0.5</v>
       </c>
-      <c r="J60" s="19">
-        <v>0</v>
-      </c>
-      <c r="K60" s="19">
-        <v>0</v>
-      </c>
-      <c r="L60" s="19">
+      <c r="J60" s="17">
+        <v>0</v>
+      </c>
+      <c r="K60" s="17">
+        <v>0</v>
+      </c>
+      <c r="L60" s="17">
         <v>55000</v>
       </c>
-      <c r="M60" s="19">
+      <c r="M60" s="17">
         <v>1.5</v>
       </c>
-      <c r="N60" s="19">
-        <v>0</v>
-      </c>
-      <c r="O60" s="19">
-        <v>0</v>
-      </c>
-      <c r="P60" s="19">
+      <c r="N60" s="17">
+        <v>0</v>
+      </c>
+      <c r="O60" s="17">
+        <v>0</v>
+      </c>
+      <c r="P60" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A61" s="19">
+      <c r="A61" s="17">
         <v>231023301</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="17">
         <v>3</v>
       </c>
-      <c r="D61" s="19">
-        <v>0</v>
-      </c>
-      <c r="E61" s="19">
-        <v>1</v>
-      </c>
-      <c r="F61" s="19">
+      <c r="D61" s="17">
+        <v>0</v>
+      </c>
+      <c r="E61" s="17">
+        <v>1</v>
+      </c>
+      <c r="F61" s="17">
         <v>0.33</v>
       </c>
-      <c r="G61" s="19">
-        <v>0</v>
-      </c>
-      <c r="H61" s="19">
-        <v>0</v>
-      </c>
-      <c r="I61" s="19">
+      <c r="G61" s="17">
+        <v>0</v>
+      </c>
+      <c r="H61" s="17">
+        <v>0</v>
+      </c>
+      <c r="I61" s="17">
         <v>0.5</v>
       </c>
-      <c r="J61" s="19">
-        <v>0</v>
-      </c>
-      <c r="K61" s="19">
-        <v>0</v>
-      </c>
-      <c r="L61" s="19">
+      <c r="J61" s="17">
+        <v>0</v>
+      </c>
+      <c r="K61" s="17">
+        <v>0</v>
+      </c>
+      <c r="L61" s="17">
         <v>50000</v>
       </c>
-      <c r="M61" s="19">
+      <c r="M61" s="17">
         <v>1.5</v>
       </c>
-      <c r="N61" s="19">
-        <v>0</v>
-      </c>
-      <c r="O61" s="19">
-        <v>0</v>
-      </c>
-      <c r="P61" s="19">
+      <c r="N61" s="17">
+        <v>0</v>
+      </c>
+      <c r="O61" s="17">
+        <v>0</v>
+      </c>
+      <c r="P61" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A62" s="19">
+      <c r="A62" s="17">
         <v>232023101</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="19">
-        <v>1</v>
-      </c>
-      <c r="D62" s="19">
-        <v>0</v>
-      </c>
-      <c r="E62" s="19">
-        <v>1</v>
-      </c>
-      <c r="F62" s="19">
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1</v>
+      </c>
+      <c r="F62" s="17">
         <v>0.33</v>
       </c>
-      <c r="G62" s="19">
-        <v>1</v>
-      </c>
-      <c r="H62" s="19">
-        <v>0</v>
-      </c>
-      <c r="I62" s="19">
-        <v>0</v>
-      </c>
-      <c r="J62" s="19">
-        <v>0</v>
-      </c>
-      <c r="K62" s="19">
-        <v>0</v>
-      </c>
-      <c r="L62" s="19">
-        <v>0</v>
-      </c>
-      <c r="M62" s="19">
-        <v>0</v>
-      </c>
-      <c r="N62" s="19">
-        <v>0</v>
-      </c>
-      <c r="O62" s="19">
-        <v>0</v>
-      </c>
-      <c r="P62" s="19">
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17">
+        <v>0</v>
+      </c>
+      <c r="J62" s="17">
+        <v>0</v>
+      </c>
+      <c r="K62" s="17">
+        <v>0</v>
+      </c>
+      <c r="L62" s="17">
+        <v>0</v>
+      </c>
+      <c r="M62" s="17">
+        <v>0</v>
+      </c>
+      <c r="N62" s="17">
+        <v>0</v>
+      </c>
+      <c r="O62" s="17">
+        <v>0</v>
+      </c>
+      <c r="P62" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A63" s="19">
+      <c r="A63" s="17">
         <v>232023102</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="19">
-        <v>1</v>
-      </c>
-      <c r="D63" s="19">
-        <v>0</v>
-      </c>
-      <c r="E63" s="19">
+      <c r="C63" s="17">
+        <v>1</v>
+      </c>
+      <c r="D63" s="17">
+        <v>0</v>
+      </c>
+      <c r="E63" s="17">
         <v>9.5</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63" s="17">
         <v>0.5</v>
       </c>
-      <c r="G63" s="19">
-        <v>0</v>
-      </c>
-      <c r="H63" s="19">
+      <c r="G63" s="17">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17">
         <v>2</v>
       </c>
-      <c r="I63" s="19">
-        <v>0</v>
-      </c>
-      <c r="J63" s="19">
-        <v>0</v>
-      </c>
-      <c r="K63" s="19">
-        <v>0</v>
-      </c>
-      <c r="L63" s="19">
-        <v>0</v>
-      </c>
-      <c r="M63" s="19">
-        <v>0</v>
-      </c>
-      <c r="N63" s="19">
-        <v>0</v>
-      </c>
-      <c r="O63" s="19">
-        <v>0</v>
-      </c>
-      <c r="P63" s="19">
+      <c r="I63" s="17">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17">
+        <v>0</v>
+      </c>
+      <c r="K63" s="17">
+        <v>0</v>
+      </c>
+      <c r="L63" s="17">
+        <v>0</v>
+      </c>
+      <c r="M63" s="17">
+        <v>0</v>
+      </c>
+      <c r="N63" s="17">
+        <v>0</v>
+      </c>
+      <c r="O63" s="17">
+        <v>0</v>
+      </c>
+      <c r="P63" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A64" s="19">
+      <c r="A64" s="17">
         <v>232023201</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="17">
         <v>2</v>
       </c>
-      <c r="D64" s="19">
-        <v>0</v>
-      </c>
-      <c r="E64" s="19">
-        <v>1</v>
-      </c>
-      <c r="F64" s="19">
+      <c r="D64" s="17">
+        <v>0</v>
+      </c>
+      <c r="E64" s="17">
+        <v>1</v>
+      </c>
+      <c r="F64" s="17">
         <v>0.33</v>
       </c>
-      <c r="G64" s="19">
-        <v>1</v>
-      </c>
-      <c r="H64" s="19">
-        <v>0</v>
-      </c>
-      <c r="I64" s="19">
-        <v>0</v>
-      </c>
-      <c r="J64" s="19">
-        <v>0</v>
-      </c>
-      <c r="K64" s="19">
-        <v>0</v>
-      </c>
-      <c r="L64" s="19">
-        <v>0</v>
-      </c>
-      <c r="M64" s="19">
-        <v>0</v>
-      </c>
-      <c r="N64" s="19">
-        <v>0</v>
-      </c>
-      <c r="O64" s="19">
-        <v>0</v>
-      </c>
-      <c r="P64" s="19">
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0</v>
+      </c>
+      <c r="I64" s="17">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
+        <v>0</v>
+      </c>
+      <c r="K64" s="17">
+        <v>0</v>
+      </c>
+      <c r="L64" s="17">
+        <v>0</v>
+      </c>
+      <c r="M64" s="17">
+        <v>0</v>
+      </c>
+      <c r="N64" s="17">
+        <v>0</v>
+      </c>
+      <c r="O64" s="17">
+        <v>0</v>
+      </c>
+      <c r="P64" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A65" s="19">
+      <c r="A65" s="17">
         <v>232023202</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="19">
+      <c r="C65" s="17">
         <v>2</v>
       </c>
-      <c r="D65" s="19">
-        <v>0</v>
-      </c>
-      <c r="E65" s="19">
+      <c r="D65" s="17">
+        <v>0</v>
+      </c>
+      <c r="E65" s="17">
         <v>9.5</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65" s="17">
         <v>0.5</v>
       </c>
-      <c r="G65" s="19">
-        <v>0</v>
-      </c>
-      <c r="H65" s="19">
+      <c r="G65" s="17">
+        <v>0</v>
+      </c>
+      <c r="H65" s="17">
         <v>2</v>
       </c>
-      <c r="I65" s="19">
-        <v>0</v>
-      </c>
-      <c r="J65" s="19">
-        <v>0</v>
-      </c>
-      <c r="K65" s="19">
-        <v>0</v>
-      </c>
-      <c r="L65" s="19">
-        <v>0</v>
-      </c>
-      <c r="M65" s="19">
-        <v>0</v>
-      </c>
-      <c r="N65" s="19">
-        <v>0</v>
-      </c>
-      <c r="O65" s="19">
-        <v>0</v>
-      </c>
-      <c r="P65" s="19">
+      <c r="I65" s="17">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17">
+        <v>0</v>
+      </c>
+      <c r="K65" s="17">
+        <v>0</v>
+      </c>
+      <c r="L65" s="17">
+        <v>0</v>
+      </c>
+      <c r="M65" s="17">
+        <v>0</v>
+      </c>
+      <c r="N65" s="17">
+        <v>0</v>
+      </c>
+      <c r="O65" s="17">
+        <v>0</v>
+      </c>
+      <c r="P65" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A66" s="19">
+      <c r="A66" s="17">
         <v>232023301</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="17">
         <v>3</v>
       </c>
-      <c r="D66" s="19">
-        <v>0</v>
-      </c>
-      <c r="E66" s="19">
-        <v>1</v>
-      </c>
-      <c r="F66" s="19">
+      <c r="D66" s="17">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17">
+        <v>1</v>
+      </c>
+      <c r="F66" s="17">
         <v>0.33</v>
       </c>
-      <c r="G66" s="19">
-        <v>1</v>
-      </c>
-      <c r="H66" s="19">
-        <v>0</v>
-      </c>
-      <c r="I66" s="19">
-        <v>0</v>
-      </c>
-      <c r="J66" s="19">
-        <v>0</v>
-      </c>
-      <c r="K66" s="19">
-        <v>0</v>
-      </c>
-      <c r="L66" s="19">
-        <v>0</v>
-      </c>
-      <c r="M66" s="19">
-        <v>0</v>
-      </c>
-      <c r="N66" s="19">
-        <v>0</v>
-      </c>
-      <c r="O66" s="19">
-        <v>0</v>
-      </c>
-      <c r="P66" s="19">
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17">
+        <v>0</v>
+      </c>
+      <c r="I66" s="17">
+        <v>0</v>
+      </c>
+      <c r="J66" s="17">
+        <v>0</v>
+      </c>
+      <c r="K66" s="17">
+        <v>0</v>
+      </c>
+      <c r="L66" s="17">
+        <v>0</v>
+      </c>
+      <c r="M66" s="17">
+        <v>0</v>
+      </c>
+      <c r="N66" s="17">
+        <v>0</v>
+      </c>
+      <c r="O66" s="17">
+        <v>0</v>
+      </c>
+      <c r="P66" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A67" s="19">
+      <c r="A67" s="17">
         <v>232023302</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="17">
         <v>3</v>
       </c>
-      <c r="D67" s="19">
-        <v>0</v>
-      </c>
-      <c r="E67" s="19">
+      <c r="D67" s="17">
+        <v>0</v>
+      </c>
+      <c r="E67" s="17">
         <v>9.5</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="17">
         <v>0.5</v>
       </c>
-      <c r="G67" s="19">
-        <v>0</v>
-      </c>
-      <c r="H67" s="19">
+      <c r="G67" s="17">
+        <v>0</v>
+      </c>
+      <c r="H67" s="17">
         <v>2</v>
       </c>
-      <c r="I67" s="19">
-        <v>0</v>
-      </c>
-      <c r="J67" s="19">
-        <v>0</v>
-      </c>
-      <c r="K67" s="19">
-        <v>0</v>
-      </c>
-      <c r="L67" s="19">
-        <v>0</v>
-      </c>
-      <c r="M67" s="19">
-        <v>0</v>
-      </c>
-      <c r="N67" s="19">
-        <v>0</v>
-      </c>
-      <c r="O67" s="19">
-        <v>0</v>
-      </c>
-      <c r="P67" s="19">
+      <c r="I67" s="17">
+        <v>0</v>
+      </c>
+      <c r="J67" s="17">
+        <v>0</v>
+      </c>
+      <c r="K67" s="17">
+        <v>0</v>
+      </c>
+      <c r="L67" s="17">
+        <v>0</v>
+      </c>
+      <c r="M67" s="17">
+        <v>0</v>
+      </c>
+      <c r="N67" s="17">
+        <v>0</v>
+      </c>
+      <c r="O67" s="17">
+        <v>0</v>
+      </c>
+      <c r="P67" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="17.5" thickBot="1">
-      <c r="N68" s="19"/>
+      <c r="N68" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4717,7 +4830,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -4741,11 +4854,11 @@
       <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="17.5" thickBot="1">
       <c r="A2" s="6">
@@ -4766,11 +4879,11 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="17.5" thickBot="1">
       <c r="A3" s="6">
@@ -4791,11 +4904,11 @@
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="17.5" thickBot="1">
       <c r="A4" s="6">
@@ -4816,11 +4929,11 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="17.5" thickBot="1">
       <c r="A5" s="6">
@@ -4841,11 +4954,11 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="17.5" thickBot="1">
       <c r="A6" s="6">
@@ -4866,11 +4979,11 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="17.5" thickBot="1">
       <c r="A7" s="6">
@@ -4891,11 +5004,11 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:11" ht="17.5" thickBot="1">
       <c r="A8" s="6">
@@ -4916,11 +5029,11 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="17.5" thickBot="1">
       <c r="A9" s="6">
@@ -4941,180 +5054,216 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A10" s="17">
+        <v>301</v>
+      </c>
+      <c r="B10" s="30">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A11" s="17">
+        <v>302</v>
+      </c>
+      <c r="B11" s="30">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A12" s="17">
+        <v>303</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5133,63 +5282,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="26"/>
-    <col min="2" max="2" width="14" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="26" customWidth="1"/>
-    <col min="4" max="8" width="8.6640625" style="26"/>
-    <col min="9" max="9" width="13.4140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="26" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="26"/>
+    <col min="1" max="1" width="8.6640625" style="24"/>
+    <col min="2" max="2" width="14" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="24" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" style="24"/>
+    <col min="9" max="9" width="13.4140625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="26" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5372,14 +5521,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="26"/>
+    <col min="1" max="16384" width="8.6640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -5388,52 +5537,52 @@
       <c r="D1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="23" t="s">
         <v>82</v>
       </c>
       <c r="U1" s="7"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB7CA56-3745-4116-A634-C72952B5227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C055F95A-E8B7-42CF-ACB2-4784183DBAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
   <si>
     <t>Level</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Pin_Point_Down</t>
+  </si>
+  <si>
+    <t>Move, Invincible, CC</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -610,30 +613,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -673,8 +652,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,314 +1133,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A2" s="17">
+      <c r="A2" s="9">
         <v>100</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
-        <v>1</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>200</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>201</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>202</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>203</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>231</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>232</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>300</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>301</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="9">
         <v>5</v>
       </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A11" s="17">
+      <c r="A11" s="9">
         <v>302</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="9">
         <v>5</v>
       </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A12" s="17">
+      <c r="A12" s="9">
         <v>303</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="9">
         <v>2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="9">
         <v>5</v>
       </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1455,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A68" sqref="A1:P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1467,3361 +1464,3909 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A2" s="17">
+      <c r="A2" s="6">
         <v>200021101</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
-        <v>0</v>
-      </c>
-      <c r="M2" s="17">
-        <v>0</v>
-      </c>
-      <c r="N2" s="17">
-        <v>0</v>
-      </c>
-      <c r="O2" s="17">
-        <v>0</v>
-      </c>
-      <c r="P2" s="17">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A3" s="17">
+      <c r="A3" s="6">
         <v>200021102</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17">
-        <v>1</v>
-      </c>
-      <c r="H3" s="17">
-        <v>0</v>
-      </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0</v>
-      </c>
-      <c r="L3" s="17">
-        <v>0</v>
-      </c>
-      <c r="M3" s="17">
-        <v>0</v>
-      </c>
-      <c r="N3" s="17">
-        <v>0</v>
-      </c>
-      <c r="O3" s="17">
-        <v>0</v>
-      </c>
-      <c r="P3" s="17">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A4" s="17">
+      <c r="A4" s="6">
         <v>201022101</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="17">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.5</v>
       </c>
-      <c r="F4" s="17">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17">
-        <v>1</v>
-      </c>
-      <c r="H4" s="17">
-        <v>0</v>
-      </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>20</v>
       </c>
-      <c r="L4" s="17">
-        <v>0</v>
-      </c>
-      <c r="M4" s="17">
-        <v>0</v>
-      </c>
-      <c r="N4" s="17">
-        <v>0</v>
-      </c>
-      <c r="O4" s="17">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A5" s="17">
+      <c r="A5" s="6">
         <v>201022102</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
         <v>1.75</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="6">
         <v>0.25</v>
       </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>20</v>
       </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="17">
-        <v>0</v>
-      </c>
-      <c r="N5" s="17">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A6" s="17">
+      <c r="A6" s="6">
         <v>201022201</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.5</v>
       </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>18</v>
       </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A7" s="17">
+      <c r="A7" s="6">
         <v>201022202</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
         <v>1.75</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="6">
         <v>0.25</v>
       </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>18</v>
       </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A8" s="17">
+      <c r="A8" s="6">
         <v>201022301</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.5</v>
       </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>16</v>
       </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A9" s="17">
+      <c r="A9" s="6">
         <v>201022302</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
         <v>1.75</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="6">
         <v>0.25</v>
       </c>
-      <c r="G9" s="17">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>16</v>
       </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A10" s="17">
+      <c r="A10" s="6">
         <v>201022401</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.5</v>
       </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
         <v>14</v>
       </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17">
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A11" s="17">
+      <c r="A11" s="6">
         <v>201022402</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>1.75</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="6">
         <v>0.25</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>14</v>
       </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0</v>
-      </c>
-      <c r="N11" s="17">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A12" s="17">
+      <c r="A12" s="6">
         <v>201022501</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>0.5</v>
       </c>
-      <c r="F12" s="17">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>12</v>
       </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A13" s="17">
+      <c r="A13" s="6">
         <v>201022502</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>1.75</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="6">
         <v>0.25</v>
       </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0</v>
-      </c>
-      <c r="K13" s="17">
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
         <v>12</v>
       </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A14" s="17">
+      <c r="A14" s="6">
         <v>201022111</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="17">
-        <v>1</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
         <v>0.7</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="6">
         <v>0.1</v>
       </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>20</v>
       </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0</v>
-      </c>
-      <c r="N14" s="17">
-        <v>0</v>
-      </c>
-      <c r="O14" s="17">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A15" s="17">
+      <c r="A15" s="6">
         <v>201022112</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="17">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
         <v>2.25</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="6">
         <v>0.25</v>
       </c>
-      <c r="G15" s="17">
-        <v>1</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>10</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="6">
         <v>20</v>
       </c>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0</v>
-      </c>
-      <c r="N15" s="17">
-        <v>0</v>
-      </c>
-      <c r="O15" s="17">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A16" s="17">
+      <c r="A16" s="6">
         <v>201022211</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="17">
-        <v>1</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.7</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="6">
         <v>0.1</v>
       </c>
-      <c r="G16" s="17">
-        <v>1</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
         <v>18</v>
       </c>
-      <c r="L16" s="17">
-        <v>0</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0</v>
-      </c>
-      <c r="N16" s="17">
-        <v>0</v>
-      </c>
-      <c r="O16" s="17">
-        <v>0</v>
-      </c>
-      <c r="P16" s="17">
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A17" s="17">
+      <c r="A17" s="6">
         <v>201022212</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
         <v>2.25</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="6">
         <v>0.25</v>
       </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
         <v>10</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="6">
         <v>18</v>
       </c>
-      <c r="L17" s="17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A18" s="17">
+      <c r="A18" s="6">
         <v>201022311</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.7</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="6">
         <v>0.1</v>
       </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
         <v>16</v>
       </c>
-      <c r="L18" s="17">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17">
-        <v>0</v>
-      </c>
-      <c r="N18" s="17">
-        <v>0</v>
-      </c>
-      <c r="O18" s="17">
-        <v>0</v>
-      </c>
-      <c r="P18" s="17">
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A19" s="17">
+      <c r="A19" s="6">
         <v>201022312</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="6">
         <v>3</v>
       </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
         <v>2.25</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="6">
         <v>0.25</v>
       </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
         <v>10</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="6">
         <v>16</v>
       </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A20" s="17">
+      <c r="A20" s="6">
         <v>201022411</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
         <v>0.7</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="6">
         <v>0.1</v>
       </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
         <v>14</v>
       </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0</v>
-      </c>
-      <c r="N20" s="17">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A21" s="17">
+      <c r="A21" s="6">
         <v>201022412</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="6">
         <v>4</v>
       </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
         <v>2.25</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="6">
         <v>0.25</v>
       </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>10</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="6">
         <v>14</v>
       </c>
-      <c r="L21" s="17">
-        <v>0</v>
-      </c>
-      <c r="M21" s="17">
-        <v>0</v>
-      </c>
-      <c r="N21" s="17">
-        <v>0</v>
-      </c>
-      <c r="O21" s="17">
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A22" s="17">
+      <c r="A22" s="6">
         <v>201022511</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="6">
         <v>5</v>
       </c>
-      <c r="D22" s="17">
-        <v>1</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <v>0.7</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="6">
         <v>0.1</v>
       </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
         <v>12</v>
       </c>
-      <c r="L22" s="17">
-        <v>0</v>
-      </c>
-      <c r="M22" s="17">
-        <v>0</v>
-      </c>
-      <c r="N22" s="17">
-        <v>0</v>
-      </c>
-      <c r="O22" s="17">
-        <v>0</v>
-      </c>
-      <c r="P22" s="17">
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A23" s="17">
+      <c r="A23" s="6">
         <v>201022512</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="D23" s="17">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
         <v>2.25</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="6">
         <v>0.25</v>
       </c>
-      <c r="G23" s="17">
-        <v>1</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
         <v>10</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="6">
         <v>12</v>
       </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
-        <v>0</v>
-      </c>
-      <c r="N23" s="17">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17">
-        <v>0</v>
-      </c>
-      <c r="P23" s="17">
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A24" s="17">
+      <c r="A24" s="6">
         <v>201022121</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="17">
-        <v>1</v>
-      </c>
-      <c r="D24" s="17">
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="17">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
         <v>0.1</v>
       </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
         <v>20</v>
       </c>
-      <c r="L24" s="17">
-        <v>0</v>
-      </c>
-      <c r="M24" s="17">
-        <v>0</v>
-      </c>
-      <c r="N24" s="17">
-        <v>0</v>
-      </c>
-      <c r="O24" s="17">
-        <v>0</v>
-      </c>
-      <c r="P24" s="17">
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A25" s="17">
+      <c r="A25" s="6">
         <v>201022122</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="17">
-        <v>1</v>
-      </c>
-      <c r="D25" s="17">
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="6">
         <v>2.75</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="6">
         <v>0.25</v>
       </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
         <v>10</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="6">
         <v>20</v>
       </c>
-      <c r="L25" s="17">
-        <v>0</v>
-      </c>
-      <c r="M25" s="17">
-        <v>0</v>
-      </c>
-      <c r="N25" s="17">
-        <v>0</v>
-      </c>
-      <c r="O25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="17">
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A26" s="17">
+      <c r="A26" s="6">
         <v>201022123</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="17">
-        <v>1</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="6">
         <v>2.75</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="6">
         <v>0.25</v>
       </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>1</v>
-      </c>
-      <c r="J26" s="17">
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
         <v>10</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="6">
         <v>20</v>
       </c>
-      <c r="L26" s="17">
-        <v>0</v>
-      </c>
-      <c r="M26" s="17">
-        <v>0</v>
-      </c>
-      <c r="N26" s="17">
-        <v>0</v>
-      </c>
-      <c r="O26" s="17">
-        <v>0</v>
-      </c>
-      <c r="P26" s="17">
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A27" s="17">
+      <c r="A27" s="6">
         <v>201022221</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="6">
         <v>2</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="6">
         <v>2</v>
       </c>
-      <c r="E27" s="17">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17">
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
         <v>0.1</v>
       </c>
-      <c r="G27" s="17">
-        <v>1</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="17">
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
         <v>18</v>
       </c>
-      <c r="L27" s="17">
-        <v>0</v>
-      </c>
-      <c r="M27" s="17">
-        <v>0</v>
-      </c>
-      <c r="N27" s="17">
-        <v>0</v>
-      </c>
-      <c r="O27" s="17">
-        <v>0</v>
-      </c>
-      <c r="P27" s="17">
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A28" s="17">
+      <c r="A28" s="6">
         <v>201022222</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="6">
         <v>2</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="6">
         <v>2</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="6">
         <v>2.75</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="6">
         <v>0.25</v>
       </c>
-      <c r="G28" s="17">
-        <v>1</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
         <v>10</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="6">
         <v>18</v>
       </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
-      <c r="M28" s="17">
-        <v>0</v>
-      </c>
-      <c r="N28" s="17">
-        <v>0</v>
-      </c>
-      <c r="O28" s="17">
-        <v>0</v>
-      </c>
-      <c r="P28" s="17">
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A29" s="17">
+      <c r="A29" s="6">
         <v>201022223</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="6">
         <v>2</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="6">
         <v>2</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="6">
         <v>2.75</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="6">
         <v>0.25</v>
       </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>1</v>
-      </c>
-      <c r="J29" s="17">
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
         <v>10</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="6">
         <v>18</v>
       </c>
-      <c r="L29" s="17">
-        <v>0</v>
-      </c>
-      <c r="M29" s="17">
-        <v>0</v>
-      </c>
-      <c r="N29" s="17">
-        <v>0</v>
-      </c>
-      <c r="O29" s="17">
-        <v>0</v>
-      </c>
-      <c r="P29" s="17">
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A30" s="17">
+      <c r="A30" s="6">
         <v>201022321</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="6">
         <v>2</v>
       </c>
-      <c r="E30" s="17">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <v>0.1</v>
       </c>
-      <c r="G30" s="17">
-        <v>1</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17">
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
         <v>16</v>
       </c>
-      <c r="L30" s="17">
-        <v>0</v>
-      </c>
-      <c r="M30" s="17">
-        <v>0</v>
-      </c>
-      <c r="N30" s="17">
-        <v>0</v>
-      </c>
-      <c r="O30" s="17">
-        <v>0</v>
-      </c>
-      <c r="P30" s="17">
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A31" s="17">
+      <c r="A31" s="6">
         <v>201022322</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="6">
         <v>2</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="6">
         <v>2.75</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="6">
         <v>0.25</v>
       </c>
-      <c r="G31" s="17">
-        <v>1</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
         <v>10</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="6">
         <v>16</v>
       </c>
-      <c r="L31" s="17">
-        <v>0</v>
-      </c>
-      <c r="M31" s="17">
-        <v>0</v>
-      </c>
-      <c r="N31" s="17">
-        <v>0</v>
-      </c>
-      <c r="O31" s="17">
-        <v>0</v>
-      </c>
-      <c r="P31" s="17">
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A32" s="17">
+      <c r="A32" s="6">
         <v>201022323</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="6">
         <v>3</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="6">
         <v>2</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="6">
         <v>2.75</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="6">
         <v>0.25</v>
       </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>1</v>
-      </c>
-      <c r="J32" s="17">
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
         <v>10</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="6">
         <v>16</v>
       </c>
-      <c r="L32" s="17">
-        <v>0</v>
-      </c>
-      <c r="M32" s="17">
-        <v>0</v>
-      </c>
-      <c r="N32" s="17">
-        <v>0</v>
-      </c>
-      <c r="O32" s="17">
-        <v>0</v>
-      </c>
-      <c r="P32" s="17">
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A33" s="17">
+      <c r="A33" s="6">
         <v>201022421</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="6">
         <v>4</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="6">
         <v>2</v>
       </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
         <v>0.1</v>
       </c>
-      <c r="G33" s="17">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
         <v>14</v>
       </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
-        <v>0</v>
-      </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17">
-        <v>0</v>
-      </c>
-      <c r="P33" s="17">
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A34" s="17">
+      <c r="A34" s="6">
         <v>201022422</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="6">
         <v>2</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="6">
         <v>2.75</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="6">
         <v>0.25</v>
       </c>
-      <c r="G34" s="17">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
         <v>10</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="6">
         <v>14</v>
       </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
-        <v>0</v>
-      </c>
-      <c r="N34" s="17">
-        <v>0</v>
-      </c>
-      <c r="O34" s="17">
-        <v>0</v>
-      </c>
-      <c r="P34" s="17">
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A35" s="17">
+      <c r="A35" s="6">
         <v>201022423</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="6">
         <v>2</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="6">
         <v>2.75</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="6">
         <v>0.25</v>
       </c>
-      <c r="G35" s="17">
-        <v>0</v>
-      </c>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <v>1</v>
-      </c>
-      <c r="J35" s="17">
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
         <v>10</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="6">
         <v>14</v>
       </c>
-      <c r="L35" s="17">
-        <v>0</v>
-      </c>
-      <c r="M35" s="17">
-        <v>0</v>
-      </c>
-      <c r="N35" s="17">
-        <v>0</v>
-      </c>
-      <c r="O35" s="17">
-        <v>0</v>
-      </c>
-      <c r="P35" s="17">
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A36" s="17">
+      <c r="A36" s="6">
         <v>201022521</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="6">
         <v>5</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="6">
         <v>2</v>
       </c>
-      <c r="E36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17">
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <v>0.1</v>
       </c>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
-        <v>0</v>
-      </c>
-      <c r="K36" s="17">
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
         <v>12</v>
       </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="17">
-        <v>0</v>
-      </c>
-      <c r="N36" s="17">
-        <v>0</v>
-      </c>
-      <c r="O36" s="17">
-        <v>0</v>
-      </c>
-      <c r="P36" s="17">
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A37" s="17">
+      <c r="A37" s="6">
         <v>201022522</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="6">
         <v>5</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="6">
         <v>2</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="6">
         <v>2.75</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="6">
         <v>0.25</v>
       </c>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
         <v>10</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="6">
         <v>12</v>
       </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
-        <v>0</v>
-      </c>
-      <c r="N37" s="17">
-        <v>0</v>
-      </c>
-      <c r="O37" s="17">
-        <v>0</v>
-      </c>
-      <c r="P37" s="17">
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A38" s="17">
+      <c r="A38" s="6">
         <v>201022523</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="6">
         <v>5</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="6">
         <v>2</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="6">
         <v>2.75</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="6">
         <v>0.25</v>
       </c>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
-        <v>1</v>
-      </c>
-      <c r="J38" s="17">
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6">
         <v>10</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="6">
         <v>12</v>
       </c>
-      <c r="L38" s="17">
-        <v>0</v>
-      </c>
-      <c r="M38" s="17">
-        <v>0</v>
-      </c>
-      <c r="N38" s="17">
-        <v>0</v>
-      </c>
-      <c r="O38" s="17">
-        <v>0</v>
-      </c>
-      <c r="P38" s="17">
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A39" s="17">
+      <c r="A39" s="6">
         <v>202022101</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="17">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
         <v>1.85</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="6">
         <v>0.15</v>
       </c>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17">
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
         <v>0.5</v>
       </c>
-      <c r="J39" s="17">
-        <v>0</v>
-      </c>
-      <c r="K39" s="17">
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
         <v>5</v>
       </c>
-      <c r="L39" s="17">
-        <v>0</v>
-      </c>
-      <c r="M39" s="17">
-        <v>0</v>
-      </c>
-      <c r="N39" s="17">
-        <v>0</v>
-      </c>
-      <c r="O39" s="17">
-        <v>0</v>
-      </c>
-      <c r="P39" s="17">
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A40" s="17">
+      <c r="A40" s="6">
         <v>202022201</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="6">
         <v>2</v>
       </c>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
         <v>1.85</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="6">
         <v>0.15</v>
       </c>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
         <v>0.5</v>
       </c>
-      <c r="J40" s="17">
-        <v>0</v>
-      </c>
-      <c r="K40" s="17">
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
         <v>4.5</v>
       </c>
-      <c r="L40" s="17">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17">
-        <v>0</v>
-      </c>
-      <c r="N40" s="17">
-        <v>0</v>
-      </c>
-      <c r="O40" s="17">
-        <v>0</v>
-      </c>
-      <c r="P40" s="17">
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A41" s="17">
+      <c r="A41" s="6">
         <v>202022301</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="6">
         <v>3</v>
       </c>
-      <c r="D41" s="17">
-        <v>0</v>
-      </c>
-      <c r="E41" s="17">
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
         <v>1.85</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="6">
         <v>0.15</v>
       </c>
-      <c r="G41" s="17">
-        <v>0</v>
-      </c>
-      <c r="H41" s="17">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17">
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
         <v>0.5</v>
       </c>
-      <c r="J41" s="17">
-        <v>0</v>
-      </c>
-      <c r="K41" s="17">
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
         <v>4</v>
       </c>
-      <c r="L41" s="17">
-        <v>0</v>
-      </c>
-      <c r="M41" s="17">
-        <v>0</v>
-      </c>
-      <c r="N41" s="17">
-        <v>0</v>
-      </c>
-      <c r="O41" s="17">
-        <v>0</v>
-      </c>
-      <c r="P41" s="17">
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A42" s="17">
+      <c r="A42" s="6">
         <v>202022401</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="6">
         <v>4</v>
       </c>
-      <c r="D42" s="17">
-        <v>0</v>
-      </c>
-      <c r="E42" s="17">
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
         <v>1.85</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="6">
         <v>0.15</v>
       </c>
-      <c r="G42" s="17">
-        <v>0</v>
-      </c>
-      <c r="H42" s="17">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17">
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
         <v>0.5</v>
       </c>
-      <c r="J42" s="17">
-        <v>0</v>
-      </c>
-      <c r="K42" s="17">
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
         <v>3.5</v>
       </c>
-      <c r="L42" s="17">
-        <v>0</v>
-      </c>
-      <c r="M42" s="17">
-        <v>0</v>
-      </c>
-      <c r="N42" s="17">
-        <v>0</v>
-      </c>
-      <c r="O42" s="17">
-        <v>0</v>
-      </c>
-      <c r="P42" s="17">
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A43" s="17">
+      <c r="A43" s="6">
         <v>202022501</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="6">
         <v>5</v>
       </c>
-      <c r="D43" s="17">
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
         <v>1.85</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="6">
         <v>0.15</v>
       </c>
-      <c r="G43" s="17">
-        <v>0</v>
-      </c>
-      <c r="H43" s="17">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17">
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
         <v>0.5</v>
       </c>
-      <c r="J43" s="17">
-        <v>0</v>
-      </c>
-      <c r="K43" s="17">
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
         <v>3</v>
       </c>
-      <c r="L43" s="17">
-        <v>0</v>
-      </c>
-      <c r="M43" s="17">
-        <v>0</v>
-      </c>
-      <c r="N43" s="17">
-        <v>0</v>
-      </c>
-      <c r="O43" s="17">
-        <v>0</v>
-      </c>
-      <c r="P43" s="17">
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A44" s="17">
+      <c r="A44" s="6">
         <v>203022101</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="17">
-        <v>1</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
         <v>1.5</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="6">
         <v>0.2</v>
       </c>
-      <c r="G44" s="17">
-        <v>1</v>
-      </c>
-      <c r="H44" s="17">
-        <v>0</v>
-      </c>
-      <c r="I44" s="17">
-        <v>0</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0</v>
-      </c>
-      <c r="K44" s="17">
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
         <v>13</v>
       </c>
-      <c r="L44" s="17">
-        <v>0</v>
-      </c>
-      <c r="M44" s="17">
-        <v>0</v>
-      </c>
-      <c r="N44" s="17">
-        <v>0</v>
-      </c>
-      <c r="O44" s="17">
-        <v>0</v>
-      </c>
-      <c r="P44" s="17">
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A45" s="17">
+      <c r="A45" s="6">
         <v>203022102</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="17">
-        <v>1</v>
-      </c>
-      <c r="D45" s="17">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
         <v>0.7</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="6">
         <v>0.1</v>
       </c>
-      <c r="G45" s="17">
-        <v>1</v>
-      </c>
-      <c r="H45" s="17">
-        <v>0</v>
-      </c>
-      <c r="I45" s="17">
-        <v>0</v>
-      </c>
-      <c r="J45" s="17">
-        <v>0</v>
-      </c>
-      <c r="K45" s="17">
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
         <v>13</v>
       </c>
-      <c r="L45" s="17">
-        <v>0</v>
-      </c>
-      <c r="M45" s="17">
-        <v>0</v>
-      </c>
-      <c r="N45" s="17">
-        <v>0</v>
-      </c>
-      <c r="O45" s="17">
-        <v>0</v>
-      </c>
-      <c r="P45" s="17">
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A46" s="17">
+      <c r="A46" s="6">
         <v>203022103</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="17">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17">
-        <v>0</v>
-      </c>
-      <c r="E46" s="17">
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
         <v>2</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="6">
         <v>0.2</v>
       </c>
-      <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="17">
-        <v>1</v>
-      </c>
-      <c r="I46" s="17">
-        <v>0</v>
-      </c>
-      <c r="J46" s="17">
-        <v>0</v>
-      </c>
-      <c r="K46" s="17">
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
         <v>13</v>
       </c>
-      <c r="L46" s="17">
-        <v>0</v>
-      </c>
-      <c r="M46" s="17">
-        <v>0</v>
-      </c>
-      <c r="N46" s="17">
-        <v>0</v>
-      </c>
-      <c r="O46" s="17">
-        <v>0</v>
-      </c>
-      <c r="P46" s="17">
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A47" s="17">
+      <c r="A47" s="6">
         <v>203022201</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="6">
         <v>2</v>
       </c>
-      <c r="D47" s="17">
-        <v>0</v>
-      </c>
-      <c r="E47" s="17">
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
         <v>1.5</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="6">
         <v>0.2</v>
       </c>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="17">
-        <v>0</v>
-      </c>
-      <c r="I47" s="17">
-        <v>0</v>
-      </c>
-      <c r="J47" s="17">
-        <v>0</v>
-      </c>
-      <c r="K47" s="17">
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
         <v>12.5</v>
       </c>
-      <c r="L47" s="17">
-        <v>0</v>
-      </c>
-      <c r="M47" s="17">
-        <v>0</v>
-      </c>
-      <c r="N47" s="17">
-        <v>0</v>
-      </c>
-      <c r="O47" s="17">
-        <v>0</v>
-      </c>
-      <c r="P47" s="17">
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A48" s="17">
+      <c r="A48" s="6">
         <v>203022202</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="6">
         <v>2</v>
       </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48" s="17">
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
         <v>0.7</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="6">
         <v>0.1</v>
       </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="17">
-        <v>0</v>
-      </c>
-      <c r="I48" s="17">
-        <v>0</v>
-      </c>
-      <c r="J48" s="17">
-        <v>0</v>
-      </c>
-      <c r="K48" s="17">
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
         <v>12.5</v>
       </c>
-      <c r="L48" s="17">
-        <v>0</v>
-      </c>
-      <c r="M48" s="17">
-        <v>0</v>
-      </c>
-      <c r="N48" s="17">
-        <v>0</v>
-      </c>
-      <c r="O48" s="17">
-        <v>0</v>
-      </c>
-      <c r="P48" s="17">
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A49" s="17">
+      <c r="A49" s="6">
         <v>203022203</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="6">
         <v>2</v>
       </c>
-      <c r="D49" s="17">
-        <v>0</v>
-      </c>
-      <c r="E49" s="17">
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
         <v>2</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="6">
         <v>0.2</v>
       </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17">
-        <v>1</v>
-      </c>
-      <c r="I49" s="17">
-        <v>0</v>
-      </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-      <c r="K49" s="17">
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
         <v>12.5</v>
       </c>
-      <c r="L49" s="17">
-        <v>0</v>
-      </c>
-      <c r="M49" s="17">
-        <v>0</v>
-      </c>
-      <c r="N49" s="17">
-        <v>0</v>
-      </c>
-      <c r="O49" s="17">
-        <v>0</v>
-      </c>
-      <c r="P49" s="17">
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A50" s="17">
+      <c r="A50" s="6">
         <v>203022301</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="6">
         <v>3</v>
       </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="17">
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
         <v>1.5</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="6">
         <v>0.2</v>
       </c>
-      <c r="G50" s="17">
-        <v>1</v>
-      </c>
-      <c r="H50" s="17">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0</v>
-      </c>
-      <c r="K50" s="17">
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
         <v>12</v>
       </c>
-      <c r="L50" s="17">
-        <v>0</v>
-      </c>
-      <c r="M50" s="17">
-        <v>0</v>
-      </c>
-      <c r="N50" s="17">
-        <v>0</v>
-      </c>
-      <c r="O50" s="17">
-        <v>0</v>
-      </c>
-      <c r="P50" s="17">
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A51" s="17">
+      <c r="A51" s="6">
         <v>203022302</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="6">
         <v>3</v>
       </c>
-      <c r="D51" s="17">
-        <v>0</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
         <v>0.7</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="6">
         <v>0.1</v>
       </c>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
-      <c r="H51" s="17">
-        <v>0</v>
-      </c>
-      <c r="I51" s="17">
-        <v>0</v>
-      </c>
-      <c r="J51" s="17">
-        <v>0</v>
-      </c>
-      <c r="K51" s="17">
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
         <v>12</v>
       </c>
-      <c r="L51" s="17">
-        <v>0</v>
-      </c>
-      <c r="M51" s="17">
-        <v>0</v>
-      </c>
-      <c r="N51" s="17">
-        <v>0</v>
-      </c>
-      <c r="O51" s="17">
-        <v>0</v>
-      </c>
-      <c r="P51" s="17">
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A52" s="17">
+      <c r="A52" s="6">
         <v>203022303</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="6">
         <v>3</v>
       </c>
-      <c r="D52" s="17">
-        <v>0</v>
-      </c>
-      <c r="E52" s="17">
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
         <v>2</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="6">
         <v>0.2</v>
       </c>
-      <c r="G52" s="17">
-        <v>0</v>
-      </c>
-      <c r="H52" s="17">
-        <v>1</v>
-      </c>
-      <c r="I52" s="17">
-        <v>0</v>
-      </c>
-      <c r="J52" s="17">
-        <v>0</v>
-      </c>
-      <c r="K52" s="17">
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
         <v>12</v>
       </c>
-      <c r="L52" s="17">
-        <v>0</v>
-      </c>
-      <c r="M52" s="17">
-        <v>0</v>
-      </c>
-      <c r="N52" s="17">
-        <v>0</v>
-      </c>
-      <c r="O52" s="17">
-        <v>0</v>
-      </c>
-      <c r="P52" s="17">
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A53" s="17">
+      <c r="A53" s="6">
         <v>203022401</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="6">
         <v>4</v>
       </c>
-      <c r="D53" s="17">
-        <v>0</v>
-      </c>
-      <c r="E53" s="17">
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
         <v>1.5</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="6">
         <v>0.2</v>
       </c>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
-      <c r="H53" s="17">
-        <v>0</v>
-      </c>
-      <c r="I53" s="17">
-        <v>0</v>
-      </c>
-      <c r="J53" s="17">
-        <v>0</v>
-      </c>
-      <c r="K53" s="17">
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
         <v>11</v>
       </c>
-      <c r="L53" s="17">
-        <v>0</v>
-      </c>
-      <c r="M53" s="17">
-        <v>0</v>
-      </c>
-      <c r="N53" s="17">
-        <v>0</v>
-      </c>
-      <c r="O53" s="17">
-        <v>0</v>
-      </c>
-      <c r="P53" s="17">
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A54" s="17">
+      <c r="A54" s="6">
         <v>203022402</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="6">
         <v>4</v>
       </c>
-      <c r="D54" s="17">
-        <v>0</v>
-      </c>
-      <c r="E54" s="17">
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
         <v>0.7</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="6">
         <v>0.1</v>
       </c>
-      <c r="G54" s="17">
-        <v>1</v>
-      </c>
-      <c r="H54" s="17">
-        <v>0</v>
-      </c>
-      <c r="I54" s="17">
-        <v>0</v>
-      </c>
-      <c r="J54" s="17">
-        <v>0</v>
-      </c>
-      <c r="K54" s="17">
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
         <v>11</v>
       </c>
-      <c r="L54" s="17">
-        <v>0</v>
-      </c>
-      <c r="M54" s="17">
-        <v>0</v>
-      </c>
-      <c r="N54" s="17">
-        <v>0</v>
-      </c>
-      <c r="O54" s="17">
-        <v>0</v>
-      </c>
-      <c r="P54" s="17">
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6">
+        <v>0</v>
+      </c>
+      <c r="P54" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A55" s="17">
+      <c r="A55" s="6">
         <v>203022403</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="6">
         <v>4</v>
       </c>
-      <c r="D55" s="17">
-        <v>0</v>
-      </c>
-      <c r="E55" s="17">
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
         <v>2</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="6">
         <v>0.2</v>
       </c>
-      <c r="G55" s="17">
-        <v>0</v>
-      </c>
-      <c r="H55" s="17">
-        <v>1</v>
-      </c>
-      <c r="I55" s="17">
-        <v>0</v>
-      </c>
-      <c r="J55" s="17">
-        <v>0</v>
-      </c>
-      <c r="K55" s="17">
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
         <v>11</v>
       </c>
-      <c r="L55" s="17">
-        <v>0</v>
-      </c>
-      <c r="M55" s="17">
-        <v>0</v>
-      </c>
-      <c r="N55" s="17">
-        <v>0</v>
-      </c>
-      <c r="O55" s="17">
-        <v>0</v>
-      </c>
-      <c r="P55" s="17">
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0</v>
+      </c>
+      <c r="P55" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A56" s="17">
+      <c r="A56" s="6">
         <v>203022501</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="6">
         <v>5</v>
       </c>
-      <c r="D56" s="17">
-        <v>0</v>
-      </c>
-      <c r="E56" s="17">
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
         <v>1.5</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="6">
         <v>0.2</v>
       </c>
-      <c r="G56" s="17">
-        <v>1</v>
-      </c>
-      <c r="H56" s="17">
-        <v>0</v>
-      </c>
-      <c r="I56" s="17">
-        <v>0</v>
-      </c>
-      <c r="J56" s="17">
-        <v>0</v>
-      </c>
-      <c r="K56" s="17">
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
         <v>10</v>
       </c>
-      <c r="L56" s="17">
-        <v>0</v>
-      </c>
-      <c r="M56" s="17">
-        <v>0</v>
-      </c>
-      <c r="N56" s="17">
-        <v>0</v>
-      </c>
-      <c r="O56" s="17">
-        <v>0</v>
-      </c>
-      <c r="P56" s="17">
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+      <c r="P56" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A57" s="17">
+      <c r="A57" s="6">
         <v>203022502</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="6">
         <v>5</v>
       </c>
-      <c r="D57" s="17">
-        <v>0</v>
-      </c>
-      <c r="E57" s="17">
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
         <v>0.7</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="6">
         <v>0.1</v>
       </c>
-      <c r="G57" s="17">
-        <v>1</v>
-      </c>
-      <c r="H57" s="17">
-        <v>0</v>
-      </c>
-      <c r="I57" s="17">
-        <v>0</v>
-      </c>
-      <c r="J57" s="17">
-        <v>0</v>
-      </c>
-      <c r="K57" s="17">
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
         <v>10</v>
       </c>
-      <c r="L57" s="17">
-        <v>0</v>
-      </c>
-      <c r="M57" s="17">
-        <v>0</v>
-      </c>
-      <c r="N57" s="17">
-        <v>0</v>
-      </c>
-      <c r="O57" s="17">
-        <v>0</v>
-      </c>
-      <c r="P57" s="17">
+      <c r="L57" s="6">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A58" s="17">
+      <c r="A58" s="6">
         <v>203022503</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="6">
         <v>5</v>
       </c>
-      <c r="D58" s="17">
-        <v>0</v>
-      </c>
-      <c r="E58" s="17">
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
         <v>2</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="6">
         <v>0.2</v>
       </c>
-      <c r="G58" s="17">
-        <v>0</v>
-      </c>
-      <c r="H58" s="17">
-        <v>1</v>
-      </c>
-      <c r="I58" s="17">
-        <v>0</v>
-      </c>
-      <c r="J58" s="17">
-        <v>0</v>
-      </c>
-      <c r="K58" s="17">
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
         <v>10</v>
       </c>
-      <c r="L58" s="17">
-        <v>0</v>
-      </c>
-      <c r="M58" s="17">
-        <v>0</v>
-      </c>
-      <c r="N58" s="17">
-        <v>0</v>
-      </c>
-      <c r="O58" s="17">
-        <v>0</v>
-      </c>
-      <c r="P58" s="17">
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
+        <v>0</v>
+      </c>
+      <c r="P58" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A59" s="17">
+      <c r="A59" s="6">
         <v>231023101</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="17">
-        <v>1</v>
-      </c>
-      <c r="D59" s="17">
-        <v>0</v>
-      </c>
-      <c r="E59" s="17">
-        <v>1</v>
-      </c>
-      <c r="F59" s="17">
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
         <v>0.33</v>
       </c>
-      <c r="G59" s="17">
-        <v>0</v>
-      </c>
-      <c r="H59" s="17">
-        <v>0</v>
-      </c>
-      <c r="I59" s="17">
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
         <v>0.5</v>
       </c>
-      <c r="J59" s="17">
-        <v>0</v>
-      </c>
-      <c r="K59" s="17">
-        <v>0</v>
-      </c>
-      <c r="L59" s="17">
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
         <v>60000</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="6">
         <v>1.5</v>
       </c>
-      <c r="N59" s="17">
-        <v>0</v>
-      </c>
-      <c r="O59" s="17">
-        <v>0</v>
-      </c>
-      <c r="P59" s="17">
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6">
+        <v>0</v>
+      </c>
+      <c r="P59" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A60" s="17">
+      <c r="A60" s="6">
         <v>231023201</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="6">
         <v>2</v>
       </c>
-      <c r="D60" s="17">
-        <v>0</v>
-      </c>
-      <c r="E60" s="17">
-        <v>1</v>
-      </c>
-      <c r="F60" s="17">
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
         <v>0.33</v>
       </c>
-      <c r="G60" s="17">
-        <v>0</v>
-      </c>
-      <c r="H60" s="17">
-        <v>0</v>
-      </c>
-      <c r="I60" s="17">
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
         <v>0.5</v>
       </c>
-      <c r="J60" s="17">
-        <v>0</v>
-      </c>
-      <c r="K60" s="17">
-        <v>0</v>
-      </c>
-      <c r="L60" s="17">
+      <c r="J60" s="6">
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
         <v>55000</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="6">
         <v>1.5</v>
       </c>
-      <c r="N60" s="17">
-        <v>0</v>
-      </c>
-      <c r="O60" s="17">
-        <v>0</v>
-      </c>
-      <c r="P60" s="17">
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A61" s="17">
+      <c r="A61" s="6">
         <v>231023301</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="6">
         <v>3</v>
       </c>
-      <c r="D61" s="17">
-        <v>0</v>
-      </c>
-      <c r="E61" s="17">
-        <v>1</v>
-      </c>
-      <c r="F61" s="17">
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
         <v>0.33</v>
       </c>
-      <c r="G61" s="17">
-        <v>0</v>
-      </c>
-      <c r="H61" s="17">
-        <v>0</v>
-      </c>
-      <c r="I61" s="17">
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
         <v>0.5</v>
       </c>
-      <c r="J61" s="17">
-        <v>0</v>
-      </c>
-      <c r="K61" s="17">
-        <v>0</v>
-      </c>
-      <c r="L61" s="17">
+      <c r="J61" s="6">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
         <v>50000</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="6">
         <v>1.5</v>
       </c>
-      <c r="N61" s="17">
-        <v>0</v>
-      </c>
-      <c r="O61" s="17">
-        <v>0</v>
-      </c>
-      <c r="P61" s="17">
+      <c r="N61" s="6">
+        <v>0</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0</v>
+      </c>
+      <c r="P61" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A62" s="17">
+      <c r="A62" s="6">
         <v>232023101</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="17">
-        <v>1</v>
-      </c>
-      <c r="D62" s="17">
-        <v>0</v>
-      </c>
-      <c r="E62" s="17">
-        <v>1</v>
-      </c>
-      <c r="F62" s="17">
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
         <v>0.33</v>
       </c>
-      <c r="G62" s="17">
-        <v>1</v>
-      </c>
-      <c r="H62" s="17">
-        <v>0</v>
-      </c>
-      <c r="I62" s="17">
-        <v>0</v>
-      </c>
-      <c r="J62" s="17">
-        <v>0</v>
-      </c>
-      <c r="K62" s="17">
-        <v>0</v>
-      </c>
-      <c r="L62" s="17">
-        <v>0</v>
-      </c>
-      <c r="M62" s="17">
-        <v>0</v>
-      </c>
-      <c r="N62" s="17">
-        <v>0</v>
-      </c>
-      <c r="O62" s="17">
-        <v>0</v>
-      </c>
-      <c r="P62" s="17">
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A63" s="17">
+      <c r="A63" s="6">
         <v>232023102</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="17">
-        <v>1</v>
-      </c>
-      <c r="D63" s="17">
-        <v>0</v>
-      </c>
-      <c r="E63" s="17">
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
         <v>9.5</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="6">
         <v>0.5</v>
       </c>
-      <c r="G63" s="17">
-        <v>0</v>
-      </c>
-      <c r="H63" s="17">
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
         <v>2</v>
       </c>
-      <c r="I63" s="17">
-        <v>0</v>
-      </c>
-      <c r="J63" s="17">
-        <v>0</v>
-      </c>
-      <c r="K63" s="17">
-        <v>0</v>
-      </c>
-      <c r="L63" s="17">
-        <v>0</v>
-      </c>
-      <c r="M63" s="17">
-        <v>0</v>
-      </c>
-      <c r="N63" s="17">
-        <v>0</v>
-      </c>
-      <c r="O63" s="17">
-        <v>0</v>
-      </c>
-      <c r="P63" s="17">
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
+        <v>0</v>
+      </c>
+      <c r="P63" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A64" s="17">
+      <c r="A64" s="6">
         <v>232023201</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="6">
         <v>2</v>
       </c>
-      <c r="D64" s="17">
-        <v>0</v>
-      </c>
-      <c r="E64" s="17">
-        <v>1</v>
-      </c>
-      <c r="F64" s="17">
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
         <v>0.33</v>
       </c>
-      <c r="G64" s="17">
-        <v>1</v>
-      </c>
-      <c r="H64" s="17">
-        <v>0</v>
-      </c>
-      <c r="I64" s="17">
-        <v>0</v>
-      </c>
-      <c r="J64" s="17">
-        <v>0</v>
-      </c>
-      <c r="K64" s="17">
-        <v>0</v>
-      </c>
-      <c r="L64" s="17">
-        <v>0</v>
-      </c>
-      <c r="M64" s="17">
-        <v>0</v>
-      </c>
-      <c r="N64" s="17">
-        <v>0</v>
-      </c>
-      <c r="O64" s="17">
-        <v>0</v>
-      </c>
-      <c r="P64" s="17">
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
+        <v>0</v>
+      </c>
+      <c r="P64" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A65" s="17">
+      <c r="A65" s="6">
         <v>232023202</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="6">
         <v>2</v>
       </c>
-      <c r="D65" s="17">
-        <v>0</v>
-      </c>
-      <c r="E65" s="17">
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
         <v>9.5</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="6">
         <v>0.5</v>
       </c>
-      <c r="G65" s="17">
-        <v>0</v>
-      </c>
-      <c r="H65" s="17">
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
         <v>2</v>
       </c>
-      <c r="I65" s="17">
-        <v>0</v>
-      </c>
-      <c r="J65" s="17">
-        <v>0</v>
-      </c>
-      <c r="K65" s="17">
-        <v>0</v>
-      </c>
-      <c r="L65" s="17">
-        <v>0</v>
-      </c>
-      <c r="M65" s="17">
-        <v>0</v>
-      </c>
-      <c r="N65" s="17">
-        <v>0</v>
-      </c>
-      <c r="O65" s="17">
-        <v>0</v>
-      </c>
-      <c r="P65" s="17">
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A66" s="17">
+      <c r="A66" s="6">
         <v>232023301</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="6">
         <v>3</v>
       </c>
-      <c r="D66" s="17">
-        <v>0</v>
-      </c>
-      <c r="E66" s="17">
-        <v>1</v>
-      </c>
-      <c r="F66" s="17">
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
         <v>0.33</v>
       </c>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
-      <c r="H66" s="17">
-        <v>0</v>
-      </c>
-      <c r="I66" s="17">
-        <v>0</v>
-      </c>
-      <c r="J66" s="17">
-        <v>0</v>
-      </c>
-      <c r="K66" s="17">
-        <v>0</v>
-      </c>
-      <c r="L66" s="17">
-        <v>0</v>
-      </c>
-      <c r="M66" s="17">
-        <v>0</v>
-      </c>
-      <c r="N66" s="17">
-        <v>0</v>
-      </c>
-      <c r="O66" s="17">
-        <v>0</v>
-      </c>
-      <c r="P66" s="17">
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>0</v>
+      </c>
+      <c r="N66" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A67" s="17">
+      <c r="A67" s="6">
         <v>232023302</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="6">
         <v>3</v>
       </c>
-      <c r="D67" s="17">
-        <v>0</v>
-      </c>
-      <c r="E67" s="17">
+      <c r="D67" s="6">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6">
         <v>9.5</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="6">
         <v>0.5</v>
       </c>
-      <c r="G67" s="17">
-        <v>0</v>
-      </c>
-      <c r="H67" s="17">
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
         <v>2</v>
       </c>
-      <c r="I67" s="17">
-        <v>0</v>
-      </c>
-      <c r="J67" s="17">
-        <v>0</v>
-      </c>
-      <c r="K67" s="17">
-        <v>0</v>
-      </c>
-      <c r="L67" s="17">
-        <v>0</v>
-      </c>
-      <c r="M67" s="17">
-        <v>0</v>
-      </c>
-      <c r="N67" s="17">
-        <v>0</v>
-      </c>
-      <c r="O67" s="17">
-        <v>0</v>
-      </c>
-      <c r="P67" s="17">
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="17.5" thickBot="1">
-      <c r="N68" s="17"/>
+      <c r="A68" s="6">
+        <v>300031101</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="51.5" thickBot="1">
+      <c r="A69" s="6">
+        <v>301032101</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N69" s="6">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="51.5" thickBot="1">
+      <c r="A70" s="6">
+        <v>301032201</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <v>8</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N70" s="6">
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
+        <v>0</v>
+      </c>
+      <c r="P70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="51.5" thickBot="1">
+      <c r="A71" s="6">
+        <v>301032301</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="6">
+        <v>3</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G71" s="6">
+        <v>0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <v>7</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
+        <v>0</v>
+      </c>
+      <c r="P71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="51.5" thickBot="1">
+      <c r="A72" s="6">
+        <v>301032401</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="6">
+        <v>4</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <v>6</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N72" s="6">
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
+        <v>0</v>
+      </c>
+      <c r="P72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="51.5" thickBot="1">
+      <c r="A73" s="6">
+        <v>301032501</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="6">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <v>5</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0</v>
+      </c>
+      <c r="M73" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="N73" s="6">
+        <v>0</v>
+      </c>
+      <c r="O73" s="6">
+        <v>0</v>
+      </c>
+      <c r="P73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A74" s="6">
+        <v>302032101</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>15</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0</v>
+      </c>
+      <c r="N74" s="6">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6">
+        <v>0</v>
+      </c>
+      <c r="P74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A75" s="6">
+        <v>302032201</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H75" s="6">
+        <v>0</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <v>14</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+      <c r="N75" s="6">
+        <v>0</v>
+      </c>
+      <c r="O75" s="6">
+        <v>0</v>
+      </c>
+      <c r="P75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A76" s="6">
+        <v>302032301</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <v>13</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0</v>
+      </c>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+      <c r="N76" s="6">
+        <v>0</v>
+      </c>
+      <c r="O76" s="6">
+        <v>0</v>
+      </c>
+      <c r="P76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A77" s="6">
+        <v>302032401</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="6">
+        <v>4</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>12</v>
+      </c>
+      <c r="L77" s="6">
+        <v>0</v>
+      </c>
+      <c r="M77" s="6">
+        <v>0</v>
+      </c>
+      <c r="N77" s="6">
+        <v>0</v>
+      </c>
+      <c r="O77" s="6">
+        <v>0</v>
+      </c>
+      <c r="P77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A78" s="6">
+        <v>302032501</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="6">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="H78" s="6">
+        <v>0</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <v>10</v>
+      </c>
+      <c r="L78" s="6">
+        <v>0</v>
+      </c>
+      <c r="M78" s="6">
+        <v>0</v>
+      </c>
+      <c r="N78" s="6">
+        <v>0</v>
+      </c>
+      <c r="O78" s="6">
+        <v>0</v>
+      </c>
+      <c r="P78" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4829,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4854,11 +5399,11 @@
       <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="17.5" thickBot="1">
       <c r="A2" s="6">
@@ -4879,11 +5424,11 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="17.5" thickBot="1">
       <c r="A3" s="6">
@@ -4904,11 +5449,11 @@
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="17.5" thickBot="1">
       <c r="A4" s="6">
@@ -4929,11 +5474,11 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="17.5" thickBot="1">
       <c r="A5" s="6">
@@ -4954,11 +5499,11 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="17.5" thickBot="1">
       <c r="A6" s="6">
@@ -4979,11 +5524,11 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="17.5" thickBot="1">
       <c r="A7" s="6">
@@ -5004,11 +5549,11 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="17.5" thickBot="1">
       <c r="A8" s="6">
@@ -5029,11 +5574,11 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="17.5" thickBot="1">
       <c r="A9" s="6">
@@ -5054,17 +5599,17 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>301</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="22">
         <v>1</v>
       </c>
       <c r="C10" s="6">
@@ -5079,17 +5624,17 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A11" s="17">
+      <c r="A11" s="9">
         <v>302</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="22">
         <v>1</v>
       </c>
       <c r="C11" s="6">
@@ -5104,17 +5649,17 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A12" s="17">
+      <c r="A12" s="9">
         <v>303</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="22">
         <v>1</v>
       </c>
       <c r="C12" s="6">
@@ -5129,141 +5674,141 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5282,63 +5827,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="24"/>
-    <col min="2" max="2" width="14" style="24" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="24" customWidth="1"/>
-    <col min="4" max="8" width="8.6640625" style="24"/>
-    <col min="9" max="9" width="13.4140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="24"/>
+    <col min="1" max="1" width="8.6640625" style="16"/>
+    <col min="2" max="2" width="14" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="16" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" style="16"/>
+    <col min="9" max="9" width="13.4140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5521,14 +6066,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="24"/>
+    <col min="1" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -5537,52 +6082,52 @@
       <c r="D1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="15" t="s">
         <v>82</v>
       </c>
       <c r="U1" s="7"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C055F95A-E8B7-42CF-ACB2-4784183DBAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89211849-C669-4D49-81FC-06239A336BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -618,9 +618,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -643,15 +640,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -672,6 +660,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,7 +1116,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A12"/>
+      <selection activeCell="A8" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1133,314 +1127,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>100</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>200</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>201</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>202</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>203</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>231</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>232</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>300</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>301</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>302</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>5</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10" t="s">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>303</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1454,62 +1448,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A68" sqref="A1:P78"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5375,7 +5370,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5399,11 +5394,11 @@
       <c r="F1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="17.5" thickBot="1">
       <c r="A2" s="6">
@@ -5424,11 +5419,11 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="17.5" thickBot="1">
       <c r="A3" s="6">
@@ -5449,11 +5444,11 @@
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="17.5" thickBot="1">
       <c r="A4" s="6">
@@ -5474,11 +5469,11 @@
       <c r="F4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="17.5" thickBot="1">
       <c r="A5" s="6">
@@ -5499,11 +5494,11 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="17.5" thickBot="1">
       <c r="A6" s="6">
@@ -5524,11 +5519,11 @@
       <c r="F6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="17.5" thickBot="1">
       <c r="A7" s="6">
@@ -5549,11 +5544,11 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="17.5" thickBot="1">
       <c r="A8" s="6">
@@ -5574,11 +5569,11 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="17.5" thickBot="1">
       <c r="A9" s="6">
@@ -5599,17 +5594,17 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="17.5" thickBot="1">
       <c r="A10" s="9">
         <v>301</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="18">
         <v>1</v>
       </c>
       <c r="C10" s="6">
@@ -5624,17 +5619,17 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="17.5" thickBot="1">
       <c r="A11" s="9">
         <v>302</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="18">
         <v>1</v>
       </c>
       <c r="C11" s="6">
@@ -5649,17 +5644,17 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="17.5" thickBot="1">
       <c r="A12" s="9">
         <v>303</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="18">
         <v>1</v>
       </c>
       <c r="C12" s="6">
@@ -5674,141 +5669,141 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5827,63 +5822,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="16"/>
-    <col min="2" max="2" width="14" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="16" customWidth="1"/>
-    <col min="4" max="8" width="8.6640625" style="16"/>
-    <col min="9" max="9" width="13.4140625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="16"/>
+    <col min="1" max="1" width="8.6640625" style="15"/>
+    <col min="2" max="2" width="14" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="15" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" style="15"/>
+    <col min="9" max="9" width="13.4140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6047,7 +6042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA2E81-D44D-4A2E-AECA-D182B5D7BC40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
@@ -6060,20 +6055,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="16"/>
+    <col min="1" max="16384" width="8.6640625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -6082,52 +6077,52 @@
       <c r="D1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>82</v>
       </c>
       <c r="U1" s="7"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89211849-C669-4D49-81FC-06239A336BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E13F654-8CC4-4BF9-B539-35BB80CE2C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12890" yWindow="0" windowWidth="11740" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="113">
   <si>
     <t>Level</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Move, Invincible, CC</t>
+  </si>
+  <si>
+    <t>Is_Scoping</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -666,6 +669,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:H12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1126,7 +1132,7 @@
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" thickBot="1">
+    <row r="1" spans="1:9" ht="34.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1151,8 +1157,11 @@
       <c r="H1" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" thickBot="1">
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -1177,8 +1186,11 @@
       <c r="H2" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" thickBot="1">
+      <c r="I2" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34.5" thickBot="1">
       <c r="A3" s="6">
         <v>200</v>
       </c>
@@ -1203,8 +1215,11 @@
       <c r="H3" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" thickBot="1">
+      <c r="I3" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34.5" thickBot="1">
       <c r="A4" s="6">
         <v>201</v>
       </c>
@@ -1229,8 +1244,11 @@
       <c r="H4" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I4" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>202</v>
       </c>
@@ -1255,8 +1273,11 @@
       <c r="H5" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I5" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.5" thickBot="1">
       <c r="A6" s="6">
         <v>203</v>
       </c>
@@ -1281,8 +1302,11 @@
       <c r="H6" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I6" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.5" thickBot="1">
       <c r="A7" s="6">
         <v>231</v>
       </c>
@@ -1307,8 +1331,11 @@
       <c r="H7" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I7" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.5" thickBot="1">
       <c r="A8" s="6">
         <v>232</v>
       </c>
@@ -1333,8 +1360,11 @@
       <c r="H8" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I8" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>300</v>
       </c>
@@ -1359,8 +1389,11 @@
       <c r="H9" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I9" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.5" thickBot="1">
       <c r="A10" s="6">
         <v>301</v>
       </c>
@@ -1385,8 +1418,11 @@
       <c r="H10" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I10" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.5" thickBot="1">
       <c r="A11" s="6">
         <v>302</v>
       </c>
@@ -1411,8 +1447,11 @@
       <c r="H11" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" thickBot="1">
+      <c r="I11" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34.5" thickBot="1">
       <c r="A12" s="6">
         <v>303</v>
       </c>
@@ -1436,6 +1475,9 @@
       </c>
       <c r="H12" s="7" t="s">
         <v>110</v>
+      </c>
+      <c r="I12" s="27" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -6055,7 +6097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E13F654-8CC4-4BF9-B539-35BB80CE2C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426BF52E-9774-4592-B784-6EE6AABD4FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12890" yWindow="0" windowWidth="11740" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I12" sqref="A1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1157,7 +1157,7 @@
       <c r="H1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J40" s="6">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J42" s="6">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J43" s="6">
         <v>0</v>
@@ -5412,7 +5412,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5647,7 +5647,7 @@
         <v>301</v>
       </c>
       <c r="B10" s="18">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426BF52E-9774-4592-B784-6EE6AABD4FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E21101-E914-44E6-BF47-7878F2AEC948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
   <si>
     <t>Level</t>
   </si>
@@ -412,6 +412,11 @@
   </si>
   <si>
     <t>Is_Scoping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_Charging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -594,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -664,14 +669,24 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,365 +1134,404 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I12" sqref="A1:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="26"/>
+    <col min="2" max="2" width="14.33203125" style="26" customWidth="1"/>
+    <col min="3" max="6" width="8.6640625" style="26"/>
+    <col min="7" max="7" width="10.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="26" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="26" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A2" s="6">
+      <c r="J1" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A2" s="9">
         <v>100</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A3" s="6">
+      <c r="I2" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A3" s="9">
         <v>200</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A4" s="6">
+      <c r="I3" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A4" s="9">
         <v>201</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="9">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A5" s="6">
+      <c r="I4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A5" s="9">
         <v>202</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A6" s="6">
+      <c r="I5" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A6" s="9">
         <v>203</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A7" s="6">
+      <c r="I6" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A7" s="9">
         <v>231</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A8" s="6">
+      <c r="I7" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A8" s="9">
         <v>232</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A9" s="6">
+      <c r="I8" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A9" s="9">
         <v>300</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="26" t="s">
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A10" s="6">
+      <c r="I9" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A10" s="9">
         <v>301</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>5</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A11" s="6">
+      <c r="I10" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A11" s="9">
         <v>302</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>5</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="34.5" thickBot="1">
-      <c r="A12" s="6">
+      <c r="I11" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A12" s="9">
         <v>303</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="9">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="9">
         <v>5</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="27" t="b">
-        <v>1</v>
+      <c r="I12" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5411,7 +5465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E21101-E914-44E6-BF47-7878F2AEC948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29428F26-CD61-4186-84BC-A44E98328CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29428F26-CD61-4186-84BC-A44E98328CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC0F78-94FB-41E2-A29F-C9B7A958131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="116">
   <si>
     <t>Level</t>
   </si>
@@ -417,6 +417,12 @@
   <si>
     <t>Is_Charging</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 섬멸</t>
+  </si>
+  <si>
+    <t>Designated_Eliminate</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -687,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1534,6 +1543,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A13" s="6">
+        <v>331</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="32" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="S83" sqref="S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5454,6 +5495,406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A79" s="9">
+        <v>303032101</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="9">
+        <v>1</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9">
+        <v>0</v>
+      </c>
+      <c r="J79" s="9">
+        <v>0</v>
+      </c>
+      <c r="K79" s="9">
+        <v>5</v>
+      </c>
+      <c r="L79" s="9">
+        <v>0</v>
+      </c>
+      <c r="M79" s="9">
+        <v>0</v>
+      </c>
+      <c r="N79" s="9">
+        <v>0</v>
+      </c>
+      <c r="O79" s="9">
+        <v>0</v>
+      </c>
+      <c r="P79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A80" s="9">
+        <v>303032201</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="9">
+        <v>2</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1</v>
+      </c>
+      <c r="I80" s="9">
+        <v>0</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0</v>
+      </c>
+      <c r="K80" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="L80" s="9">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9">
+        <v>0</v>
+      </c>
+      <c r="N80" s="9">
+        <v>0</v>
+      </c>
+      <c r="O80" s="9">
+        <v>0</v>
+      </c>
+      <c r="P80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A81" s="9">
+        <v>303032301</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="9">
+        <v>3</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F81" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
+        <v>0</v>
+      </c>
+      <c r="K81" s="9">
+        <v>4</v>
+      </c>
+      <c r="L81" s="9">
+        <v>0</v>
+      </c>
+      <c r="M81" s="9">
+        <v>0</v>
+      </c>
+      <c r="N81" s="9">
+        <v>0</v>
+      </c>
+      <c r="O81" s="9">
+        <v>0</v>
+      </c>
+      <c r="P81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A82" s="9">
+        <v>303032401</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="9">
+        <v>4</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0</v>
+      </c>
+      <c r="E82" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
+        <v>1</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0</v>
+      </c>
+      <c r="K82" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="L82" s="9">
+        <v>0</v>
+      </c>
+      <c r="M82" s="9">
+        <v>0</v>
+      </c>
+      <c r="N82" s="9">
+        <v>0</v>
+      </c>
+      <c r="O82" s="9">
+        <v>0</v>
+      </c>
+      <c r="P82" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A83" s="9">
+        <v>303032501</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="9">
+        <v>5</v>
+      </c>
+      <c r="D83" s="9">
+        <v>0</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F83" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <v>3</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <v>0</v>
+      </c>
+      <c r="N83" s="9">
+        <v>0</v>
+      </c>
+      <c r="O83" s="9">
+        <v>0</v>
+      </c>
+      <c r="P83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A84" s="9">
+        <v>331033101</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="9">
+        <v>1</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F84" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G84" s="9">
+        <v>0</v>
+      </c>
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9">
+        <v>80000</v>
+      </c>
+      <c r="M84" s="9">
+        <v>0</v>
+      </c>
+      <c r="N84" s="9">
+        <v>0</v>
+      </c>
+      <c r="O84" s="9">
+        <v>0</v>
+      </c>
+      <c r="P84" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A85" s="9">
+        <v>331033201</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="9">
+        <v>2</v>
+      </c>
+      <c r="D85" s="9">
+        <v>0</v>
+      </c>
+      <c r="E85" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F85" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9">
+        <v>70000</v>
+      </c>
+      <c r="M85" s="9">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9">
+        <v>0</v>
+      </c>
+      <c r="O85" s="9">
+        <v>0</v>
+      </c>
+      <c r="P85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A86" s="9">
+        <v>331033301</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="9">
+        <v>3</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9">
+        <v>0</v>
+      </c>
+      <c r="L86" s="9">
+        <v>60000</v>
+      </c>
+      <c r="M86" s="9">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9">
+        <v>0</v>
+      </c>
+      <c r="O86" s="9">
+        <v>0</v>
+      </c>
+      <c r="P86" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5465,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5750,19 +6191,19 @@
       <c r="A12" s="9">
         <v>303</v>
       </c>
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="B12" s="9">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="15"/>
@@ -5771,13 +6212,25 @@
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+    <row r="13" spans="1:11" ht="17.5" thickBot="1">
+      <c r="A13" s="9">
+        <v>331</v>
+      </c>
+      <c r="B13" s="9">
+        <v>121</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC0F78-94FB-41E2-A29F-C9B7A958131C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264DA65-B220-4236-8DBA-B559AAB75E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5907,7 +5907,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5992,10 +5992,10 @@
         <v>201</v>
       </c>
       <c r="B4" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6">
         <v>15</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264DA65-B220-4236-8DBA-B559AAB75E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564AEDB3-8053-4470-90BD-0C17692AE164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1585,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="S83" sqref="S83"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -5992,13 +5992,13 @@
         <v>201</v>
       </c>
       <c r="B4" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564AEDB3-8053-4470-90BD-0C17692AE164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3968382E-B7A3-40E6-BA13-9E6021376513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5992,13 +5992,13 @@
         <v>201</v>
       </c>
       <c r="B4" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE311614-45EC-40A1-A5D4-B94979A358D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF2E996-5F4A-4330-9E49-FE551569C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="1070" windowWidth="11740" windowHeight="13280" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10280" yWindow="400" windowWidth="11740" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1635,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6556,8 +6556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6892,7 +6892,7 @@
         <v>331</v>
       </c>
       <c r="B14" s="9">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF2E996-5F4A-4330-9E49-FE551569C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573A5E1-BEFA-449C-A5D3-B3070277FA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="400" windowWidth="11740" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1235,7 +1235,7 @@
         <v>96</v>
       </c>
       <c r="I2" s="24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="24" t="b">
         <v>0</v>
@@ -1635,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6556,7 +6556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -7040,7 +7040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F864C1-39F2-4689-85D7-396F71370209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE565B9F-8E54-4484-8F2B-AE734C22AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
   <si>
     <t>Level</t>
   </si>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>Counter</t>
+  </si>
+  <si>
+    <t>Scoping_Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,7 +516,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -946,6 +956,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1393,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1406,10 +1419,12 @@
     <col min="3" max="6" width="8.58203125" style="19"/>
     <col min="7" max="7" width="10.5" style="19" customWidth="1"/>
     <col min="8" max="8" width="21.58203125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="19"/>
+    <col min="9" max="9" width="8.58203125" style="19"/>
+    <col min="10" max="10" width="13.75" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.5" thickBot="1">
+    <row r="1" spans="1:12" ht="34.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1434,17 +1449,20 @@
       <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34.5" thickBot="1">
+    <row r="2" spans="1:12" ht="34.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -1472,14 +1490,17 @@
       <c r="I2" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34.5" thickBot="1">
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="34.5" thickBot="1">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1507,14 +1528,17 @@
       <c r="I3" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.5" thickBot="1">
       <c r="A4" s="24">
         <v>102</v>
       </c>
@@ -1542,14 +1566,17 @@
       <c r="I4" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1577,14 +1604,17 @@
       <c r="I5" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.5" thickBot="1">
       <c r="A6" s="6">
         <v>104</v>
       </c>
@@ -1612,14 +1642,17 @@
       <c r="I6" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34.5" thickBot="1">
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="34.5" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -1647,14 +1680,17 @@
       <c r="I7" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34.5" thickBot="1">
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="34.5" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -1682,14 +1718,17 @@
       <c r="I8" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -1717,14 +1756,17 @@
       <c r="I9" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.5" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -1752,14 +1794,17 @@
       <c r="I10" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.5" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -1787,14 +1832,17 @@
       <c r="I11" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.5" thickBot="1">
       <c r="A12" s="6">
         <v>232</v>
       </c>
@@ -1822,14 +1870,17 @@
       <c r="I12" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.5" thickBot="1">
       <c r="A13" s="6">
         <v>300</v>
       </c>
@@ -1857,14 +1908,17 @@
       <c r="I13" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.5" thickBot="1">
       <c r="A14" s="6">
         <v>301</v>
       </c>
@@ -1892,14 +1946,17 @@
       <c r="I14" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.5" thickBot="1">
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.5" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -1927,14 +1984,17 @@
       <c r="I15" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="34.5" thickBot="1">
+      <c r="J15" s="6">
+        <v>5</v>
+      </c>
+      <c r="K15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="34.5" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -1962,14 +2022,17 @@
       <c r="I16" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17.5" thickBot="1">
+    <row r="17" spans="1:12" ht="17.5" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -1997,10 +2060,13 @@
       <c r="I17" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2014,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A29" sqref="A1:P133"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE565B9F-8E54-4484-8F2B-AE734C22AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05EF05-77DC-4DAD-9247-F0057DCF9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="127">
   <si>
     <t>Level</t>
   </si>
@@ -451,6 +451,9 @@
   <si>
     <t>Scoping_Time</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked_Skill</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -959,6 +962,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1406,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="M1" sqref="M1:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1424,7 +1430,7 @@
     <col min="11" max="16384" width="8.58203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.5" thickBot="1">
+    <row r="1" spans="1:13" ht="34.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1461,8 +1467,11 @@
       <c r="L1" s="25" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="34.5" thickBot="1">
+      <c r="M1" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="34.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -1499,8 +1508,11 @@
       <c r="L2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="34.5" thickBot="1">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="34.5" thickBot="1">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1537,8 +1549,11 @@
       <c r="L3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.5" thickBot="1">
       <c r="A4" s="24">
         <v>102</v>
       </c>
@@ -1575,8 +1590,11 @@
       <c r="L4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1613,8 +1631,11 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M5" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17.5" thickBot="1">
       <c r="A6" s="6">
         <v>104</v>
       </c>
@@ -1651,8 +1672,11 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="34.5" thickBot="1">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34.5" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -1689,8 +1713,11 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="34.5" thickBot="1">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34.5" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -1727,8 +1754,11 @@
       <c r="L8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -1765,8 +1795,11 @@
       <c r="L9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17.5" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -1803,8 +1836,11 @@
       <c r="L10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17.5" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -1841,8 +1877,11 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M11" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.5" thickBot="1">
       <c r="A12" s="6">
         <v>232</v>
       </c>
@@ -1879,8 +1918,11 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17.5" thickBot="1">
       <c r="A13" s="6">
         <v>300</v>
       </c>
@@ -1917,8 +1959,11 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17.5" thickBot="1">
       <c r="A14" s="6">
         <v>301</v>
       </c>
@@ -1955,8 +2000,11 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.5" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -1993,8 +2041,11 @@
       <c r="L15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="34.5" thickBot="1">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="34.5" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -2031,8 +2082,11 @@
       <c r="L16" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.5" thickBot="1">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.5" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -2067,6 +2121,9 @@
         <v>0</v>
       </c>
       <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05EF05-77DC-4DAD-9247-F0057DCF9399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D22169B-69CE-4FDC-9294-54A4C02EAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="129">
   <si>
     <t>Level</t>
   </si>
@@ -454,13 +454,19 @@
   </si>
   <si>
     <t>Linked_Skill</t>
+  </si>
+  <si>
+    <t>디멘션 디스토션</t>
+  </si>
+  <si>
+    <t>Dimension_Distortion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,13 +516,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="16">
@@ -829,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -882,18 +881,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -965,6 +952,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1455,19 +1448,19 @@
       <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1475,7 +1468,7 @@
       <c r="A2" s="6">
         <v>100</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="6">
@@ -1496,13 +1489,13 @@
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="27" t="b">
+      <c r="I2" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="27" t="b">
+      <c r="K2" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="6">
@@ -1516,7 +1509,7 @@
       <c r="A3" s="6">
         <v>101</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="6">
@@ -1537,13 +1530,13 @@
       <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="27" t="b">
+      <c r="I3" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="27" t="b">
+      <c r="K3" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L3" s="6">
@@ -1554,37 +1547,37 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A4" s="24">
+      <c r="A4" s="20">
         <v>102</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>2</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
         <v>3</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="28" t="b">
+      <c r="I4" s="24" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="29" t="b">
+      <c r="K4" s="25" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="6">
@@ -1598,8 +1591,8 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
+      <c r="B5" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -1619,13 +1612,13 @@
       <c r="H5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="27" t="b">
+      <c r="I5" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="27" t="b">
+      <c r="K5" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L5" s="6">
@@ -1639,8 +1632,8 @@
       <c r="A6" s="6">
         <v>104</v>
       </c>
-      <c r="B6" s="7">
-        <v>1</v>
+      <c r="B6" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -1660,13 +1653,13 @@
       <c r="H6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="27" t="b">
+      <c r="I6" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="27" t="b">
+      <c r="K6" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="6">
@@ -1677,92 +1670,92 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5" thickBot="1">
-      <c r="A7" s="6">
-        <v>200</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="A7" s="9">
+        <v>131</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="34.5" thickBot="1">
       <c r="A8" s="6">
+        <v>200</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34.5" thickBot="1">
+      <c r="A9" s="6">
         <v>201</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A9" s="6">
-        <v>202</v>
-      </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6">
@@ -1772,25 +1765,25 @@
         <v>5</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="27" t="b">
+        <v>36</v>
+      </c>
+      <c r="I9" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="27" t="b">
-        <v>0</v>
+      <c r="K9" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -1801,9 +1794,9 @@
     </row>
     <row r="10" spans="1:13" ht="17.5" thickBot="1">
       <c r="A10" s="6">
-        <v>203</v>
-      </c>
-      <c r="B10" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="6">
@@ -1816,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="27" t="b">
+        <v>38</v>
+      </c>
+      <c r="I10" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="27" t="b">
+      <c r="K10" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L10" s="6">
@@ -1842,50 +1835,50 @@
     </row>
     <row r="11" spans="1:13" ht="17.5" thickBot="1">
       <c r="A11" s="6">
-        <v>231</v>
-      </c>
-      <c r="B11" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="27" t="b">
+        <v>40</v>
+      </c>
+      <c r="I11" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="27" t="b">
+      <c r="K11" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.5" thickBot="1">
       <c r="A12" s="6">
-        <v>232</v>
-      </c>
-      <c r="B12" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6">
@@ -1898,62 +1891,62 @@
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="27" t="b">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="I12" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" s="27" t="b">
+      <c r="K12" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.5" thickBot="1">
       <c r="A13" s="6">
-        <v>300</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>45</v>
+        <v>232</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="27" t="b">
+        <v>44</v>
+      </c>
+      <c r="I13" s="23" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="27" t="b">
+      <c r="K13" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L13" s="6">
@@ -1965,16 +1958,16 @@
     </row>
     <row r="14" spans="1:13" ht="17.5" thickBot="1">
       <c r="A14" s="6">
-        <v>301</v>
-      </c>
-      <c r="B14" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1982,19 +1975,19 @@
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>48</v>
+      <c r="G14" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="27" t="b">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="I14" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="27" t="b">
+      <c r="K14" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="6">
@@ -2006,9 +1999,9 @@
     </row>
     <row r="15" spans="1:13" ht="17.5" thickBot="1">
       <c r="A15" s="6">
-        <v>302</v>
-      </c>
-      <c r="B15" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="6">
@@ -2024,18 +2017,18 @@
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="27" t="b">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="I15" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="6">
-        <v>5</v>
-      </c>
-      <c r="K15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23" t="b">
         <v>0</v>
       </c>
       <c r="L15" s="6">
@@ -2045,11 +2038,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="34.5" thickBot="1">
+    <row r="16" spans="1:13" ht="17.5" thickBot="1">
       <c r="A16" s="6">
-        <v>303</v>
-      </c>
-      <c r="B16" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6">
@@ -2065,65 +2058,106 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>5</v>
+      </c>
+      <c r="K16" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="34.5" thickBot="1">
+      <c r="A17" s="6">
+        <v>303</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="I17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
         <v>3</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A17" s="6">
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A18" s="6">
         <v>331</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="I18" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2135,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:P133"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2148,25 +2182,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2184,16 +2218,16 @@
       <c r="L1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="32" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2798,752 +2832,752 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="37">
+      <c r="A14" s="33">
         <v>102012101</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="38">
-        <v>1</v>
-      </c>
-      <c r="D14" s="38">
-        <v>0</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="C14" s="34">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0</v>
+      </c>
+      <c r="E14" s="34">
         <v>1.3</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="34">
         <v>0.4</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="34">
         <v>0.77</v>
       </c>
-      <c r="H14" s="38">
-        <v>0</v>
-      </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="38">
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
+      <c r="I14" s="34">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
+        <v>0</v>
+      </c>
+      <c r="K14" s="34">
         <v>7</v>
       </c>
-      <c r="L14" s="38">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38">
-        <v>0</v>
-      </c>
-      <c r="N14" s="38">
-        <v>0</v>
-      </c>
-      <c r="O14" s="38">
-        <v>0</v>
-      </c>
-      <c r="P14" s="39">
+      <c r="L14" s="34">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <v>0</v>
+      </c>
+      <c r="O14" s="34">
+        <v>0</v>
+      </c>
+      <c r="P14" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="40">
+      <c r="A15" s="36">
         <v>102012102</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="41">
-        <v>1</v>
-      </c>
-      <c r="D15" s="41">
-        <v>0</v>
-      </c>
-      <c r="E15" s="41">
+      <c r="C15" s="37">
+        <v>1</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
         <v>1.5</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="37">
         <v>0.25</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="37">
         <v>0.77</v>
       </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="41">
-        <v>0</v>
-      </c>
-      <c r="J15" s="41">
-        <v>0</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="H15" s="37">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
+        <v>0</v>
+      </c>
+      <c r="K15" s="37">
         <v>7</v>
       </c>
-      <c r="L15" s="41">
-        <v>0</v>
-      </c>
-      <c r="M15" s="41">
-        <v>0</v>
-      </c>
-      <c r="N15" s="41">
-        <v>0</v>
-      </c>
-      <c r="O15" s="41">
-        <v>0</v>
-      </c>
-      <c r="P15" s="42">
+      <c r="L15" s="37">
+        <v>0</v>
+      </c>
+      <c r="M15" s="37">
+        <v>0</v>
+      </c>
+      <c r="N15" s="37">
+        <v>0</v>
+      </c>
+      <c r="O15" s="37">
+        <v>0</v>
+      </c>
+      <c r="P15" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="40">
+      <c r="A16" s="36">
         <v>102012103</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="41">
-        <v>1</v>
-      </c>
-      <c r="D16" s="41">
-        <v>0</v>
-      </c>
-      <c r="E16" s="41">
+      <c r="C16" s="37">
+        <v>1</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
         <v>2</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="37">
         <v>0.15</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="37">
         <v>0.77</v>
       </c>
-      <c r="H16" s="41">
-        <v>0</v>
-      </c>
-      <c r="I16" s="41">
-        <v>0</v>
-      </c>
-      <c r="J16" s="41">
-        <v>0</v>
-      </c>
-      <c r="K16" s="41">
+      <c r="H16" s="37">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0</v>
+      </c>
+      <c r="K16" s="37">
         <v>7</v>
       </c>
-      <c r="L16" s="41">
-        <v>0</v>
-      </c>
-      <c r="M16" s="41">
-        <v>0</v>
-      </c>
-      <c r="N16" s="41">
-        <v>0</v>
-      </c>
-      <c r="O16" s="41">
-        <v>0</v>
-      </c>
-      <c r="P16" s="42">
+      <c r="L16" s="37">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37">
+        <v>0</v>
+      </c>
+      <c r="N16" s="37">
+        <v>0</v>
+      </c>
+      <c r="O16" s="37">
+        <v>0</v>
+      </c>
+      <c r="P16" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="40">
+      <c r="A17" s="36">
         <v>102012201</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="37">
         <v>2</v>
       </c>
-      <c r="D17" s="41">
-        <v>0</v>
-      </c>
-      <c r="E17" s="41">
+      <c r="D17" s="37">
+        <v>0</v>
+      </c>
+      <c r="E17" s="37">
         <v>1.3</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="37">
         <v>0.4</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="37">
         <v>0.77</v>
       </c>
-      <c r="H17" s="41">
-        <v>0</v>
-      </c>
-      <c r="I17" s="41">
-        <v>0</v>
-      </c>
-      <c r="J17" s="41">
-        <v>0</v>
-      </c>
-      <c r="K17" s="41">
+      <c r="H17" s="37">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37">
+        <v>0</v>
+      </c>
+      <c r="K17" s="37">
         <v>6.5</v>
       </c>
-      <c r="L17" s="41">
-        <v>0</v>
-      </c>
-      <c r="M17" s="41">
-        <v>0</v>
-      </c>
-      <c r="N17" s="41">
-        <v>0</v>
-      </c>
-      <c r="O17" s="41">
-        <v>0</v>
-      </c>
-      <c r="P17" s="42">
+      <c r="L17" s="37">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0</v>
+      </c>
+      <c r="N17" s="37">
+        <v>0</v>
+      </c>
+      <c r="O17" s="37">
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <v>102012202</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="37">
         <v>2</v>
       </c>
-      <c r="D18" s="41">
-        <v>0</v>
-      </c>
-      <c r="E18" s="41">
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
+      <c r="E18" s="37">
         <v>1.5</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="37">
         <v>0.25</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="37">
         <v>0.77</v>
       </c>
-      <c r="H18" s="41">
-        <v>0</v>
-      </c>
-      <c r="I18" s="41">
-        <v>0</v>
-      </c>
-      <c r="J18" s="41">
-        <v>0</v>
-      </c>
-      <c r="K18" s="41">
+      <c r="H18" s="37">
+        <v>0</v>
+      </c>
+      <c r="I18" s="37">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37">
+        <v>0</v>
+      </c>
+      <c r="K18" s="37">
         <v>6.5</v>
       </c>
-      <c r="L18" s="41">
-        <v>0</v>
-      </c>
-      <c r="M18" s="41">
-        <v>0</v>
-      </c>
-      <c r="N18" s="41">
-        <v>0</v>
-      </c>
-      <c r="O18" s="41">
-        <v>0</v>
-      </c>
-      <c r="P18" s="42">
+      <c r="L18" s="37">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <v>0</v>
+      </c>
+      <c r="N18" s="37">
+        <v>0</v>
+      </c>
+      <c r="O18" s="37">
+        <v>0</v>
+      </c>
+      <c r="P18" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="40">
+      <c r="A19" s="36">
         <v>102012203</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="37">
         <v>2</v>
       </c>
-      <c r="D19" s="41">
-        <v>0</v>
-      </c>
-      <c r="E19" s="41">
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
         <v>2</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="37">
         <v>0.15</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="37">
         <v>0.77</v>
       </c>
-      <c r="H19" s="41">
-        <v>0</v>
-      </c>
-      <c r="I19" s="41">
-        <v>0</v>
-      </c>
-      <c r="J19" s="41">
-        <v>0</v>
-      </c>
-      <c r="K19" s="41">
+      <c r="H19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37">
         <v>6.5</v>
       </c>
-      <c r="L19" s="41">
-        <v>0</v>
-      </c>
-      <c r="M19" s="41">
-        <v>0</v>
-      </c>
-      <c r="N19" s="41">
-        <v>0</v>
-      </c>
-      <c r="O19" s="41">
-        <v>0</v>
-      </c>
-      <c r="P19" s="42">
+      <c r="L19" s="37">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <v>0</v>
+      </c>
+      <c r="N19" s="37">
+        <v>0</v>
+      </c>
+      <c r="O19" s="37">
+        <v>0</v>
+      </c>
+      <c r="P19" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="40">
+      <c r="A20" s="36">
         <v>102012301</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="37">
         <v>3</v>
       </c>
-      <c r="D20" s="41">
-        <v>0</v>
-      </c>
-      <c r="E20" s="41">
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
         <v>1.3</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="37">
         <v>0.4</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="37">
         <v>0.77</v>
       </c>
-      <c r="H20" s="41">
-        <v>0</v>
-      </c>
-      <c r="I20" s="41">
-        <v>0</v>
-      </c>
-      <c r="J20" s="41">
-        <v>0</v>
-      </c>
-      <c r="K20" s="41">
+      <c r="H20" s="37">
+        <v>0</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0</v>
+      </c>
+      <c r="K20" s="37">
         <v>6</v>
       </c>
-      <c r="L20" s="41">
-        <v>0</v>
-      </c>
-      <c r="M20" s="41">
-        <v>0</v>
-      </c>
-      <c r="N20" s="41">
-        <v>0</v>
-      </c>
-      <c r="O20" s="41">
-        <v>0</v>
-      </c>
-      <c r="P20" s="42">
+      <c r="L20" s="37">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0</v>
+      </c>
+      <c r="N20" s="37">
+        <v>0</v>
+      </c>
+      <c r="O20" s="37">
+        <v>0</v>
+      </c>
+      <c r="P20" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="40">
+      <c r="A21" s="36">
         <v>102012302</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="37">
         <v>3</v>
       </c>
-      <c r="D21" s="41">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41">
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
         <v>1.5</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="37">
         <v>0.25</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="37">
         <v>0.77</v>
       </c>
-      <c r="H21" s="41">
-        <v>0</v>
-      </c>
-      <c r="I21" s="41">
-        <v>0</v>
-      </c>
-      <c r="J21" s="41">
-        <v>0</v>
-      </c>
-      <c r="K21" s="41">
+      <c r="H21" s="37">
+        <v>0</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0</v>
+      </c>
+      <c r="K21" s="37">
         <v>6</v>
       </c>
-      <c r="L21" s="41">
-        <v>0</v>
-      </c>
-      <c r="M21" s="41">
-        <v>0</v>
-      </c>
-      <c r="N21" s="41">
-        <v>0</v>
-      </c>
-      <c r="O21" s="41">
-        <v>0</v>
-      </c>
-      <c r="P21" s="42">
+      <c r="L21" s="37">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0</v>
+      </c>
+      <c r="N21" s="37">
+        <v>0</v>
+      </c>
+      <c r="O21" s="37">
+        <v>0</v>
+      </c>
+      <c r="P21" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="40">
+      <c r="A22" s="36">
         <v>102012303</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="37">
         <v>3</v>
       </c>
-      <c r="D22" s="41">
-        <v>0</v>
-      </c>
-      <c r="E22" s="41">
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+      <c r="E22" s="37">
         <v>2</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="37">
         <v>0.15</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="37">
         <v>0.77</v>
       </c>
-      <c r="H22" s="41">
-        <v>0</v>
-      </c>
-      <c r="I22" s="41">
-        <v>0</v>
-      </c>
-      <c r="J22" s="41">
-        <v>0</v>
-      </c>
-      <c r="K22" s="41">
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37">
+        <v>0</v>
+      </c>
+      <c r="K22" s="37">
         <v>6</v>
       </c>
-      <c r="L22" s="41">
-        <v>0</v>
-      </c>
-      <c r="M22" s="41">
-        <v>0</v>
-      </c>
-      <c r="N22" s="41">
-        <v>0</v>
-      </c>
-      <c r="O22" s="41">
-        <v>0</v>
-      </c>
-      <c r="P22" s="42">
+      <c r="L22" s="37">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+      <c r="N22" s="37">
+        <v>0</v>
+      </c>
+      <c r="O22" s="37">
+        <v>0</v>
+      </c>
+      <c r="P22" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="40">
+      <c r="A23" s="36">
         <v>102012401</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="37">
         <v>4</v>
       </c>
-      <c r="D23" s="41">
-        <v>0</v>
-      </c>
-      <c r="E23" s="41">
+      <c r="D23" s="37">
+        <v>0</v>
+      </c>
+      <c r="E23" s="37">
         <v>1.3</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="37">
         <v>0.4</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="37">
         <v>0.77</v>
       </c>
-      <c r="H23" s="41">
-        <v>0</v>
-      </c>
-      <c r="I23" s="41">
-        <v>0</v>
-      </c>
-      <c r="J23" s="41">
-        <v>0</v>
-      </c>
-      <c r="K23" s="41">
+      <c r="H23" s="37">
+        <v>0</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37">
+        <v>0</v>
+      </c>
+      <c r="K23" s="37">
         <v>5.5</v>
       </c>
-      <c r="L23" s="41">
-        <v>0</v>
-      </c>
-      <c r="M23" s="41">
-        <v>0</v>
-      </c>
-      <c r="N23" s="41">
-        <v>0</v>
-      </c>
-      <c r="O23" s="41">
-        <v>0</v>
-      </c>
-      <c r="P23" s="42">
+      <c r="L23" s="37">
+        <v>0</v>
+      </c>
+      <c r="M23" s="37">
+        <v>0</v>
+      </c>
+      <c r="N23" s="37">
+        <v>0</v>
+      </c>
+      <c r="O23" s="37">
+        <v>0</v>
+      </c>
+      <c r="P23" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="40">
+      <c r="A24" s="36">
         <v>102012402</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="37">
         <v>4</v>
       </c>
-      <c r="D24" s="41">
-        <v>0</v>
-      </c>
-      <c r="E24" s="41">
+      <c r="D24" s="37">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
         <v>1.5</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="37">
         <v>0.25</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="37">
         <v>0.77</v>
       </c>
-      <c r="H24" s="41">
-        <v>0</v>
-      </c>
-      <c r="I24" s="41">
-        <v>0</v>
-      </c>
-      <c r="J24" s="41">
-        <v>0</v>
-      </c>
-      <c r="K24" s="41">
+      <c r="H24" s="37">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37">
+        <v>0</v>
+      </c>
+      <c r="K24" s="37">
         <v>5.5</v>
       </c>
-      <c r="L24" s="41">
-        <v>0</v>
-      </c>
-      <c r="M24" s="41">
-        <v>0</v>
-      </c>
-      <c r="N24" s="41">
-        <v>0</v>
-      </c>
-      <c r="O24" s="41">
-        <v>0</v>
-      </c>
-      <c r="P24" s="42">
+      <c r="L24" s="37">
+        <v>0</v>
+      </c>
+      <c r="M24" s="37">
+        <v>0</v>
+      </c>
+      <c r="N24" s="37">
+        <v>0</v>
+      </c>
+      <c r="O24" s="37">
+        <v>0</v>
+      </c>
+      <c r="P24" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="40">
+      <c r="A25" s="36">
         <v>102012403</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="37">
         <v>4</v>
       </c>
-      <c r="D25" s="41">
-        <v>0</v>
-      </c>
-      <c r="E25" s="41">
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
         <v>2</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="37">
         <v>0.15</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="37">
         <v>0.77</v>
       </c>
-      <c r="H25" s="41">
-        <v>0</v>
-      </c>
-      <c r="I25" s="41">
-        <v>0</v>
-      </c>
-      <c r="J25" s="41">
-        <v>0</v>
-      </c>
-      <c r="K25" s="41">
+      <c r="H25" s="37">
+        <v>0</v>
+      </c>
+      <c r="I25" s="37">
+        <v>0</v>
+      </c>
+      <c r="J25" s="37">
+        <v>0</v>
+      </c>
+      <c r="K25" s="37">
         <v>5.5</v>
       </c>
-      <c r="L25" s="41">
-        <v>0</v>
-      </c>
-      <c r="M25" s="41">
-        <v>0</v>
-      </c>
-      <c r="N25" s="41">
-        <v>0</v>
-      </c>
-      <c r="O25" s="41">
-        <v>0</v>
-      </c>
-      <c r="P25" s="42">
+      <c r="L25" s="37">
+        <v>0</v>
+      </c>
+      <c r="M25" s="37">
+        <v>0</v>
+      </c>
+      <c r="N25" s="37">
+        <v>0</v>
+      </c>
+      <c r="O25" s="37">
+        <v>0</v>
+      </c>
+      <c r="P25" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="40">
+      <c r="A26" s="36">
         <v>102012501</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="37">
         <v>5</v>
       </c>
-      <c r="D26" s="41">
-        <v>0</v>
-      </c>
-      <c r="E26" s="41">
+      <c r="D26" s="37">
+        <v>0</v>
+      </c>
+      <c r="E26" s="37">
         <v>1.3</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="37">
         <v>0.4</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="37">
         <v>0.77</v>
       </c>
-      <c r="H26" s="41">
-        <v>0</v>
-      </c>
-      <c r="I26" s="41">
-        <v>0</v>
-      </c>
-      <c r="J26" s="41">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
+      <c r="H26" s="37">
+        <v>0</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37">
+        <v>0</v>
+      </c>
+      <c r="K26" s="37">
         <v>5</v>
       </c>
-      <c r="L26" s="41">
-        <v>0</v>
-      </c>
-      <c r="M26" s="41">
-        <v>0</v>
-      </c>
-      <c r="N26" s="41">
-        <v>0</v>
-      </c>
-      <c r="O26" s="41">
-        <v>0</v>
-      </c>
-      <c r="P26" s="42">
+      <c r="L26" s="37">
+        <v>0</v>
+      </c>
+      <c r="M26" s="37">
+        <v>0</v>
+      </c>
+      <c r="N26" s="37">
+        <v>0</v>
+      </c>
+      <c r="O26" s="37">
+        <v>0</v>
+      </c>
+      <c r="P26" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="40">
+      <c r="A27" s="36">
         <v>102012502</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="37">
         <v>5</v>
       </c>
-      <c r="D27" s="41">
-        <v>0</v>
-      </c>
-      <c r="E27" s="41">
+      <c r="D27" s="37">
+        <v>0</v>
+      </c>
+      <c r="E27" s="37">
         <v>1.5</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="37">
         <v>0.25</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="37">
         <v>0.77</v>
       </c>
-      <c r="H27" s="41">
-        <v>0</v>
-      </c>
-      <c r="I27" s="41">
-        <v>0</v>
-      </c>
-      <c r="J27" s="41">
-        <v>0</v>
-      </c>
-      <c r="K27" s="41">
+      <c r="H27" s="37">
+        <v>0</v>
+      </c>
+      <c r="I27" s="37">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37">
+        <v>0</v>
+      </c>
+      <c r="K27" s="37">
         <v>5</v>
       </c>
-      <c r="L27" s="41">
-        <v>0</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0</v>
-      </c>
-      <c r="N27" s="41">
-        <v>0</v>
-      </c>
-      <c r="O27" s="41">
-        <v>0</v>
-      </c>
-      <c r="P27" s="42">
+      <c r="L27" s="37">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37">
+        <v>0</v>
+      </c>
+      <c r="N27" s="37">
+        <v>0</v>
+      </c>
+      <c r="O27" s="37">
+        <v>0</v>
+      </c>
+      <c r="P27" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A28" s="43">
+      <c r="A28" s="39">
         <v>102012503</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="40">
         <v>5</v>
       </c>
-      <c r="D28" s="44">
-        <v>0</v>
-      </c>
-      <c r="E28" s="44">
+      <c r="D28" s="40">
+        <v>0</v>
+      </c>
+      <c r="E28" s="40">
         <v>2</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="40">
         <v>0.15</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <v>0.77</v>
       </c>
-      <c r="H28" s="44">
-        <v>0</v>
-      </c>
-      <c r="I28" s="44">
-        <v>0</v>
-      </c>
-      <c r="J28" s="44">
-        <v>0</v>
-      </c>
-      <c r="K28" s="44">
+      <c r="H28" s="40">
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <v>0</v>
+      </c>
+      <c r="J28" s="40">
+        <v>0</v>
+      </c>
+      <c r="K28" s="40">
         <v>5</v>
       </c>
-      <c r="L28" s="44">
-        <v>0</v>
-      </c>
-      <c r="M28" s="44">
-        <v>0</v>
-      </c>
-      <c r="N28" s="44">
-        <v>0</v>
-      </c>
-      <c r="O28" s="44">
-        <v>0</v>
-      </c>
-      <c r="P28" s="45">
+      <c r="L28" s="40">
+        <v>0</v>
+      </c>
+      <c r="M28" s="40">
+        <v>0</v>
+      </c>
+      <c r="N28" s="40">
+        <v>0</v>
+      </c>
+      <c r="O28" s="40">
+        <v>0</v>
+      </c>
+      <c r="P28" s="41">
         <v>0</v>
       </c>
     </row>
@@ -4547,274 +4581,304 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="17.5" thickBot="1">
+    <row r="49" spans="1:26" ht="17.5" thickBot="1">
       <c r="A49" s="6">
+        <v>131013101</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>15</v>
+      </c>
+      <c r="F49" s="6">
+        <v>5</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>5</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>120000</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+    </row>
+    <row r="50" spans="1:26" ht="17.5" thickBot="1">
+      <c r="A50" s="6">
+        <v>131013201</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>15</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>5</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>110000</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+    </row>
+    <row r="51" spans="1:26" ht="17.5" thickBot="1">
+      <c r="A51" s="6">
+        <v>131013301</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>15</v>
+      </c>
+      <c r="F51" s="6">
+        <v>5</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>5</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>100000</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+    </row>
+    <row r="52" spans="1:26" ht="17.5" thickBot="1">
+      <c r="A52" s="6">
         <v>200021101</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
-        <v>1</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A50" s="6">
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="17.5" thickBot="1">
+      <c r="A53" s="6">
         <v>200021102</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6">
-        <v>1</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A51" s="6">
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="17.5" thickBot="1">
+      <c r="A54" s="6">
         <v>201022101</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>20</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
-        <v>0</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6">
-        <v>0</v>
-      </c>
-      <c r="P51" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A52" s="6">
-        <v>201022102</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F52" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G52" s="6">
-        <v>1</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>20</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A53" s="6">
-        <v>201022201</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>18</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A54" s="6">
-        <v>201022202</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="6">
         <v>0</v>
       </c>
       <c r="E54" s="6">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F54" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G54" s="6">
         <v>1</v>
@@ -4829,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -4847,24 +4911,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="17.5" thickBot="1">
+    <row r="55" spans="1:26" ht="17.5" thickBot="1">
       <c r="A55" s="6">
-        <v>201022301</v>
+        <v>201022102</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" s="6">
         <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F55" s="6">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G55" s="6">
         <v>1</v>
@@ -4879,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L55" s="6">
         <v>0</v>
@@ -4897,24 +4961,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="17.5" thickBot="1">
+    <row r="56" spans="1:26" ht="17.5" thickBot="1">
       <c r="A56" s="6">
-        <v>201022302</v>
+        <v>201022201</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" s="6">
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F56" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G56" s="6">
         <v>1</v>
@@ -4929,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
@@ -4947,24 +5011,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="17.5" thickBot="1">
+    <row r="57" spans="1:26" ht="17.5" thickBot="1">
       <c r="A57" s="6">
-        <v>201022401</v>
+        <v>201022202</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C57" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F57" s="6">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G57" s="6">
         <v>1</v>
@@ -4979,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L57" s="6">
         <v>0</v>
@@ -4997,24 +5061,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="17.5" thickBot="1">
+    <row r="58" spans="1:26" ht="17.5" thickBot="1">
       <c r="A58" s="6">
-        <v>201022402</v>
+        <v>201022301</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F58" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G58" s="6">
         <v>1</v>
@@ -5029,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L58" s="6">
         <v>0</v>
@@ -5047,24 +5111,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="17.5" thickBot="1">
+    <row r="59" spans="1:26" ht="17.5" thickBot="1">
       <c r="A59" s="6">
-        <v>201022501</v>
+        <v>201022302</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
         <v>0</v>
       </c>
       <c r="E59" s="6">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F59" s="6">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G59" s="6">
         <v>1</v>
@@ -5079,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
@@ -5097,24 +5161,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="17.5" thickBot="1">
+    <row r="60" spans="1:26" ht="17.5" thickBot="1">
       <c r="A60" s="6">
-        <v>201022502</v>
+        <v>201022401</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C60" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="6">
         <v>0</v>
       </c>
       <c r="E60" s="6">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="F60" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G60" s="6">
         <v>1</v>
@@ -5129,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L60" s="6">
         <v>0</v>
@@ -5147,24 +5211,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="17.5" thickBot="1">
+    <row r="61" spans="1:26" ht="17.5" thickBot="1">
       <c r="A61" s="6">
-        <v>201022111</v>
+        <v>201022402</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D61" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6">
-        <v>0.7</v>
+        <v>1.75</v>
       </c>
       <c r="F61" s="6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G61" s="6">
         <v>1</v>
@@ -5179,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="6">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L61" s="6">
         <v>0</v>
@@ -5197,24 +5261,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="34.5" thickBot="1">
+    <row r="62" spans="1:26" ht="17.5" thickBot="1">
       <c r="A62" s="6">
-        <v>201022112</v>
+        <v>201022501</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="6">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="F62" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G62" s="6">
         <v>1</v>
@@ -5226,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="J62" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K62" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L62" s="6">
         <v>0</v>
@@ -5247,489 +5311,489 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="17.5" thickBot="1">
+    <row r="63" spans="1:26" ht="17.5" thickBot="1">
       <c r="A63" s="6">
-        <v>201022211</v>
+        <v>201022502</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="6">
+        <v>5</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>12</v>
+      </c>
+      <c r="L63" s="6">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <v>0</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
+        <v>0</v>
+      </c>
+      <c r="P63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="17.5" thickBot="1">
+      <c r="A64" s="6">
+        <v>201022111</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>20</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
+        <v>0</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A65" s="6">
+        <v>201022112</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>10</v>
+      </c>
+      <c r="K65" s="6">
+        <v>20</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
+        <v>0</v>
+      </c>
+      <c r="P65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A66" s="6">
+        <v>201022211</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="6">
         <v>2</v>
       </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6">
         <v>0.7</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F66" s="6">
         <v>0.1</v>
       </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
-        <v>0</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6">
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
         <v>18</v>
       </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
-      <c r="M63" s="6">
-        <v>0</v>
-      </c>
-      <c r="N63" s="6">
-        <v>0</v>
-      </c>
-      <c r="O63" s="6">
-        <v>0</v>
-      </c>
-      <c r="P63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A64" s="6">
+      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>0</v>
+      </c>
+      <c r="N66" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A67" s="6">
         <v>201022212</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C67" s="6">
         <v>2</v>
       </c>
-      <c r="D64" s="6">
-        <v>1</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6">
         <v>2.25</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F67" s="6">
         <v>0.25</v>
       </c>
-      <c r="G64" s="6">
-        <v>1</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
-      <c r="I64" s="6">
-        <v>0</v>
-      </c>
-      <c r="J64" s="6">
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
         <v>10</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K67" s="6">
         <v>18</v>
       </c>
-      <c r="L64" s="6">
-        <v>0</v>
-      </c>
-      <c r="M64" s="6">
-        <v>0</v>
-      </c>
-      <c r="N64" s="6">
-        <v>0</v>
-      </c>
-      <c r="O64" s="6">
-        <v>0</v>
-      </c>
-      <c r="P64" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A65" s="6">
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A68" s="6">
         <v>201022311</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C68" s="6">
         <v>3</v>
       </c>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="6">
         <v>0.7</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F68" s="6">
         <v>0.1</v>
       </c>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0</v>
-      </c>
-      <c r="K65" s="6">
+      <c r="G68" s="6">
+        <v>1</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
         <v>16</v>
       </c>
-      <c r="L65" s="6">
-        <v>0</v>
-      </c>
-      <c r="M65" s="6">
-        <v>0</v>
-      </c>
-      <c r="N65" s="6">
-        <v>0</v>
-      </c>
-      <c r="O65" s="6">
-        <v>0</v>
-      </c>
-      <c r="P65" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A66" s="6">
+      <c r="L68" s="6">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A69" s="6">
         <v>201022312</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C69" s="6">
         <v>3</v>
       </c>
-      <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="6">
         <v>2.25</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F69" s="6">
         <v>0.25</v>
       </c>
-      <c r="G66" s="6">
-        <v>1</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
         <v>10</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K69" s="6">
         <v>16</v>
       </c>
-      <c r="L66" s="6">
-        <v>0</v>
-      </c>
-      <c r="M66" s="6">
-        <v>0</v>
-      </c>
-      <c r="N66" s="6">
-        <v>0</v>
-      </c>
-      <c r="O66" s="6">
-        <v>0</v>
-      </c>
-      <c r="P66" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A67" s="6">
+      <c r="L69" s="6">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0</v>
+      </c>
+      <c r="N69" s="6">
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A70" s="6">
         <v>201022411</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C70" s="6">
         <v>4</v>
       </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="6">
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
         <v>0.7</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F70" s="6">
         <v>0.1</v>
       </c>
-      <c r="G67" s="6">
-        <v>1</v>
-      </c>
-      <c r="H67" s="6">
-        <v>0</v>
-      </c>
-      <c r="I67" s="6">
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
+      <c r="G70" s="6">
+        <v>1</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
         <v>14</v>
       </c>
-      <c r="L67" s="6">
-        <v>0</v>
-      </c>
-      <c r="M67" s="6">
-        <v>0</v>
-      </c>
-      <c r="N67" s="6">
-        <v>0</v>
-      </c>
-      <c r="O67" s="6">
-        <v>0</v>
-      </c>
-      <c r="P67" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A68" s="6">
+      <c r="L70" s="6">
+        <v>0</v>
+      </c>
+      <c r="M70" s="6">
+        <v>0</v>
+      </c>
+      <c r="N70" s="6">
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
+        <v>0</v>
+      </c>
+      <c r="P70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A71" s="6">
         <v>201022412</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C71" s="6">
         <v>4</v>
       </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6">
         <v>2.25</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F71" s="6">
         <v>0.25</v>
       </c>
-      <c r="G68" s="6">
-        <v>1</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0</v>
-      </c>
-      <c r="I68" s="6">
-        <v>0</v>
-      </c>
-      <c r="J68" s="6">
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
         <v>10</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K71" s="6">
         <v>14</v>
       </c>
-      <c r="L68" s="6">
-        <v>0</v>
-      </c>
-      <c r="M68" s="6">
-        <v>0</v>
-      </c>
-      <c r="N68" s="6">
-        <v>0</v>
-      </c>
-      <c r="O68" s="6">
-        <v>0</v>
-      </c>
-      <c r="P68" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A69" s="6">
+      <c r="L71" s="6">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
+        <v>0</v>
+      </c>
+      <c r="P71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A72" s="6">
         <v>201022511</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C72" s="6">
         <v>5</v>
       </c>
-      <c r="D69" s="6">
-        <v>1</v>
-      </c>
-      <c r="E69" s="6">
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="6">
         <v>0.7</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F72" s="6">
         <v>0.1</v>
       </c>
-      <c r="G69" s="6">
-        <v>1</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <v>0</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
+      <c r="G72" s="6">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
         <v>12</v>
-      </c>
-      <c r="L69" s="6">
-        <v>0</v>
-      </c>
-      <c r="M69" s="6">
-        <v>0</v>
-      </c>
-      <c r="N69" s="6">
-        <v>0</v>
-      </c>
-      <c r="O69" s="6">
-        <v>0</v>
-      </c>
-      <c r="P69" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A70" s="6">
-        <v>201022512</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="6">
-        <v>5</v>
-      </c>
-      <c r="D70" s="6">
-        <v>1</v>
-      </c>
-      <c r="E70" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G70" s="6">
-        <v>1</v>
-      </c>
-      <c r="H70" s="6">
-        <v>0</v>
-      </c>
-      <c r="I70" s="6">
-        <v>0</v>
-      </c>
-      <c r="J70" s="6">
-        <v>10</v>
-      </c>
-      <c r="K70" s="6">
-        <v>12</v>
-      </c>
-      <c r="L70" s="6">
-        <v>0</v>
-      </c>
-      <c r="M70" s="6">
-        <v>0</v>
-      </c>
-      <c r="N70" s="6">
-        <v>0</v>
-      </c>
-      <c r="O70" s="6">
-        <v>0</v>
-      </c>
-      <c r="P70" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A71" s="6">
-        <v>201022121</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="6">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G71" s="6">
-        <v>1</v>
-      </c>
-      <c r="H71" s="6">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6">
-        <v>0</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <v>20</v>
-      </c>
-      <c r="L71" s="6">
-        <v>0</v>
-      </c>
-      <c r="M71" s="6">
-        <v>0</v>
-      </c>
-      <c r="N71" s="6">
-        <v>0</v>
-      </c>
-      <c r="O71" s="6">
-        <v>0</v>
-      </c>
-      <c r="P71" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A72" s="6">
-        <v>201022122</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="6">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6">
-        <v>2</v>
-      </c>
-      <c r="E72" s="6">
-        <v>2.75</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G72" s="6">
-        <v>1</v>
-      </c>
-      <c r="H72" s="6">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0</v>
-      </c>
-      <c r="J72" s="6">
-        <v>10</v>
-      </c>
-      <c r="K72" s="6">
-        <v>20</v>
       </c>
       <c r="L72" s="6">
         <v>0</v>
@@ -5749,37 +5813,37 @@
     </row>
     <row r="73" spans="1:16" ht="34.5" thickBot="1">
       <c r="A73" s="6">
-        <v>201022123</v>
+        <v>201022512</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C73" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D73" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="F73" s="6">
         <v>0.25</v>
       </c>
       <c r="G73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="6">
         <v>0</v>
       </c>
       <c r="I73" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="6">
         <v>10</v>
       </c>
       <c r="K73" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L73" s="6">
         <v>0</v>
@@ -5799,13 +5863,13 @@
     </row>
     <row r="74" spans="1:16" ht="17.5" thickBot="1">
       <c r="A74" s="6">
-        <v>201022221</v>
+        <v>201022121</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="6">
         <v>2</v>
@@ -5829,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L74" s="6">
         <v>0</v>
@@ -5849,13 +5913,13 @@
     </row>
     <row r="75" spans="1:16" ht="34.5" thickBot="1">
       <c r="A75" s="6">
-        <v>201022222</v>
+        <v>201022122</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" s="6">
         <v>2</v>
@@ -5879,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="K75" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L75" s="6">
         <v>0</v>
@@ -5899,13 +5963,13 @@
     </row>
     <row r="76" spans="1:16" ht="34.5" thickBot="1">
       <c r="A76" s="6">
-        <v>201022223</v>
+        <v>201022123</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C76" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76" s="6">
         <v>2</v>
@@ -5929,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="K76" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L76" s="6">
         <v>0</v>
@@ -5949,13 +6013,13 @@
     </row>
     <row r="77" spans="1:16" ht="17.5" thickBot="1">
       <c r="A77" s="6">
-        <v>201022321</v>
+        <v>201022221</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C77" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" s="6">
         <v>2</v>
@@ -5979,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L77" s="6">
         <v>0</v>
@@ -5999,13 +6063,13 @@
     </row>
     <row r="78" spans="1:16" ht="34.5" thickBot="1">
       <c r="A78" s="6">
-        <v>201022322</v>
+        <v>201022222</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C78" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="6">
         <v>2</v>
@@ -6029,7 +6093,7 @@
         <v>10</v>
       </c>
       <c r="K78" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L78" s="6">
         <v>0</v>
@@ -6049,13 +6113,13 @@
     </row>
     <row r="79" spans="1:16" ht="34.5" thickBot="1">
       <c r="A79" s="6">
-        <v>201022323</v>
+        <v>201022223</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C79" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="6">
         <v>2</v>
@@ -6079,7 +6143,7 @@
         <v>10</v>
       </c>
       <c r="K79" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L79" s="6">
         <v>0</v>
@@ -6099,13 +6163,13 @@
     </row>
     <row r="80" spans="1:16" ht="17.5" thickBot="1">
       <c r="A80" s="6">
-        <v>201022421</v>
+        <v>201022321</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C80" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6">
         <v>2</v>
@@ -6129,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L80" s="6">
         <v>0</v>
@@ -6149,13 +6213,13 @@
     </row>
     <row r="81" spans="1:16" ht="34.5" thickBot="1">
       <c r="A81" s="6">
-        <v>201022422</v>
+        <v>201022322</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C81" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
         <v>2</v>
@@ -6179,7 +6243,7 @@
         <v>10</v>
       </c>
       <c r="K81" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L81" s="6">
         <v>0</v>
@@ -6199,13 +6263,13 @@
     </row>
     <row r="82" spans="1:16" ht="34.5" thickBot="1">
       <c r="A82" s="6">
-        <v>201022423</v>
+        <v>201022323</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C82" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" s="6">
         <v>2</v>
@@ -6229,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="K82" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L82" s="6">
         <v>0</v>
@@ -6249,13 +6313,13 @@
     </row>
     <row r="83" spans="1:16" ht="17.5" thickBot="1">
       <c r="A83" s="6">
-        <v>201022521</v>
+        <v>201022421</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="6">
         <v>2</v>
@@ -6279,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L83" s="6">
         <v>0</v>
@@ -6299,13 +6363,13 @@
     </row>
     <row r="84" spans="1:16" ht="34.5" thickBot="1">
       <c r="A84" s="6">
-        <v>201022522</v>
+        <v>201022422</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="6">
         <v>2</v>
@@ -6329,7 +6393,7 @@
         <v>10</v>
       </c>
       <c r="K84" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L84" s="6">
         <v>0</v>
@@ -6349,13 +6413,13 @@
     </row>
     <row r="85" spans="1:16" ht="34.5" thickBot="1">
       <c r="A85" s="6">
-        <v>201022523</v>
+        <v>201022423</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C85" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="6">
         <v>2</v>
@@ -6379,7 +6443,7 @@
         <v>10</v>
       </c>
       <c r="K85" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L85" s="6">
         <v>0</v>
@@ -6399,87 +6463,87 @@
     </row>
     <row r="86" spans="1:16" ht="17.5" thickBot="1">
       <c r="A86" s="6">
-        <v>202022101</v>
+        <v>201022521</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E86" s="6">
-        <v>1.85</v>
+        <v>1</v>
       </c>
       <c r="F86" s="6">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G86" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="6">
         <v>0</v>
       </c>
       <c r="I86" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="6">
         <v>0</v>
       </c>
       <c r="K86" s="6">
+        <v>12</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0</v>
+      </c>
+      <c r="M86" s="6">
+        <v>0</v>
+      </c>
+      <c r="N86" s="6">
+        <v>0</v>
+      </c>
+      <c r="O86" s="6">
+        <v>0</v>
+      </c>
+      <c r="P86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A87" s="6">
+        <v>201022522</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="6">
         <v>5</v>
       </c>
-      <c r="L86" s="6">
-        <v>0</v>
-      </c>
-      <c r="M86" s="6">
-        <v>0</v>
-      </c>
-      <c r="N86" s="6">
-        <v>0</v>
-      </c>
-      <c r="O86" s="6">
-        <v>0</v>
-      </c>
-      <c r="P86" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A87" s="6">
-        <v>202022201</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="6">
+      <c r="D87" s="6">
         <v>2</v>
       </c>
-      <c r="D87" s="6">
-        <v>0</v>
-      </c>
       <c r="E87" s="6">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="F87" s="6">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G87" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" s="6">
         <v>0</v>
       </c>
       <c r="I87" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K87" s="6">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="L87" s="6">
         <v>0</v>
@@ -6497,24 +6561,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="17.5" thickBot="1">
+    <row r="88" spans="1:16" ht="34.5" thickBot="1">
       <c r="A88" s="6">
-        <v>202022301</v>
+        <v>201022523</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E88" s="6">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="F88" s="6">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G88" s="6">
         <v>0</v>
@@ -6526,10 +6590,10 @@
         <v>1</v>
       </c>
       <c r="J88" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K88" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L88" s="6">
         <v>0</v>
@@ -6549,13 +6613,13 @@
     </row>
     <row r="89" spans="1:16" ht="17.5" thickBot="1">
       <c r="A89" s="6">
-        <v>202022401</v>
+        <v>202022101</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89" s="6">
         <v>0</v>
@@ -6579,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L89" s="6">
         <v>0</v>
@@ -6599,13 +6663,13 @@
     </row>
     <row r="90" spans="1:16" ht="17.5" thickBot="1">
       <c r="A90" s="6">
-        <v>202022501</v>
+        <v>202022201</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C90" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" s="6">
         <v>0</v>
@@ -6629,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="6">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L90" s="6">
         <v>0</v>
@@ -6649,37 +6713,37 @@
     </row>
     <row r="91" spans="1:16" ht="17.5" thickBot="1">
       <c r="A91" s="6">
-        <v>203022101</v>
+        <v>202022301</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C91" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
         <v>0</v>
       </c>
       <c r="E91" s="6">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="F91" s="6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G91" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="6">
         <v>0</v>
       </c>
       <c r="I91" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" s="6">
         <v>0</v>
       </c>
       <c r="K91" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L91" s="6">
         <v>0</v>
@@ -6699,37 +6763,37 @@
     </row>
     <row r="92" spans="1:16" ht="17.5" thickBot="1">
       <c r="A92" s="6">
-        <v>203022102</v>
+        <v>202022401</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C92" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D92" s="6">
         <v>0</v>
       </c>
       <c r="E92" s="6">
-        <v>0.7</v>
+        <v>1.85</v>
       </c>
       <c r="F92" s="6">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G92" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="6">
         <v>0</v>
       </c>
       <c r="I92" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="6">
         <v>0</v>
       </c>
       <c r="K92" s="6">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="L92" s="6">
         <v>0</v>
@@ -6749,37 +6813,37 @@
     </row>
     <row r="93" spans="1:16" ht="17.5" thickBot="1">
       <c r="A93" s="6">
-        <v>203022103</v>
+        <v>202022501</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C93" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
         <v>0</v>
       </c>
       <c r="E93" s="6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="F93" s="6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G93" s="6">
         <v>0</v>
       </c>
       <c r="H93" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="6">
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L93" s="6">
         <v>0</v>
@@ -6799,13 +6863,13 @@
     </row>
     <row r="94" spans="1:16" ht="17.5" thickBot="1">
       <c r="A94" s="6">
-        <v>203022201</v>
+        <v>203022101</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C94" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="6">
         <v>0</v>
@@ -6829,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="6">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L94" s="6">
         <v>0</v>
@@ -6849,13 +6913,13 @@
     </row>
     <row r="95" spans="1:16" ht="17.5" thickBot="1">
       <c r="A95" s="6">
-        <v>203022202</v>
+        <v>203022102</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C95" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="6">
         <v>0</v>
@@ -6879,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="6">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L95" s="6">
         <v>0</v>
@@ -6899,13 +6963,13 @@
     </row>
     <row r="96" spans="1:16" ht="17.5" thickBot="1">
       <c r="A96" s="6">
-        <v>203022203</v>
+        <v>203022103</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C96" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="6">
         <v>0</v>
@@ -6929,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="6">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L96" s="6">
         <v>0</v>
@@ -6949,13 +7013,13 @@
     </row>
     <row r="97" spans="1:16" ht="17.5" thickBot="1">
       <c r="A97" s="6">
-        <v>203022301</v>
+        <v>203022201</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C97" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" s="6">
         <v>0</v>
@@ -6979,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="6">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L97" s="6">
         <v>0</v>
@@ -6999,13 +7063,13 @@
     </row>
     <row r="98" spans="1:16" ht="17.5" thickBot="1">
       <c r="A98" s="6">
-        <v>203022302</v>
+        <v>203022202</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C98" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" s="6">
         <v>0</v>
@@ -7029,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="6">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L98" s="6">
         <v>0</v>
@@ -7049,13 +7113,13 @@
     </row>
     <row r="99" spans="1:16" ht="17.5" thickBot="1">
       <c r="A99" s="6">
-        <v>203022303</v>
+        <v>203022203</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C99" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" s="6">
         <v>0</v>
@@ -7079,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="6">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L99" s="6">
         <v>0</v>
@@ -7099,13 +7163,13 @@
     </row>
     <row r="100" spans="1:16" ht="17.5" thickBot="1">
       <c r="A100" s="6">
-        <v>203022401</v>
+        <v>203022301</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C100" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" s="6">
         <v>0</v>
@@ -7129,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L100" s="6">
         <v>0</v>
@@ -7149,13 +7213,13 @@
     </row>
     <row r="101" spans="1:16" ht="17.5" thickBot="1">
       <c r="A101" s="6">
-        <v>203022402</v>
+        <v>203022302</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C101" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" s="6">
         <v>0</v>
@@ -7179,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L101" s="6">
         <v>0</v>
@@ -7199,13 +7263,13 @@
     </row>
     <row r="102" spans="1:16" ht="17.5" thickBot="1">
       <c r="A102" s="6">
-        <v>203022403</v>
+        <v>203022303</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C102" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" s="6">
         <v>0</v>
@@ -7229,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L102" s="6">
         <v>0</v>
@@ -7249,13 +7313,13 @@
     </row>
     <row r="103" spans="1:16" ht="17.5" thickBot="1">
       <c r="A103" s="6">
-        <v>203022501</v>
+        <v>203022401</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C103" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" s="6">
         <v>0</v>
@@ -7279,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L103" s="6">
         <v>0</v>
@@ -7299,13 +7363,13 @@
     </row>
     <row r="104" spans="1:16" ht="17.5" thickBot="1">
       <c r="A104" s="6">
-        <v>203022502</v>
+        <v>203022402</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C104" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104" s="6">
         <v>0</v>
@@ -7329,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L104" s="6">
         <v>0</v>
@@ -7349,13 +7413,13 @@
     </row>
     <row r="105" spans="1:16" ht="17.5" thickBot="1">
       <c r="A105" s="6">
-        <v>203022503</v>
+        <v>203022403</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C105" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="6">
         <v>0</v>
@@ -7379,180 +7443,180 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
+        <v>11</v>
+      </c>
+      <c r="L105" s="6">
+        <v>0</v>
+      </c>
+      <c r="M105" s="6">
+        <v>0</v>
+      </c>
+      <c r="N105" s="6">
+        <v>0</v>
+      </c>
+      <c r="O105" s="6">
+        <v>0</v>
+      </c>
+      <c r="P105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A106" s="6">
+        <v>203022501</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="6">
+        <v>5</v>
+      </c>
+      <c r="D106" s="6">
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
+      <c r="H106" s="6">
+        <v>0</v>
+      </c>
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0</v>
+      </c>
+      <c r="K106" s="6">
         <v>10</v>
       </c>
-      <c r="L105" s="6">
-        <v>0</v>
-      </c>
-      <c r="M105" s="6">
-        <v>0</v>
-      </c>
-      <c r="N105" s="6">
-        <v>0</v>
-      </c>
-      <c r="O105" s="6">
-        <v>0</v>
-      </c>
-      <c r="P105" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A106" s="6">
+      <c r="L106" s="6">
+        <v>0</v>
+      </c>
+      <c r="M106" s="6">
+        <v>0</v>
+      </c>
+      <c r="N106" s="6">
+        <v>0</v>
+      </c>
+      <c r="O106" s="6">
+        <v>0</v>
+      </c>
+      <c r="P106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A107" s="6">
+        <v>203022502</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="6">
+        <v>5</v>
+      </c>
+      <c r="D107" s="6">
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="6">
+        <v>0</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0</v>
+      </c>
+      <c r="K107" s="6">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6">
+        <v>0</v>
+      </c>
+      <c r="M107" s="6">
+        <v>0</v>
+      </c>
+      <c r="N107" s="6">
+        <v>0</v>
+      </c>
+      <c r="O107" s="6">
+        <v>0</v>
+      </c>
+      <c r="P107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A108" s="6">
+        <v>203022503</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="6">
+        <v>5</v>
+      </c>
+      <c r="D108" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="6">
+        <v>2</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <v>10</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0</v>
+      </c>
+      <c r="N108" s="6">
+        <v>0</v>
+      </c>
+      <c r="O108" s="6">
+        <v>0</v>
+      </c>
+      <c r="P108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A109" s="6">
         <v>231023101</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B109" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="C106" s="6">
-        <v>1</v>
-      </c>
-      <c r="D106" s="6">
-        <v>0</v>
-      </c>
-      <c r="E106" s="6">
-        <v>1</v>
-      </c>
-      <c r="F106" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="G106" s="6">
-        <v>0</v>
-      </c>
-      <c r="H106" s="6">
-        <v>0</v>
-      </c>
-      <c r="I106" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J106" s="6">
-        <v>0</v>
-      </c>
-      <c r="K106" s="6">
-        <v>0</v>
-      </c>
-      <c r="L106" s="6">
-        <v>60000</v>
-      </c>
-      <c r="M106" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="N106" s="6">
-        <v>0</v>
-      </c>
-      <c r="O106" s="6">
-        <v>0</v>
-      </c>
-      <c r="P106" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A107" s="6">
-        <v>231023201</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" s="6">
-        <v>2</v>
-      </c>
-      <c r="D107" s="6">
-        <v>0</v>
-      </c>
-      <c r="E107" s="6">
-        <v>1</v>
-      </c>
-      <c r="F107" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="G107" s="6">
-        <v>0</v>
-      </c>
-      <c r="H107" s="6">
-        <v>0</v>
-      </c>
-      <c r="I107" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J107" s="6">
-        <v>0</v>
-      </c>
-      <c r="K107" s="6">
-        <v>0</v>
-      </c>
-      <c r="L107" s="6">
-        <v>55000</v>
-      </c>
-      <c r="M107" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="N107" s="6">
-        <v>0</v>
-      </c>
-      <c r="O107" s="6">
-        <v>0</v>
-      </c>
-      <c r="P107" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="34.5" thickBot="1">
-      <c r="A108" s="6">
-        <v>231023301</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" s="6">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>0</v>
-      </c>
-      <c r="E108" s="6">
-        <v>1</v>
-      </c>
-      <c r="F108" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="G108" s="6">
-        <v>0</v>
-      </c>
-      <c r="H108" s="6">
-        <v>0</v>
-      </c>
-      <c r="I108" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J108" s="6">
-        <v>0</v>
-      </c>
-      <c r="K108" s="6">
-        <v>0</v>
-      </c>
-      <c r="L108" s="6">
-        <v>50000</v>
-      </c>
-      <c r="M108" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="N108" s="6">
-        <v>0</v>
-      </c>
-      <c r="O108" s="6">
-        <v>0</v>
-      </c>
-      <c r="P108" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A109" s="6">
-        <v>232023101</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="C109" s="6">
         <v>1</v>
@@ -7567,13 +7631,13 @@
         <v>0.33</v>
       </c>
       <c r="G109" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="6">
         <v>0</v>
       </c>
       <c r="I109" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J109" s="6">
         <v>0</v>
@@ -7582,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="L109" s="6">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="M109" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N109" s="6">
         <v>0</v>
@@ -7597,34 +7661,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="17.5" thickBot="1">
+    <row r="110" spans="1:16" ht="34.5" thickBot="1">
       <c r="A110" s="6">
-        <v>232023102</v>
+        <v>231023201</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C110" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="6">
         <v>0</v>
       </c>
       <c r="E110" s="6">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F110" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="G110" s="6">
+        <v>0</v>
+      </c>
+      <c r="H110" s="6">
+        <v>0</v>
+      </c>
+      <c r="I110" s="6">
         <v>0.5</v>
       </c>
-      <c r="G110" s="6">
-        <v>0</v>
-      </c>
-      <c r="H110" s="6">
-        <v>2</v>
-      </c>
-      <c r="I110" s="6">
-        <v>0</v>
-      </c>
       <c r="J110" s="6">
         <v>0</v>
       </c>
@@ -7632,10 +7696,10 @@
         <v>0</v>
       </c>
       <c r="L110" s="6">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="M110" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N110" s="6">
         <v>0</v>
@@ -7647,15 +7711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="17.5" thickBot="1">
+    <row r="111" spans="1:16" ht="34.5" thickBot="1">
       <c r="A111" s="6">
-        <v>232023201</v>
+        <v>231023301</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C111" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D111" s="6">
         <v>0</v>
@@ -7667,13 +7731,13 @@
         <v>0.33</v>
       </c>
       <c r="G111" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="6">
         <v>0</v>
       </c>
       <c r="I111" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J111" s="6">
         <v>0</v>
@@ -7682,10 +7746,10 @@
         <v>0</v>
       </c>
       <c r="L111" s="6">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="M111" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N111" s="6">
         <v>0</v>
@@ -7699,28 +7763,28 @@
     </row>
     <row r="112" spans="1:16" ht="17.5" thickBot="1">
       <c r="A112" s="6">
-        <v>232023202</v>
+        <v>232023101</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" s="6">
         <v>0</v>
       </c>
       <c r="E112" s="6">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F112" s="6">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G112" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" s="6">
         <v>0</v>
@@ -7749,28 +7813,28 @@
     </row>
     <row r="113" spans="1:16" ht="17.5" thickBot="1">
       <c r="A113" s="6">
-        <v>232023301</v>
+        <v>232023102</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C113" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D113" s="6">
         <v>0</v>
       </c>
       <c r="E113" s="6">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="F113" s="6">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G113" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" s="6">
         <v>0</v>
@@ -7799,28 +7863,28 @@
     </row>
     <row r="114" spans="1:16" ht="17.5" thickBot="1">
       <c r="A114" s="6">
-        <v>232023302</v>
+        <v>232023201</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C114" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" s="6">
         <v>0</v>
       </c>
       <c r="E114" s="6">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F114" s="6">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G114" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" s="6">
         <v>0</v>
@@ -7849,178 +7913,178 @@
     </row>
     <row r="115" spans="1:16" ht="17.5" thickBot="1">
       <c r="A115" s="6">
+        <v>232023202</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="6">
+        <v>2</v>
+      </c>
+      <c r="D115" s="6">
+        <v>0</v>
+      </c>
+      <c r="E115" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G115" s="6">
+        <v>0</v>
+      </c>
+      <c r="H115" s="6">
+        <v>2</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K115" s="6">
+        <v>0</v>
+      </c>
+      <c r="L115" s="6">
+        <v>0</v>
+      </c>
+      <c r="M115" s="6">
+        <v>0</v>
+      </c>
+      <c r="N115" s="6">
+        <v>0</v>
+      </c>
+      <c r="O115" s="6">
+        <v>0</v>
+      </c>
+      <c r="P115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A116" s="6">
+        <v>232023301</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="6">
+        <v>3</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="G116" s="6">
+        <v>1</v>
+      </c>
+      <c r="H116" s="6">
+        <v>0</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0</v>
+      </c>
+      <c r="K116" s="6">
+        <v>0</v>
+      </c>
+      <c r="L116" s="6">
+        <v>0</v>
+      </c>
+      <c r="M116" s="6">
+        <v>0</v>
+      </c>
+      <c r="N116" s="6">
+        <v>0</v>
+      </c>
+      <c r="O116" s="6">
+        <v>0</v>
+      </c>
+      <c r="P116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A117" s="6">
+        <v>232023302</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="6">
+        <v>3</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="6">
+        <v>0</v>
+      </c>
+      <c r="H117" s="6">
+        <v>2</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0</v>
+      </c>
+      <c r="J117" s="6">
+        <v>0</v>
+      </c>
+      <c r="K117" s="6">
+        <v>0</v>
+      </c>
+      <c r="L117" s="6">
+        <v>0</v>
+      </c>
+      <c r="M117" s="6">
+        <v>0</v>
+      </c>
+      <c r="N117" s="6">
+        <v>0</v>
+      </c>
+      <c r="O117" s="6">
+        <v>0</v>
+      </c>
+      <c r="P117" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A118" s="6">
         <v>300031101</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B118" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C115" s="6">
-        <v>1</v>
-      </c>
-      <c r="D115" s="6">
-        <v>0</v>
-      </c>
-      <c r="E115" s="6">
-        <v>0</v>
-      </c>
-      <c r="F115" s="6">
-        <v>1</v>
-      </c>
-      <c r="G115" s="6">
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="6">
+        <v>1</v>
+      </c>
+      <c r="G118" s="6">
         <v>0.67</v>
       </c>
-      <c r="H115" s="6">
-        <v>0</v>
-      </c>
-      <c r="I115" s="6">
-        <v>0</v>
-      </c>
-      <c r="J115" s="6">
-        <v>0</v>
-      </c>
-      <c r="K115" s="6">
-        <v>0</v>
-      </c>
-      <c r="L115" s="6">
-        <v>0</v>
-      </c>
-      <c r="M115" s="6">
-        <v>0</v>
-      </c>
-      <c r="N115" s="6">
-        <v>0</v>
-      </c>
-      <c r="O115" s="6">
-        <v>0</v>
-      </c>
-      <c r="P115" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A116" s="6">
-        <v>301032101</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C116" s="6">
-        <v>1</v>
-      </c>
-      <c r="D116" s="6">
-        <v>0</v>
-      </c>
-      <c r="E116" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="F116" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G116" s="6">
-        <v>0</v>
-      </c>
-      <c r="H116" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="I116" s="6">
-        <v>0</v>
-      </c>
-      <c r="J116" s="6">
-        <v>0</v>
-      </c>
-      <c r="K116" s="6">
-        <v>10</v>
-      </c>
-      <c r="L116" s="6">
-        <v>0</v>
-      </c>
-      <c r="M116" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N116" s="6">
-        <v>0</v>
-      </c>
-      <c r="O116" s="6">
-        <v>0</v>
-      </c>
-      <c r="P116" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A117" s="6">
-        <v>301032201</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="6">
-        <v>2</v>
-      </c>
-      <c r="D117" s="6">
-        <v>0</v>
-      </c>
-      <c r="E117" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="F117" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G117" s="6">
-        <v>0</v>
-      </c>
-      <c r="H117" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="I117" s="6">
-        <v>0</v>
-      </c>
-      <c r="J117" s="6">
-        <v>0</v>
-      </c>
-      <c r="K117" s="6">
-        <v>8</v>
-      </c>
-      <c r="L117" s="6">
-        <v>0</v>
-      </c>
-      <c r="M117" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="N117" s="6">
-        <v>0</v>
-      </c>
-      <c r="O117" s="6">
-        <v>0</v>
-      </c>
-      <c r="P117" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A118" s="6">
-        <v>301032301</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" s="6">
-        <v>3</v>
-      </c>
-      <c r="D118" s="6">
-        <v>0</v>
-      </c>
-      <c r="E118" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="F118" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G118" s="6">
-        <v>0</v>
-      </c>
       <c r="H118" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" s="6">
         <v>0</v>
@@ -8029,13 +8093,13 @@
         <v>0</v>
       </c>
       <c r="K118" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L118" s="6">
         <v>0</v>
       </c>
       <c r="M118" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N118" s="6">
         <v>0</v>
@@ -8049,13 +8113,13 @@
     </row>
     <row r="119" spans="1:16" ht="51.5" thickBot="1">
       <c r="A119" s="6">
-        <v>301032401</v>
+        <v>301032101</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C119" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D119" s="6">
         <v>0</v>
@@ -8070,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="6">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="I119" s="6">
         <v>0</v>
@@ -8079,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L119" s="6">
         <v>0</v>
@@ -8099,13 +8163,13 @@
     </row>
     <row r="120" spans="1:16" ht="51.5" thickBot="1">
       <c r="A120" s="6">
-        <v>301032501</v>
+        <v>301032201</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C120" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D120" s="6">
         <v>0</v>
@@ -8120,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="6">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="I120" s="6">
         <v>0</v>
@@ -8129,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L120" s="6">
         <v>0</v>
@@ -8147,30 +8211,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="17.5" thickBot="1">
+    <row r="121" spans="1:16" ht="51.5" thickBot="1">
       <c r="A121" s="6">
-        <v>302032101</v>
+        <v>301032301</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C121" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121" s="6">
         <v>0</v>
       </c>
       <c r="E121" s="6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="F121" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G121" s="6">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H121" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="6">
         <v>0</v>
@@ -8179,13 +8243,13 @@
         <v>0</v>
       </c>
       <c r="K121" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L121" s="6">
         <v>0</v>
       </c>
       <c r="M121" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N121" s="6">
         <v>0</v>
@@ -8197,30 +8261,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="17.5" thickBot="1">
+    <row r="122" spans="1:16" ht="51.5" thickBot="1">
       <c r="A122" s="6">
-        <v>302032201</v>
+        <v>301032401</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C122" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D122" s="6">
         <v>0</v>
       </c>
       <c r="E122" s="6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="F122" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G122" s="6">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H122" s="6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I122" s="6">
         <v>0</v>
@@ -8229,13 +8293,13 @@
         <v>0</v>
       </c>
       <c r="K122" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L122" s="6">
         <v>0</v>
       </c>
       <c r="M122" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N122" s="6">
         <v>0</v>
@@ -8247,30 +8311,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="17.5" thickBot="1">
+    <row r="123" spans="1:16" ht="51.5" thickBot="1">
       <c r="A123" s="6">
-        <v>302032301</v>
+        <v>301032501</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C123" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" s="6">
         <v>0</v>
       </c>
       <c r="E123" s="6">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="F123" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G123" s="6">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H123" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I123" s="6">
         <v>0</v>
@@ -8279,13 +8343,13 @@
         <v>0</v>
       </c>
       <c r="K123" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L123" s="6">
         <v>0</v>
       </c>
       <c r="M123" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N123" s="6">
         <v>0</v>
@@ -8299,13 +8363,13 @@
     </row>
     <row r="124" spans="1:16" ht="17.5" thickBot="1">
       <c r="A124" s="6">
-        <v>302032401</v>
+        <v>302032101</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C124" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D124" s="6">
         <v>0</v>
@@ -8329,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L124" s="6">
         <v>0</v>
@@ -8349,13 +8413,13 @@
     </row>
     <row r="125" spans="1:16" ht="17.5" thickBot="1">
       <c r="A125" s="6">
-        <v>302032501</v>
+        <v>302032201</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C125" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D125" s="6">
         <v>0</v>
@@ -8379,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L125" s="6">
         <v>0</v>
@@ -8399,28 +8463,28 @@
     </row>
     <row r="126" spans="1:16" ht="17.5" thickBot="1">
       <c r="A126" s="6">
-        <v>303032101</v>
+        <v>302032301</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C126" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D126" s="6">
         <v>0</v>
       </c>
       <c r="E126" s="6">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="F126" s="6">
         <v>0.25</v>
       </c>
       <c r="G126" s="6">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="H126" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" s="6">
         <v>0</v>
@@ -8429,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L126" s="6">
         <v>0</v>
@@ -8449,28 +8513,28 @@
     </row>
     <row r="127" spans="1:16" ht="17.5" thickBot="1">
       <c r="A127" s="6">
-        <v>303032201</v>
+        <v>302032401</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C127" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D127" s="6">
         <v>0</v>
       </c>
       <c r="E127" s="6">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="F127" s="6">
         <v>0.25</v>
       </c>
       <c r="G127" s="6">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="H127" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" s="6">
         <v>0</v>
@@ -8479,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="6">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="L127" s="6">
         <v>0</v>
@@ -8499,28 +8563,28 @@
     </row>
     <row r="128" spans="1:16" ht="17.5" thickBot="1">
       <c r="A128" s="6">
-        <v>303032301</v>
+        <v>302032501</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C128" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D128" s="6">
         <v>0</v>
       </c>
       <c r="E128" s="6">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="F128" s="6">
         <v>0.25</v>
       </c>
       <c r="G128" s="6">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="H128" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" s="6">
         <v>0</v>
@@ -8529,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L128" s="6">
         <v>0</v>
@@ -8549,13 +8613,13 @@
     </row>
     <row r="129" spans="1:16" ht="17.5" thickBot="1">
       <c r="A129" s="6">
-        <v>303032401</v>
+        <v>303032101</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C129" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D129" s="6">
         <v>0</v>
@@ -8579,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="6">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L129" s="6">
         <v>0</v>
@@ -8599,13 +8663,13 @@
     </row>
     <row r="130" spans="1:16" ht="17.5" thickBot="1">
       <c r="A130" s="6">
-        <v>303032501</v>
+        <v>303032201</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C130" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D130" s="6">
         <v>0</v>
@@ -8629,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="6">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L130" s="6">
         <v>0</v>
@@ -8649,28 +8713,28 @@
     </row>
     <row r="131" spans="1:16" ht="17.5" thickBot="1">
       <c r="A131" s="6">
-        <v>331033101</v>
+        <v>303032301</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C131" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131" s="6">
         <v>0</v>
       </c>
       <c r="E131" s="6">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F131" s="6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G131" s="6">
         <v>0</v>
       </c>
       <c r="H131" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" s="6">
         <v>0</v>
@@ -8679,10 +8743,10 @@
         <v>0</v>
       </c>
       <c r="K131" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L131" s="6">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="M131" s="6">
         <v>0</v>
@@ -8699,28 +8763,28 @@
     </row>
     <row r="132" spans="1:16" ht="17.5" thickBot="1">
       <c r="A132" s="6">
-        <v>331033201</v>
+        <v>303032401</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C132" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D132" s="6">
         <v>0</v>
       </c>
       <c r="E132" s="6">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F132" s="6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G132" s="6">
         <v>0</v>
       </c>
       <c r="H132" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" s="6">
         <v>0</v>
@@ -8729,10 +8793,10 @@
         <v>0</v>
       </c>
       <c r="K132" s="6">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L132" s="6">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="M132" s="6">
         <v>0</v>
@@ -8749,51 +8813,201 @@
     </row>
     <row r="133" spans="1:16" ht="17.5" thickBot="1">
       <c r="A133" s="6">
+        <v>303032501</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="6">
+        <v>5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0</v>
+      </c>
+      <c r="E133" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F133" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="G133" s="6">
+        <v>0</v>
+      </c>
+      <c r="H133" s="6">
+        <v>1</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6">
+        <v>0</v>
+      </c>
+      <c r="K133" s="6">
+        <v>3</v>
+      </c>
+      <c r="L133" s="6">
+        <v>0</v>
+      </c>
+      <c r="M133" s="6">
+        <v>0</v>
+      </c>
+      <c r="N133" s="6">
+        <v>0</v>
+      </c>
+      <c r="O133" s="6">
+        <v>0</v>
+      </c>
+      <c r="P133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A134" s="6">
+        <v>331033101</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F134" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G134" s="6">
+        <v>0</v>
+      </c>
+      <c r="H134" s="6">
+        <v>0</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0</v>
+      </c>
+      <c r="J134" s="6">
+        <v>0</v>
+      </c>
+      <c r="K134" s="6">
+        <v>0</v>
+      </c>
+      <c r="L134" s="6">
+        <v>80000</v>
+      </c>
+      <c r="M134" s="6">
+        <v>0</v>
+      </c>
+      <c r="N134" s="6">
+        <v>0</v>
+      </c>
+      <c r="O134" s="6">
+        <v>0</v>
+      </c>
+      <c r="P134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A135" s="6">
+        <v>331033201</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="6">
+        <v>2</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F135" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="G135" s="6">
+        <v>0</v>
+      </c>
+      <c r="H135" s="6">
+        <v>0</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0</v>
+      </c>
+      <c r="J135" s="6">
+        <v>0</v>
+      </c>
+      <c r="K135" s="6">
+        <v>0</v>
+      </c>
+      <c r="L135" s="6">
+        <v>70000</v>
+      </c>
+      <c r="M135" s="6">
+        <v>0</v>
+      </c>
+      <c r="N135" s="6">
+        <v>0</v>
+      </c>
+      <c r="O135" s="6">
+        <v>0</v>
+      </c>
+      <c r="P135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A136" s="6">
         <v>331033301</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B136" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C136" s="6">
         <v>3</v>
       </c>
-      <c r="D133" s="6">
-        <v>0</v>
-      </c>
-      <c r="E133" s="6">
+      <c r="D136" s="6">
+        <v>0</v>
+      </c>
+      <c r="E136" s="6">
         <v>0.3</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F136" s="6">
         <v>0.1</v>
       </c>
-      <c r="G133" s="6">
-        <v>0</v>
-      </c>
-      <c r="H133" s="6">
-        <v>0</v>
-      </c>
-      <c r="I133" s="6">
-        <v>0</v>
-      </c>
-      <c r="J133" s="6">
-        <v>0</v>
-      </c>
-      <c r="K133" s="6">
-        <v>0</v>
-      </c>
-      <c r="L133" s="6">
+      <c r="G136" s="6">
+        <v>0</v>
+      </c>
+      <c r="H136" s="6">
+        <v>0</v>
+      </c>
+      <c r="I136" s="6">
+        <v>0</v>
+      </c>
+      <c r="J136" s="6">
+        <v>0</v>
+      </c>
+      <c r="K136" s="6">
+        <v>0</v>
+      </c>
+      <c r="L136" s="6">
         <v>60000</v>
       </c>
-      <c r="M133" s="6">
-        <v>0</v>
-      </c>
-      <c r="N133" s="6">
-        <v>0</v>
-      </c>
-      <c r="O133" s="6">
-        <v>0</v>
-      </c>
-      <c r="P133" s="6">
+      <c r="M136" s="6">
+        <v>0</v>
+      </c>
+      <c r="N136" s="6">
+        <v>0</v>
+      </c>
+      <c r="O136" s="6">
+        <v>0</v>
+      </c>
+      <c r="P136" s="6">
         <v>0</v>
       </c>
     </row>
@@ -8806,15 +9020,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="15"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.5" thickBot="1">
+    <row r="1" spans="1:7" ht="17.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -8833,13 +9050,8 @@
       <c r="F1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.5" thickBot="1">
+    </row>
+    <row r="2" spans="1:7" ht="17.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -8858,503 +9070,327 @@
       <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="20">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6">
         <v>101</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="6">
         <v>7</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="6">
         <v>17</v>
       </c>
-      <c r="D3" s="20">
-        <v>0</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A4" s="22">
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A4" s="20">
         <v>102</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="24">
         <v>11</v>
       </c>
-      <c r="C4" s="21">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
         <v>22</v>
       </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A5" s="20">
+      <c r="E4" s="24">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="6">
         <v>6</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="6">
         <v>23</v>
       </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A6" s="20">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A6" s="6">
         <v>104</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="6">
         <v>23</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="6">
         <v>61</v>
       </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.5" thickBot="1">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="6">
+        <v>131</v>
+      </c>
+      <c r="B7" s="6">
+        <v>406</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A8" s="6">
         <v>200</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>60</v>
       </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>201</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>15</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>12</v>
       </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A9" s="6">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A10" s="6">
         <v>202</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A10" s="6">
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A11" s="6">
         <v>203</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A11" s="6">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A12" s="6">
         <v>231</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A12" s="6">
-        <v>232</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
       </c>
       <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A13" s="6">
+        <v>232</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
         <v>9</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A13" s="6">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A14" s="6">
         <v>300</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A14" s="9">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A15" s="6">
         <v>301</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B15" s="18">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A15" s="9">
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A16" s="6">
         <v>302</v>
       </c>
-      <c r="B15" s="18">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A16" s="9">
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A17" s="6">
         <v>303</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="6">
         <v>11</v>
       </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" ht="17.5" thickBot="1">
-      <c r="A17" s="9">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A18" s="6">
         <v>331</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D22169B-69CE-4FDC-9294-54A4C02EAF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6291604-B650-4D90-B6E9-F68D8C41FEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="17.5" thickBot="1">
       <c r="A3" s="6">
         <v>100011102</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="34">
+    <row r="4" spans="1:16" ht="34.5" thickBot="1">
       <c r="A4" s="6">
         <v>101012101</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>101012102</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="34">
+    <row r="6" spans="1:16" ht="34.5" thickBot="1">
       <c r="A6" s="6">
         <v>101012201</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="17.5" thickBot="1">
       <c r="A7" s="6">
         <v>101012202</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="34">
+    <row r="8" spans="1:16" ht="34.5" thickBot="1">
       <c r="A8" s="6">
         <v>101012301</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>101012302</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="34">
+    <row r="10" spans="1:16" ht="34.5" thickBot="1">
       <c r="A10" s="6">
         <v>101012401</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="17.5" thickBot="1">
       <c r="A11" s="6">
         <v>101012402</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="34">
+    <row r="12" spans="1:16" ht="34.5" thickBot="1">
       <c r="A12" s="6">
         <v>101012501</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="17.5" thickBot="1">
       <c r="A13" s="6">
         <v>101012502</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="17.5" thickBot="1">
       <c r="A14" s="33">
         <v>102012101</v>
       </c>
@@ -2862,8 +2862,8 @@
       <c r="J14" s="34">
         <v>0</v>
       </c>
-      <c r="K14" s="34">
-        <v>7</v>
+      <c r="K14" s="6">
+        <v>0</v>
       </c>
       <c r="L14" s="34">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="17.5" thickBot="1">
       <c r="A15" s="36">
         <v>102012102</v>
       </c>
@@ -2912,8 +2912,8 @@
       <c r="J15" s="37">
         <v>0</v>
       </c>
-      <c r="K15" s="37">
-        <v>7</v>
+      <c r="K15" s="6">
+        <v>0</v>
       </c>
       <c r="L15" s="37">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="17.5" thickBot="1">
       <c r="A16" s="36">
         <v>102012103</v>
       </c>
@@ -2962,8 +2962,8 @@
       <c r="J16" s="37">
         <v>0</v>
       </c>
-      <c r="K16" s="37">
-        <v>7</v>
+      <c r="K16" s="6">
+        <v>0</v>
       </c>
       <c r="L16" s="37">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="17.5" thickBot="1">
       <c r="A17" s="36">
         <v>102012201</v>
       </c>
@@ -3012,8 +3012,8 @@
       <c r="J17" s="37">
         <v>0</v>
       </c>
-      <c r="K17" s="37">
-        <v>6.5</v>
+      <c r="K17" s="6">
+        <v>0</v>
       </c>
       <c r="L17" s="37">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="17.5" thickBot="1">
       <c r="A18" s="36">
         <v>102012202</v>
       </c>
@@ -3062,8 +3062,8 @@
       <c r="J18" s="37">
         <v>0</v>
       </c>
-      <c r="K18" s="37">
-        <v>6.5</v>
+      <c r="K18" s="6">
+        <v>0</v>
       </c>
       <c r="L18" s="37">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" ht="17.5" thickBot="1">
       <c r="A19" s="36">
         <v>102012203</v>
       </c>
@@ -3112,8 +3112,8 @@
       <c r="J19" s="37">
         <v>0</v>
       </c>
-      <c r="K19" s="37">
-        <v>6.5</v>
+      <c r="K19" s="6">
+        <v>0</v>
       </c>
       <c r="L19" s="37">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" ht="17.5" thickBot="1">
       <c r="A20" s="36">
         <v>102012301</v>
       </c>
@@ -3162,8 +3162,8 @@
       <c r="J20" s="37">
         <v>0</v>
       </c>
-      <c r="K20" s="37">
-        <v>6</v>
+      <c r="K20" s="6">
+        <v>0</v>
       </c>
       <c r="L20" s="37">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" ht="17.5" thickBot="1">
       <c r="A21" s="36">
         <v>102012302</v>
       </c>
@@ -3212,8 +3212,8 @@
       <c r="J21" s="37">
         <v>0</v>
       </c>
-      <c r="K21" s="37">
-        <v>6</v>
+      <c r="K21" s="6">
+        <v>0</v>
       </c>
       <c r="L21" s="37">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="17.5" thickBot="1">
       <c r="A22" s="36">
         <v>102012303</v>
       </c>
@@ -3262,8 +3262,8 @@
       <c r="J22" s="37">
         <v>0</v>
       </c>
-      <c r="K22" s="37">
-        <v>6</v>
+      <c r="K22" s="6">
+        <v>0</v>
       </c>
       <c r="L22" s="37">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" ht="17.5" thickBot="1">
       <c r="A23" s="36">
         <v>102012401</v>
       </c>
@@ -3312,8 +3312,8 @@
       <c r="J23" s="37">
         <v>0</v>
       </c>
-      <c r="K23" s="37">
-        <v>5.5</v>
+      <c r="K23" s="6">
+        <v>0</v>
       </c>
       <c r="L23" s="37">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" ht="17.5" thickBot="1">
       <c r="A24" s="36">
         <v>102012402</v>
       </c>
@@ -3362,8 +3362,8 @@
       <c r="J24" s="37">
         <v>0</v>
       </c>
-      <c r="K24" s="37">
-        <v>5.5</v>
+      <c r="K24" s="6">
+        <v>0</v>
       </c>
       <c r="L24" s="37">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="17.5" thickBot="1">
       <c r="A25" s="36">
         <v>102012403</v>
       </c>
@@ -3412,8 +3412,8 @@
       <c r="J25" s="37">
         <v>0</v>
       </c>
-      <c r="K25" s="37">
-        <v>5.5</v>
+      <c r="K25" s="6">
+        <v>0</v>
       </c>
       <c r="L25" s="37">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" ht="17.5" thickBot="1">
       <c r="A26" s="36">
         <v>102012501</v>
       </c>
@@ -3462,8 +3462,8 @@
       <c r="J26" s="37">
         <v>0</v>
       </c>
-      <c r="K26" s="37">
-        <v>5</v>
+      <c r="K26" s="6">
+        <v>0</v>
       </c>
       <c r="L26" s="37">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" ht="17.5" thickBot="1">
       <c r="A27" s="36">
         <v>102012502</v>
       </c>
@@ -3512,8 +3512,8 @@
       <c r="J27" s="37">
         <v>0</v>
       </c>
-      <c r="K27" s="37">
-        <v>5</v>
+      <c r="K27" s="6">
+        <v>0</v>
       </c>
       <c r="L27" s="37">
         <v>0</v>
@@ -3562,8 +3562,8 @@
       <c r="J28" s="40">
         <v>0</v>
       </c>
-      <c r="K28" s="40">
-        <v>5</v>
+      <c r="K28" s="6">
+        <v>0</v>
       </c>
       <c r="L28" s="40">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L29" s="6">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L31" s="6">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L36" s="6">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L55" s="6">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L57" s="6">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L58" s="6">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L60" s="6">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L61" s="6">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L62" s="6">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L63" s="6">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L64" s="6">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="K65" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L65" s="6">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L66" s="6">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="K67" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L67" s="6">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L68" s="6">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>10</v>
       </c>
       <c r="K69" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L69" s="6">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L70" s="6">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="K71" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L71" s="6">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L72" s="6">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>10</v>
       </c>
       <c r="K73" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L73" s="6">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L74" s="6">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="K75" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L75" s="6">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="K76" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L76" s="6">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L77" s="6">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>10</v>
       </c>
       <c r="K78" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L78" s="6">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>10</v>
       </c>
       <c r="K79" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L79" s="6">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L80" s="6">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>10</v>
       </c>
       <c r="K81" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L81" s="6">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="K82" s="6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L82" s="6">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L83" s="6">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>10</v>
       </c>
       <c r="K84" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L84" s="6">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>10</v>
       </c>
       <c r="K85" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L85" s="6">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L86" s="6">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>10</v>
       </c>
       <c r="K87" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L87" s="6">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="K88" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L88" s="6">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L89" s="6">
         <v>0</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L90" s="6">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L91" s="6">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L92" s="6">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L93" s="6">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L94" s="6">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L95" s="6">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L96" s="6">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L97" s="6">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L98" s="6">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L99" s="6">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L100" s="6">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L101" s="6">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L102" s="6">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L103" s="6">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L104" s="6">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L105" s="6">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L106" s="6">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L107" s="6">
         <v>0</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L108" s="6">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L119" s="6">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L120" s="6">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L121" s="6">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L122" s="6">
         <v>0</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L123" s="6">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L124" s="6">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L125" s="6">
         <v>0</v>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L126" s="6">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L127" s="6">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L128" s="6">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L129" s="6">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="L130" s="6">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L131" s="6">
         <v>0</v>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="L132" s="6">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L133" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6291604-B650-4D90-B6E9-F68D8C41FEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F9761-4B1D-4885-AA04-57769330211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2171,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K136"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="34">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="37">
         <v>0</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="37">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="37">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="37">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="37">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="37">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="37">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="37">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="37">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="37">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="37">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="37">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="37">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="40">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="6">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="6">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="6">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="6">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="6">
         <v>0</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="6">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="6">
         <v>0</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="6">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="6">
         <v>0</v>
@@ -4563,7 +4563,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="6">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="6">
         <v>120000</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="6">
         <v>110000</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="6">
         <v>100000</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="6">
         <v>0</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="6">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="6">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="6">
         <v>0</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="6">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="6">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="6">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="6">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>10</v>
       </c>
       <c r="K65" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="6">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="6">
         <v>0</v>
@@ -5543,7 +5543,7 @@
         <v>10</v>
       </c>
       <c r="K67" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" s="6">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="6">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>10</v>
       </c>
       <c r="K69" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" s="6">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="6">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>10</v>
       </c>
       <c r="K71" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="6">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" s="6">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>10</v>
       </c>
       <c r="K73" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="6">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" s="6">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="K75" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" s="6">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="K76" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="6">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" s="6">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>10</v>
       </c>
       <c r="K78" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="6">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>10</v>
       </c>
       <c r="K79" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79" s="6">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="6">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>10</v>
       </c>
       <c r="K81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" s="6">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="K82" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" s="6">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" s="6">
         <v>0</v>
@@ -6393,7 +6393,7 @@
         <v>10</v>
       </c>
       <c r="K84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" s="6">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>10</v>
       </c>
       <c r="K85" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" s="6">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="6">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>10</v>
       </c>
       <c r="K87" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="6">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="K88" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" s="6">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" s="6">
         <v>0</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" s="6">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="6">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="6">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="6">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="6">
         <v>0</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="6">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="6">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="6">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" s="6">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" s="6">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="6">
         <v>0</v>
@@ -7243,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101" s="6">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" s="6">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="6">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" s="6">
         <v>0</v>
@@ -7443,7 +7443,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L105" s="6">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" s="6">
         <v>0</v>
@@ -7543,7 +7543,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="6">
         <v>0</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="6">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" s="6">
         <v>60000</v>
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" s="6">
         <v>55000</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="6">
         <v>50000</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="6">
         <v>0</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" s="6">
         <v>0</v>
@@ -7893,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L114" s="6">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" s="6">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" s="6">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" s="6">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" s="6">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="6">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="6">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" s="6">
         <v>0</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" s="6">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124" s="6">
         <v>0</v>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="6">
         <v>0</v>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="6">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" s="6">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="6">
         <v>0</v>
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" s="6">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" s="6">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="6">
         <v>0</v>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="6">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" s="6">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" s="6">
         <v>80000</v>
@@ -8943,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" s="6">
         <v>70000</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L136" s="6">
         <v>60000</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F9761-4B1D-4885-AA04-57769330211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27E7A2-C4C9-44F2-9E0F-58ED2FAC153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
@@ -9022,8 +9022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -9197,13 +9197,13 @@
         <v>201</v>
       </c>
       <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
-        <v>15</v>
-      </c>
       <c r="D9" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27E7A2-C4C9-44F2-9E0F-58ED2FAC153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9343C3-817E-4FC9-9774-13C614ABA517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9200,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9343C3-817E-4FC9-9774-13C614ABA517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8877D60-1F33-4DB3-9715-008E0BFCD30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -958,6 +958,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1492,7 +1498,7 @@
       <c r="I2" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="23" t="b">
@@ -1533,7 +1539,7 @@
       <c r="I3" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="23" t="b">
@@ -1574,7 +1580,7 @@
       <c r="I4" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="25" t="b">
@@ -1615,7 +1621,7 @@
       <c r="I5" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="1">
         <v>0</v>
       </c>
       <c r="K5" s="23" t="b">
@@ -1656,7 +1662,7 @@
       <c r="I6" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="23" t="b">
@@ -1697,7 +1703,7 @@
       <c r="I7" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="45" t="b">
@@ -1738,7 +1744,7 @@
       <c r="I8" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="23" t="b">
@@ -1779,7 +1785,7 @@
       <c r="I9" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="23" t="b">
@@ -1820,7 +1826,7 @@
       <c r="I10" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="23" t="b">
@@ -1861,7 +1867,7 @@
       <c r="I11" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="1">
         <v>0</v>
       </c>
       <c r="K11" s="23" t="b">
@@ -1902,7 +1908,7 @@
       <c r="I12" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="1">
         <v>0</v>
       </c>
       <c r="K12" s="23" t="b">
@@ -1943,8 +1949,8 @@
       <c r="I13" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="6">
-        <v>0</v>
+      <c r="J13" s="1">
+        <v>1.5</v>
       </c>
       <c r="K13" s="23" t="b">
         <v>0</v>
@@ -1984,8 +1990,8 @@
       <c r="I14" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="6">
-        <v>0</v>
+      <c r="J14" s="1">
+        <v>9999</v>
       </c>
       <c r="K14" s="23" t="b">
         <v>0</v>
@@ -2025,7 +2031,7 @@
       <c r="I15" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="1">
         <v>0</v>
       </c>
       <c r="K15" s="23" t="b">
@@ -2066,7 +2072,7 @@
       <c r="I16" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="1">
         <v>5</v>
       </c>
       <c r="K16" s="23" t="b">
@@ -2107,8 +2113,8 @@
       <c r="I17" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="6">
-        <v>0</v>
+      <c r="J17" s="1">
+        <v>9999</v>
       </c>
       <c r="K17" s="23" t="b">
         <v>0</v>
@@ -2145,16 +2151,16 @@
       <c r="H18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="I18" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9999</v>
+      </c>
+      <c r="K18" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1">
@@ -2171,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:P136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -8062,952 +8068,952 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A118" s="6">
+      <c r="A118" s="1">
         <v>300031101</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C118" s="6">
-        <v>1</v>
-      </c>
-      <c r="D118" s="6">
-        <v>0</v>
-      </c>
-      <c r="E118" s="6">
-        <v>0</v>
-      </c>
-      <c r="F118" s="6">
-        <v>1</v>
-      </c>
-      <c r="G118" s="6">
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
         <v>0.67</v>
       </c>
-      <c r="H118" s="6">
-        <v>0</v>
-      </c>
-      <c r="I118" s="6">
-        <v>0</v>
-      </c>
-      <c r="J118" s="6">
-        <v>0</v>
-      </c>
-      <c r="K118" s="6">
-        <v>0</v>
-      </c>
-      <c r="L118" s="6">
-        <v>0</v>
-      </c>
-      <c r="M118" s="6">
-        <v>0</v>
-      </c>
-      <c r="N118" s="6">
-        <v>0</v>
-      </c>
-      <c r="O118" s="6">
-        <v>0</v>
-      </c>
-      <c r="P118" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A119" s="6">
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="44" thickBot="1">
+      <c r="A119" s="1">
         <v>301032101</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C119" s="6">
-        <v>1</v>
-      </c>
-      <c r="D119" s="6">
-        <v>0</v>
-      </c>
-      <c r="E119" s="6">
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
         <v>1.4</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="1">
         <v>0.1</v>
       </c>
-      <c r="G119" s="6">
-        <v>0</v>
-      </c>
-      <c r="H119" s="6">
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
         <v>0.5</v>
       </c>
-      <c r="I119" s="6">
-        <v>0</v>
-      </c>
-      <c r="J119" s="6">
-        <v>0</v>
-      </c>
-      <c r="K119" s="6">
-        <v>1</v>
-      </c>
-      <c r="L119" s="6">
-        <v>0</v>
-      </c>
-      <c r="M119" s="6">
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>10</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0</v>
+      </c>
+      <c r="M119" s="1">
         <v>0.5</v>
       </c>
-      <c r="N119" s="6">
-        <v>0</v>
-      </c>
-      <c r="O119" s="6">
-        <v>0</v>
-      </c>
-      <c r="P119" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A120" s="6">
+      <c r="N119" s="1">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+      <c r="P119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="44" thickBot="1">
+      <c r="A120" s="1">
         <v>301032201</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="1">
         <v>2</v>
       </c>
-      <c r="D120" s="6">
-        <v>0</v>
-      </c>
-      <c r="E120" s="6">
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
         <v>1.4</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="1">
         <v>0.1</v>
       </c>
-      <c r="G120" s="6">
-        <v>0</v>
-      </c>
-      <c r="H120" s="6">
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
         <v>0.75</v>
       </c>
-      <c r="I120" s="6">
-        <v>0</v>
-      </c>
-      <c r="J120" s="6">
-        <v>0</v>
-      </c>
-      <c r="K120" s="6">
-        <v>1</v>
-      </c>
-      <c r="L120" s="6">
-        <v>0</v>
-      </c>
-      <c r="M120" s="6">
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>8</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1">
         <v>0.5</v>
       </c>
-      <c r="N120" s="6">
-        <v>0</v>
-      </c>
-      <c r="O120" s="6">
-        <v>0</v>
-      </c>
-      <c r="P120" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A121" s="6">
+      <c r="N120" s="1">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0</v>
+      </c>
+      <c r="P120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="44" thickBot="1">
+      <c r="A121" s="1">
         <v>301032301</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="1">
         <v>3</v>
       </c>
-      <c r="D121" s="6">
-        <v>0</v>
-      </c>
-      <c r="E121" s="6">
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
         <v>1.4</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="1">
         <v>0.1</v>
       </c>
-      <c r="G121" s="6">
-        <v>0</v>
-      </c>
-      <c r="H121" s="6">
-        <v>1</v>
-      </c>
-      <c r="I121" s="6">
-        <v>0</v>
-      </c>
-      <c r="J121" s="6">
-        <v>0</v>
-      </c>
-      <c r="K121" s="6">
-        <v>1</v>
-      </c>
-      <c r="L121" s="6">
-        <v>0</v>
-      </c>
-      <c r="M121" s="6">
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>1</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>7</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1">
         <v>0.5</v>
       </c>
-      <c r="N121" s="6">
-        <v>0</v>
-      </c>
-      <c r="O121" s="6">
-        <v>0</v>
-      </c>
-      <c r="P121" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A122" s="6">
+      <c r="N121" s="1">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+      <c r="P121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="44" thickBot="1">
+      <c r="A122" s="1">
         <v>301032401</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="1">
         <v>4</v>
       </c>
-      <c r="D122" s="6">
-        <v>0</v>
-      </c>
-      <c r="E122" s="6">
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
         <v>1.4</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="1">
         <v>0.1</v>
       </c>
-      <c r="G122" s="6">
-        <v>0</v>
-      </c>
-      <c r="H122" s="6">
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
         <v>1.25</v>
       </c>
-      <c r="I122" s="6">
-        <v>0</v>
-      </c>
-      <c r="J122" s="6">
-        <v>0</v>
-      </c>
-      <c r="K122" s="6">
-        <v>1</v>
-      </c>
-      <c r="L122" s="6">
-        <v>0</v>
-      </c>
-      <c r="M122" s="6">
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>6</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0</v>
+      </c>
+      <c r="M122" s="1">
         <v>0.5</v>
       </c>
-      <c r="N122" s="6">
-        <v>0</v>
-      </c>
-      <c r="O122" s="6">
-        <v>0</v>
-      </c>
-      <c r="P122" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="51.5" thickBot="1">
-      <c r="A123" s="6">
+      <c r="N122" s="1">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+      <c r="P122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="44" thickBot="1">
+      <c r="A123" s="1">
         <v>301032501</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="1">
         <v>5</v>
       </c>
-      <c r="D123" s="6">
-        <v>0</v>
-      </c>
-      <c r="E123" s="6">
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
         <v>1.4</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="1">
         <v>0.1</v>
       </c>
-      <c r="G123" s="6">
-        <v>0</v>
-      </c>
-      <c r="H123" s="6">
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
         <v>1.5</v>
       </c>
-      <c r="I123" s="6">
-        <v>0</v>
-      </c>
-      <c r="J123" s="6">
-        <v>0</v>
-      </c>
-      <c r="K123" s="6">
-        <v>1</v>
-      </c>
-      <c r="L123" s="6">
-        <v>0</v>
-      </c>
-      <c r="M123" s="6">
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>5</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0</v>
+      </c>
+      <c r="M123" s="1">
         <v>0.5</v>
       </c>
-      <c r="N123" s="6">
-        <v>0</v>
-      </c>
-      <c r="O123" s="6">
-        <v>0</v>
-      </c>
-      <c r="P123" s="6">
+      <c r="N123" s="1">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+      <c r="P123" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A124" s="6">
+      <c r="A124" s="1">
         <v>302032101</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C124" s="6">
-        <v>1</v>
-      </c>
-      <c r="D124" s="6">
-        <v>0</v>
-      </c>
-      <c r="E124" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F124" s="6">
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F124" s="1">
         <v>0.25</v>
       </c>
-      <c r="G124" s="6">
+      <c r="G124" s="1">
         <v>0.67</v>
       </c>
-      <c r="H124" s="6">
-        <v>0</v>
-      </c>
-      <c r="I124" s="6">
-        <v>0</v>
-      </c>
-      <c r="J124" s="6">
-        <v>0</v>
-      </c>
-      <c r="K124" s="6">
-        <v>1</v>
-      </c>
-      <c r="L124" s="6">
-        <v>0</v>
-      </c>
-      <c r="M124" s="6">
-        <v>0</v>
-      </c>
-      <c r="N124" s="6">
-        <v>0</v>
-      </c>
-      <c r="O124" s="6">
-        <v>0</v>
-      </c>
-      <c r="P124" s="6">
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>15</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>0</v>
+      </c>
+      <c r="P124" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A125" s="6">
+      <c r="A125" s="1">
         <v>302032201</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="1">
         <v>2</v>
       </c>
-      <c r="D125" s="6">
-        <v>0</v>
-      </c>
-      <c r="E125" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F125" s="6">
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F125" s="1">
         <v>0.25</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G125" s="1">
         <v>0.67</v>
       </c>
-      <c r="H125" s="6">
-        <v>0</v>
-      </c>
-      <c r="I125" s="6">
-        <v>0</v>
-      </c>
-      <c r="J125" s="6">
-        <v>0</v>
-      </c>
-      <c r="K125" s="6">
-        <v>1</v>
-      </c>
-      <c r="L125" s="6">
-        <v>0</v>
-      </c>
-      <c r="M125" s="6">
-        <v>0</v>
-      </c>
-      <c r="N125" s="6">
-        <v>0</v>
-      </c>
-      <c r="O125" s="6">
-        <v>0</v>
-      </c>
-      <c r="P125" s="6">
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>14</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>0</v>
+      </c>
+      <c r="P125" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A126" s="6">
+      <c r="A126" s="1">
         <v>302032301</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="1">
         <v>3</v>
       </c>
-      <c r="D126" s="6">
-        <v>0</v>
-      </c>
-      <c r="E126" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F126" s="6">
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F126" s="1">
         <v>0.25</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G126" s="1">
         <v>0.67</v>
       </c>
-      <c r="H126" s="6">
-        <v>0</v>
-      </c>
-      <c r="I126" s="6">
-        <v>0</v>
-      </c>
-      <c r="J126" s="6">
-        <v>0</v>
-      </c>
-      <c r="K126" s="6">
-        <v>1</v>
-      </c>
-      <c r="L126" s="6">
-        <v>0</v>
-      </c>
-      <c r="M126" s="6">
-        <v>0</v>
-      </c>
-      <c r="N126" s="6">
-        <v>0</v>
-      </c>
-      <c r="O126" s="6">
-        <v>0</v>
-      </c>
-      <c r="P126" s="6">
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>13</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A127" s="6">
+      <c r="A127" s="1">
         <v>302032401</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="1">
         <v>4</v>
       </c>
-      <c r="D127" s="6">
-        <v>0</v>
-      </c>
-      <c r="E127" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F127" s="6">
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F127" s="1">
         <v>0.25</v>
       </c>
-      <c r="G127" s="6">
+      <c r="G127" s="1">
         <v>0.67</v>
       </c>
-      <c r="H127" s="6">
-        <v>0</v>
-      </c>
-      <c r="I127" s="6">
-        <v>0</v>
-      </c>
-      <c r="J127" s="6">
-        <v>0</v>
-      </c>
-      <c r="K127" s="6">
-        <v>1</v>
-      </c>
-      <c r="L127" s="6">
-        <v>0</v>
-      </c>
-      <c r="M127" s="6">
-        <v>0</v>
-      </c>
-      <c r="N127" s="6">
-        <v>0</v>
-      </c>
-      <c r="O127" s="6">
-        <v>0</v>
-      </c>
-      <c r="P127" s="6">
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>12</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>0</v>
+      </c>
+      <c r="P127" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A128" s="6">
+      <c r="A128" s="1">
         <v>302032501</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="1">
         <v>5</v>
       </c>
-      <c r="D128" s="6">
-        <v>0</v>
-      </c>
-      <c r="E128" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F128" s="6">
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F128" s="1">
         <v>0.25</v>
       </c>
-      <c r="G128" s="6">
+      <c r="G128" s="1">
         <v>0.67</v>
       </c>
-      <c r="H128" s="6">
-        <v>0</v>
-      </c>
-      <c r="I128" s="6">
-        <v>0</v>
-      </c>
-      <c r="J128" s="6">
-        <v>0</v>
-      </c>
-      <c r="K128" s="6">
-        <v>1</v>
-      </c>
-      <c r="L128" s="6">
-        <v>0</v>
-      </c>
-      <c r="M128" s="6">
-        <v>0</v>
-      </c>
-      <c r="N128" s="6">
-        <v>0</v>
-      </c>
-      <c r="O128" s="6">
-        <v>0</v>
-      </c>
-      <c r="P128" s="6">
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>10</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A129" s="6">
+      <c r="A129" s="1">
         <v>303032101</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C129" s="6">
-        <v>1</v>
-      </c>
-      <c r="D129" s="6">
-        <v>0</v>
-      </c>
-      <c r="E129" s="6">
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>3</v>
+      </c>
+      <c r="K129" s="1">
+        <v>5</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>0</v>
+      </c>
+      <c r="P129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A130" s="1">
+        <v>303032102</v>
+      </c>
+      <c r="B130" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
         <v>1.5</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F130" s="1">
         <v>0.25</v>
       </c>
-      <c r="G129" s="6">
-        <v>0</v>
-      </c>
-      <c r="H129" s="6">
-        <v>1</v>
-      </c>
-      <c r="I129" s="6">
-        <v>0</v>
-      </c>
-      <c r="J129" s="6">
-        <v>0</v>
-      </c>
-      <c r="K129" s="6">
-        <v>1</v>
-      </c>
-      <c r="L129" s="6">
-        <v>0</v>
-      </c>
-      <c r="M129" s="6">
-        <v>0</v>
-      </c>
-      <c r="N129" s="6">
-        <v>0</v>
-      </c>
-      <c r="O129" s="6">
-        <v>0</v>
-      </c>
-      <c r="P129" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A130" s="6">
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>5</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A131" s="1">
         <v>303032201</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B131" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C131" s="1">
         <v>2</v>
       </c>
-      <c r="D130" s="6">
-        <v>0</v>
-      </c>
-      <c r="E130" s="6">
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>3</v>
+      </c>
+      <c r="K131" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>0</v>
+      </c>
+      <c r="P131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A132" s="1">
+        <v>303032202</v>
+      </c>
+      <c r="B132" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
         <v>1.5</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F132" s="1">
         <v>0.25</v>
       </c>
-      <c r="G130" s="6">
-        <v>0</v>
-      </c>
-      <c r="H130" s="6">
-        <v>1</v>
-      </c>
-      <c r="I130" s="6">
-        <v>0</v>
-      </c>
-      <c r="J130" s="6">
-        <v>0</v>
-      </c>
-      <c r="K130" s="6">
-        <v>1</v>
-      </c>
-      <c r="L130" s="6">
-        <v>0</v>
-      </c>
-      <c r="M130" s="6">
-        <v>0</v>
-      </c>
-      <c r="N130" s="6">
-        <v>0</v>
-      </c>
-      <c r="O130" s="6">
-        <v>0</v>
-      </c>
-      <c r="P130" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A131" s="6">
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0</v>
+      </c>
+      <c r="M132" s="1">
+        <v>0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>0</v>
+      </c>
+      <c r="P132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A133" s="1">
         <v>303032301</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B133" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C133" s="1">
         <v>3</v>
       </c>
-      <c r="D131" s="6">
-        <v>0</v>
-      </c>
-      <c r="E131" s="6">
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>3</v>
+      </c>
+      <c r="K133" s="1">
+        <v>4</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0</v>
+      </c>
+      <c r="M133" s="1">
+        <v>0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>0</v>
+      </c>
+      <c r="P133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A134" s="1">
+        <v>303032302</v>
+      </c>
+      <c r="B134" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
         <v>1.5</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F134" s="1">
         <v>0.25</v>
       </c>
-      <c r="G131" s="6">
-        <v>0</v>
-      </c>
-      <c r="H131" s="6">
-        <v>1</v>
-      </c>
-      <c r="I131" s="6">
-        <v>0</v>
-      </c>
-      <c r="J131" s="6">
-        <v>0</v>
-      </c>
-      <c r="K131" s="6">
-        <v>1</v>
-      </c>
-      <c r="L131" s="6">
-        <v>0</v>
-      </c>
-      <c r="M131" s="6">
-        <v>0</v>
-      </c>
-      <c r="N131" s="6">
-        <v>0</v>
-      </c>
-      <c r="O131" s="6">
-        <v>0</v>
-      </c>
-      <c r="P131" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A132" s="6">
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>4</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0</v>
+      </c>
+      <c r="P134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A135" s="1">
         <v>303032401</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B135" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C135" s="1">
         <v>4</v>
       </c>
-      <c r="D132" s="6">
-        <v>0</v>
-      </c>
-      <c r="E132" s="6">
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>3</v>
+      </c>
+      <c r="K135" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>0</v>
+      </c>
+      <c r="P135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A136" s="1">
+        <v>303032402</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" s="1">
+        <v>4</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
         <v>1.5</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F136" s="1">
         <v>0.25</v>
       </c>
-      <c r="G132" s="6">
-        <v>0</v>
-      </c>
-      <c r="H132" s="6">
-        <v>1</v>
-      </c>
-      <c r="I132" s="6">
-        <v>0</v>
-      </c>
-      <c r="J132" s="6">
-        <v>0</v>
-      </c>
-      <c r="K132" s="6">
-        <v>1</v>
-      </c>
-      <c r="L132" s="6">
-        <v>0</v>
-      </c>
-      <c r="M132" s="6">
-        <v>0</v>
-      </c>
-      <c r="N132" s="6">
-        <v>0</v>
-      </c>
-      <c r="O132" s="6">
-        <v>0</v>
-      </c>
-      <c r="P132" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A133" s="6">
-        <v>303032501</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="6">
-        <v>5</v>
-      </c>
-      <c r="D133" s="6">
-        <v>0</v>
-      </c>
-      <c r="E133" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="F133" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G133" s="6">
-        <v>0</v>
-      </c>
-      <c r="H133" s="6">
-        <v>1</v>
-      </c>
-      <c r="I133" s="6">
-        <v>0</v>
-      </c>
-      <c r="J133" s="6">
-        <v>0</v>
-      </c>
-      <c r="K133" s="6">
-        <v>1</v>
-      </c>
-      <c r="L133" s="6">
-        <v>0</v>
-      </c>
-      <c r="M133" s="6">
-        <v>0</v>
-      </c>
-      <c r="N133" s="6">
-        <v>0</v>
-      </c>
-      <c r="O133" s="6">
-        <v>0</v>
-      </c>
-      <c r="P133" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A134" s="6">
-        <v>331033101</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C134" s="6">
-        <v>1</v>
-      </c>
-      <c r="D134" s="6">
-        <v>0</v>
-      </c>
-      <c r="E134" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F134" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G134" s="6">
-        <v>0</v>
-      </c>
-      <c r="H134" s="6">
-        <v>0</v>
-      </c>
-      <c r="I134" s="6">
-        <v>0</v>
-      </c>
-      <c r="J134" s="6">
-        <v>0</v>
-      </c>
-      <c r="K134" s="6">
-        <v>1</v>
-      </c>
-      <c r="L134" s="6">
-        <v>80000</v>
-      </c>
-      <c r="M134" s="6">
-        <v>0</v>
-      </c>
-      <c r="N134" s="6">
-        <v>0</v>
-      </c>
-      <c r="O134" s="6">
-        <v>0</v>
-      </c>
-      <c r="P134" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A135" s="6">
-        <v>331033201</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C135" s="6">
-        <v>2</v>
-      </c>
-      <c r="D135" s="6">
-        <v>0</v>
-      </c>
-      <c r="E135" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F135" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G135" s="6">
-        <v>0</v>
-      </c>
-      <c r="H135" s="6">
-        <v>0</v>
-      </c>
-      <c r="I135" s="6">
-        <v>0</v>
-      </c>
-      <c r="J135" s="6">
-        <v>0</v>
-      </c>
-      <c r="K135" s="6">
-        <v>1</v>
-      </c>
-      <c r="L135" s="6">
-        <v>70000</v>
-      </c>
-      <c r="M135" s="6">
-        <v>0</v>
-      </c>
-      <c r="N135" s="6">
-        <v>0</v>
-      </c>
-      <c r="O135" s="6">
-        <v>0</v>
-      </c>
-      <c r="P135" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A136" s="6">
-        <v>331033301</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C136" s="6">
-        <v>3</v>
-      </c>
-      <c r="D136" s="6">
-        <v>0</v>
-      </c>
-      <c r="E136" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F136" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G136" s="6">
-        <v>0</v>
-      </c>
-      <c r="H136" s="6">
-        <v>0</v>
-      </c>
-      <c r="I136" s="6">
-        <v>0</v>
-      </c>
-      <c r="J136" s="6">
-        <v>0</v>
-      </c>
-      <c r="K136" s="6">
-        <v>1</v>
-      </c>
-      <c r="L136" s="6">
-        <v>60000</v>
-      </c>
-      <c r="M136" s="6">
-        <v>0</v>
-      </c>
-      <c r="N136" s="6">
-        <v>0</v>
-      </c>
-      <c r="O136" s="6">
-        <v>0</v>
-      </c>
-      <c r="P136" s="6">
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0</v>
+      </c>
+      <c r="P136" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9022,7 +9028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8877D60-1F33-4DB3-9715-008E0BFCD30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645B50B-2BB2-4214-BF74-7758BBA7FFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="400" windowWidth="22110" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="400" windowWidth="18980" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="129">
   <si>
     <t>Level</t>
   </si>
@@ -828,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -964,6 +964,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2175,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
-  <dimension ref="A1:Z136"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:P136"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -8149,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L119" s="1">
         <v>0</v>
@@ -8199,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L120" s="1">
         <v>0</v>
@@ -8249,7 +8252,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L121" s="1">
         <v>0</v>
@@ -8299,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
@@ -8349,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L123" s="1">
         <v>0</v>
@@ -8399,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L124" s="1">
         <v>0</v>
@@ -8449,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
@@ -8499,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L126" s="1">
         <v>0</v>
@@ -8549,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L127" s="1">
         <v>0</v>
@@ -8599,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L128" s="1">
         <v>0</v>
@@ -8649,7 +8652,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L129" s="1">
         <v>0</v>
@@ -8699,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L130" s="1">
         <v>0</v>
@@ -8748,8 +8751,8 @@
       <c r="J131" s="1">
         <v>3</v>
       </c>
-      <c r="K131" s="1">
-        <v>4.5</v>
+      <c r="K131" s="48">
+        <v>1</v>
       </c>
       <c r="L131" s="1">
         <v>0</v>
@@ -8799,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="1">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="L132" s="1">
         <v>0</v>
@@ -8849,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="K133" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
@@ -8899,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L134" s="1">
         <v>0</v>
@@ -8949,7 +8952,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="L135" s="1">
         <v>0</v>
@@ -8999,21 +9002,271 @@
         <v>0</v>
       </c>
       <c r="K136" s="1">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0</v>
+      </c>
+      <c r="P136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A137" s="1">
+        <v>303032501</v>
+      </c>
+      <c r="B137" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C137" s="1">
+        <v>5</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>3</v>
+      </c>
+      <c r="K137" s="1">
+        <v>1</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+      <c r="N137" s="1">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>0</v>
+      </c>
+      <c r="P137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A138" s="1">
+        <v>303032502</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C138" s="1">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>1</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>0</v>
+      </c>
+      <c r="N138" s="1">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A139" s="1">
+        <v>331033101</v>
+      </c>
+      <c r="B139" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
         <v>3.5</v>
       </c>
-      <c r="L136" s="1">
-        <v>0</v>
-      </c>
-      <c r="M136" s="1">
-        <v>0</v>
-      </c>
-      <c r="N136" s="1">
-        <v>0</v>
-      </c>
-      <c r="O136" s="1">
-        <v>0</v>
-      </c>
-      <c r="P136" s="1">
+      <c r="F139" s="1">
+        <v>5</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>80000</v>
+      </c>
+      <c r="M139" s="1">
+        <v>0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>0</v>
+      </c>
+      <c r="P139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A140" s="1">
+        <v>331033201</v>
+      </c>
+      <c r="B140" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F140" s="1">
+        <v>5</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>70000</v>
+      </c>
+      <c r="M140" s="1">
+        <v>0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>0</v>
+      </c>
+      <c r="P140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A141" s="1">
+        <v>331033301</v>
+      </c>
+      <c r="B141" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F141" s="1">
+        <v>5</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>60000</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645B50B-2BB2-4214-BF74-7758BBA7FFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F594B21-6080-474A-ABDA-E32BBC54D6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="400" windowWidth="18980" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Weapon_List" sheetId="5" r:id="rId5"/>
     <sheet name="Armor_List" sheetId="6" r:id="rId6"/>
     <sheet name="Creature_List" sheetId="7" r:id="rId7"/>
+    <sheet name="Pattern_List" sheetId="9" r:id="rId8"/>
+    <sheet name="Pattern_Info_List" sheetId="10" r:id="rId9"/>
+    <sheet name="Pattern_Hit_Frame" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
   <si>
     <t>Level</t>
   </si>
@@ -291,9 +294,6 @@
     <t>Move, Invincible, CC</t>
   </si>
   <si>
-    <t>Skill_ID</t>
-  </si>
-  <si>
     <t>Hit_01</t>
   </si>
   <si>
@@ -412,13 +412,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Attack_Speed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pattern_01</t>
-  </si>
-  <si>
     <t>카타안킬로</t>
   </si>
   <si>
@@ -460,6 +453,91 @@
   </si>
   <si>
     <t>Dimension_Distortion</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Pattern_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger_Phase_02</t>
+  </si>
+  <si>
+    <t>Trigger_Phase_03</t>
+  </si>
+  <si>
+    <t>카타안킬로 일반 공격</t>
+  </si>
+  <si>
+    <t>듀리노 일반 공격</t>
+  </si>
+  <si>
+    <t>Physics_A</t>
+  </si>
+  <si>
+    <t>Fire_A</t>
+  </si>
+  <si>
+    <t>Water_A</t>
+  </si>
+  <si>
+    <t>Electric_A</t>
+  </si>
+  <si>
+    <t>Ice_A</t>
+  </si>
+  <si>
+    <t>Wind_A</t>
+  </si>
+  <si>
+    <t>Creature_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay_Min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay_Max</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cool_Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger_Phase_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage_Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stagger_Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun_Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun_Chance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airborne_Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knockback_Distance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -828,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -866,9 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,8 +1040,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,6 +1535,91 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A1" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="B2" s="9">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A3" s="9">
+        <v>200000</v>
+      </c>
+      <c r="B3" s="9">
+        <v>26</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:M18"/>
@@ -1422,14 +1630,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="19"/>
-    <col min="2" max="2" width="14.33203125" style="19" customWidth="1"/>
-    <col min="3" max="6" width="8.58203125" style="19"/>
-    <col min="7" max="7" width="10.5" style="19" customWidth="1"/>
-    <col min="8" max="8" width="21.58203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="19"/>
-    <col min="10" max="10" width="13.75" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="19"/>
+    <col min="1" max="1" width="8.58203125" style="18"/>
+    <col min="2" max="2" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3" max="6" width="8.58203125" style="18"/>
+    <col min="7" max="7" width="10.5" style="18" customWidth="1"/>
+    <col min="8" max="8" width="21.58203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" style="18"/>
+    <col min="10" max="10" width="13.75" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="34.5" thickBot="1">
@@ -1457,27 +1665,27 @@
       <c r="H1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>123</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="6">
@@ -1498,13 +1706,13 @@
       <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="23" t="b">
+      <c r="I2" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="23" t="b">
+      <c r="K2" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L2" s="6">
@@ -1518,7 +1726,7 @@
       <c r="A3" s="6">
         <v>101</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="6">
@@ -1539,13 +1747,13 @@
       <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="23" t="b">
+      <c r="I3" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="23" t="b">
+      <c r="K3" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L3" s="6">
@@ -1556,37 +1764,37 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>102</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>5</v>
       </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
         <v>3</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="24" t="b">
+      <c r="I4" s="23" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
-      <c r="K4" s="25" t="b">
+      <c r="K4" s="24" t="b">
         <v>0</v>
       </c>
       <c r="L4" s="6">
@@ -1600,7 +1808,7 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="6">
@@ -1616,18 +1824,18 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" s="23" t="b">
+        <v>117</v>
+      </c>
+      <c r="I5" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="23" t="b">
+      <c r="K5" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L5" s="6">
@@ -1641,7 +1849,7 @@
       <c r="A6" s="6">
         <v>104</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="6">
@@ -1657,18 +1865,18 @@
         <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="23" t="b">
+        <v>119</v>
+      </c>
+      <c r="I6" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="23" t="b">
+      <c r="K6" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="6">
@@ -1682,7 +1890,7 @@
       <c r="A7" s="9">
         <v>131</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="9">
@@ -1697,19 +1905,19 @@
       <c r="F7" s="9">
         <v>1</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="45" t="b">
+      <c r="G7" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="44" t="b">
         <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="45" t="b">
+      <c r="K7" s="44" t="b">
         <v>0</v>
       </c>
       <c r="L7" s="9">
@@ -1723,7 +1931,7 @@
       <c r="A8" s="6">
         <v>200</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="6">
@@ -1744,13 +1952,13 @@
       <c r="H8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="23" t="b">
+      <c r="I8" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="23" t="b">
+      <c r="K8" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L8" s="6">
@@ -1764,7 +1972,7 @@
       <c r="A9" s="6">
         <v>201</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="6">
@@ -1785,13 +1993,13 @@
       <c r="H9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="23" t="b">
+      <c r="I9" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="23" t="b">
+      <c r="K9" s="22" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="6">
@@ -1805,7 +2013,7 @@
       <c r="A10" s="6">
         <v>202</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="6">
@@ -1826,13 +2034,13 @@
       <c r="H10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="23" t="b">
+      <c r="I10" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="23" t="b">
+      <c r="K10" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L10" s="6">
@@ -1846,7 +2054,7 @@
       <c r="A11" s="6">
         <v>203</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="6">
@@ -1867,13 +2075,13 @@
       <c r="H11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="23" t="b">
+      <c r="I11" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="23" t="b">
+      <c r="K11" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="6">
@@ -1887,7 +2095,7 @@
       <c r="A12" s="6">
         <v>231</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="6">
@@ -1908,13 +2116,13 @@
       <c r="H12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="23" t="b">
+      <c r="I12" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="23" t="b">
+      <c r="K12" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L12" s="6">
@@ -1928,7 +2136,7 @@
       <c r="A13" s="6">
         <v>232</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="6">
@@ -1949,13 +2157,13 @@
       <c r="H13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="23" t="b">
+      <c r="I13" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>1.5</v>
       </c>
-      <c r="K13" s="23" t="b">
+      <c r="K13" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L13" s="6">
@@ -1969,7 +2177,7 @@
       <c r="A14" s="6">
         <v>300</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6">
@@ -1984,19 +2192,19 @@
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="23" t="b">
+      <c r="I14" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>9999</v>
       </c>
-      <c r="K14" s="23" t="b">
+      <c r="K14" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L14" s="6">
@@ -2010,7 +2218,7 @@
       <c r="A15" s="6">
         <v>301</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="6">
@@ -2031,13 +2239,13 @@
       <c r="H15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="23" t="b">
+      <c r="I15" s="22" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="23" t="b">
+      <c r="K15" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L15" s="6">
@@ -2051,7 +2259,7 @@
       <c r="A16" s="6">
         <v>302</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="6">
@@ -2072,13 +2280,13 @@
       <c r="H16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="23" t="b">
+      <c r="I16" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>5</v>
       </c>
-      <c r="K16" s="23" t="b">
+      <c r="K16" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="6">
@@ -2092,7 +2300,7 @@
       <c r="A17" s="6">
         <v>303</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="6">
@@ -2113,13 +2321,13 @@
       <c r="H17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="23" t="b">
+      <c r="I17" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>9999</v>
       </c>
-      <c r="K17" s="23" t="b">
+      <c r="K17" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L17" s="6">
@@ -2133,7 +2341,7 @@
       <c r="A18" s="6">
         <v>331</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="6">
@@ -2154,13 +2362,13 @@
       <c r="H18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="46" t="b">
+      <c r="I18" s="45" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>9999</v>
       </c>
-      <c r="K18" s="46" t="b">
+      <c r="K18" s="45" t="b">
         <v>0</v>
       </c>
       <c r="L18" s="1">
@@ -2180,36 +2388,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="8.58203125" style="15"/>
+    <col min="1" max="1" width="13.33203125" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>61</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -2221,22 +2429,22 @@
       <c r="J1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2841,752 +3049,752 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>102012101</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="34">
-        <v>1</v>
-      </c>
-      <c r="D14" s="34">
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="C14" s="33">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0</v>
+      </c>
+      <c r="E14" s="33">
         <v>1.3</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>0.4</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <v>0.77</v>
       </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
-        <v>0</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="H14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
         <v>0</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
       </c>
-      <c r="L14" s="34">
-        <v>0</v>
-      </c>
-      <c r="M14" s="34">
-        <v>0</v>
-      </c>
-      <c r="N14" s="34">
-        <v>0</v>
-      </c>
-      <c r="O14" s="34">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35">
+      <c r="L14" s="33">
+        <v>0</v>
+      </c>
+      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="33">
+        <v>0</v>
+      </c>
+      <c r="P14" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>102012102</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="37">
-        <v>1</v>
-      </c>
-      <c r="D15" s="37">
-        <v>0</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+      <c r="E15" s="36">
         <v>1.5</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>0.25</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>0.77</v>
       </c>
-      <c r="H15" s="37">
-        <v>0</v>
-      </c>
-      <c r="I15" s="37">
-        <v>0</v>
-      </c>
-      <c r="J15" s="37">
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
         <v>0</v>
       </c>
       <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="37">
-        <v>0</v>
-      </c>
-      <c r="M15" s="37">
-        <v>0</v>
-      </c>
-      <c r="N15" s="37">
-        <v>0</v>
-      </c>
-      <c r="O15" s="37">
-        <v>0</v>
-      </c>
-      <c r="P15" s="38">
+      <c r="L15" s="36">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
+      <c r="N15" s="36">
+        <v>0</v>
+      </c>
+      <c r="O15" s="36">
+        <v>0</v>
+      </c>
+      <c r="P15" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <v>102012103</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="37">
-        <v>1</v>
-      </c>
-      <c r="D16" s="37">
-        <v>0</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="C16" s="36">
+        <v>1</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
         <v>2</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>0.15</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>0.77</v>
       </c>
-      <c r="H16" s="37">
-        <v>0</v>
-      </c>
-      <c r="I16" s="37">
-        <v>0</v>
-      </c>
-      <c r="J16" s="37">
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="36">
         <v>0</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
       </c>
-      <c r="L16" s="37">
-        <v>0</v>
-      </c>
-      <c r="M16" s="37">
-        <v>0</v>
-      </c>
-      <c r="N16" s="37">
-        <v>0</v>
-      </c>
-      <c r="O16" s="37">
-        <v>0</v>
-      </c>
-      <c r="P16" s="38">
+      <c r="L16" s="36">
+        <v>0</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0</v>
+      </c>
+      <c r="N16" s="36">
+        <v>0</v>
+      </c>
+      <c r="O16" s="36">
+        <v>0</v>
+      </c>
+      <c r="P16" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A17" s="36">
+      <c r="A17" s="35">
         <v>102012201</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>2</v>
       </c>
-      <c r="D17" s="37">
-        <v>0</v>
-      </c>
-      <c r="E17" s="37">
+      <c r="D17" s="36">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
         <v>1.3</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <v>0.4</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>0.77</v>
       </c>
-      <c r="H17" s="37">
-        <v>0</v>
-      </c>
-      <c r="I17" s="37">
-        <v>0</v>
-      </c>
-      <c r="J17" s="37">
+      <c r="H17" s="36">
+        <v>0</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="36">
         <v>0</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="37">
-        <v>0</v>
-      </c>
-      <c r="M17" s="37">
-        <v>0</v>
-      </c>
-      <c r="N17" s="37">
-        <v>0</v>
-      </c>
-      <c r="O17" s="37">
-        <v>0</v>
-      </c>
-      <c r="P17" s="38">
+      <c r="L17" s="36">
+        <v>0</v>
+      </c>
+      <c r="M17" s="36">
+        <v>0</v>
+      </c>
+      <c r="N17" s="36">
+        <v>0</v>
+      </c>
+      <c r="O17" s="36">
+        <v>0</v>
+      </c>
+      <c r="P17" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A18" s="36">
+      <c r="A18" s="35">
         <v>102012202</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>2</v>
       </c>
-      <c r="D18" s="37">
-        <v>0</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="D18" s="36">
+        <v>0</v>
+      </c>
+      <c r="E18" s="36">
         <v>1.5</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>0.25</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>0.77</v>
       </c>
-      <c r="H18" s="37">
-        <v>0</v>
-      </c>
-      <c r="I18" s="37">
-        <v>0</v>
-      </c>
-      <c r="J18" s="37">
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36">
         <v>0</v>
       </c>
       <c r="K18" s="6">
         <v>1</v>
       </c>
-      <c r="L18" s="37">
-        <v>0</v>
-      </c>
-      <c r="M18" s="37">
-        <v>0</v>
-      </c>
-      <c r="N18" s="37">
-        <v>0</v>
-      </c>
-      <c r="O18" s="37">
-        <v>0</v>
-      </c>
-      <c r="P18" s="38">
+      <c r="L18" s="36">
+        <v>0</v>
+      </c>
+      <c r="M18" s="36">
+        <v>0</v>
+      </c>
+      <c r="N18" s="36">
+        <v>0</v>
+      </c>
+      <c r="O18" s="36">
+        <v>0</v>
+      </c>
+      <c r="P18" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>102012203</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>2</v>
       </c>
-      <c r="D19" s="37">
-        <v>0</v>
-      </c>
-      <c r="E19" s="37">
+      <c r="D19" s="36">
+        <v>0</v>
+      </c>
+      <c r="E19" s="36">
         <v>2</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <v>0.15</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>0.77</v>
       </c>
-      <c r="H19" s="37">
-        <v>0</v>
-      </c>
-      <c r="I19" s="37">
-        <v>0</v>
-      </c>
-      <c r="J19" s="37">
+      <c r="H19" s="36">
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="36">
         <v>0</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="L19" s="37">
-        <v>0</v>
-      </c>
-      <c r="M19" s="37">
-        <v>0</v>
-      </c>
-      <c r="N19" s="37">
-        <v>0</v>
-      </c>
-      <c r="O19" s="37">
-        <v>0</v>
-      </c>
-      <c r="P19" s="38">
+      <c r="L19" s="36">
+        <v>0</v>
+      </c>
+      <c r="M19" s="36">
+        <v>0</v>
+      </c>
+      <c r="N19" s="36">
+        <v>0</v>
+      </c>
+      <c r="O19" s="36">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A20" s="36">
+      <c r="A20" s="35">
         <v>102012301</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>3</v>
       </c>
-      <c r="D20" s="37">
-        <v>0</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="36">
+        <v>0</v>
+      </c>
+      <c r="E20" s="36">
         <v>1.3</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>0.4</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>0.77</v>
       </c>
-      <c r="H20" s="37">
-        <v>0</v>
-      </c>
-      <c r="I20" s="37">
-        <v>0</v>
-      </c>
-      <c r="J20" s="37">
+      <c r="H20" s="36">
+        <v>0</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="36">
         <v>0</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="37">
-        <v>0</v>
-      </c>
-      <c r="M20" s="37">
-        <v>0</v>
-      </c>
-      <c r="N20" s="37">
-        <v>0</v>
-      </c>
-      <c r="O20" s="37">
-        <v>0</v>
-      </c>
-      <c r="P20" s="38">
+      <c r="L20" s="36">
+        <v>0</v>
+      </c>
+      <c r="M20" s="36">
+        <v>0</v>
+      </c>
+      <c r="N20" s="36">
+        <v>0</v>
+      </c>
+      <c r="O20" s="36">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>102012302</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>3</v>
       </c>
-      <c r="D21" s="37">
-        <v>0</v>
-      </c>
-      <c r="E21" s="37">
+      <c r="D21" s="36">
+        <v>0</v>
+      </c>
+      <c r="E21" s="36">
         <v>1.5</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <v>0.25</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>0.77</v>
       </c>
-      <c r="H21" s="37">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37">
-        <v>0</v>
-      </c>
-      <c r="J21" s="37">
+      <c r="H21" s="36">
+        <v>0</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
+      <c r="J21" s="36">
         <v>0</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="37">
-        <v>0</v>
-      </c>
-      <c r="M21" s="37">
-        <v>0</v>
-      </c>
-      <c r="N21" s="37">
-        <v>0</v>
-      </c>
-      <c r="O21" s="37">
-        <v>0</v>
-      </c>
-      <c r="P21" s="38">
+      <c r="L21" s="36">
+        <v>0</v>
+      </c>
+      <c r="M21" s="36">
+        <v>0</v>
+      </c>
+      <c r="N21" s="36">
+        <v>0</v>
+      </c>
+      <c r="O21" s="36">
+        <v>0</v>
+      </c>
+      <c r="P21" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>102012303</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>3</v>
       </c>
-      <c r="D22" s="37">
-        <v>0</v>
-      </c>
-      <c r="E22" s="37">
+      <c r="D22" s="36">
+        <v>0</v>
+      </c>
+      <c r="E22" s="36">
         <v>2</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>0.15</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>0.77</v>
       </c>
-      <c r="H22" s="37">
-        <v>0</v>
-      </c>
-      <c r="I22" s="37">
-        <v>0</v>
-      </c>
-      <c r="J22" s="37">
+      <c r="H22" s="36">
+        <v>0</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0</v>
+      </c>
+      <c r="J22" s="36">
         <v>0</v>
       </c>
       <c r="K22" s="6">
         <v>1</v>
       </c>
-      <c r="L22" s="37">
-        <v>0</v>
-      </c>
-      <c r="M22" s="37">
-        <v>0</v>
-      </c>
-      <c r="N22" s="37">
-        <v>0</v>
-      </c>
-      <c r="O22" s="37">
-        <v>0</v>
-      </c>
-      <c r="P22" s="38">
+      <c r="L22" s="36">
+        <v>0</v>
+      </c>
+      <c r="M22" s="36">
+        <v>0</v>
+      </c>
+      <c r="N22" s="36">
+        <v>0</v>
+      </c>
+      <c r="O22" s="36">
+        <v>0</v>
+      </c>
+      <c r="P22" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A23" s="36">
+      <c r="A23" s="35">
         <v>102012401</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>4</v>
       </c>
-      <c r="D23" s="37">
-        <v>0</v>
-      </c>
-      <c r="E23" s="37">
+      <c r="D23" s="36">
+        <v>0</v>
+      </c>
+      <c r="E23" s="36">
         <v>1.3</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>0.4</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>0.77</v>
       </c>
-      <c r="H23" s="37">
-        <v>0</v>
-      </c>
-      <c r="I23" s="37">
-        <v>0</v>
-      </c>
-      <c r="J23" s="37">
+      <c r="H23" s="36">
+        <v>0</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0</v>
+      </c>
+      <c r="J23" s="36">
         <v>0</v>
       </c>
       <c r="K23" s="6">
         <v>1</v>
       </c>
-      <c r="L23" s="37">
-        <v>0</v>
-      </c>
-      <c r="M23" s="37">
-        <v>0</v>
-      </c>
-      <c r="N23" s="37">
-        <v>0</v>
-      </c>
-      <c r="O23" s="37">
-        <v>0</v>
-      </c>
-      <c r="P23" s="38">
+      <c r="L23" s="36">
+        <v>0</v>
+      </c>
+      <c r="M23" s="36">
+        <v>0</v>
+      </c>
+      <c r="N23" s="36">
+        <v>0</v>
+      </c>
+      <c r="O23" s="36">
+        <v>0</v>
+      </c>
+      <c r="P23" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A24" s="36">
+      <c r="A24" s="35">
         <v>102012402</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>4</v>
       </c>
-      <c r="D24" s="37">
-        <v>0</v>
-      </c>
-      <c r="E24" s="37">
+      <c r="D24" s="36">
+        <v>0</v>
+      </c>
+      <c r="E24" s="36">
         <v>1.5</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>0.25</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>0.77</v>
       </c>
-      <c r="H24" s="37">
-        <v>0</v>
-      </c>
-      <c r="I24" s="37">
-        <v>0</v>
-      </c>
-      <c r="J24" s="37">
+      <c r="H24" s="36">
+        <v>0</v>
+      </c>
+      <c r="I24" s="36">
+        <v>0</v>
+      </c>
+      <c r="J24" s="36">
         <v>0</v>
       </c>
       <c r="K24" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="37">
-        <v>0</v>
-      </c>
-      <c r="M24" s="37">
-        <v>0</v>
-      </c>
-      <c r="N24" s="37">
-        <v>0</v>
-      </c>
-      <c r="O24" s="37">
-        <v>0</v>
-      </c>
-      <c r="P24" s="38">
+      <c r="L24" s="36">
+        <v>0</v>
+      </c>
+      <c r="M24" s="36">
+        <v>0</v>
+      </c>
+      <c r="N24" s="36">
+        <v>0</v>
+      </c>
+      <c r="O24" s="36">
+        <v>0</v>
+      </c>
+      <c r="P24" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A25" s="36">
+      <c r="A25" s="35">
         <v>102012403</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>4</v>
       </c>
-      <c r="D25" s="37">
-        <v>0</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="D25" s="36">
+        <v>0</v>
+      </c>
+      <c r="E25" s="36">
         <v>2</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <v>0.15</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>0.77</v>
       </c>
-      <c r="H25" s="37">
-        <v>0</v>
-      </c>
-      <c r="I25" s="37">
-        <v>0</v>
-      </c>
-      <c r="J25" s="37">
+      <c r="H25" s="36">
+        <v>0</v>
+      </c>
+      <c r="I25" s="36">
+        <v>0</v>
+      </c>
+      <c r="J25" s="36">
         <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>1</v>
       </c>
-      <c r="L25" s="37">
-        <v>0</v>
-      </c>
-      <c r="M25" s="37">
-        <v>0</v>
-      </c>
-      <c r="N25" s="37">
-        <v>0</v>
-      </c>
-      <c r="O25" s="37">
-        <v>0</v>
-      </c>
-      <c r="P25" s="38">
+      <c r="L25" s="36">
+        <v>0</v>
+      </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="36">
+        <v>0</v>
+      </c>
+      <c r="O25" s="36">
+        <v>0</v>
+      </c>
+      <c r="P25" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A26" s="36">
+      <c r="A26" s="35">
         <v>102012501</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>5</v>
       </c>
-      <c r="D26" s="37">
-        <v>0</v>
-      </c>
-      <c r="E26" s="37">
+      <c r="D26" s="36">
+        <v>0</v>
+      </c>
+      <c r="E26" s="36">
         <v>1.3</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <v>0.4</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <v>0.77</v>
       </c>
-      <c r="H26" s="37">
-        <v>0</v>
-      </c>
-      <c r="I26" s="37">
-        <v>0</v>
-      </c>
-      <c r="J26" s="37">
+      <c r="H26" s="36">
+        <v>0</v>
+      </c>
+      <c r="I26" s="36">
+        <v>0</v>
+      </c>
+      <c r="J26" s="36">
         <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>1</v>
       </c>
-      <c r="L26" s="37">
-        <v>0</v>
-      </c>
-      <c r="M26" s="37">
-        <v>0</v>
-      </c>
-      <c r="N26" s="37">
-        <v>0</v>
-      </c>
-      <c r="O26" s="37">
-        <v>0</v>
-      </c>
-      <c r="P26" s="38">
+      <c r="L26" s="36">
+        <v>0</v>
+      </c>
+      <c r="M26" s="36">
+        <v>0</v>
+      </c>
+      <c r="N26" s="36">
+        <v>0</v>
+      </c>
+      <c r="O26" s="36">
+        <v>0</v>
+      </c>
+      <c r="P26" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A27" s="36">
+      <c r="A27" s="35">
         <v>102012502</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>5</v>
       </c>
-      <c r="D27" s="37">
-        <v>0</v>
-      </c>
-      <c r="E27" s="37">
+      <c r="D27" s="36">
+        <v>0</v>
+      </c>
+      <c r="E27" s="36">
         <v>1.5</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <v>0.25</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <v>0.77</v>
       </c>
-      <c r="H27" s="37">
-        <v>0</v>
-      </c>
-      <c r="I27" s="37">
-        <v>0</v>
-      </c>
-      <c r="J27" s="37">
+      <c r="H27" s="36">
+        <v>0</v>
+      </c>
+      <c r="I27" s="36">
+        <v>0</v>
+      </c>
+      <c r="J27" s="36">
         <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>1</v>
       </c>
-      <c r="L27" s="37">
-        <v>0</v>
-      </c>
-      <c r="M27" s="37">
-        <v>0</v>
-      </c>
-      <c r="N27" s="37">
-        <v>0</v>
-      </c>
-      <c r="O27" s="37">
-        <v>0</v>
-      </c>
-      <c r="P27" s="38">
+      <c r="L27" s="36">
+        <v>0</v>
+      </c>
+      <c r="M27" s="36">
+        <v>0</v>
+      </c>
+      <c r="N27" s="36">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36">
+        <v>0</v>
+      </c>
+      <c r="P27" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A28" s="39">
+      <c r="A28" s="38">
         <v>102012503</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="39">
         <v>5</v>
       </c>
-      <c r="D28" s="40">
-        <v>0</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="D28" s="39">
+        <v>0</v>
+      </c>
+      <c r="E28" s="39">
         <v>2</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="39">
         <v>0.15</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <v>0.77</v>
       </c>
-      <c r="H28" s="40">
-        <v>0</v>
-      </c>
-      <c r="I28" s="40">
-        <v>0</v>
-      </c>
-      <c r="J28" s="40">
+      <c r="H28" s="39">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
         <v>0</v>
       </c>
       <c r="K28" s="6">
         <v>1</v>
       </c>
-      <c r="L28" s="40">
-        <v>0</v>
-      </c>
-      <c r="M28" s="40">
-        <v>0</v>
-      </c>
-      <c r="N28" s="40">
-        <v>0</v>
-      </c>
-      <c r="O28" s="40">
-        <v>0</v>
-      </c>
-      <c r="P28" s="41">
+      <c r="L28" s="39">
+        <v>0</v>
+      </c>
+      <c r="M28" s="39">
+        <v>0</v>
+      </c>
+      <c r="N28" s="39">
+        <v>0</v>
+      </c>
+      <c r="O28" s="39">
+        <v>0</v>
+      </c>
+      <c r="P28" s="40">
         <v>0</v>
       </c>
     </row>
@@ -3595,7 +3803,7 @@
         <v>103012101</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -3695,7 +3903,7 @@
         <v>103012201</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
@@ -3795,7 +4003,7 @@
         <v>103012301</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6">
         <v>3</v>
@@ -3895,7 +4103,7 @@
         <v>103012401</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C35" s="6">
         <v>4</v>
@@ -3995,7 +4203,7 @@
         <v>103012501</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37" s="6">
         <v>5</v>
@@ -8074,7 +8282,7 @@
       <c r="A118" s="1">
         <v>300031101</v>
       </c>
-      <c r="B118" s="47" t="s">
+      <c r="B118" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C118" s="1">
@@ -8124,7 +8332,7 @@
       <c r="A119" s="1">
         <v>301032101</v>
       </c>
-      <c r="B119" s="47" t="s">
+      <c r="B119" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C119" s="1">
@@ -8174,7 +8382,7 @@
       <c r="A120" s="1">
         <v>301032201</v>
       </c>
-      <c r="B120" s="47" t="s">
+      <c r="B120" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C120" s="1">
@@ -8224,7 +8432,7 @@
       <c r="A121" s="1">
         <v>301032301</v>
       </c>
-      <c r="B121" s="47" t="s">
+      <c r="B121" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C121" s="1">
@@ -8274,7 +8482,7 @@
       <c r="A122" s="1">
         <v>301032401</v>
       </c>
-      <c r="B122" s="47" t="s">
+      <c r="B122" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C122" s="1">
@@ -8324,7 +8532,7 @@
       <c r="A123" s="1">
         <v>301032501</v>
       </c>
-      <c r="B123" s="47" t="s">
+      <c r="B123" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C123" s="1">
@@ -8374,7 +8582,7 @@
       <c r="A124" s="1">
         <v>302032101</v>
       </c>
-      <c r="B124" s="47" t="s">
+      <c r="B124" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C124" s="1">
@@ -8424,7 +8632,7 @@
       <c r="A125" s="1">
         <v>302032201</v>
       </c>
-      <c r="B125" s="47" t="s">
+      <c r="B125" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C125" s="1">
@@ -8474,7 +8682,7 @@
       <c r="A126" s="1">
         <v>302032301</v>
       </c>
-      <c r="B126" s="47" t="s">
+      <c r="B126" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C126" s="1">
@@ -8524,7 +8732,7 @@
       <c r="A127" s="1">
         <v>302032401</v>
       </c>
-      <c r="B127" s="47" t="s">
+      <c r="B127" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C127" s="1">
@@ -8574,7 +8782,7 @@
       <c r="A128" s="1">
         <v>302032501</v>
       </c>
-      <c r="B128" s="47" t="s">
+      <c r="B128" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C128" s="1">
@@ -8624,7 +8832,7 @@
       <c r="A129" s="1">
         <v>303032101</v>
       </c>
-      <c r="B129" s="47" t="s">
+      <c r="B129" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C129" s="1">
@@ -8674,7 +8882,7 @@
       <c r="A130" s="1">
         <v>303032102</v>
       </c>
-      <c r="B130" s="47" t="s">
+      <c r="B130" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C130" s="1">
@@ -8724,7 +8932,7 @@
       <c r="A131" s="1">
         <v>303032201</v>
       </c>
-      <c r="B131" s="47" t="s">
+      <c r="B131" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C131" s="1">
@@ -8751,7 +8959,7 @@
       <c r="J131" s="1">
         <v>3</v>
       </c>
-      <c r="K131" s="48">
+      <c r="K131" s="47">
         <v>1</v>
       </c>
       <c r="L131" s="1">
@@ -8774,7 +8982,7 @@
       <c r="A132" s="1">
         <v>303032202</v>
       </c>
-      <c r="B132" s="47" t="s">
+      <c r="B132" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C132" s="1">
@@ -8824,7 +9032,7 @@
       <c r="A133" s="1">
         <v>303032301</v>
       </c>
-      <c r="B133" s="47" t="s">
+      <c r="B133" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C133" s="1">
@@ -8874,7 +9082,7 @@
       <c r="A134" s="1">
         <v>303032302</v>
       </c>
-      <c r="B134" s="47" t="s">
+      <c r="B134" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C134" s="1">
@@ -8924,7 +9132,7 @@
       <c r="A135" s="1">
         <v>303032401</v>
       </c>
-      <c r="B135" s="47" t="s">
+      <c r="B135" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C135" s="1">
@@ -8974,7 +9182,7 @@
       <c r="A136" s="1">
         <v>303032402</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="B136" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C136" s="1">
@@ -9024,7 +9232,7 @@
       <c r="A137" s="1">
         <v>303032501</v>
       </c>
-      <c r="B137" s="47" t="s">
+      <c r="B137" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C137" s="1">
@@ -9074,7 +9282,7 @@
       <c r="A138" s="1">
         <v>303032502</v>
       </c>
-      <c r="B138" s="47" t="s">
+      <c r="B138" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C138" s="1">
@@ -9124,7 +9332,7 @@
       <c r="A139" s="1">
         <v>331033101</v>
       </c>
-      <c r="B139" s="47" t="s">
+      <c r="B139" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C139" s="1">
@@ -9174,7 +9382,7 @@
       <c r="A140" s="1">
         <v>331033201</v>
       </c>
-      <c r="B140" s="47" t="s">
+      <c r="B140" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C140" s="1">
@@ -9224,7 +9432,7 @@
       <c r="A141" s="1">
         <v>331033301</v>
       </c>
-      <c r="B141" s="47" t="s">
+      <c r="B141" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C141" s="1">
@@ -9281,33 +9489,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="15"/>
+    <col min="1" max="16384" width="8.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" thickBot="1">
       <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.5" thickBot="1">
@@ -9351,22 +9557,22 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>102</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>11</v>
       </c>
-      <c r="C4" s="24">
-        <v>1</v>
-      </c>
-      <c r="D4" s="24">
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
         <v>22</v>
       </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="25">
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24">
         <v>0</v>
       </c>
     </row>
@@ -9575,7 +9781,7 @@
       <c r="A15" s="6">
         <v>301</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>13</v>
       </c>
       <c r="C15" s="6">
@@ -9595,7 +9801,7 @@
       <c r="A16" s="6">
         <v>302</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>1</v>
       </c>
       <c r="C16" s="6">
@@ -9668,14 +9874,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="15"/>
-    <col min="2" max="2" width="14" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="15" customWidth="1"/>
-    <col min="4" max="8" width="8.58203125" style="15"/>
-    <col min="9" max="9" width="13.33203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" style="15" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="15" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="15"/>
+    <col min="1" max="1" width="8.58203125" style="14"/>
+    <col min="2" max="2" width="14" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
+    <col min="4" max="8" width="8.58203125" style="14"/>
+    <col min="9" max="9" width="13.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.58203125" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.5" thickBot="1">
@@ -9686,46 +9892,46 @@
         <v>56</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17.5" thickBot="1">
@@ -9739,7 +9945,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>1</v>
@@ -9789,7 +9995,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="b">
         <v>0</v>
@@ -9839,7 +10045,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
@@ -9888,7 +10094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA2E81-D44D-4A2E-AECA-D182B5D7BC40}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
@@ -9901,202 +10109,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.58203125" style="15"/>
+    <col min="1" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="J1" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="46"/>
+      <c r="U1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" ht="29.5" thickBot="1">
+      <c r="A2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="E2" s="1">
+        <v>150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="T2" s="46"/>
+      <c r="U2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="29.5" thickBot="1">
+      <c r="A3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E3" s="1">
+        <v>700</v>
+      </c>
+      <c r="F3" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>150</v>
-      </c>
-      <c r="R2" s="6">
-        <v>5</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="T2" s="6">
-        <v>10000</v>
-      </c>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="G3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.2</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>700</v>
-      </c>
-      <c r="R3" s="6">
-        <v>5</v>
-      </c>
-      <c r="S3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="T3" s="6">
-        <v>10000</v>
-      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="T3" s="46"/>
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" thickBot="1">
@@ -10125,5 +10327,270 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A1" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A3" s="9">
+        <v>200000</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A1" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A2" s="9">
+        <v>1000001</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A3" s="9">
+        <v>2000001</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F594B21-6080-474A-ABDA-E32BBC54D6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D406DF82-CC1C-4F60-8BDC-3BD8CD705116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="162">
   <si>
     <t>Level</t>
   </si>
@@ -537,6 +537,44 @@
   </si>
   <si>
     <t>Knockback_Distance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Physics_Def</t>
+  </si>
+  <si>
+    <t>Fire_Def</t>
+  </si>
+  <si>
+    <t>Water_Def</t>
+  </si>
+  <si>
+    <t>Electric_Def</t>
+  </si>
+  <si>
+    <t>Fire_Cut</t>
+  </si>
+  <si>
+    <t>Water_Cut</t>
+  </si>
+  <si>
+    <t>Electric_Cut</t>
+  </si>
+  <si>
+    <t>Ice_Cut</t>
+  </si>
+  <si>
+    <t>Ice_Def</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_Def</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10092,14 +10130,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA2E81-D44D-4A2E-AECA-D182B5D7BC40}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" t="s">
+        <v>159</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10450,7 +10577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D406DF82-CC1C-4F60-8BDC-3BD8CD705116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFCC5A-F23D-4666-9D7F-05331377E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -474,24 +474,6 @@
     <t>듀리노 일반 공격</t>
   </si>
   <si>
-    <t>Physics_A</t>
-  </si>
-  <si>
-    <t>Fire_A</t>
-  </si>
-  <si>
-    <t>Water_A</t>
-  </si>
-  <si>
-    <t>Electric_A</t>
-  </si>
-  <si>
-    <t>Ice_A</t>
-  </si>
-  <si>
-    <t>Wind_A</t>
-  </si>
-  <si>
     <t>Creature_ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -575,6 +557,30 @@
   </si>
   <si>
     <t>Wind_Def</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_Mul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind_Mul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Electric_Mul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water_Mul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_Mul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physics_Mul</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10132,7 +10138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAA2E81-D44D-4A2E-AECA-D182B5D7BC40}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10140,43 +10146,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>155</v>
-      </c>
-      <c r="G1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" t="s">
-        <v>161</v>
       </c>
       <c r="I1" t="s">
         <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N1" t="s">
         <v>109</v>
@@ -10236,7 +10242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -10476,22 +10482,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H1" s="58" t="s">
         <v>128</v>
@@ -10578,7 +10584,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10595,40 +10601,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N1" s="18"/>
     </row>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CFCC5A-F23D-4666-9D7F-05331377E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB2D66D-D4D2-4D34-B73C-C35C14205875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="163">
   <si>
     <t>Level</t>
   </si>
@@ -458,10 +458,6 @@
     <t>Physics</t>
   </si>
   <si>
-    <t>Pattern_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Trigger_Phase_02</t>
   </si>
   <si>
@@ -582,6 +578,12 @@
   <si>
     <t>Physics_Mul</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phase_2_HP</t>
+  </si>
+  <si>
+    <t>Phase_3_HP</t>
   </si>
 </sst>
 </file>
@@ -950,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1105,9 +1107,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1133,6 +1132,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,25 +1595,25 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="54" t="s">
         <v>83</v>
       </c>
     </row>
@@ -10146,43 +10151,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" t="s">
-        <v>149</v>
-      </c>
       <c r="G1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" t="s">
         <v>154</v>
-      </c>
-      <c r="H1" t="s">
-        <v>155</v>
       </c>
       <c r="I1" t="s">
         <v>104</v>
       </c>
       <c r="J1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>151</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>152</v>
-      </c>
-      <c r="M1" t="s">
-        <v>153</v>
       </c>
       <c r="N1" t="s">
         <v>109</v>
@@ -10242,8 +10247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10306,10 +10311,12 @@
       <c r="R1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="T1" s="46"/>
+      <c r="S1" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>162</v>
+      </c>
       <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21" ht="29.5" thickBot="1">
@@ -10368,9 +10375,11 @@
         <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>100000</v>
-      </c>
-      <c r="T2" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
       <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="29.5" thickBot="1">
@@ -10429,9 +10438,11 @@
         <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>200000</v>
-      </c>
-      <c r="T3" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" thickBot="1">
@@ -10468,8 +10479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10478,34 +10489,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="D1" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="58" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10537,8 +10548,8 @@
       <c r="I2" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="60" t="s">
-        <v>130</v>
+      <c r="J2" s="59" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.5" thickBot="1">
@@ -10570,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -10597,44 +10608,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="62" t="s">
+      <c r="J1" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="L1" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="M1" s="62" t="s">
         <v>142</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>143</v>
       </c>
       <c r="N1" s="18"/>
     </row>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB2D66D-D4D2-4D34-B73C-C35C14205875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE4CB07-F6E6-45B6-AAD6-C5E03B33F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -10247,8 +10247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10446,26 +10446,62 @@
       <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" thickBot="1">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7">
+        <v>3000</v>
+      </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="E4" s="1">
+        <v>700</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
       <c r="U4" s="7"/>
     </row>
   </sheetData>
@@ -10479,7 +10515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE4CB07-F6E6-45B6-AAD6-C5E03B33F551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5C7CF-62FA-411C-8A85-26C19FA6C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -10247,7 +10247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:T4"/>
     </sheetView>
   </sheetViews>
@@ -10515,8 +10515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2" s="44" t="b">
         <v>1</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G3" s="44" t="b">
         <v>1</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5C7CF-62FA-411C-8A85-26C19FA6C393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34640AD2-2962-400F-A08C-71EC4C53C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="162">
   <si>
     <t>Level</t>
   </si>
@@ -430,12 +430,6 @@
     <t>Honest</t>
   </si>
   <si>
-    <t>디스토션</t>
-  </si>
-  <si>
-    <t>Distortion</t>
-  </si>
-  <si>
     <t>Stack_Max</t>
   </si>
   <si>
@@ -584,6 +578,9 @@
   </si>
   <si>
     <t>Phase_3_HP</t>
+  </si>
+  <si>
+    <t>Invincible</t>
   </si>
 </sst>
 </file>
@@ -952,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1139,6 +1136,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1671,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M6" sqref="A6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1718,16 +1718,16 @@
         <v>23</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34.5" thickBot="1">
@@ -1891,124 +1891,124 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A6" s="6">
-        <v>104</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="34.5" thickBot="1">
+      <c r="A6" s="9">
+        <v>131</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34.5" thickBot="1">
+      <c r="A7" s="6">
+        <v>200</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="34.5" thickBot="1">
-      <c r="A7" s="9">
-        <v>131</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="44" t="b">
-        <v>0</v>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="22" t="b">
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
+      <c r="K7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="34.5" thickBot="1">
       <c r="A8" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
       </c>
       <c r="K8" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -2017,9 +2017,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="34.5" thickBot="1">
+    <row r="9" spans="1:13" ht="17.5" thickBot="1">
       <c r="A9" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>32</v>
@@ -2031,16 +2031,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I9" s="22" t="b">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.5" thickBot="1">
       <c r="A10" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>32</v>
@@ -2075,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I10" s="22" t="b">
         <v>0</v>
@@ -2101,28 +2101,28 @@
     </row>
     <row r="11" spans="1:13" ht="17.5" thickBot="1">
       <c r="A11" s="6">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
       <c r="F11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I11" s="22" t="b">
         <v>0</v>
@@ -2137,12 +2137,12 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.5" thickBot="1">
       <c r="A12" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>32</v>
@@ -2157,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="K12" s="22" t="b">
         <v>0</v>
@@ -2178,39 +2178,39 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17.5" thickBot="1">
       <c r="A13" s="6">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I13" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1.5</v>
+        <v>9999</v>
       </c>
       <c r="K13" s="22" t="b">
         <v>0</v>
@@ -2224,16 +2224,16 @@
     </row>
     <row r="14" spans="1:13" ht="17.5" thickBot="1">
       <c r="A14" s="6">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -2241,17 +2241,17 @@
       <c r="F14" s="6">
         <v>1</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>46</v>
+      <c r="G14" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I14" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="K14" s="22" t="b">
         <v>0</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="15" spans="1:13" ht="17.5" thickBot="1">
       <c r="A15" s="6">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>45</v>
@@ -2283,16 +2283,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I15" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" s="22" t="b">
         <v>0</v>
@@ -2304,9 +2304,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.5" thickBot="1">
+    <row r="16" spans="1:13" ht="34.5" thickBot="1">
       <c r="A16" s="6">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>45</v>
@@ -2324,39 +2324,39 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I16" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>5</v>
+        <v>9999</v>
       </c>
       <c r="K16" s="22" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="34.5" thickBot="1">
+    <row r="17" spans="1:13" ht="17.5" thickBot="1">
       <c r="A17" s="6">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -2365,65 +2365,24 @@
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" s="22" t="b">
+        <v>55</v>
+      </c>
+      <c r="I17" s="45" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>9999</v>
       </c>
-      <c r="K17" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>3</v>
+      <c r="K17" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A18" s="6">
-        <v>331</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>9999</v>
-      </c>
-      <c r="K18" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2437,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K138" sqref="K138"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -3848,1002 +3807,1002 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A29" s="6">
+      <c r="A29" s="9">
         <v>103012101</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="B29" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
         <v>1.5</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="9">
         <v>0.25</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="9">
         <v>0.77</v>
       </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
         <v>0</v>
       </c>
       <c r="K29" s="6">
         <v>1</v>
       </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A30" s="6">
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A30" s="9">
         <v>103012102</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="B30" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
         <v>2</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="9">
         <v>0.5</v>
       </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
         <v>2</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="9">
         <v>0</v>
       </c>
       <c r="K30" s="6">
         <v>1</v>
       </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A31" s="6">
+      <c r="A31" s="9">
+        <v>103012103</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A32" s="9">
+        <v>103012104</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A33" s="9">
         <v>103012201</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B33" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="9">
         <v>2</v>
       </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
         <v>1.5</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F33" s="9">
         <v>0.25</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G33" s="9">
         <v>0.77</v>
       </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>1</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A32" s="6">
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A34" s="9">
         <v>103012202</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B34" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="9">
         <v>2</v>
       </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F34" s="9">
         <v>0.5</v>
       </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <v>2</v>
       </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>1</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A33" s="6">
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>1</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A35" s="9">
+        <v>103012203</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A36" s="9">
+        <v>103012204</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>5</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A37" s="9">
         <v>103012301</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B37" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="9">
         <v>3</v>
       </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
         <v>1.5</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F37" s="9">
         <v>0.25</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G37" s="9">
         <v>0.77</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A34" s="6">
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A38" s="9">
         <v>103012302</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B38" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9">
         <v>3</v>
       </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F38" s="9">
         <v>0.5</v>
       </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
         <v>2</v>
       </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A35" s="6">
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>1</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A39" s="9">
+        <v>103012303</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A40" s="9">
+        <v>103012304</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="9">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>5</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="N40" s="9">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A41" s="9">
         <v>103012401</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B41" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="9">
         <v>4</v>
       </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
         <v>1.5</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F41" s="9">
         <v>0.25</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G41" s="9">
         <v>0.77</v>
       </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>1</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A36" s="6">
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>1</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>0</v>
+      </c>
+      <c r="P41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A42" s="9">
         <v>103012402</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B42" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="9">
         <v>4</v>
       </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
         <v>2</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F42" s="9">
         <v>0.5</v>
       </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
         <v>2</v>
       </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>1</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A37" s="6">
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1</v>
+      </c>
+      <c r="N42" s="9">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A43" s="9">
+        <v>103012403</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="9">
+        <v>4</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="N43" s="9">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A44" s="9">
+        <v>103012404</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="9">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>5</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>1</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A45" s="9">
         <v>103012501</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B45" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="9">
         <v>5</v>
       </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
         <v>1.5</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F45" s="9">
         <v>0.25</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G45" s="9">
         <v>0.77</v>
       </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A38" s="6">
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>1</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A46" s="9">
         <v>103012502</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B46" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="9">
         <v>5</v>
       </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
         <v>2</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F46" s="9">
         <v>0.5</v>
       </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
         <v>2</v>
       </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>1</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A39" s="6">
-        <v>104012101</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A47" s="9">
+        <v>103012503</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="9">
+        <v>5</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9">
         <v>0.5</v>
       </c>
-      <c r="G39" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>1</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <v>0</v>
-      </c>
-      <c r="P39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A40" s="6">
-        <v>104012102</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
+      <c r="G47" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A48" s="9">
+        <v>103012504</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="9">
         <v>5</v>
       </c>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <v>5</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
         <v>0.77</v>
       </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>1</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A41" s="6">
-        <v>104012201</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>1</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A42" s="6">
-        <v>104012202</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <v>5</v>
-      </c>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>1</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0</v>
-      </c>
-      <c r="P42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A43" s="6">
-        <v>104012301</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="6">
-        <v>3</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>1</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0</v>
-      </c>
-      <c r="O43" s="6">
-        <v>0</v>
-      </c>
-      <c r="P43" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A44" s="6">
-        <v>104012302</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="6">
-        <v>3</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6">
-        <v>5</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>1</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6">
-        <v>0</v>
-      </c>
-      <c r="O44" s="6">
-        <v>0</v>
-      </c>
-      <c r="P44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A45" s="6">
-        <v>104012401</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="6">
-        <v>4</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>1</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0</v>
-      </c>
-      <c r="N45" s="6">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6">
-        <v>0</v>
-      </c>
-      <c r="P45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A46" s="6">
-        <v>104012402</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="6">
-        <v>4</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <v>5</v>
-      </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>1</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0</v>
-      </c>
-      <c r="O46" s="6">
-        <v>0</v>
-      </c>
-      <c r="P46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A47" s="6">
-        <v>104012501</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="6">
-        <v>5</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>1</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-      <c r="N47" s="6">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6">
-        <v>0</v>
-      </c>
-      <c r="P47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A48" s="6">
-        <v>104012502</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="6">
-        <v>5</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6">
-        <v>5</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
         <v>0</v>
       </c>
       <c r="K48" s="6">
         <v>1</v>
       </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
+      <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+      <c r="O48" s="9">
+        <v>0</v>
+      </c>
+      <c r="P48" s="9">
         <v>0</v>
       </c>
     </row>
@@ -9536,9 +9495,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
@@ -9629,31 +9590,31 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="65">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="65">
         <v>23</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="65">
+        <v>23</v>
+      </c>
+      <c r="E5" s="65">
+        <v>61</v>
+      </c>
+      <c r="F5" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="6">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B6" s="6">
-        <v>23</v>
+        <v>406</v>
       </c>
       <c r="C6" s="6">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -9667,13 +9628,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="6">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="B7" s="6">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -9688,13 +9649,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="6">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B8" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -9706,15 +9667,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
       <c r="A9" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -9728,16 +9689,16 @@
     </row>
     <row r="10" spans="1:7" ht="17.5" thickBot="1">
       <c r="A10" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
@@ -9748,16 +9709,16 @@
     </row>
     <row r="11" spans="1:7" ht="17.5" thickBot="1">
       <c r="A11" s="6">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B11" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -9768,13 +9729,13 @@
     </row>
     <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" s="6">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
@@ -9788,13 +9749,13 @@
     </row>
     <row r="13" spans="1:7" ht="17.5" thickBot="1">
       <c r="A13" s="6">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="B13" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
@@ -9808,10 +9769,10 @@
     </row>
     <row r="14" spans="1:7" ht="17.5" thickBot="1">
       <c r="A14" s="6">
-        <v>300</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
+        <v>301</v>
+      </c>
+      <c r="B14" s="17">
+        <v>13</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -9828,10 +9789,10 @@
     </row>
     <row r="15" spans="1:7" ht="17.5" thickBot="1">
       <c r="A15" s="6">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B15" s="17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -9848,10 +9809,10 @@
     </row>
     <row r="16" spans="1:7" ht="17.5" thickBot="1">
       <c r="A16" s="6">
-        <v>302</v>
-      </c>
-      <c r="B16" s="17">
-        <v>1</v>
+        <v>303</v>
+      </c>
+      <c r="B16" s="6">
+        <v>11</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -9868,10 +9829,10 @@
     </row>
     <row r="17" spans="1:6" ht="17.5" thickBot="1">
       <c r="A17" s="6">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B17" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -9883,26 +9844,6 @@
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A18" s="6">
-        <v>331</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -10151,43 +10092,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>144</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>145</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I1" t="s">
         <v>104</v>
       </c>
       <c r="J1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" t="s">
         <v>149</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>150</v>
-      </c>
-      <c r="L1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" t="s">
-        <v>152</v>
       </c>
       <c r="N1" t="s">
         <v>109</v>
@@ -10312,10 +10253,10 @@
         <v>109</v>
       </c>
       <c r="S1" s="63" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T1" s="64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="U1" s="7"/>
     </row>
@@ -10515,7 +10456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -10529,28 +10470,28 @@
         <v>15</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>136</v>
-      </c>
       <c r="H1" s="57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J1" s="58" t="s">
         <v>101</v>
@@ -10585,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.5" thickBot="1">
@@ -10617,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -10648,40 +10589,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="61" t="s">
+      <c r="K1" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="L1" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="M1" s="62" t="s">
         <v>140</v>
-      </c>
-      <c r="L1" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>142</v>
       </c>
       <c r="N1" s="18"/>
     </row>
@@ -10690,7 +10631,7 @@
         <v>1000001</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -10732,7 +10673,7 @@
         <v>2000001</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34640AD2-2962-400F-A08C-71EC4C53C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24E786-0813-43D9-B57F-74E0ACCCDF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M6" sqref="A6:M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1961,7 +1961,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -2396,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K29" sqref="K29:K48"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24E786-0813-43D9-B57F-74E0ACCCDF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC5B542-B16B-40C6-A7DA-833648D99716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
   <si>
     <t>Level</t>
   </si>
@@ -581,6 +581,31 @@
   </si>
   <si>
     <t>Invincible</t>
+  </si>
+  <si>
+    <t>전신의 힘을 끌어모아 강력한 일격을 날립니다</t>
+  </si>
+  <si>
+    <t>해머를 올려쳐 적을 공중에 띄웁니다</t>
+  </si>
+  <si>
+    <t>강한 인력을 발생시켜 적들을 끌어 모읍니다</t>
+  </si>
+  <si>
+    <t>해머를 회전시키며 하늘 높이 뛰어올라 번개와 함께 강력한 일격을 날립니다</t>
+  </si>
+  <si>
+    <t>대미지와 관통력을 극단적으로 끌어올린 대신 사거리가 줄어든 탄환을 연속하여 발사합니다</t>
+  </si>
+  <si>
+    <t>지정된 범위에 폭발하는 플라즈마 탄을 발사합니다</t>
+  </si>
+  <si>
+    <t>폭격기를 소환해 지정된 지역에 강력한 폭탄을 투하합니다</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -949,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1068,16 +1093,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1158,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,25 +1617,25 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="52" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1671,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1689,7 +1711,7 @@
     <col min="11" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" thickBot="1">
+    <row r="1" spans="1:14" ht="34.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1726,11 +1748,14 @@
       <c r="L1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="34.5" thickBot="1">
+      <c r="N1" s="64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="34.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -1758,7 +1783,7 @@
       <c r="I2" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <v>0</v>
       </c>
       <c r="K2" s="22" t="b">
@@ -1767,11 +1792,12 @@
       <c r="L2" s="6">
         <v>0</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="34.5" thickBot="1">
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" ht="34.5" thickBot="1">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1799,7 +1825,7 @@
       <c r="I3" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <v>0</v>
       </c>
       <c r="K3" s="22" t="b">
@@ -1808,11 +1834,12 @@
       <c r="L3" s="6">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.5" thickBot="1">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -1840,7 +1867,7 @@
       <c r="I4" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>0</v>
       </c>
       <c r="K4" s="24" t="b">
@@ -1849,11 +1876,12 @@
       <c r="L4" s="6">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1881,7 +1909,7 @@
       <c r="I5" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>0</v>
       </c>
       <c r="K5" s="22" t="b">
@@ -1890,52 +1918,54 @@
       <c r="L5" s="6">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="34.5" thickBot="1">
-      <c r="A6" s="9">
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="34.5" thickBot="1">
+      <c r="A6" s="6">
         <v>131</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>3</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43" t="s">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="34.5" thickBot="1">
+      <c r="I6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="34.5" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -1963,7 +1993,7 @@
       <c r="I7" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="6">
         <v>0</v>
       </c>
       <c r="K7" s="22" t="b">
@@ -1972,11 +2002,14 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="34.5" thickBot="1">
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="85.5" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -2004,7 +2037,7 @@
       <c r="I8" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>0</v>
       </c>
       <c r="K8" s="22" t="b">
@@ -2013,11 +2046,14 @@
       <c r="L8" s="6">
         <v>0</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="68.5" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -2045,7 +2081,7 @@
       <c r="I9" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" s="22" t="b">
@@ -2054,11 +2090,14 @@
       <c r="L9" s="6">
         <v>0</v>
       </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="85.5" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -2086,7 +2125,7 @@
       <c r="I10" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="22" t="b">
@@ -2095,11 +2134,14 @@
       <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="136.5" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -2127,7 +2169,7 @@
       <c r="I11" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="K11" s="22" t="b">
@@ -2136,11 +2178,14 @@
       <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="6">
         <v>232</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="17.5" thickBot="1">
+      <c r="N11" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.5" thickBot="1">
       <c r="A12" s="6">
         <v>232</v>
       </c>
@@ -2168,7 +2213,7 @@
       <c r="I12" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="6">
         <v>1.5</v>
       </c>
       <c r="K12" s="22" t="b">
@@ -2177,11 +2222,14 @@
       <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.5" thickBot="1">
       <c r="A13" s="6">
         <v>300</v>
       </c>
@@ -2209,7 +2257,7 @@
       <c r="I13" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>9999</v>
       </c>
       <c r="K13" s="22" t="b">
@@ -2218,11 +2266,14 @@
       <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.5" thickBot="1">
       <c r="A14" s="6">
         <v>301</v>
       </c>
@@ -2250,7 +2301,7 @@
       <c r="I14" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="22" t="b">
@@ -2259,11 +2310,12 @@
       <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="170.5" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -2291,7 +2343,7 @@
       <c r="I15" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="6">
         <v>5</v>
       </c>
       <c r="K15" s="22" t="b">
@@ -2300,11 +2352,14 @@
       <c r="L15" s="6">
         <v>0</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="34.5" thickBot="1">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="102.5" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -2332,7 +2387,7 @@
       <c r="I16" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="6">
         <v>9999</v>
       </c>
       <c r="K16" s="22" t="b">
@@ -2341,11 +2396,14 @@
       <c r="L16" s="6">
         <v>3</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17.5" thickBot="1">
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="102.5" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -2370,20 +2428,23 @@
       <c r="H17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
         <v>9999</v>
       </c>
-      <c r="K17" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
+      <c r="K17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3810,7 +3871,7 @@
       <c r="A29" s="9">
         <v>103012101</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C29" s="9">
@@ -3860,7 +3921,7 @@
       <c r="A30" s="9">
         <v>103012102</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="9">
@@ -3910,7 +3971,7 @@
       <c r="A31" s="9">
         <v>103012103</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C31" s="9">
@@ -3960,7 +4021,7 @@
       <c r="A32" s="9">
         <v>103012104</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C32" s="9">
@@ -4010,7 +4071,7 @@
       <c r="A33" s="9">
         <v>103012201</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="9">
@@ -4060,7 +4121,7 @@
       <c r="A34" s="9">
         <v>103012202</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C34" s="9">
@@ -4110,7 +4171,7 @@
       <c r="A35" s="9">
         <v>103012203</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C35" s="9">
@@ -4160,7 +4221,7 @@
       <c r="A36" s="9">
         <v>103012204</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C36" s="9">
@@ -4210,7 +4271,7 @@
       <c r="A37" s="9">
         <v>103012301</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="9">
@@ -4260,7 +4321,7 @@
       <c r="A38" s="9">
         <v>103012302</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="9">
@@ -4310,7 +4371,7 @@
       <c r="A39" s="9">
         <v>103012303</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C39" s="9">
@@ -4360,7 +4421,7 @@
       <c r="A40" s="9">
         <v>103012304</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C40" s="9">
@@ -4410,7 +4471,7 @@
       <c r="A41" s="9">
         <v>103012401</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="9">
@@ -4460,7 +4521,7 @@
       <c r="A42" s="9">
         <v>103012402</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="9">
@@ -4510,7 +4571,7 @@
       <c r="A43" s="9">
         <v>103012403</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C43" s="9">
@@ -4560,7 +4621,7 @@
       <c r="A44" s="9">
         <v>103012404</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C44" s="9">
@@ -4610,7 +4671,7 @@
       <c r="A45" s="9">
         <v>103012501</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="9">
@@ -4660,7 +4721,7 @@
       <c r="A46" s="9">
         <v>103012502</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="42" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="9">
@@ -4710,7 +4771,7 @@
       <c r="A47" s="9">
         <v>103012503</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C47" s="9">
@@ -4760,7 +4821,7 @@
       <c r="A48" s="9">
         <v>103012504</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="42" t="s">
         <v>161</v>
       </c>
       <c r="C48" s="9">
@@ -8290,7 +8351,7 @@
       <c r="A118" s="1">
         <v>300031101</v>
       </c>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C118" s="1">
@@ -8340,7 +8401,7 @@
       <c r="A119" s="1">
         <v>301032101</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C119" s="1">
@@ -8390,7 +8451,7 @@
       <c r="A120" s="1">
         <v>301032201</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C120" s="1">
@@ -8440,7 +8501,7 @@
       <c r="A121" s="1">
         <v>301032301</v>
       </c>
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C121" s="1">
@@ -8490,7 +8551,7 @@
       <c r="A122" s="1">
         <v>301032401</v>
       </c>
-      <c r="B122" s="46" t="s">
+      <c r="B122" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C122" s="1">
@@ -8540,7 +8601,7 @@
       <c r="A123" s="1">
         <v>301032501</v>
       </c>
-      <c r="B123" s="46" t="s">
+      <c r="B123" s="44" t="s">
         <v>78</v>
       </c>
       <c r="C123" s="1">
@@ -8590,7 +8651,7 @@
       <c r="A124" s="1">
         <v>302032101</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C124" s="1">
@@ -8640,7 +8701,7 @@
       <c r="A125" s="1">
         <v>302032201</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C125" s="1">
@@ -8690,7 +8751,7 @@
       <c r="A126" s="1">
         <v>302032301</v>
       </c>
-      <c r="B126" s="46" t="s">
+      <c r="B126" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C126" s="1">
@@ -8740,7 +8801,7 @@
       <c r="A127" s="1">
         <v>302032401</v>
       </c>
-      <c r="B127" s="46" t="s">
+      <c r="B127" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C127" s="1">
@@ -8790,7 +8851,7 @@
       <c r="A128" s="1">
         <v>302032501</v>
       </c>
-      <c r="B128" s="46" t="s">
+      <c r="B128" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C128" s="1">
@@ -8840,7 +8901,7 @@
       <c r="A129" s="1">
         <v>303032101</v>
       </c>
-      <c r="B129" s="46" t="s">
+      <c r="B129" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C129" s="1">
@@ -8890,7 +8951,7 @@
       <c r="A130" s="1">
         <v>303032102</v>
       </c>
-      <c r="B130" s="46" t="s">
+      <c r="B130" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C130" s="1">
@@ -8940,7 +9001,7 @@
       <c r="A131" s="1">
         <v>303032201</v>
       </c>
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C131" s="1">
@@ -8967,7 +9028,7 @@
       <c r="J131" s="1">
         <v>3</v>
       </c>
-      <c r="K131" s="47">
+      <c r="K131" s="45">
         <v>1</v>
       </c>
       <c r="L131" s="1">
@@ -8990,7 +9051,7 @@
       <c r="A132" s="1">
         <v>303032202</v>
       </c>
-      <c r="B132" s="46" t="s">
+      <c r="B132" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C132" s="1">
@@ -9040,7 +9101,7 @@
       <c r="A133" s="1">
         <v>303032301</v>
       </c>
-      <c r="B133" s="46" t="s">
+      <c r="B133" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C133" s="1">
@@ -9090,7 +9151,7 @@
       <c r="A134" s="1">
         <v>303032302</v>
       </c>
-      <c r="B134" s="46" t="s">
+      <c r="B134" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C134" s="1">
@@ -9140,7 +9201,7 @@
       <c r="A135" s="1">
         <v>303032401</v>
       </c>
-      <c r="B135" s="46" t="s">
+      <c r="B135" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C135" s="1">
@@ -9190,7 +9251,7 @@
       <c r="A136" s="1">
         <v>303032402</v>
       </c>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C136" s="1">
@@ -9240,7 +9301,7 @@
       <c r="A137" s="1">
         <v>303032501</v>
       </c>
-      <c r="B137" s="46" t="s">
+      <c r="B137" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C137" s="1">
@@ -9290,7 +9351,7 @@
       <c r="A138" s="1">
         <v>303032502</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="44" t="s">
         <v>76</v>
       </c>
       <c r="C138" s="1">
@@ -9340,7 +9401,7 @@
       <c r="A139" s="1">
         <v>331033101</v>
       </c>
-      <c r="B139" s="46" t="s">
+      <c r="B139" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C139" s="1">
@@ -9390,7 +9451,7 @@
       <c r="A140" s="1">
         <v>331033201</v>
       </c>
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C140" s="1">
@@ -9440,7 +9501,7 @@
       <c r="A141" s="1">
         <v>331033301</v>
       </c>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="44" t="s">
         <v>71</v>
       </c>
       <c r="C141" s="1">
@@ -9590,19 +9651,19 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="63">
         <v>6</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="63">
         <v>23</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="63">
         <v>23</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="63">
         <v>61</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="63">
         <v>0</v>
       </c>
     </row>
@@ -10198,64 +10259,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="O1" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="62" t="s">
         <v>160</v>
       </c>
       <c r="U1" s="7"/>
@@ -10264,13 +10325,13 @@
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="1">
@@ -10327,13 +10388,13 @@
       <c r="A3" s="1">
         <v>2000</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>115</v>
       </c>
       <c r="E3" s="1">
@@ -10466,34 +10527,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10516,16 +10577,16 @@
       <c r="F2" s="9">
         <v>28</v>
       </c>
-      <c r="G2" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="59" t="s">
+      <c r="G2" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10548,16 +10609,16 @@
       <c r="F3" s="9">
         <v>52</v>
       </c>
-      <c r="G3" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="43" t="s">
+      <c r="G3" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10585,43 +10646,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>140</v>
       </c>
       <c r="N1" s="18"/>
@@ -10630,7 +10691,7 @@
       <c r="A2" s="9">
         <v>1000001</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="9">
@@ -10672,7 +10733,7 @@
       <c r="A3" s="9">
         <v>2000001</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="9">

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC5B542-B16B-40C6-A7DA-833648D99716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF876620-B3E4-45F0-A7AB-724FCC56AA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Pattern_List" sheetId="9" r:id="rId8"/>
     <sheet name="Pattern_Info_List" sheetId="10" r:id="rId9"/>
     <sheet name="Pattern_Hit_Frame" sheetId="11" r:id="rId10"/>
+    <sheet name="Passive_Skill" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,12 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="188">
   <si>
     <t>Level</t>
   </si>
@@ -606,6 +602,65 @@
   <si>
     <t>Explanation</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive_Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name_Eng</t>
+  </si>
+  <si>
+    <t>Max_Level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase_Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_Figure</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 강화</t>
+  </si>
+  <si>
+    <t>Output_Enhance</t>
+  </si>
+  <si>
+    <t>액침 냉각</t>
+  </si>
+  <si>
+    <t>Water_Cooler</t>
+  </si>
+  <si>
+    <t>고내구성 장갑</t>
+  </si>
+  <si>
+    <t>High_Durability</t>
+  </si>
+  <si>
+    <t>전자동 트리거</t>
+  </si>
+  <si>
+    <t>Full_Auto_Trigger</t>
+  </si>
+  <si>
+    <t>파쇄탄</t>
+  </si>
+  <si>
+    <t>Shredded_Bullet</t>
+  </si>
+  <si>
+    <t>의료선</t>
+  </si>
+  <si>
+    <t>Medical_Ship</t>
   </si>
 </sst>
 </file>
@@ -1448,9 +1503,9 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="51.5" thickBot="1">
+    <row r="1" spans="1:16" ht="50.25" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.5" thickBot="1">
+    <row r="2" spans="1:16" ht="17.25" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1545,59 +1600,59 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="17.5" thickBot="1">
+    <row r="3" spans="1:16" ht="17.25" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="17.5" thickBot="1">
+    <row r="4" spans="1:16" ht="17.25" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="17.5" thickBot="1">
+    <row r="5" spans="1:16" ht="17.25" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="17.5" thickBot="1">
+    <row r="6" spans="1:16" ht="17.25" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="17.5" thickBot="1">
+    <row r="7" spans="1:16" ht="17.25" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="17.5" thickBot="1">
+    <row r="8" spans="1:16" ht="17.25" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="17.5" thickBot="1">
+    <row r="9" spans="1:16" ht="17.25" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="17.5" thickBot="1">
+    <row r="10" spans="1:16" ht="17.25" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="17.5" thickBot="1">
+    <row r="11" spans="1:16" ht="17.25" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="17.5" thickBot="1">
+    <row r="12" spans="1:16" ht="17.25" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="17.5" thickBot="1">
+    <row r="13" spans="1:16" ht="17.25" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="17.5" thickBot="1">
+    <row r="14" spans="1:16" ht="17.25" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="17.5" thickBot="1">
+    <row r="15" spans="1:16" ht="17.25" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="17.5" thickBot="1">
+    <row r="16" spans="1:16" ht="17.25" thickBot="1">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -1614,9 +1669,9 @@
       <selection activeCell="G3" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5" thickBot="1">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.5" thickBot="1">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
@@ -1662,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
@@ -1688,6 +1743,215 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0AA7C-D827-478C-A8E1-4F3353839195}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A1" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A2" s="18">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2002</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="9">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18">
+        <v>3001</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A7" s="18">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3002</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1695,23 +1959,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="18"/>
-    <col min="2" max="2" width="14.33203125" style="18" customWidth="1"/>
-    <col min="3" max="6" width="8.58203125" style="18"/>
+    <col min="1" max="1" width="8.625" style="18"/>
+    <col min="2" max="2" width="14.375" style="18" customWidth="1"/>
+    <col min="3" max="6" width="8.625" style="18"/>
     <col min="7" max="7" width="10.5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="21.58203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="18"/>
+    <col min="8" max="8" width="21.625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="18"/>
     <col min="10" max="10" width="13.75" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="18"/>
+    <col min="11" max="16384" width="8.625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" thickBot="1">
+    <row r="1" spans="1:14" ht="33.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1755,7 +2019,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="34.5" thickBot="1">
+    <row r="2" spans="1:14" ht="50.25" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -1797,7 +2061,7 @@
       </c>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="34.5" thickBot="1">
+    <row r="3" spans="1:14" ht="33.75" thickBot="1">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -1839,7 +2103,7 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="17.5" thickBot="1">
+    <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -1881,7 +2145,7 @@
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="17.5" thickBot="1">
+    <row r="5" spans="1:14" ht="17.25" thickBot="1">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -1923,7 +2187,7 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="34.5" thickBot="1">
+    <row r="6" spans="1:14" ht="33.75" thickBot="1">
       <c r="A6" s="6">
         <v>131</v>
       </c>
@@ -1965,7 +2229,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="34.5" thickBot="1">
+    <row r="7" spans="1:14" ht="50.25" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -2009,7 +2273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="85.5" thickBot="1">
+    <row r="8" spans="1:14" ht="99.75" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -2053,7 +2317,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="68.5" thickBot="1">
+    <row r="9" spans="1:14" ht="83.25" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -2097,7 +2361,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="85.5" thickBot="1">
+    <row r="10" spans="1:14" ht="99.75" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -2141,7 +2405,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="136.5" thickBot="1">
+    <row r="11" spans="1:14" ht="165.75" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -2185,7 +2449,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.5" thickBot="1">
+    <row r="12" spans="1:14" ht="17.25" thickBot="1">
       <c r="A12" s="6">
         <v>232</v>
       </c>
@@ -2229,7 +2493,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.5" thickBot="1">
+    <row r="13" spans="1:14" ht="17.25" thickBot="1">
       <c r="A13" s="6">
         <v>300</v>
       </c>
@@ -2273,7 +2537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17.5" thickBot="1">
+    <row r="14" spans="1:14" ht="17.25" thickBot="1">
       <c r="A14" s="6">
         <v>301</v>
       </c>
@@ -2315,7 +2579,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="170.5" thickBot="1">
+    <row r="15" spans="1:14" ht="198.75" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -2359,7 +2623,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="102.5" thickBot="1">
+    <row r="16" spans="1:14" ht="99.75" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -2403,7 +2667,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="102.5" thickBot="1">
+    <row r="17" spans="1:14" ht="132.75" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -2461,13 +2725,13 @@
       <selection activeCell="K29" sqref="K29:K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="8.58203125" style="14"/>
+    <col min="1" max="1" width="13.375" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="8.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51">
+    <row r="1" spans="1:16" ht="49.5">
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.5" thickBot="1">
+    <row r="3" spans="1:16" ht="17.25" thickBot="1">
       <c r="A3" s="6">
         <v>100011102</v>
       </c>
@@ -2617,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="34.5" thickBot="1">
+    <row r="4" spans="1:16" ht="33.75" thickBot="1">
       <c r="A4" s="6">
         <v>101012101</v>
       </c>
@@ -2667,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17.5" thickBot="1">
+    <row r="5" spans="1:16" ht="17.25" thickBot="1">
       <c r="A5" s="6">
         <v>101012102</v>
       </c>
@@ -2717,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="34.5" thickBot="1">
+    <row r="6" spans="1:16" ht="33.75" thickBot="1">
       <c r="A6" s="6">
         <v>101012201</v>
       </c>
@@ -2767,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.5" thickBot="1">
+    <row r="7" spans="1:16" ht="17.25" thickBot="1">
       <c r="A7" s="6">
         <v>101012202</v>
       </c>
@@ -2817,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="34.5" thickBot="1">
+    <row r="8" spans="1:16" ht="33.75" thickBot="1">
       <c r="A8" s="6">
         <v>101012301</v>
       </c>
@@ -2867,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.5" thickBot="1">
+    <row r="9" spans="1:16" ht="17.25" thickBot="1">
       <c r="A9" s="6">
         <v>101012302</v>
       </c>
@@ -2917,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="34.5" thickBot="1">
+    <row r="10" spans="1:16" ht="33.75" thickBot="1">
       <c r="A10" s="6">
         <v>101012401</v>
       </c>
@@ -2967,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.5" thickBot="1">
+    <row r="11" spans="1:16" ht="17.25" thickBot="1">
       <c r="A11" s="6">
         <v>101012402</v>
       </c>
@@ -3017,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="34.5" thickBot="1">
+    <row r="12" spans="1:16" ht="33.75" thickBot="1">
       <c r="A12" s="6">
         <v>101012501</v>
       </c>
@@ -3067,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.5" thickBot="1">
+    <row r="13" spans="1:16" ht="17.25" thickBot="1">
       <c r="A13" s="6">
         <v>101012502</v>
       </c>
@@ -3117,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.5" thickBot="1">
+    <row r="14" spans="1:16" ht="17.25" thickBot="1">
       <c r="A14" s="32">
         <v>102012101</v>
       </c>
@@ -3167,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.5" thickBot="1">
+    <row r="15" spans="1:16" ht="17.25" thickBot="1">
       <c r="A15" s="35">
         <v>102012102</v>
       </c>
@@ -3217,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.5" thickBot="1">
+    <row r="16" spans="1:16" ht="17.25" thickBot="1">
       <c r="A16" s="35">
         <v>102012103</v>
       </c>
@@ -3267,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.5" thickBot="1">
+    <row r="17" spans="1:16" ht="17.25" thickBot="1">
       <c r="A17" s="35">
         <v>102012201</v>
       </c>
@@ -3317,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17.5" thickBot="1">
+    <row r="18" spans="1:16" ht="17.25" thickBot="1">
       <c r="A18" s="35">
         <v>102012202</v>
       </c>
@@ -3367,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.5" thickBot="1">
+    <row r="19" spans="1:16" ht="17.25" thickBot="1">
       <c r="A19" s="35">
         <v>102012203</v>
       </c>
@@ -3417,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17.5" thickBot="1">
+    <row r="20" spans="1:16" ht="17.25" thickBot="1">
       <c r="A20" s="35">
         <v>102012301</v>
       </c>
@@ -3467,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.5" thickBot="1">
+    <row r="21" spans="1:16" ht="17.25" thickBot="1">
       <c r="A21" s="35">
         <v>102012302</v>
       </c>
@@ -3517,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.5" thickBot="1">
+    <row r="22" spans="1:16" ht="17.25" thickBot="1">
       <c r="A22" s="35">
         <v>102012303</v>
       </c>
@@ -3567,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.5" thickBot="1">
+    <row r="23" spans="1:16" ht="17.25" thickBot="1">
       <c r="A23" s="35">
         <v>102012401</v>
       </c>
@@ -3617,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.5" thickBot="1">
+    <row r="24" spans="1:16" ht="17.25" thickBot="1">
       <c r="A24" s="35">
         <v>102012402</v>
       </c>
@@ -3667,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="17.5" thickBot="1">
+    <row r="25" spans="1:16" ht="17.25" thickBot="1">
       <c r="A25" s="35">
         <v>102012403</v>
       </c>
@@ -3717,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17.5" thickBot="1">
+    <row r="26" spans="1:16" ht="17.25" thickBot="1">
       <c r="A26" s="35">
         <v>102012501</v>
       </c>
@@ -3767,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17.5" thickBot="1">
+    <row r="27" spans="1:16" ht="17.25" thickBot="1">
       <c r="A27" s="35">
         <v>102012502</v>
       </c>
@@ -3817,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17.5" thickBot="1">
+    <row r="28" spans="1:16" ht="17.25" thickBot="1">
       <c r="A28" s="38">
         <v>102012503</v>
       </c>
@@ -3867,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17.5" thickBot="1">
+    <row r="29" spans="1:16" ht="17.25" thickBot="1">
       <c r="A29" s="9">
         <v>103012101</v>
       </c>
@@ -3917,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="34.5" thickBot="1">
+    <row r="30" spans="1:16" ht="50.25" thickBot="1">
       <c r="A30" s="9">
         <v>103012102</v>
       </c>
@@ -3967,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17.5" thickBot="1">
+    <row r="31" spans="1:16" ht="33.75" thickBot="1">
       <c r="A31" s="9">
         <v>103012103</v>
       </c>
@@ -4017,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17.5" thickBot="1">
+    <row r="32" spans="1:16" ht="33.75" thickBot="1">
       <c r="A32" s="9">
         <v>103012104</v>
       </c>
@@ -4067,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17.5" thickBot="1">
+    <row r="33" spans="1:16" ht="17.25" thickBot="1">
       <c r="A33" s="9">
         <v>103012201</v>
       </c>
@@ -4117,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="34.5" thickBot="1">
+    <row r="34" spans="1:16" ht="50.25" thickBot="1">
       <c r="A34" s="9">
         <v>103012202</v>
       </c>
@@ -4167,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.5" thickBot="1">
+    <row r="35" spans="1:16" ht="33.75" thickBot="1">
       <c r="A35" s="9">
         <v>103012203</v>
       </c>
@@ -4217,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.5" thickBot="1">
+    <row r="36" spans="1:16" ht="33.75" thickBot="1">
       <c r="A36" s="9">
         <v>103012204</v>
       </c>
@@ -4267,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.5" thickBot="1">
+    <row r="37" spans="1:16" ht="17.25" thickBot="1">
       <c r="A37" s="9">
         <v>103012301</v>
       </c>
@@ -4317,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="34.5" thickBot="1">
+    <row r="38" spans="1:16" ht="50.25" thickBot="1">
       <c r="A38" s="9">
         <v>103012302</v>
       </c>
@@ -4367,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="17.5" thickBot="1">
+    <row r="39" spans="1:16" ht="33.75" thickBot="1">
       <c r="A39" s="9">
         <v>103012303</v>
       </c>
@@ -4417,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.5" thickBot="1">
+    <row r="40" spans="1:16" ht="33.75" thickBot="1">
       <c r="A40" s="9">
         <v>103012304</v>
       </c>
@@ -4467,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.5" thickBot="1">
+    <row r="41" spans="1:16" ht="17.25" thickBot="1">
       <c r="A41" s="9">
         <v>103012401</v>
       </c>
@@ -4517,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="34.5" thickBot="1">
+    <row r="42" spans="1:16" ht="50.25" thickBot="1">
       <c r="A42" s="9">
         <v>103012402</v>
       </c>
@@ -4567,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.5" thickBot="1">
+    <row r="43" spans="1:16" ht="33.75" thickBot="1">
       <c r="A43" s="9">
         <v>103012403</v>
       </c>
@@ -4617,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.5" thickBot="1">
+    <row r="44" spans="1:16" ht="33.75" thickBot="1">
       <c r="A44" s="9">
         <v>103012404</v>
       </c>
@@ -4667,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.5" thickBot="1">
+    <row r="45" spans="1:16" ht="17.25" thickBot="1">
       <c r="A45" s="9">
         <v>103012501</v>
       </c>
@@ -4717,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="34.5" thickBot="1">
+    <row r="46" spans="1:16" ht="50.25" thickBot="1">
       <c r="A46" s="9">
         <v>103012502</v>
       </c>
@@ -4767,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17.5" thickBot="1">
+    <row r="47" spans="1:16" ht="33.75" thickBot="1">
       <c r="A47" s="9">
         <v>103012503</v>
       </c>
@@ -4817,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="17.5" thickBot="1">
+    <row r="48" spans="1:16" ht="33.75" thickBot="1">
       <c r="A48" s="9">
         <v>103012504</v>
       </c>
@@ -4867,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="17.5" thickBot="1">
+    <row r="49" spans="1:26" ht="17.25" thickBot="1">
       <c r="A49" s="6">
         <v>131013101</v>
       </c>
@@ -4927,7 +5191,7 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" spans="1:26" ht="17.5" thickBot="1">
+    <row r="50" spans="1:26" ht="17.25" thickBot="1">
       <c r="A50" s="6">
         <v>131013201</v>
       </c>
@@ -4987,7 +5251,7 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" spans="1:26" ht="17.5" thickBot="1">
+    <row r="51" spans="1:26" ht="17.25" thickBot="1">
       <c r="A51" s="6">
         <v>131013301</v>
       </c>
@@ -5047,7 +5311,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" spans="1:26" ht="17.5" thickBot="1">
+    <row r="52" spans="1:26" ht="17.25" thickBot="1">
       <c r="A52" s="6">
         <v>200021101</v>
       </c>
@@ -5097,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="17.5" thickBot="1">
+    <row r="53" spans="1:26" ht="17.25" thickBot="1">
       <c r="A53" s="6">
         <v>200021102</v>
       </c>
@@ -5147,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="17.5" thickBot="1">
+    <row r="54" spans="1:26" ht="17.25" thickBot="1">
       <c r="A54" s="6">
         <v>201022101</v>
       </c>
@@ -5197,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="17.5" thickBot="1">
+    <row r="55" spans="1:26" ht="17.25" thickBot="1">
       <c r="A55" s="6">
         <v>201022102</v>
       </c>
@@ -5247,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="17.5" thickBot="1">
+    <row r="56" spans="1:26" ht="17.25" thickBot="1">
       <c r="A56" s="6">
         <v>201022201</v>
       </c>
@@ -5297,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="17.5" thickBot="1">
+    <row r="57" spans="1:26" ht="17.25" thickBot="1">
       <c r="A57" s="6">
         <v>201022202</v>
       </c>
@@ -5347,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="17.5" thickBot="1">
+    <row r="58" spans="1:26" ht="17.25" thickBot="1">
       <c r="A58" s="6">
         <v>201022301</v>
       </c>
@@ -5397,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="17.5" thickBot="1">
+    <row r="59" spans="1:26" ht="17.25" thickBot="1">
       <c r="A59" s="6">
         <v>201022302</v>
       </c>
@@ -5447,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="17.5" thickBot="1">
+    <row r="60" spans="1:26" ht="17.25" thickBot="1">
       <c r="A60" s="6">
         <v>201022401</v>
       </c>
@@ -5497,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="17.5" thickBot="1">
+    <row r="61" spans="1:26" ht="17.25" thickBot="1">
       <c r="A61" s="6">
         <v>201022402</v>
       </c>
@@ -5547,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="17.5" thickBot="1">
+    <row r="62" spans="1:26" ht="17.25" thickBot="1">
       <c r="A62" s="6">
         <v>201022501</v>
       </c>
@@ -5597,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="17.5" thickBot="1">
+    <row r="63" spans="1:26" ht="17.25" thickBot="1">
       <c r="A63" s="6">
         <v>201022502</v>
       </c>
@@ -5647,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="17.5" thickBot="1">
+    <row r="64" spans="1:26" ht="17.25" thickBot="1">
       <c r="A64" s="6">
         <v>201022111</v>
       </c>
@@ -5697,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="34.5" thickBot="1">
+    <row r="65" spans="1:16" ht="33.75" thickBot="1">
       <c r="A65" s="6">
         <v>201022112</v>
       </c>
@@ -5747,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="17.5" thickBot="1">
+    <row r="66" spans="1:16" ht="17.25" thickBot="1">
       <c r="A66" s="6">
         <v>201022211</v>
       </c>
@@ -5797,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="34.5" thickBot="1">
+    <row r="67" spans="1:16" ht="33.75" thickBot="1">
       <c r="A67" s="6">
         <v>201022212</v>
       </c>
@@ -5847,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="17.5" thickBot="1">
+    <row r="68" spans="1:16" ht="17.25" thickBot="1">
       <c r="A68" s="6">
         <v>201022311</v>
       </c>
@@ -5897,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="34.5" thickBot="1">
+    <row r="69" spans="1:16" ht="33.75" thickBot="1">
       <c r="A69" s="6">
         <v>201022312</v>
       </c>
@@ -5947,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="17.5" thickBot="1">
+    <row r="70" spans="1:16" ht="17.25" thickBot="1">
       <c r="A70" s="6">
         <v>201022411</v>
       </c>
@@ -5997,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="34.5" thickBot="1">
+    <row r="71" spans="1:16" ht="33.75" thickBot="1">
       <c r="A71" s="6">
         <v>201022412</v>
       </c>
@@ -6047,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="17.5" thickBot="1">
+    <row r="72" spans="1:16" ht="17.25" thickBot="1">
       <c r="A72" s="6">
         <v>201022511</v>
       </c>
@@ -6097,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="34.5" thickBot="1">
+    <row r="73" spans="1:16" ht="33.75" thickBot="1">
       <c r="A73" s="6">
         <v>201022512</v>
       </c>
@@ -6147,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="17.5" thickBot="1">
+    <row r="74" spans="1:16" ht="17.25" thickBot="1">
       <c r="A74" s="6">
         <v>201022121</v>
       </c>
@@ -6197,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="34.5" thickBot="1">
+    <row r="75" spans="1:16" ht="33.75" thickBot="1">
       <c r="A75" s="6">
         <v>201022122</v>
       </c>
@@ -6247,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="34.5" thickBot="1">
+    <row r="76" spans="1:16" ht="33.75" thickBot="1">
       <c r="A76" s="6">
         <v>201022123</v>
       </c>
@@ -6297,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="17.5" thickBot="1">
+    <row r="77" spans="1:16" ht="17.25" thickBot="1">
       <c r="A77" s="6">
         <v>201022221</v>
       </c>
@@ -6347,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="34.5" thickBot="1">
+    <row r="78" spans="1:16" ht="33.75" thickBot="1">
       <c r="A78" s="6">
         <v>201022222</v>
       </c>
@@ -6397,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="34.5" thickBot="1">
+    <row r="79" spans="1:16" ht="33.75" thickBot="1">
       <c r="A79" s="6">
         <v>201022223</v>
       </c>
@@ -6447,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="17.5" thickBot="1">
+    <row r="80" spans="1:16" ht="17.25" thickBot="1">
       <c r="A80" s="6">
         <v>201022321</v>
       </c>
@@ -6497,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="34.5" thickBot="1">
+    <row r="81" spans="1:16" ht="33.75" thickBot="1">
       <c r="A81" s="6">
         <v>201022322</v>
       </c>
@@ -6547,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="34.5" thickBot="1">
+    <row r="82" spans="1:16" ht="33.75" thickBot="1">
       <c r="A82" s="6">
         <v>201022323</v>
       </c>
@@ -6597,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17.5" thickBot="1">
+    <row r="83" spans="1:16" ht="17.25" thickBot="1">
       <c r="A83" s="6">
         <v>201022421</v>
       </c>
@@ -6647,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="34.5" thickBot="1">
+    <row r="84" spans="1:16" ht="33.75" thickBot="1">
       <c r="A84" s="6">
         <v>201022422</v>
       </c>
@@ -6697,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="34.5" thickBot="1">
+    <row r="85" spans="1:16" ht="33.75" thickBot="1">
       <c r="A85" s="6">
         <v>201022423</v>
       </c>
@@ -6747,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="17.5" thickBot="1">
+    <row r="86" spans="1:16" ht="17.25" thickBot="1">
       <c r="A86" s="6">
         <v>201022521</v>
       </c>
@@ -6797,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="34.5" thickBot="1">
+    <row r="87" spans="1:16" ht="33.75" thickBot="1">
       <c r="A87" s="6">
         <v>201022522</v>
       </c>
@@ -6847,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="34.5" thickBot="1">
+    <row r="88" spans="1:16" ht="33.75" thickBot="1">
       <c r="A88" s="6">
         <v>201022523</v>
       </c>
@@ -6897,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="17.5" thickBot="1">
+    <row r="89" spans="1:16" ht="17.25" thickBot="1">
       <c r="A89" s="6">
         <v>202022101</v>
       </c>
@@ -6947,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="17.5" thickBot="1">
+    <row r="90" spans="1:16" ht="17.25" thickBot="1">
       <c r="A90" s="6">
         <v>202022201</v>
       </c>
@@ -6997,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="17.5" thickBot="1">
+    <row r="91" spans="1:16" ht="17.25" thickBot="1">
       <c r="A91" s="6">
         <v>202022301</v>
       </c>
@@ -7047,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="17.5" thickBot="1">
+    <row r="92" spans="1:16" ht="17.25" thickBot="1">
       <c r="A92" s="6">
         <v>202022401</v>
       </c>
@@ -7097,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="17.5" thickBot="1">
+    <row r="93" spans="1:16" ht="17.25" thickBot="1">
       <c r="A93" s="6">
         <v>202022501</v>
       </c>
@@ -7147,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="17.5" thickBot="1">
+    <row r="94" spans="1:16" ht="17.25" thickBot="1">
       <c r="A94" s="6">
         <v>203022101</v>
       </c>
@@ -7197,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="17.5" thickBot="1">
+    <row r="95" spans="1:16" ht="17.25" thickBot="1">
       <c r="A95" s="6">
         <v>203022102</v>
       </c>
@@ -7247,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="17.5" thickBot="1">
+    <row r="96" spans="1:16" ht="17.25" thickBot="1">
       <c r="A96" s="6">
         <v>203022103</v>
       </c>
@@ -7297,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="17.5" thickBot="1">
+    <row r="97" spans="1:16" ht="17.25" thickBot="1">
       <c r="A97" s="6">
         <v>203022201</v>
       </c>
@@ -7347,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="17.5" thickBot="1">
+    <row r="98" spans="1:16" ht="17.25" thickBot="1">
       <c r="A98" s="6">
         <v>203022202</v>
       </c>
@@ -7397,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="17.5" thickBot="1">
+    <row r="99" spans="1:16" ht="17.25" thickBot="1">
       <c r="A99" s="6">
         <v>203022203</v>
       </c>
@@ -7447,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="17.5" thickBot="1">
+    <row r="100" spans="1:16" ht="17.25" thickBot="1">
       <c r="A100" s="6">
         <v>203022301</v>
       </c>
@@ -7497,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="17.5" thickBot="1">
+    <row r="101" spans="1:16" ht="17.25" thickBot="1">
       <c r="A101" s="6">
         <v>203022302</v>
       </c>
@@ -7547,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="17.5" thickBot="1">
+    <row r="102" spans="1:16" ht="17.25" thickBot="1">
       <c r="A102" s="6">
         <v>203022303</v>
       </c>
@@ -7597,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="17.5" thickBot="1">
+    <row r="103" spans="1:16" ht="17.25" thickBot="1">
       <c r="A103" s="6">
         <v>203022401</v>
       </c>
@@ -7647,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="17.5" thickBot="1">
+    <row r="104" spans="1:16" ht="17.25" thickBot="1">
       <c r="A104" s="6">
         <v>203022402</v>
       </c>
@@ -7697,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="17.5" thickBot="1">
+    <row r="105" spans="1:16" ht="17.25" thickBot="1">
       <c r="A105" s="6">
         <v>203022403</v>
       </c>
@@ -7747,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="17.5" thickBot="1">
+    <row r="106" spans="1:16" ht="17.25" thickBot="1">
       <c r="A106" s="6">
         <v>203022501</v>
       </c>
@@ -7797,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="17.5" thickBot="1">
+    <row r="107" spans="1:16" ht="17.25" thickBot="1">
       <c r="A107" s="6">
         <v>203022502</v>
       </c>
@@ -7847,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="17.5" thickBot="1">
+    <row r="108" spans="1:16" ht="17.25" thickBot="1">
       <c r="A108" s="6">
         <v>203022503</v>
       </c>
@@ -7897,7 +8161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="34.5" thickBot="1">
+    <row r="109" spans="1:16" ht="50.25" thickBot="1">
       <c r="A109" s="6">
         <v>231023101</v>
       </c>
@@ -7947,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="34.5" thickBot="1">
+    <row r="110" spans="1:16" ht="50.25" thickBot="1">
       <c r="A110" s="6">
         <v>231023201</v>
       </c>
@@ -7997,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="34.5" thickBot="1">
+    <row r="111" spans="1:16" ht="50.25" thickBot="1">
       <c r="A111" s="6">
         <v>231023301</v>
       </c>
@@ -8047,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="17.5" thickBot="1">
+    <row r="112" spans="1:16" ht="17.25" thickBot="1">
       <c r="A112" s="6">
         <v>232023101</v>
       </c>
@@ -8097,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="17.5" thickBot="1">
+    <row r="113" spans="1:16" ht="17.25" thickBot="1">
       <c r="A113" s="6">
         <v>232023102</v>
       </c>
@@ -8147,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="17.5" thickBot="1">
+    <row r="114" spans="1:16" ht="17.25" thickBot="1">
       <c r="A114" s="6">
         <v>232023201</v>
       </c>
@@ -8197,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="17.5" thickBot="1">
+    <row r="115" spans="1:16" ht="17.25" thickBot="1">
       <c r="A115" s="6">
         <v>232023202</v>
       </c>
@@ -8247,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="17.5" thickBot="1">
+    <row r="116" spans="1:16" ht="17.25" thickBot="1">
       <c r="A116" s="6">
         <v>232023301</v>
       </c>
@@ -8297,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="17.5" thickBot="1">
+    <row r="117" spans="1:16" ht="17.25" thickBot="1">
       <c r="A117" s="6">
         <v>232023302</v>
       </c>
@@ -8347,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="17.5" thickBot="1">
+    <row r="118" spans="1:16" ht="17.25" thickBot="1">
       <c r="A118" s="1">
         <v>300031101</v>
       </c>
@@ -8397,7 +8661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="44" thickBot="1">
+    <row r="119" spans="1:16" ht="45.75" thickBot="1">
       <c r="A119" s="1">
         <v>301032101</v>
       </c>
@@ -8447,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="44" thickBot="1">
+    <row r="120" spans="1:16" ht="45.75" thickBot="1">
       <c r="A120" s="1">
         <v>301032201</v>
       </c>
@@ -8497,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="44" thickBot="1">
+    <row r="121" spans="1:16" ht="45.75" thickBot="1">
       <c r="A121" s="1">
         <v>301032301</v>
       </c>
@@ -8547,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="44" thickBot="1">
+    <row r="122" spans="1:16" ht="45.75" thickBot="1">
       <c r="A122" s="1">
         <v>301032401</v>
       </c>
@@ -8597,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="44" thickBot="1">
+    <row r="123" spans="1:16" ht="45.75" thickBot="1">
       <c r="A123" s="1">
         <v>301032501</v>
       </c>
@@ -8647,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="17.5" thickBot="1">
+    <row r="124" spans="1:16" ht="17.25" thickBot="1">
       <c r="A124" s="1">
         <v>302032101</v>
       </c>
@@ -8697,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="17.5" thickBot="1">
+    <row r="125" spans="1:16" ht="17.25" thickBot="1">
       <c r="A125" s="1">
         <v>302032201</v>
       </c>
@@ -8747,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="17.5" thickBot="1">
+    <row r="126" spans="1:16" ht="17.25" thickBot="1">
       <c r="A126" s="1">
         <v>302032301</v>
       </c>
@@ -8797,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="17.5" thickBot="1">
+    <row r="127" spans="1:16" ht="17.25" thickBot="1">
       <c r="A127" s="1">
         <v>302032401</v>
       </c>
@@ -8847,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="17.5" thickBot="1">
+    <row r="128" spans="1:16" ht="17.25" thickBot="1">
       <c r="A128" s="1">
         <v>302032501</v>
       </c>
@@ -8897,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="17.5" thickBot="1">
+    <row r="129" spans="1:16" ht="17.25" thickBot="1">
       <c r="A129" s="1">
         <v>303032101</v>
       </c>
@@ -8947,7 +9211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="17.5" thickBot="1">
+    <row r="130" spans="1:16" ht="17.25" thickBot="1">
       <c r="A130" s="1">
         <v>303032102</v>
       </c>
@@ -8997,7 +9261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="17.5" thickBot="1">
+    <row r="131" spans="1:16" ht="17.25" thickBot="1">
       <c r="A131" s="1">
         <v>303032201</v>
       </c>
@@ -9047,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="17.5" thickBot="1">
+    <row r="132" spans="1:16" ht="17.25" thickBot="1">
       <c r="A132" s="1">
         <v>303032202</v>
       </c>
@@ -9097,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="17.5" thickBot="1">
+    <row r="133" spans="1:16" ht="17.25" thickBot="1">
       <c r="A133" s="1">
         <v>303032301</v>
       </c>
@@ -9147,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="17.5" thickBot="1">
+    <row r="134" spans="1:16" ht="17.25" thickBot="1">
       <c r="A134" s="1">
         <v>303032302</v>
       </c>
@@ -9197,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="17.5" thickBot="1">
+    <row r="135" spans="1:16" ht="17.25" thickBot="1">
       <c r="A135" s="1">
         <v>303032401</v>
       </c>
@@ -9247,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="17.5" thickBot="1">
+    <row r="136" spans="1:16" ht="17.25" thickBot="1">
       <c r="A136" s="1">
         <v>303032402</v>
       </c>
@@ -9297,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="17.5" thickBot="1">
+    <row r="137" spans="1:16" ht="17.25" thickBot="1">
       <c r="A137" s="1">
         <v>303032501</v>
       </c>
@@ -9347,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="17.5" thickBot="1">
+    <row r="138" spans="1:16" ht="17.25" thickBot="1">
       <c r="A138" s="1">
         <v>303032502</v>
       </c>
@@ -9397,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="17.5" thickBot="1">
+    <row r="139" spans="1:16" ht="17.25" thickBot="1">
       <c r="A139" s="1">
         <v>331033101</v>
       </c>
@@ -9447,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="17.5" thickBot="1">
+    <row r="140" spans="1:16" ht="17.25" thickBot="1">
       <c r="A140" s="1">
         <v>331033201</v>
       </c>
@@ -9497,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="17.5" thickBot="1">
+    <row r="141" spans="1:16" ht="17.25" thickBot="1">
       <c r="A141" s="1">
         <v>331033301</v>
       </c>
@@ -9562,12 +9826,12 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="14"/>
+    <col min="1" max="16384" width="8.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5" thickBot="1">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -9587,7 +9851,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.5" thickBot="1">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -9627,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.5" thickBot="1">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -9647,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.5" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -9667,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1">
       <c r="A6" s="6">
         <v>131</v>
       </c>
@@ -9687,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" thickBot="1">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -9708,7 +9972,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -9728,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -9748,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -9768,7 +10032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" thickBot="1">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -9788,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.5" thickBot="1">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1">
       <c r="A12" s="6">
         <v>232</v>
       </c>
@@ -9808,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+    <row r="13" spans="1:7" ht="17.25" thickBot="1">
       <c r="A13" s="6">
         <v>300</v>
       </c>
@@ -9828,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" thickBot="1">
+    <row r="14" spans="1:7" ht="17.25" thickBot="1">
       <c r="A14" s="6">
         <v>301</v>
       </c>
@@ -9848,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.5" thickBot="1">
+    <row r="15" spans="1:7" ht="17.25" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -9868,7 +10132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.5" thickBot="1">
+    <row r="16" spans="1:7" ht="17.25" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -9888,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" thickBot="1">
+    <row r="17" spans="1:6" ht="17.25" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -9923,19 +10187,19 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="14"/>
+    <col min="1" max="1" width="8.625" style="14"/>
     <col min="2" max="2" width="14" style="14" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
-    <col min="4" max="8" width="8.58203125" style="14"/>
-    <col min="9" max="9" width="13.33203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="8.58203125" style="14"/>
+    <col min="4" max="8" width="8.625" style="14"/>
+    <col min="9" max="9" width="13.375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.5" thickBot="1">
+    <row r="1" spans="1:16" ht="33.75" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -9985,7 +10249,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.5" thickBot="1">
+    <row r="2" spans="1:16" ht="17.25" thickBot="1">
       <c r="A2" s="6">
         <v>1000</v>
       </c>
@@ -10035,7 +10299,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.5" thickBot="1">
+    <row r="3" spans="1:16" ht="17.25" thickBot="1">
       <c r="A3" s="6">
         <v>2000</v>
       </c>
@@ -10085,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.5" thickBot="1">
+    <row r="4" spans="1:16" ht="17.25" thickBot="1">
       <c r="A4" s="6">
         <v>3000</v>
       </c>
@@ -10149,7 +10413,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -10253,12 +10517,12 @@
       <selection activeCell="E4" sqref="E4:T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="8.58203125" style="14"/>
+    <col min="1" max="16384" width="8.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="34.5" thickBot="1">
+    <row r="1" spans="1:21" ht="33.75" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
@@ -10321,7 +10585,7 @@
       </c>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" ht="29.5" thickBot="1">
+    <row r="2" spans="1:21" ht="30.75" thickBot="1">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -10384,7 +10648,7 @@
       </c>
       <c r="U2" s="7"/>
     </row>
-    <row r="3" spans="1:21" ht="29.5" thickBot="1">
+    <row r="3" spans="1:21" ht="30.75" thickBot="1">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -10447,7 +10711,7 @@
       </c>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" ht="17.5" thickBot="1">
+    <row r="4" spans="1:21" ht="17.25" thickBot="1">
       <c r="A4" s="7">
         <v>3000</v>
       </c>
@@ -10521,12 +10785,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" thickBot="1">
+    <row r="1" spans="1:10" ht="33.75" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
@@ -10558,7 +10822,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" thickBot="1">
+    <row r="2" spans="1:10" ht="17.25" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
@@ -10590,7 +10854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.5" thickBot="1">
+    <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
@@ -10636,16 +10900,16 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.08203125" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" thickBot="1">
+    <row r="1" spans="1:14" ht="33.75" thickBot="1">
       <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
@@ -10687,7 +10951,7 @@
       </c>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="17.5" thickBot="1">
+    <row r="2" spans="1:14" ht="17.25" thickBot="1">
       <c r="A2" s="9">
         <v>1000001</v>
       </c>
@@ -10729,7 +10993,7 @@
       </c>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" ht="17.5" thickBot="1">
+    <row r="3" spans="1:14" ht="17.25" thickBot="1">
       <c r="A3" s="9">
         <v>2000001</v>
       </c>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GameSW\Documents\GitHub\ProjectTS\Assets\04Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF876620-B3E4-45F0-A7AB-724FCC56AA85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C659C-F74D-4B3C-9624-2DE0467D73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="192">
   <si>
     <t>Level</t>
   </si>
@@ -661,6 +661,18 @@
   </si>
   <si>
     <t>Medical_Ship</t>
+  </si>
+  <si>
+    <t>카타안킬로 V2</t>
+  </si>
+  <si>
+    <t>카타안킬로 V3</t>
+  </si>
+  <si>
+    <t>듀리노 V2</t>
+  </si>
+  <si>
+    <t>Drop_Exp</t>
   </si>
 </sst>
 </file>
@@ -719,7 +731,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +819,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D08D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1214,8 +1232,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,9 +1524,9 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="50.25" thickBot="1">
+    <row r="1" spans="1:16" ht="51.5" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.25" thickBot="1">
+    <row r="2" spans="1:16" ht="17.5" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1600,59 +1621,59 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" thickBot="1">
+    <row r="3" spans="1:16" ht="17.5" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1">
+    <row r="4" spans="1:16" ht="17.5" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1">
+    <row r="5" spans="1:16" ht="17.5" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="17.25" thickBot="1">
+    <row r="6" spans="1:16" ht="17.5" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="17.25" thickBot="1">
+    <row r="7" spans="1:16" ht="17.5" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="17.25" thickBot="1">
+    <row r="8" spans="1:16" ht="17.5" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1">
+    <row r="9" spans="1:16" ht="17.5" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="17.25" thickBot="1">
+    <row r="10" spans="1:16" ht="17.5" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="17.25" thickBot="1">
+    <row r="11" spans="1:16" ht="17.5" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="17.25" thickBot="1">
+    <row r="12" spans="1:16" ht="17.5" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="17.25" thickBot="1">
+    <row r="13" spans="1:16" ht="17.5" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1">
+    <row r="14" spans="1:16" ht="17.5" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="17.25" thickBot="1">
+    <row r="15" spans="1:16" ht="17.5" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1">
+    <row r="16" spans="1:16" ht="17.5" thickBot="1">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -1669,9 +1690,9 @@
       <selection activeCell="G3" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1">
+    <row r="1" spans="1:7" ht="17.5" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1715,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
+    <row r="2" spans="1:7" ht="17.5" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
@@ -1717,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1">
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
@@ -1750,23 +1771,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0AA7C-D827-478C-A8E1-4F3353839195}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1">
+    <row r="1" spans="1:8" ht="17.5" thickBot="1">
       <c r="A1" s="18" t="s">
         <v>170</v>
       </c>
@@ -1792,7 +1813,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.75" thickBot="1">
+    <row r="2" spans="1:8" ht="34.5" thickBot="1">
       <c r="A2" s="18">
         <v>2</v>
       </c>
@@ -1818,7 +1839,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.75" thickBot="1">
+    <row r="3" spans="1:8" ht="34.5" thickBot="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1844,7 +1865,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33.75" thickBot="1">
+    <row r="4" spans="1:8" ht="34.5" thickBot="1">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1870,7 +1891,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.75" thickBot="1">
+    <row r="5" spans="1:8" ht="34.5" thickBot="1">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1896,7 +1917,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33.75" thickBot="1">
+    <row r="6" spans="1:8" ht="34.5" thickBot="1">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -1922,7 +1943,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33.75" thickBot="1">
+    <row r="7" spans="1:8" ht="17.5" thickBot="1">
       <c r="A7" s="18">
         <v>3</v>
       </c>
@@ -1963,19 +1984,19 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="18"/>
-    <col min="2" max="2" width="14.375" style="18" customWidth="1"/>
-    <col min="3" max="6" width="8.625" style="18"/>
+    <col min="1" max="1" width="8.58203125" style="18"/>
+    <col min="2" max="2" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3" max="6" width="8.58203125" style="18"/>
     <col min="7" max="7" width="10.5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="18"/>
+    <col min="8" max="8" width="21.58203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" style="18"/>
     <col min="10" max="10" width="13.75" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="18"/>
+    <col min="11" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" thickBot="1">
+    <row r="1" spans="1:14" ht="34.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -2019,7 +2040,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="50.25" thickBot="1">
+    <row r="2" spans="1:14" ht="34.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -2061,7 +2082,7 @@
       </c>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="33.75" thickBot="1">
+    <row r="3" spans="1:14" ht="34.5" thickBot="1">
       <c r="A3" s="6">
         <v>101</v>
       </c>
@@ -2103,7 +2124,7 @@
       </c>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1">
+    <row r="4" spans="1:14" ht="17.5" thickBot="1">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -2145,7 +2166,7 @@
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickBot="1">
+    <row r="5" spans="1:14" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -2187,7 +2208,7 @@
       </c>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="33.75" thickBot="1">
+    <row r="6" spans="1:14" ht="34.5" thickBot="1">
       <c r="A6" s="6">
         <v>131</v>
       </c>
@@ -2229,7 +2250,7 @@
       </c>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="50.25" thickBot="1">
+    <row r="7" spans="1:14" ht="34.5" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -2273,7 +2294,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="99.75" thickBot="1">
+    <row r="8" spans="1:14" ht="85.5" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -2317,7 +2338,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="83.25" thickBot="1">
+    <row r="9" spans="1:14" ht="68.5" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -2361,7 +2382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="99.75" thickBot="1">
+    <row r="10" spans="1:14" ht="85.5" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -2405,7 +2426,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="165.75" thickBot="1">
+    <row r="11" spans="1:14" ht="136.5" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -2449,7 +2470,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17.25" thickBot="1">
+    <row r="12" spans="1:14" ht="17.5" thickBot="1">
       <c r="A12" s="6">
         <v>232</v>
       </c>
@@ -2493,7 +2514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1">
+    <row r="13" spans="1:14" ht="17.5" thickBot="1">
       <c r="A13" s="6">
         <v>300</v>
       </c>
@@ -2537,7 +2558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17.25" thickBot="1">
+    <row r="14" spans="1:14" ht="17.5" thickBot="1">
       <c r="A14" s="6">
         <v>301</v>
       </c>
@@ -2579,7 +2600,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="198.75" thickBot="1">
+    <row r="15" spans="1:14" ht="170.5" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -2623,7 +2644,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="99.75" thickBot="1">
+    <row r="16" spans="1:14" ht="102.5" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -2667,7 +2688,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="132.75" thickBot="1">
+    <row r="17" spans="1:14" ht="102.5" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -2725,13 +2746,13 @@
       <selection activeCell="K29" sqref="K29:K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="8.625" style="14"/>
+    <col min="1" max="1" width="13.33203125" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="49.5">
+    <row r="1" spans="1:16" ht="51">
       <c r="A1" s="26" t="s">
         <v>15</v>
       </c>
@@ -2831,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.25" thickBot="1">
+    <row r="3" spans="1:16" ht="17.5" thickBot="1">
       <c r="A3" s="6">
         <v>100011102</v>
       </c>
@@ -2881,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="33.75" thickBot="1">
+    <row r="4" spans="1:16" ht="34.5" thickBot="1">
       <c r="A4" s="6">
         <v>101012101</v>
       </c>
@@ -2931,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17.25" thickBot="1">
+    <row r="5" spans="1:16" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>101012102</v>
       </c>
@@ -2981,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="33.75" thickBot="1">
+    <row r="6" spans="1:16" ht="34.5" thickBot="1">
       <c r="A6" s="6">
         <v>101012201</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.25" thickBot="1">
+    <row r="7" spans="1:16" ht="17.5" thickBot="1">
       <c r="A7" s="6">
         <v>101012202</v>
       </c>
@@ -3081,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="33.75" thickBot="1">
+    <row r="8" spans="1:16" ht="34.5" thickBot="1">
       <c r="A8" s="6">
         <v>101012301</v>
       </c>
@@ -3131,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.25" thickBot="1">
+    <row r="9" spans="1:16" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>101012302</v>
       </c>
@@ -3181,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33.75" thickBot="1">
+    <row r="10" spans="1:16" ht="34.5" thickBot="1">
       <c r="A10" s="6">
         <v>101012401</v>
       </c>
@@ -3231,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.25" thickBot="1">
+    <row r="11" spans="1:16" ht="17.5" thickBot="1">
       <c r="A11" s="6">
         <v>101012402</v>
       </c>
@@ -3281,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="33.75" thickBot="1">
+    <row r="12" spans="1:16" ht="34.5" thickBot="1">
       <c r="A12" s="6">
         <v>101012501</v>
       </c>
@@ -3331,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.25" thickBot="1">
+    <row r="13" spans="1:16" ht="17.5" thickBot="1">
       <c r="A13" s="6">
         <v>101012502</v>
       </c>
@@ -3381,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.25" thickBot="1">
+    <row r="14" spans="1:16" ht="17.5" thickBot="1">
       <c r="A14" s="32">
         <v>102012101</v>
       </c>
@@ -3431,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.25" thickBot="1">
+    <row r="15" spans="1:16" ht="17.5" thickBot="1">
       <c r="A15" s="35">
         <v>102012102</v>
       </c>
@@ -3481,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.25" thickBot="1">
+    <row r="16" spans="1:16" ht="17.5" thickBot="1">
       <c r="A16" s="35">
         <v>102012103</v>
       </c>
@@ -3531,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.25" thickBot="1">
+    <row r="17" spans="1:16" ht="17.5" thickBot="1">
       <c r="A17" s="35">
         <v>102012201</v>
       </c>
@@ -3581,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17.25" thickBot="1">
+    <row r="18" spans="1:16" ht="17.5" thickBot="1">
       <c r="A18" s="35">
         <v>102012202</v>
       </c>
@@ -3631,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.25" thickBot="1">
+    <row r="19" spans="1:16" ht="17.5" thickBot="1">
       <c r="A19" s="35">
         <v>102012203</v>
       </c>
@@ -3681,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17.25" thickBot="1">
+    <row r="20" spans="1:16" ht="17.5" thickBot="1">
       <c r="A20" s="35">
         <v>102012301</v>
       </c>
@@ -3731,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.25" thickBot="1">
+    <row r="21" spans="1:16" ht="17.5" thickBot="1">
       <c r="A21" s="35">
         <v>102012302</v>
       </c>
@@ -3781,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.25" thickBot="1">
+    <row r="22" spans="1:16" ht="17.5" thickBot="1">
       <c r="A22" s="35">
         <v>102012303</v>
       </c>
@@ -3831,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.25" thickBot="1">
+    <row r="23" spans="1:16" ht="17.5" thickBot="1">
       <c r="A23" s="35">
         <v>102012401</v>
       </c>
@@ -3881,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.25" thickBot="1">
+    <row r="24" spans="1:16" ht="17.5" thickBot="1">
       <c r="A24" s="35">
         <v>102012402</v>
       </c>
@@ -3931,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="17.25" thickBot="1">
+    <row r="25" spans="1:16" ht="17.5" thickBot="1">
       <c r="A25" s="35">
         <v>102012403</v>
       </c>
@@ -3981,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17.25" thickBot="1">
+    <row r="26" spans="1:16" ht="17.5" thickBot="1">
       <c r="A26" s="35">
         <v>102012501</v>
       </c>
@@ -4031,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17.25" thickBot="1">
+    <row r="27" spans="1:16" ht="17.5" thickBot="1">
       <c r="A27" s="35">
         <v>102012502</v>
       </c>
@@ -4081,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17.25" thickBot="1">
+    <row r="28" spans="1:16" ht="17.5" thickBot="1">
       <c r="A28" s="38">
         <v>102012503</v>
       </c>
@@ -4131,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17.25" thickBot="1">
+    <row r="29" spans="1:16" ht="17.5" thickBot="1">
       <c r="A29" s="9">
         <v>103012101</v>
       </c>
@@ -4181,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="50.25" thickBot="1">
+    <row r="30" spans="1:16" ht="34.5" thickBot="1">
       <c r="A30" s="9">
         <v>103012102</v>
       </c>
@@ -4231,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="33.75" thickBot="1">
+    <row r="31" spans="1:16" ht="17.5" thickBot="1">
       <c r="A31" s="9">
         <v>103012103</v>
       </c>
@@ -4281,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="33.75" thickBot="1">
+    <row r="32" spans="1:16" ht="17.5" thickBot="1">
       <c r="A32" s="9">
         <v>103012104</v>
       </c>
@@ -4331,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17.25" thickBot="1">
+    <row r="33" spans="1:16" ht="17.5" thickBot="1">
       <c r="A33" s="9">
         <v>103012201</v>
       </c>
@@ -4381,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="50.25" thickBot="1">
+    <row r="34" spans="1:16" ht="34.5" thickBot="1">
       <c r="A34" s="9">
         <v>103012202</v>
       </c>
@@ -4431,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="33.75" thickBot="1">
+    <row r="35" spans="1:16" ht="17.5" thickBot="1">
       <c r="A35" s="9">
         <v>103012203</v>
       </c>
@@ -4481,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="33.75" thickBot="1">
+    <row r="36" spans="1:16" ht="17.5" thickBot="1">
       <c r="A36" s="9">
         <v>103012204</v>
       </c>
@@ -4531,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.25" thickBot="1">
+    <row r="37" spans="1:16" ht="17.5" thickBot="1">
       <c r="A37" s="9">
         <v>103012301</v>
       </c>
@@ -4581,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="50.25" thickBot="1">
+    <row r="38" spans="1:16" ht="34.5" thickBot="1">
       <c r="A38" s="9">
         <v>103012302</v>
       </c>
@@ -4631,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="33.75" thickBot="1">
+    <row r="39" spans="1:16" ht="17.5" thickBot="1">
       <c r="A39" s="9">
         <v>103012303</v>
       </c>
@@ -4681,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="33.75" thickBot="1">
+    <row r="40" spans="1:16" ht="17.5" thickBot="1">
       <c r="A40" s="9">
         <v>103012304</v>
       </c>
@@ -4731,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.25" thickBot="1">
+    <row r="41" spans="1:16" ht="17.5" thickBot="1">
       <c r="A41" s="9">
         <v>103012401</v>
       </c>
@@ -4781,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="50.25" thickBot="1">
+    <row r="42" spans="1:16" ht="34.5" thickBot="1">
       <c r="A42" s="9">
         <v>103012402</v>
       </c>
@@ -4831,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="33.75" thickBot="1">
+    <row r="43" spans="1:16" ht="17.5" thickBot="1">
       <c r="A43" s="9">
         <v>103012403</v>
       </c>
@@ -4881,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="33.75" thickBot="1">
+    <row r="44" spans="1:16" ht="17.5" thickBot="1">
       <c r="A44" s="9">
         <v>103012404</v>
       </c>
@@ -4931,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.25" thickBot="1">
+    <row r="45" spans="1:16" ht="17.5" thickBot="1">
       <c r="A45" s="9">
         <v>103012501</v>
       </c>
@@ -4981,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="50.25" thickBot="1">
+    <row r="46" spans="1:16" ht="34.5" thickBot="1">
       <c r="A46" s="9">
         <v>103012502</v>
       </c>
@@ -5031,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="33.75" thickBot="1">
+    <row r="47" spans="1:16" ht="17.5" thickBot="1">
       <c r="A47" s="9">
         <v>103012503</v>
       </c>
@@ -5081,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="33.75" thickBot="1">
+    <row r="48" spans="1:16" ht="17.5" thickBot="1">
       <c r="A48" s="9">
         <v>103012504</v>
       </c>
@@ -5131,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="17.25" thickBot="1">
+    <row r="49" spans="1:26" ht="17.5" thickBot="1">
       <c r="A49" s="6">
         <v>131013101</v>
       </c>
@@ -5191,7 +5212,7 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" spans="1:26" ht="17.25" thickBot="1">
+    <row r="50" spans="1:26" ht="17.5" thickBot="1">
       <c r="A50" s="6">
         <v>131013201</v>
       </c>
@@ -5251,7 +5272,7 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" spans="1:26" ht="17.25" thickBot="1">
+    <row r="51" spans="1:26" ht="17.5" thickBot="1">
       <c r="A51" s="6">
         <v>131013301</v>
       </c>
@@ -5311,7 +5332,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" spans="1:26" ht="17.25" thickBot="1">
+    <row r="52" spans="1:26" ht="17.5" thickBot="1">
       <c r="A52" s="6">
         <v>200021101</v>
       </c>
@@ -5361,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="17.25" thickBot="1">
+    <row r="53" spans="1:26" ht="17.5" thickBot="1">
       <c r="A53" s="6">
         <v>200021102</v>
       </c>
@@ -5411,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="17.25" thickBot="1">
+    <row r="54" spans="1:26" ht="17.5" thickBot="1">
       <c r="A54" s="6">
         <v>201022101</v>
       </c>
@@ -5461,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="17.25" thickBot="1">
+    <row r="55" spans="1:26" ht="17.5" thickBot="1">
       <c r="A55" s="6">
         <v>201022102</v>
       </c>
@@ -5511,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="17.25" thickBot="1">
+    <row r="56" spans="1:26" ht="17.5" thickBot="1">
       <c r="A56" s="6">
         <v>201022201</v>
       </c>
@@ -5561,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="17.25" thickBot="1">
+    <row r="57" spans="1:26" ht="17.5" thickBot="1">
       <c r="A57" s="6">
         <v>201022202</v>
       </c>
@@ -5611,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="17.25" thickBot="1">
+    <row r="58" spans="1:26" ht="17.5" thickBot="1">
       <c r="A58" s="6">
         <v>201022301</v>
       </c>
@@ -5661,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="17.25" thickBot="1">
+    <row r="59" spans="1:26" ht="17.5" thickBot="1">
       <c r="A59" s="6">
         <v>201022302</v>
       </c>
@@ -5711,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="17.25" thickBot="1">
+    <row r="60" spans="1:26" ht="17.5" thickBot="1">
       <c r="A60" s="6">
         <v>201022401</v>
       </c>
@@ -5761,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="17.25" thickBot="1">
+    <row r="61" spans="1:26" ht="17.5" thickBot="1">
       <c r="A61" s="6">
         <v>201022402</v>
       </c>
@@ -5811,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="17.25" thickBot="1">
+    <row r="62" spans="1:26" ht="17.5" thickBot="1">
       <c r="A62" s="6">
         <v>201022501</v>
       </c>
@@ -5861,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="17.25" thickBot="1">
+    <row r="63" spans="1:26" ht="17.5" thickBot="1">
       <c r="A63" s="6">
         <v>201022502</v>
       </c>
@@ -5911,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="17.25" thickBot="1">
+    <row r="64" spans="1:26" ht="17.5" thickBot="1">
       <c r="A64" s="6">
         <v>201022111</v>
       </c>
@@ -5961,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="33.75" thickBot="1">
+    <row r="65" spans="1:16" ht="34.5" thickBot="1">
       <c r="A65" s="6">
         <v>201022112</v>
       </c>
@@ -6011,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="17.25" thickBot="1">
+    <row r="66" spans="1:16" ht="17.5" thickBot="1">
       <c r="A66" s="6">
         <v>201022211</v>
       </c>
@@ -6061,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="33.75" thickBot="1">
+    <row r="67" spans="1:16" ht="34.5" thickBot="1">
       <c r="A67" s="6">
         <v>201022212</v>
       </c>
@@ -6111,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="17.25" thickBot="1">
+    <row r="68" spans="1:16" ht="17.5" thickBot="1">
       <c r="A68" s="6">
         <v>201022311</v>
       </c>
@@ -6161,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="33.75" thickBot="1">
+    <row r="69" spans="1:16" ht="34.5" thickBot="1">
       <c r="A69" s="6">
         <v>201022312</v>
       </c>
@@ -6211,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="17.25" thickBot="1">
+    <row r="70" spans="1:16" ht="17.5" thickBot="1">
       <c r="A70" s="6">
         <v>201022411</v>
       </c>
@@ -6261,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="33.75" thickBot="1">
+    <row r="71" spans="1:16" ht="34.5" thickBot="1">
       <c r="A71" s="6">
         <v>201022412</v>
       </c>
@@ -6311,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="17.25" thickBot="1">
+    <row r="72" spans="1:16" ht="17.5" thickBot="1">
       <c r="A72" s="6">
         <v>201022511</v>
       </c>
@@ -6361,7 +6382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="33.75" thickBot="1">
+    <row r="73" spans="1:16" ht="34.5" thickBot="1">
       <c r="A73" s="6">
         <v>201022512</v>
       </c>
@@ -6411,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="17.25" thickBot="1">
+    <row r="74" spans="1:16" ht="17.5" thickBot="1">
       <c r="A74" s="6">
         <v>201022121</v>
       </c>
@@ -6461,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="33.75" thickBot="1">
+    <row r="75" spans="1:16" ht="34.5" thickBot="1">
       <c r="A75" s="6">
         <v>201022122</v>
       </c>
@@ -6511,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="33.75" thickBot="1">
+    <row r="76" spans="1:16" ht="34.5" thickBot="1">
       <c r="A76" s="6">
         <v>201022123</v>
       </c>
@@ -6561,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="17.25" thickBot="1">
+    <row r="77" spans="1:16" ht="17.5" thickBot="1">
       <c r="A77" s="6">
         <v>201022221</v>
       </c>
@@ -6611,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="33.75" thickBot="1">
+    <row r="78" spans="1:16" ht="34.5" thickBot="1">
       <c r="A78" s="6">
         <v>201022222</v>
       </c>
@@ -6661,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="33.75" thickBot="1">
+    <row r="79" spans="1:16" ht="34.5" thickBot="1">
       <c r="A79" s="6">
         <v>201022223</v>
       </c>
@@ -6711,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="17.25" thickBot="1">
+    <row r="80" spans="1:16" ht="17.5" thickBot="1">
       <c r="A80" s="6">
         <v>201022321</v>
       </c>
@@ -6761,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="33.75" thickBot="1">
+    <row r="81" spans="1:16" ht="34.5" thickBot="1">
       <c r="A81" s="6">
         <v>201022322</v>
       </c>
@@ -6811,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="33.75" thickBot="1">
+    <row r="82" spans="1:16" ht="34.5" thickBot="1">
       <c r="A82" s="6">
         <v>201022323</v>
       </c>
@@ -6861,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17.25" thickBot="1">
+    <row r="83" spans="1:16" ht="17.5" thickBot="1">
       <c r="A83" s="6">
         <v>201022421</v>
       </c>
@@ -6911,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="33.75" thickBot="1">
+    <row r="84" spans="1:16" ht="34.5" thickBot="1">
       <c r="A84" s="6">
         <v>201022422</v>
       </c>
@@ -6961,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="33.75" thickBot="1">
+    <row r="85" spans="1:16" ht="34.5" thickBot="1">
       <c r="A85" s="6">
         <v>201022423</v>
       </c>
@@ -7011,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="17.25" thickBot="1">
+    <row r="86" spans="1:16" ht="17.5" thickBot="1">
       <c r="A86" s="6">
         <v>201022521</v>
       </c>
@@ -7061,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="33.75" thickBot="1">
+    <row r="87" spans="1:16" ht="34.5" thickBot="1">
       <c r="A87" s="6">
         <v>201022522</v>
       </c>
@@ -7111,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="33.75" thickBot="1">
+    <row r="88" spans="1:16" ht="34.5" thickBot="1">
       <c r="A88" s="6">
         <v>201022523</v>
       </c>
@@ -7161,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="17.25" thickBot="1">
+    <row r="89" spans="1:16" ht="17.5" thickBot="1">
       <c r="A89" s="6">
         <v>202022101</v>
       </c>
@@ -7211,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="17.25" thickBot="1">
+    <row r="90" spans="1:16" ht="17.5" thickBot="1">
       <c r="A90" s="6">
         <v>202022201</v>
       </c>
@@ -7261,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="17.25" thickBot="1">
+    <row r="91" spans="1:16" ht="17.5" thickBot="1">
       <c r="A91" s="6">
         <v>202022301</v>
       </c>
@@ -7311,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="17.25" thickBot="1">
+    <row r="92" spans="1:16" ht="17.5" thickBot="1">
       <c r="A92" s="6">
         <v>202022401</v>
       </c>
@@ -7361,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="17.25" thickBot="1">
+    <row r="93" spans="1:16" ht="17.5" thickBot="1">
       <c r="A93" s="6">
         <v>202022501</v>
       </c>
@@ -7411,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="17.25" thickBot="1">
+    <row r="94" spans="1:16" ht="17.5" thickBot="1">
       <c r="A94" s="6">
         <v>203022101</v>
       </c>
@@ -7461,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="17.25" thickBot="1">
+    <row r="95" spans="1:16" ht="17.5" thickBot="1">
       <c r="A95" s="6">
         <v>203022102</v>
       </c>
@@ -7511,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="17.25" thickBot="1">
+    <row r="96" spans="1:16" ht="17.5" thickBot="1">
       <c r="A96" s="6">
         <v>203022103</v>
       </c>
@@ -7561,7 +7582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="17.25" thickBot="1">
+    <row r="97" spans="1:16" ht="17.5" thickBot="1">
       <c r="A97" s="6">
         <v>203022201</v>
       </c>
@@ -7611,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="17.25" thickBot="1">
+    <row r="98" spans="1:16" ht="17.5" thickBot="1">
       <c r="A98" s="6">
         <v>203022202</v>
       </c>
@@ -7661,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="17.25" thickBot="1">
+    <row r="99" spans="1:16" ht="17.5" thickBot="1">
       <c r="A99" s="6">
         <v>203022203</v>
       </c>
@@ -7711,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="17.25" thickBot="1">
+    <row r="100" spans="1:16" ht="17.5" thickBot="1">
       <c r="A100" s="6">
         <v>203022301</v>
       </c>
@@ -7761,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="17.25" thickBot="1">
+    <row r="101" spans="1:16" ht="17.5" thickBot="1">
       <c r="A101" s="6">
         <v>203022302</v>
       </c>
@@ -7811,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="17.25" thickBot="1">
+    <row r="102" spans="1:16" ht="17.5" thickBot="1">
       <c r="A102" s="6">
         <v>203022303</v>
       </c>
@@ -7861,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="17.25" thickBot="1">
+    <row r="103" spans="1:16" ht="17.5" thickBot="1">
       <c r="A103" s="6">
         <v>203022401</v>
       </c>
@@ -7911,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="17.25" thickBot="1">
+    <row r="104" spans="1:16" ht="17.5" thickBot="1">
       <c r="A104" s="6">
         <v>203022402</v>
       </c>
@@ -7961,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="17.25" thickBot="1">
+    <row r="105" spans="1:16" ht="17.5" thickBot="1">
       <c r="A105" s="6">
         <v>203022403</v>
       </c>
@@ -8011,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="17.25" thickBot="1">
+    <row r="106" spans="1:16" ht="17.5" thickBot="1">
       <c r="A106" s="6">
         <v>203022501</v>
       </c>
@@ -8061,7 +8082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="17.25" thickBot="1">
+    <row r="107" spans="1:16" ht="17.5" thickBot="1">
       <c r="A107" s="6">
         <v>203022502</v>
       </c>
@@ -8111,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="17.25" thickBot="1">
+    <row r="108" spans="1:16" ht="17.5" thickBot="1">
       <c r="A108" s="6">
         <v>203022503</v>
       </c>
@@ -8161,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="50.25" thickBot="1">
+    <row r="109" spans="1:16" ht="34.5" thickBot="1">
       <c r="A109" s="6">
         <v>231023101</v>
       </c>
@@ -8211,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="50.25" thickBot="1">
+    <row r="110" spans="1:16" ht="34.5" thickBot="1">
       <c r="A110" s="6">
         <v>231023201</v>
       </c>
@@ -8261,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="50.25" thickBot="1">
+    <row r="111" spans="1:16" ht="34.5" thickBot="1">
       <c r="A111" s="6">
         <v>231023301</v>
       </c>
@@ -8311,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="17.25" thickBot="1">
+    <row r="112" spans="1:16" ht="17.5" thickBot="1">
       <c r="A112" s="6">
         <v>232023101</v>
       </c>
@@ -8361,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="17.25" thickBot="1">
+    <row r="113" spans="1:16" ht="17.5" thickBot="1">
       <c r="A113" s="6">
         <v>232023102</v>
       </c>
@@ -8411,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="17.25" thickBot="1">
+    <row r="114" spans="1:16" ht="17.5" thickBot="1">
       <c r="A114" s="6">
         <v>232023201</v>
       </c>
@@ -8461,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="17.25" thickBot="1">
+    <row r="115" spans="1:16" ht="17.5" thickBot="1">
       <c r="A115" s="6">
         <v>232023202</v>
       </c>
@@ -8511,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="17.25" thickBot="1">
+    <row r="116" spans="1:16" ht="17.5" thickBot="1">
       <c r="A116" s="6">
         <v>232023301</v>
       </c>
@@ -8561,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="17.25" thickBot="1">
+    <row r="117" spans="1:16" ht="17.5" thickBot="1">
       <c r="A117" s="6">
         <v>232023302</v>
       </c>
@@ -8611,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="17.25" thickBot="1">
+    <row r="118" spans="1:16" ht="17.5" thickBot="1">
       <c r="A118" s="1">
         <v>300031101</v>
       </c>
@@ -8661,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="45.75" thickBot="1">
+    <row r="119" spans="1:16" ht="44" thickBot="1">
       <c r="A119" s="1">
         <v>301032101</v>
       </c>
@@ -8711,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="45.75" thickBot="1">
+    <row r="120" spans="1:16" ht="44" thickBot="1">
       <c r="A120" s="1">
         <v>301032201</v>
       </c>
@@ -8761,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="45.75" thickBot="1">
+    <row r="121" spans="1:16" ht="44" thickBot="1">
       <c r="A121" s="1">
         <v>301032301</v>
       </c>
@@ -8811,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="45.75" thickBot="1">
+    <row r="122" spans="1:16" ht="44" thickBot="1">
       <c r="A122" s="1">
         <v>301032401</v>
       </c>
@@ -8861,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="45.75" thickBot="1">
+    <row r="123" spans="1:16" ht="44" thickBot="1">
       <c r="A123" s="1">
         <v>301032501</v>
       </c>
@@ -8911,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="17.25" thickBot="1">
+    <row r="124" spans="1:16" ht="17.5" thickBot="1">
       <c r="A124" s="1">
         <v>302032101</v>
       </c>
@@ -8961,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="17.25" thickBot="1">
+    <row r="125" spans="1:16" ht="17.5" thickBot="1">
       <c r="A125" s="1">
         <v>302032201</v>
       </c>
@@ -9011,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="17.25" thickBot="1">
+    <row r="126" spans="1:16" ht="17.5" thickBot="1">
       <c r="A126" s="1">
         <v>302032301</v>
       </c>
@@ -9061,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="17.25" thickBot="1">
+    <row r="127" spans="1:16" ht="17.5" thickBot="1">
       <c r="A127" s="1">
         <v>302032401</v>
       </c>
@@ -9111,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="17.25" thickBot="1">
+    <row r="128" spans="1:16" ht="17.5" thickBot="1">
       <c r="A128" s="1">
         <v>302032501</v>
       </c>
@@ -9161,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="17.25" thickBot="1">
+    <row r="129" spans="1:16" ht="17.5" thickBot="1">
       <c r="A129" s="1">
         <v>303032101</v>
       </c>
@@ -9211,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="17.25" thickBot="1">
+    <row r="130" spans="1:16" ht="17.5" thickBot="1">
       <c r="A130" s="1">
         <v>303032102</v>
       </c>
@@ -9261,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="17.25" thickBot="1">
+    <row r="131" spans="1:16" ht="17.5" thickBot="1">
       <c r="A131" s="1">
         <v>303032201</v>
       </c>
@@ -9311,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="17.25" thickBot="1">
+    <row r="132" spans="1:16" ht="17.5" thickBot="1">
       <c r="A132" s="1">
         <v>303032202</v>
       </c>
@@ -9361,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="17.25" thickBot="1">
+    <row r="133" spans="1:16" ht="17.5" thickBot="1">
       <c r="A133" s="1">
         <v>303032301</v>
       </c>
@@ -9411,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="17.25" thickBot="1">
+    <row r="134" spans="1:16" ht="17.5" thickBot="1">
       <c r="A134" s="1">
         <v>303032302</v>
       </c>
@@ -9461,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="17.25" thickBot="1">
+    <row r="135" spans="1:16" ht="17.5" thickBot="1">
       <c r="A135" s="1">
         <v>303032401</v>
       </c>
@@ -9511,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="17.25" thickBot="1">
+    <row r="136" spans="1:16" ht="17.5" thickBot="1">
       <c r="A136" s="1">
         <v>303032402</v>
       </c>
@@ -9561,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="17.25" thickBot="1">
+    <row r="137" spans="1:16" ht="17.5" thickBot="1">
       <c r="A137" s="1">
         <v>303032501</v>
       </c>
@@ -9611,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="17.25" thickBot="1">
+    <row r="138" spans="1:16" ht="17.5" thickBot="1">
       <c r="A138" s="1">
         <v>303032502</v>
       </c>
@@ -9661,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="17.25" thickBot="1">
+    <row r="139" spans="1:16" ht="17.5" thickBot="1">
       <c r="A139" s="1">
         <v>331033101</v>
       </c>
@@ -9711,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="17.25" thickBot="1">
+    <row r="140" spans="1:16" ht="17.5" thickBot="1">
       <c r="A140" s="1">
         <v>331033201</v>
       </c>
@@ -9761,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="17.25" thickBot="1">
+    <row r="141" spans="1:16" ht="17.5" thickBot="1">
       <c r="A141" s="1">
         <v>331033301</v>
       </c>
@@ -9826,12 +9847,12 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.625" style="14"/>
+    <col min="1" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1">
+    <row r="1" spans="1:7" ht="17.5" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -9851,7 +9872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1">
+    <row r="2" spans="1:7" ht="17.5" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -9891,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1">
+    <row r="4" spans="1:7" ht="17.5" thickBot="1">
       <c r="A4" s="19">
         <v>102</v>
       </c>
@@ -9911,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>103</v>
       </c>
@@ -9931,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1">
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
       <c r="A6" s="6">
         <v>131</v>
       </c>
@@ -9951,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1">
+    <row r="7" spans="1:7" ht="17.5" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
@@ -9972,7 +9993,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1">
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -9992,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1">
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -10012,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -10032,7 +10053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" thickBot="1">
+    <row r="11" spans="1:7" ht="17.5" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -10052,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" thickBot="1">
+    <row r="12" spans="1:7" ht="17.5" thickBot="1">
       <c r="A12" s="6">
         <v>232</v>
       </c>
@@ -10072,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
       <c r="A13" s="6">
         <v>300</v>
       </c>
@@ -10092,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.25" thickBot="1">
+    <row r="14" spans="1:7" ht="17.5" thickBot="1">
       <c r="A14" s="6">
         <v>301</v>
       </c>
@@ -10112,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1">
+    <row r="15" spans="1:7" ht="17.5" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -10132,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1">
+    <row r="16" spans="1:7" ht="17.5" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -10152,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
+    <row r="17" spans="1:6" ht="17.5" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -10187,19 +10208,19 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="14"/>
+    <col min="1" max="1" width="8.58203125" style="14"/>
     <col min="2" max="2" width="14" style="14" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="14" customWidth="1"/>
-    <col min="4" max="8" width="8.625" style="14"/>
-    <col min="9" max="9" width="13.375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="8.625" style="14"/>
+    <col min="4" max="8" width="8.58203125" style="14"/>
+    <col min="9" max="9" width="13.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.58203125" style="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33.75" thickBot="1">
+    <row r="1" spans="1:16" ht="34.5" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -10249,7 +10270,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.25" thickBot="1">
+    <row r="2" spans="1:16" ht="17.5" thickBot="1">
       <c r="A2" s="6">
         <v>1000</v>
       </c>
@@ -10299,7 +10320,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.25" thickBot="1">
+    <row r="3" spans="1:16" ht="17.5" thickBot="1">
       <c r="A3" s="6">
         <v>2000</v>
       </c>
@@ -10349,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickBot="1">
+    <row r="4" spans="1:16" ht="17.5" thickBot="1">
       <c r="A4" s="6">
         <v>3000</v>
       </c>
@@ -10413,7 +10434,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -10511,18 +10532,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:T4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.625" style="14"/>
+    <col min="1" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" thickBot="1">
+    <row r="1" spans="1:21" ht="34.5" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
@@ -10583,9 +10604,11 @@
       <c r="T1" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" ht="30.75" thickBot="1">
+      <c r="U1" s="65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="29.5" thickBot="1">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -10593,26 +10616,26 @@
         <v>112</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>150</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
@@ -10623,14 +10646,14 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
         <v>0.1</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
@@ -10646,9 +10669,11 @@
       <c r="T2" s="1">
         <v>0</v>
       </c>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="30.75" thickBot="1">
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="29.5" thickBot="1">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -10656,119 +10681,243 @@
         <v>114</v>
       </c>
       <c r="C3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1">
+        <v>200</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="1">
-        <v>700</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="17.25" thickBot="1">
+    </row>
+    <row r="4" spans="1:21" ht="29.5" thickBot="1">
       <c r="A4" s="7">
         <v>3000</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7">
+      <c r="C4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="1">
+        <v>250</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="1">
+    </row>
+    <row r="5" spans="1:21" ht="29.5" thickBot="1">
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="1">
         <v>700</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H5" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="I5" s="1">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>0.2</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7"/>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="29.5" thickBot="1">
+      <c r="C6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="1">
+        <v>800</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10785,12 +10934,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" thickBot="1">
+    <row r="1" spans="1:10" ht="34.5" thickBot="1">
       <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
@@ -10822,7 +10971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1">
+    <row r="2" spans="1:10" ht="17.5" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
@@ -10854,7 +11003,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" thickBot="1">
+    <row r="3" spans="1:10" ht="17.5" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
@@ -10900,16 +11049,16 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-    <col min="13" max="13" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" customWidth="1"/>
+    <col min="12" max="12" width="15.08203125" customWidth="1"/>
+    <col min="13" max="13" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33.75" thickBot="1">
+    <row r="1" spans="1:14" ht="34.5" thickBot="1">
       <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
@@ -10951,7 +11100,7 @@
       </c>
       <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="17.25" thickBot="1">
+    <row r="2" spans="1:14" ht="17.5" thickBot="1">
       <c r="A2" s="9">
         <v>1000001</v>
       </c>
@@ -10993,7 +11142,7 @@
       </c>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25" thickBot="1">
+    <row r="3" spans="1:14" ht="17.5" thickBot="1">
       <c r="A3" s="9">
         <v>2000001</v>
       </c>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C659C-F74D-4B3C-9624-2DE0467D73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C8AD66-2317-41D4-A784-D274C9C98C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4870" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="200">
   <si>
     <t>Level</t>
   </si>
@@ -673,6 +673,37 @@
   </si>
   <si>
     <t>Drop_Exp</t>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력 강화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 쿨타임 감소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력 강화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정 대미지 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 10초마다 회복</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀리노 V3</t>
   </si>
 </sst>
 </file>
@@ -829,7 +860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1043,11 +1074,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1178,24 +1224,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1223,19 +1251,23 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1693,25 +1725,25 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="46" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1769,205 +1801,234 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0AA7C-D827-478C-A8E1-4F3353839195}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:H7"/>
+      <selection activeCell="J7" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="58" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A2" s="18">
+      <c r="I1" s="57" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="58">
         <v>2</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="58">
         <v>2000</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="60">
+        <v>1</v>
+      </c>
+      <c r="F2" s="60">
         <v>5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="60">
         <v>0.1</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="60">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A3" s="18">
+      <c r="I2" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="58">
         <v>2001</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="60">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="60">
         <v>5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="60">
         <v>0.1</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="60">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A4" s="18">
+      <c r="I3" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="58">
         <v>2002</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="60">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="60">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="60">
         <v>0.2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="60">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A5" s="18">
+      <c r="I4" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="58">
         <v>3</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="58">
         <v>3000</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="60">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="60">
         <v>5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="60">
         <v>0.1</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="60">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" thickBot="1">
-      <c r="A6" s="18">
+      <c r="I5" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="58">
         <v>3</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="58">
         <v>3001</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="60">
         <v>5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="60">
         <v>5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="60">
         <v>0.1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="60">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A7" s="18">
+      <c r="I6" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="58">
         <v>3</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="58">
         <v>3002</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="60">
         <v>6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="60">
         <v>5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="60">
         <v>0.02</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="60">
         <v>0.02</v>
       </c>
+      <c r="I7" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1980,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N7" activeCellId="1" sqref="O1 N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -1993,7 +2054,9 @@
     <col min="8" max="8" width="21.58203125" style="18" customWidth="1"/>
     <col min="9" max="9" width="8.58203125" style="18"/>
     <col min="10" max="10" width="13.75" style="18" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="18"/>
+    <col min="11" max="13" width="8.58203125" style="18"/>
+    <col min="14" max="14" width="17" style="18" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" thickBot="1">
@@ -2036,7 +2099,7 @@
       <c r="M1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="56" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2080,7 +2143,9 @@
       <c r="M2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="34.5" thickBot="1">
       <c r="A3" s="6">
@@ -2122,7 +2187,9 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="17.5" thickBot="1">
       <c r="A4" s="19">
@@ -2164,7 +2231,9 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="17.5" thickBot="1">
       <c r="A5" s="6">
@@ -2206,7 +2275,9 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="34.5" thickBot="1">
       <c r="A6" s="6">
@@ -2248,7 +2319,9 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="34.5" thickBot="1">
       <c r="A7" s="6">
@@ -2294,7 +2367,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="85.5" thickBot="1">
+    <row r="8" spans="1:14" ht="51.5" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -2338,7 +2411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="68.5" thickBot="1">
+    <row r="9" spans="1:14" ht="34.5" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -2382,7 +2455,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="85.5" thickBot="1">
+    <row r="10" spans="1:14" ht="51.5" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -2426,7 +2499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="136.5" thickBot="1">
+    <row r="11" spans="1:14" ht="68.5" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -2600,7 +2673,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="170.5" thickBot="1">
+    <row r="15" spans="1:14" ht="85.5" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -2644,7 +2717,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="102.5" thickBot="1">
+    <row r="16" spans="1:14" ht="51.5" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -2688,7 +2761,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="102.5" thickBot="1">
+    <row r="17" spans="1:14" ht="51.5" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -9936,19 +10009,19 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="55">
         <v>6</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="55">
         <v>23</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="55">
         <v>23</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="55">
         <v>61</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="55">
         <v>0</v>
       </c>
     </row>
@@ -10532,15 +10605,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="16384" width="8.58203125" style="14"/>
+    <col min="1" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.5" thickBot="1">
@@ -10550,373 +10623,452 @@
       <c r="B1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="P1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="Q1" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="R1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="61" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="29.5" thickBot="1">
-      <c r="A2" s="1">
+    <row r="2" spans="1:21" ht="34.5" thickBot="1">
+      <c r="A2" s="9">
         <v>1000</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="44" t="s">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="1">
+      <c r="E2" s="9">
         <v>150</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="G2" s="9">
         <v>5</v>
       </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
         <v>0.1</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="29.5" thickBot="1">
-      <c r="A3" s="1">
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="34.5" thickBot="1">
+      <c r="A3" s="9">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="9">
+        <v>200</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="34.5" thickBot="1">
+      <c r="A4" s="9">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="9">
+        <v>250</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="34.5" thickBot="1">
+      <c r="A5" s="9">
         <v>2000</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="9">
+        <v>700</v>
+      </c>
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="G5" s="9">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="34.5" thickBot="1">
+      <c r="A6" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="29.5" thickBot="1">
-      <c r="A4" s="7">
-        <v>3000</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="1">
-        <v>250</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="D6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="9">
+        <v>800</v>
+      </c>
+      <c r="F6" s="9">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="29.5" thickBot="1">
-      <c r="C5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="G6" s="9">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="34.5" thickBot="1">
+      <c r="A7" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="1">
-        <v>700</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="E7" s="9">
+        <v>900</v>
+      </c>
+      <c r="F7" s="9">
         <v>5</v>
       </c>
-      <c r="I5" s="1">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="G7" s="9">
+        <v>40</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
         <v>0.2</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="29.5" thickBot="1">
-      <c r="C6" s="1">
-        <v>2001</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="1">
-        <v>800</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>40</v>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -10940,34 +11092,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10999,7 +11151,7 @@
       <c r="I2" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11059,43 +11211,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="54" t="s">
         <v>140</v>
       </c>
       <c r="N1" s="18"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C8AD66-2317-41D4-A784-D274C9C98C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B255A11-60A0-4148-83BF-7F05067B5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4870" yWindow="400" windowWidth="20730" windowHeight="13280" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Pattern_Info_List" sheetId="10" r:id="rId9"/>
     <sheet name="Pattern_Hit_Frame" sheetId="11" r:id="rId10"/>
     <sheet name="Passive_Skill" sheetId="12" r:id="rId11"/>
+    <sheet name="Creature_Part" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="226">
   <si>
     <t>Level</t>
   </si>
@@ -704,6 +705,84 @@
   </si>
   <si>
     <t>듀리노 V3</t>
+  </si>
+  <si>
+    <t>필 데빌 V1</t>
+  </si>
+  <si>
+    <t>무리어미</t>
+  </si>
+  <si>
+    <t>필 데빌 V2</t>
+  </si>
+  <si>
+    <t>시저스도라 V1</t>
+  </si>
+  <si>
+    <t>시저스도라 V2</t>
+  </si>
+  <si>
+    <t>Groggy_HP</t>
+  </si>
+  <si>
+    <t>Stagger_Mul</t>
+  </si>
+  <si>
+    <t>베노미드라</t>
+  </si>
+  <si>
+    <t>우두머리</t>
+  </si>
+  <si>
+    <t>Head_HP</t>
+  </si>
+  <si>
+    <t>Head_Type</t>
+  </si>
+  <si>
+    <t>Body_HP</t>
+  </si>
+  <si>
+    <t>Body_Type</t>
+  </si>
+  <si>
+    <t>Left_Arm_HP</t>
+  </si>
+  <si>
+    <t>Left_Arm_Type</t>
+  </si>
+  <si>
+    <t>Right_Arm_HP</t>
+  </si>
+  <si>
+    <t>Right_Arm_Type</t>
+  </si>
+  <si>
+    <t>Left_Leg_HP</t>
+  </si>
+  <si>
+    <t>Left_Leg_Type</t>
+  </si>
+  <si>
+    <t>Right_Leg_HP</t>
+  </si>
+  <si>
+    <t>Right_Leg_Type</t>
+  </si>
+  <si>
+    <t>Wing_HP</t>
+  </si>
+  <si>
+    <t>Wing_Type</t>
+  </si>
+  <si>
+    <t>Tail_HP</t>
+  </si>
+  <si>
+    <t>Tail_Type</t>
+  </si>
+  <si>
+    <t>Crush</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1269,6 +1348,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2037,6 +2119,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE490058-4EE5-42D9-94C9-1D19E1CF8674}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="34.5" thickBot="1">
+      <c r="A1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.5" thickBot="1">
+      <c r="A2" s="18">
+        <v>4000</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
@@ -10605,10 +10809,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10616,7 +10820,7 @@
     <col min="1" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="34.5" thickBot="1">
+    <row r="1" spans="1:39" ht="34.5" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
@@ -10680,8 +10884,30 @@
       <c r="U1" s="61" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="34.5" thickBot="1">
+      <c r="V1" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+    </row>
+    <row r="2" spans="1:39" ht="34.5" thickBot="1">
       <c r="A2" s="9">
         <v>1000</v>
       </c>
@@ -10745,8 +10971,30 @@
       <c r="U2" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="34.5" thickBot="1">
+      <c r="V2" s="62">
+        <v>0</v>
+      </c>
+      <c r="W2" s="62">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="42"/>
+    </row>
+    <row r="3" spans="1:39" ht="34.5" thickBot="1">
       <c r="A3" s="9">
         <v>1001</v>
       </c>
@@ -10810,8 +11058,30 @@
       <c r="U3" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="34.5" thickBot="1">
+      <c r="V3" s="62">
+        <v>0</v>
+      </c>
+      <c r="W3" s="62">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="42"/>
+    </row>
+    <row r="4" spans="1:39" ht="34.5" thickBot="1">
       <c r="A4" s="9">
         <v>1002</v>
       </c>
@@ -10875,8 +11145,30 @@
       <c r="U4" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="34.5" thickBot="1">
+      <c r="V4" s="62">
+        <v>0</v>
+      </c>
+      <c r="W4" s="62">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="42"/>
+    </row>
+    <row r="5" spans="1:39" ht="34.5" thickBot="1">
       <c r="A5" s="9">
         <v>2000</v>
       </c>
@@ -10940,8 +11232,30 @@
       <c r="U5" s="9">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="34.5" thickBot="1">
+      <c r="V5" s="62">
+        <v>0</v>
+      </c>
+      <c r="W5" s="62">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="42"/>
+    </row>
+    <row r="6" spans="1:39" ht="34.5" thickBot="1">
       <c r="A6" s="9">
         <v>2001</v>
       </c>
@@ -11005,8 +11319,30 @@
       <c r="U6" s="9">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="34.5" thickBot="1">
+      <c r="V6" s="62">
+        <v>0</v>
+      </c>
+      <c r="W6" s="62">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="42"/>
+    </row>
+    <row r="7" spans="1:39" ht="34.5" thickBot="1">
       <c r="A7" s="9">
         <v>2002</v>
       </c>
@@ -11070,6 +11406,463 @@
       <c r="U7" s="9">
         <v>60</v>
       </c>
+      <c r="V7" s="62">
+        <v>0</v>
+      </c>
+      <c r="W7" s="62">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="42"/>
+    </row>
+    <row r="8" spans="1:39" ht="34.5" thickBot="1">
+      <c r="A8" s="9">
+        <v>3000</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6</v>
+      </c>
+      <c r="G8" s="9">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="62">
+        <v>0</v>
+      </c>
+      <c r="T8" s="62">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>5000</v>
+      </c>
+      <c r="V8" s="9">
+        <v>3000</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="42"/>
+    </row>
+    <row r="9" spans="1:39" ht="34.5" thickBot="1">
+      <c r="A9" s="9">
+        <v>3001</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="9">
+        <v>8000</v>
+      </c>
+      <c r="F9" s="9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>65</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="62">
+        <v>0</v>
+      </c>
+      <c r="T9" s="62">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>7000</v>
+      </c>
+      <c r="V9" s="9">
+        <v>6000</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="42"/>
+    </row>
+    <row r="10" spans="1:39" ht="34.5" thickBot="1">
+      <c r="A10" s="9">
+        <v>3002</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
+        <v>50</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0</v>
+      </c>
+      <c r="S10" s="62">
+        <v>0</v>
+      </c>
+      <c r="T10" s="62">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>5000</v>
+      </c>
+      <c r="V10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="42"/>
+    </row>
+    <row r="11" spans="1:39" ht="34.5" thickBot="1">
+      <c r="A11" s="9">
+        <v>3003</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="9">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9">
+        <v>85</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="62">
+        <v>0</v>
+      </c>
+      <c r="T11" s="62">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>7000</v>
+      </c>
+      <c r="V11" s="9">
+        <v>4000</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="42"/>
+    </row>
+    <row r="12" spans="1:39" ht="34.5" thickBot="1">
+      <c r="A12" s="9">
+        <v>4000</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="9">
+        <v>15000</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>100</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <v>7500</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="62">
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <v>7000</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B255A11-60A0-4148-83BF-7F05067B5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCD0A57-80C8-4472-A03C-C4676C6236EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="243">
   <si>
     <t>Level</t>
   </si>
@@ -783,6 +783,60 @@
   </si>
   <si>
     <t>Crush</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>End</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001, 1002</t>
+  </si>
+  <si>
+    <t>2000, 2001, 2002</t>
+  </si>
+  <si>
+    <t>3000, 3001</t>
+  </si>
+  <si>
+    <t>BothHandSwing</t>
+  </si>
+  <si>
+    <t>SwingBodyCheck</t>
+  </si>
+  <si>
+    <t>TwiceBothHandSwing</t>
+  </si>
+  <si>
+    <t>SwingButt</t>
+  </si>
+  <si>
+    <t>SwingStamp</t>
+  </si>
+  <si>
+    <t>LeftThrust</t>
+  </si>
+  <si>
+    <t>RightThrust</t>
+  </si>
+  <si>
+    <t>ChargingButt</t>
+  </si>
+  <si>
+    <t>BodyCheck</t>
+  </si>
+  <si>
+    <t>DiggingRush</t>
+  </si>
+  <si>
+    <t>SuperStamp</t>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -939,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1168,11 +1222,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1318,9 +1381,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1350,6 +1410,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1798,15 +1864,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.5" thickBot="1">
+    <row r="1" spans="1:8" ht="17.5" thickBot="1">
       <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
@@ -1820,16 +1884,17 @@
         <v>81</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.5" thickBot="1">
+      <c r="G1" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.5" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
@@ -1849,15 +1914,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.5" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
       <c r="B3" s="9">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -1872,7 +1937,260 @@
         <v>0</v>
       </c>
       <c r="G3" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A4" s="9">
+        <v>300000</v>
+      </c>
+      <c r="B4" s="9">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9">
+        <v>117</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A5" s="9">
+        <v>300001</v>
+      </c>
+      <c r="B5" s="9">
+        <v>123</v>
+      </c>
+      <c r="C5" s="9">
+        <v>117</v>
+      </c>
+      <c r="D5" s="9">
+        <v>178</v>
+      </c>
+      <c r="E5" s="9">
+        <v>237</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A6" s="9">
+        <v>300002</v>
+      </c>
+      <c r="B6" s="9">
+        <v>123</v>
+      </c>
+      <c r="C6" s="9">
+        <v>117</v>
+      </c>
+      <c r="D6" s="9">
+        <v>185</v>
+      </c>
+      <c r="E6" s="9">
+        <v>117</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A7" s="9">
+        <v>300003</v>
+      </c>
+      <c r="B7" s="9">
+        <v>202</v>
+      </c>
+      <c r="C7" s="9">
+        <v>120</v>
+      </c>
+      <c r="D7" s="9">
+        <v>216</v>
+      </c>
+      <c r="E7" s="9">
+        <v>99</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A8" s="9">
+        <v>300004</v>
+      </c>
+      <c r="B8" s="9">
+        <v>108</v>
+      </c>
+      <c r="C8" s="9">
+        <v>122</v>
+      </c>
+      <c r="D8" s="9">
+        <v>254</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A9" s="9">
+        <v>300005</v>
+      </c>
+      <c r="B9" s="9">
+        <v>135</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A10" s="9">
+        <v>300006</v>
+      </c>
+      <c r="B10" s="9">
+        <v>241</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A11" s="9">
+        <v>300008</v>
+      </c>
+      <c r="B11" s="9">
+        <v>255</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A12" s="9">
+        <v>300009</v>
+      </c>
+      <c r="B12" s="9">
+        <v>215</v>
+      </c>
+      <c r="C12" s="9">
+        <v>243</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A13" s="9">
+        <v>300010</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A14" s="9">
+        <v>300011</v>
+      </c>
+      <c r="B14" s="9">
+        <v>345</v>
+      </c>
+      <c r="C14" s="9">
+        <v>251</v>
+      </c>
+      <c r="D14" s="9">
+        <v>371</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +2204,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J2:J7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -1904,213 +2222,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="58">
+      <c r="A2" s="57">
         <v>2</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <v>2000</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="60">
-        <v>1</v>
-      </c>
-      <c r="F2" s="60">
+      <c r="E2" s="59">
+        <v>1</v>
+      </c>
+      <c r="F2" s="59">
         <v>5</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="59">
         <v>0.1</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="59">
         <v>0.1</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="58">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="58">
+      <c r="B3" s="57">
         <v>2001</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="59">
         <v>2</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="59">
         <v>5</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="59">
         <v>0.1</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="59">
         <v>0.15</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="J3" s="59"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="58">
+      <c r="A4" s="57">
         <v>2</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="57">
         <v>2002</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="59">
         <v>3</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="59">
         <v>5</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="59">
         <v>0.2</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="59">
         <v>0.2</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="J4" s="59"/>
+      <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="58">
+      <c r="A5" s="57">
         <v>3</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="57">
         <v>3000</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="59">
         <v>4</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="59">
         <v>5</v>
       </c>
-      <c r="G5" s="60">
+      <c r="G5" s="59">
         <v>0.1</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="59">
         <v>0.1</v>
       </c>
-      <c r="I5" s="59" t="s">
+      <c r="I5" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="58">
+      <c r="A6" s="57">
         <v>3</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="57">
         <v>3001</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="59">
         <v>5</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="59">
         <v>5</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="59">
         <v>0.1</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="59">
         <v>0.1</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="58">
+      <c r="A7" s="57">
         <v>3</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="57">
         <v>3002</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="59">
         <v>6</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="59">
         <v>5</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="59">
         <v>0.02</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="59">
         <v>0.02</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="59"/>
+      <c r="J7" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2123,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE490058-4EE5-42D9-94C9-1D19E1CF8674}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2245,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N7" activeCellId="1" sqref="O1 N7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2303,7 +2621,7 @@
       <c r="M1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="55" t="s">
         <v>169</v>
       </c>
     </row>
@@ -10213,19 +10531,19 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="54">
         <v>6</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <v>23</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="54">
         <v>23</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="54">
         <v>61</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="54">
         <v>0</v>
       </c>
     </row>
@@ -10479,10 +10797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10497,7 +10815,7 @@
     <col min="12" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.5" thickBot="1">
+    <row r="1" spans="1:17" ht="34.5" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -10546,81 +10864,87 @@
       <c r="P1" s="16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="17.5" thickBot="1">
+      <c r="Q1" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.5" thickBot="1">
       <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.5" thickBot="1">
+      <c r="A3" s="6">
         <v>1000</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="E3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>100</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>150</v>
-      </c>
-      <c r="P2" s="6">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>150</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -10644,33 +10968,36 @@
         <v>150</v>
       </c>
       <c r="P3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17.5" thickBot="1">
+        <v>1.3</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.5" thickBot="1">
       <c r="A4" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="B4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -10694,7 +11021,63 @@
         <v>150</v>
       </c>
       <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.5" thickBot="1">
+      <c r="A5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>70</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>150</v>
+      </c>
+      <c r="P5" s="6">
         <v>1.5</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -10827,10 +11210,10 @@
       <c r="B1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="50" t="s">
@@ -10878,10 +11261,10 @@
       <c r="S1" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="60" t="s">
         <v>191</v>
       </c>
       <c r="V1" s="49" t="s">
@@ -10971,10 +11354,10 @@
       <c r="U2" s="9">
         <v>1</v>
       </c>
-      <c r="V2" s="62">
-        <v>0</v>
-      </c>
-      <c r="W2" s="62">
+      <c r="V2" s="61">
+        <v>0</v>
+      </c>
+      <c r="W2" s="61">
         <v>0</v>
       </c>
       <c r="X2" s="9"/>
@@ -11058,10 +11441,10 @@
       <c r="U3" s="9">
         <v>2</v>
       </c>
-      <c r="V3" s="62">
-        <v>0</v>
-      </c>
-      <c r="W3" s="62">
+      <c r="V3" s="61">
+        <v>0</v>
+      </c>
+      <c r="W3" s="61">
         <v>0</v>
       </c>
       <c r="X3" s="9"/>
@@ -11145,10 +11528,10 @@
       <c r="U4" s="9">
         <v>3</v>
       </c>
-      <c r="V4" s="62">
-        <v>0</v>
-      </c>
-      <c r="W4" s="62">
+      <c r="V4" s="61">
+        <v>0</v>
+      </c>
+      <c r="W4" s="61">
         <v>0</v>
       </c>
       <c r="X4" s="9"/>
@@ -11232,10 +11615,10 @@
       <c r="U5" s="9">
         <v>20</v>
       </c>
-      <c r="V5" s="62">
-        <v>0</v>
-      </c>
-      <c r="W5" s="62">
+      <c r="V5" s="61">
+        <v>0</v>
+      </c>
+      <c r="W5" s="61">
         <v>0</v>
       </c>
       <c r="X5" s="9"/>
@@ -11319,10 +11702,10 @@
       <c r="U6" s="9">
         <v>40</v>
       </c>
-      <c r="V6" s="62">
-        <v>0</v>
-      </c>
-      <c r="W6" s="62">
+      <c r="V6" s="61">
+        <v>0</v>
+      </c>
+      <c r="W6" s="61">
         <v>0</v>
       </c>
       <c r="X6" s="9"/>
@@ -11406,10 +11789,10 @@
       <c r="U7" s="9">
         <v>60</v>
       </c>
-      <c r="V7" s="62">
-        <v>0</v>
-      </c>
-      <c r="W7" s="62">
+      <c r="V7" s="61">
+        <v>0</v>
+      </c>
+      <c r="W7" s="61">
         <v>0</v>
       </c>
       <c r="X7" s="9"/>
@@ -11484,10 +11867,10 @@
       <c r="R8" s="9">
         <v>0</v>
       </c>
-      <c r="S8" s="62">
-        <v>0</v>
-      </c>
-      <c r="T8" s="62">
+      <c r="S8" s="61">
+        <v>0</v>
+      </c>
+      <c r="T8" s="61">
         <v>0</v>
       </c>
       <c r="U8" s="9">
@@ -11571,10 +11954,10 @@
       <c r="R9" s="9">
         <v>0</v>
       </c>
-      <c r="S9" s="62">
-        <v>0</v>
-      </c>
-      <c r="T9" s="62">
+      <c r="S9" s="61">
+        <v>0</v>
+      </c>
+      <c r="T9" s="61">
         <v>0</v>
       </c>
       <c r="U9" s="9">
@@ -11658,10 +12041,10 @@
       <c r="R10" s="9">
         <v>0</v>
       </c>
-      <c r="S10" s="62">
-        <v>0</v>
-      </c>
-      <c r="T10" s="62">
+      <c r="S10" s="61">
+        <v>0</v>
+      </c>
+      <c r="T10" s="61">
         <v>0</v>
       </c>
       <c r="U10" s="9">
@@ -11745,10 +12128,10 @@
       <c r="R11" s="9">
         <v>0</v>
       </c>
-      <c r="S11" s="62">
-        <v>0</v>
-      </c>
-      <c r="T11" s="62">
+      <c r="S11" s="61">
+        <v>0</v>
+      </c>
+      <c r="T11" s="61">
         <v>0</v>
       </c>
       <c r="U11" s="9">
@@ -11838,7 +12221,7 @@
       <c r="T12" s="9">
         <v>0</v>
       </c>
-      <c r="U12" s="62">
+      <c r="U12" s="61">
         <v>0</v>
       </c>
       <c r="V12" s="9">
@@ -11873,15 +12256,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="1" max="9" width="8.6640625" style="18"/>
+    <col min="10" max="10" width="18.33203125" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" thickBot="1">
@@ -11916,12 +12301,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" thickBot="1">
+    <row r="2" spans="1:10" ht="51.5" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
-      <c r="B2" s="9">
-        <v>1000</v>
+      <c r="B2" s="42" t="s">
+        <v>228</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -11933,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="9">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G2" s="43" t="b">
         <v>1</v>
@@ -11944,16 +12329,16 @@
       <c r="I2" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.5" thickBot="1">
+    <row r="3" spans="1:10" ht="51.5" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
-      <c r="B3" s="9">
-        <v>2000</v>
+      <c r="B3" s="42" t="s">
+        <v>229</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -11965,7 +12350,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G3" s="43" t="b">
         <v>1</v>
@@ -11978,6 +12363,358 @@
       </c>
       <c r="J3" s="42" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A4" s="9">
+        <v>300000</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>20</v>
+      </c>
+      <c r="G4" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A5" s="9">
+        <v>300001</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9">
+        <v>30</v>
+      </c>
+      <c r="G5" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A6" s="9">
+        <v>300002</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20</v>
+      </c>
+      <c r="G6" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A7" s="9">
+        <v>300003</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>25</v>
+      </c>
+      <c r="G7" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A8" s="9">
+        <v>300004</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9">
+        <v>30</v>
+      </c>
+      <c r="G8" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A9" s="9">
+        <v>300005</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>25</v>
+      </c>
+      <c r="G9" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A10" s="9">
+        <v>300006</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9">
+        <v>25</v>
+      </c>
+      <c r="G10" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A11" s="9">
+        <v>300008</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>30</v>
+      </c>
+      <c r="G11" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A12" s="9">
+        <v>300009</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>20</v>
+      </c>
+      <c r="G12" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A13" s="9">
+        <v>300010</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>60</v>
+      </c>
+      <c r="G13" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A14" s="9">
+        <v>300011</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>60</v>
+      </c>
+      <c r="G14" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -11988,10 +12725,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -12004,10 +12741,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>135</v>
       </c>
       <c r="C1" s="48" t="s">
@@ -12028,7 +12765,7 @@
       <c r="H1" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>136</v>
       </c>
       <c r="J1" s="47" t="s">
@@ -12040,7 +12777,7 @@
       <c r="L1" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="53" t="s">
         <v>140</v>
       </c>
       <c r="N1" s="18"/>
@@ -12128,6 +12865,1236 @@
         <v>0</v>
       </c>
       <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A4" s="9">
+        <v>3000001</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A5" s="9">
+        <v>3000002</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A6" s="9">
+        <v>3000011</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A7" s="9">
+        <v>3000012</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A8" s="9">
+        <v>3000013</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>50</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A9" s="9">
+        <v>3000014</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A10" s="9">
+        <v>3000021</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A11" s="9">
+        <v>3000022</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A12" s="9">
+        <v>3000023</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A13" s="9">
+        <v>3000024</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A14" s="9">
+        <v>3000031</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A15" s="9">
+        <v>3000032</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17.5" thickBot="1">
+      <c r="A16" s="9">
+        <v>3000033</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A17" s="9">
+        <v>3000034</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A18" s="9">
+        <v>3000041</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A19" s="9">
+        <v>3000042</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A20" s="9">
+        <v>3000043</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A21" s="9">
+        <v>3000051</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A22" s="9">
+        <v>3000061</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A23" s="9">
+        <v>3000081</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9">
+        <v>100</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A24" s="9">
+        <v>3000091</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3</v>
+      </c>
+      <c r="K24" s="9">
+        <v>50</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A25" s="9">
+        <v>3000092</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A26" s="9">
+        <v>3000101</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A27" s="9">
+        <v>3000102</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A28" s="9">
+        <v>3000103</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A29" s="9">
+        <v>3000104</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A30" s="9">
+        <v>3000105</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="9">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>3</v>
+      </c>
+      <c r="K30" s="9">
+        <v>100</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A31" s="9">
+        <v>3000111</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A32" s="9">
+        <v>3000112</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>2</v>
+      </c>
+      <c r="M32" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A33" s="9">
+        <v>3000113</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>3</v>
+      </c>
+      <c r="K33" s="9">
+        <v>100</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCD0A57-80C8-4472-A03C-C4676C6236EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078ABFE0-221F-42B9-8490-14126253CE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1866,7 +1866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
@@ -2152,7 +2154,7 @@
         <v>300010</v>
       </c>
       <c r="B13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9">
         <v>0</v>
@@ -2167,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.5" thickBot="1">
@@ -12258,7 +12260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078ABFE0-221F-42B9-8490-14126253CE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3E19B-788C-4520-A909-AA030F993524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11196,8 +11196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V2" s="61">
         <v>0</v>
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V3" s="61">
         <v>0</v>
@@ -11528,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V4" s="61">
         <v>0</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="V5" s="61">
         <v>0</v>
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="V6" s="61">
         <v>0</v>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="V7" s="61">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A3E19B-788C-4520-A909-AA030F993524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC8095-CC61-4FA1-A77E-52C7538BDFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -2205,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0AA7C-D827-478C-A8E1-4F3353839195}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2565,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11196,7 +11196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
   <dimension ref="A1:AM12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="U8" sqref="U8:U11"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC8095-CC61-4FA1-A77E-52C7538BDFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C581AD8-6C77-4948-B4FF-4A92FF30EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="243">
   <si>
     <t>Level</t>
   </si>
@@ -135,13 +135,7 @@
     <t>CS_Basic</t>
   </si>
   <si>
-    <t>트와이스 커터</t>
-  </si>
-  <si>
     <t>Twice_Cutter</t>
-  </si>
-  <si>
-    <t>라이징 슬래쉬</t>
   </si>
   <si>
     <t>Rising_Slash</t>
@@ -151,37 +145,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>부스트 해머 일반 공격</t>
-  </si>
-  <si>
     <t>BH_Basic</t>
   </si>
   <si>
-    <t>고르디우스의 바퀴</t>
-  </si>
-  <si>
     <t>Gordian_Wheel</t>
   </si>
   <si>
-    <t>승룡추</t>
-  </si>
-  <si>
     <t>Dragon_Hammer</t>
   </si>
   <si>
-    <t>인력장</t>
-  </si>
-  <si>
     <t>Attraction_Field</t>
   </si>
   <si>
-    <t>윤회</t>
-  </si>
-  <si>
     <t>Samsara</t>
-  </si>
-  <si>
-    <t>나락</t>
   </si>
   <si>
     <t>Naraka</t>
@@ -191,31 +167,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>플라즈마 라이플 일반 공격</t>
-  </si>
-  <si>
     <t>PR_Basic</t>
   </si>
   <si>
-    <t>PG - 15</t>
-  </si>
-  <si>
     <t>PG_15</t>
   </si>
   <si>
-    <t>철갑 사격</t>
-  </si>
-  <si>
     <t>APHE_Shoot</t>
   </si>
   <si>
-    <t>핀 포인트 다운</t>
-  </si>
-  <si>
     <t>Pin_Point_Down</t>
-  </si>
-  <si>
-    <t>지정 섬멸</t>
   </si>
   <si>
     <t>Designated_Eliminate</t>
@@ -421,9 +382,6 @@
     <t>정예 크리처</t>
   </si>
   <si>
-    <t>어니스트</t>
-  </si>
-  <si>
     <t>Honest</t>
   </si>
   <si>
@@ -440,9 +398,6 @@
     <t>Linked_Skill</t>
   </si>
   <si>
-    <t>디멘션 디스토션</t>
-  </si>
-  <si>
     <t>Dimension_Distortion</t>
   </si>
   <si>
@@ -580,27 +535,6 @@
     <t>Invincible</t>
   </si>
   <si>
-    <t>전신의 힘을 끌어모아 강력한 일격을 날립니다</t>
-  </si>
-  <si>
-    <t>해머를 올려쳐 적을 공중에 띄웁니다</t>
-  </si>
-  <si>
-    <t>강한 인력을 발생시켜 적들을 끌어 모읍니다</t>
-  </si>
-  <si>
-    <t>해머를 회전시키며 하늘 높이 뛰어올라 번개와 함께 강력한 일격을 날립니다</t>
-  </si>
-  <si>
-    <t>대미지와 관통력을 극단적으로 끌어올린 대신 사거리가 줄어든 탄환을 연속하여 발사합니다</t>
-  </si>
-  <si>
-    <t>지정된 범위에 폭발하는 플라즈마 탄을 발사합니다</t>
-  </si>
-  <si>
-    <t>폭격기를 소환해 지정된 지역에 강력한 폭탄을 투하합니다</t>
-  </si>
-  <si>
     <t>Explanation</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -837,6 +771,87 @@
   <si>
     <t>Skill</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>트와이스 커터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이징 슬래쉬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>어니스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>디멘션 디스토션</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스트 해머 일반 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고르디우스의 바퀴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승룡추</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인력장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 라이플 일반 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG - 15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑 사격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>핀 포인트 다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 섬멸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전신의 힘을 끌어모아 강력한 일격을 날린다</t>
+  </si>
+  <si>
+    <t>해머를 올려쳐 적을 공중에 띄운다</t>
+  </si>
+  <si>
+    <t>강한 인력을 발생시켜 적들을 끌어 모은다</t>
+  </si>
+  <si>
+    <t>해머를 회전시키며 하늘 높이 뛰어올라 번개와 함께 강력한 일격을 날린다</t>
+  </si>
+  <si>
+    <t>대미지와 관통력을 극단적으로 끌어올린 대신 사거리가 줄어든 탄환을 연속하여 발사한다</t>
+  </si>
+  <si>
+    <t>지정된 범위에 폭발하는 플라즈마 탄을 발사한다</t>
+  </si>
+  <si>
+    <t>폭격기를 소환해 지정된 지역에 강력한 폭탄을 투하한다</t>
   </si>
 </sst>
 </file>
@@ -1877,22 +1892,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="H1" s="62"/>
     </row>
@@ -2205,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0AA7C-D827-478C-A8E1-4F3353839195}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2225,31 +2240,31 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="57" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2260,10 +2275,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E2" s="59">
         <v>1</v>
@@ -2278,7 +2293,7 @@
         <v>0.1</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="J2" s="58"/>
     </row>
@@ -2290,10 +2305,10 @@
         <v>2001</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D3" s="58" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E3" s="59">
         <v>2</v>
@@ -2308,7 +2323,7 @@
         <v>0.15</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J3" s="58"/>
     </row>
@@ -2320,10 +2335,10 @@
         <v>2002</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E4" s="59">
         <v>3</v>
@@ -2338,7 +2353,7 @@
         <v>0.2</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="J4" s="58"/>
     </row>
@@ -2350,10 +2365,10 @@
         <v>3000</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E5" s="59">
         <v>4</v>
@@ -2368,7 +2383,7 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="J5" s="58"/>
     </row>
@@ -2380,10 +2395,10 @@
         <v>3001</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E6" s="59">
         <v>5</v>
@@ -2398,7 +2413,7 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="J6" s="58"/>
     </row>
@@ -2410,10 +2425,10 @@
         <v>3002</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E7" s="59">
         <v>6</v>
@@ -2428,7 +2443,7 @@
         <v>0.02</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="J7" s="58"/>
     </row>
@@ -2454,52 +2469,52 @@
         <v>15</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="K1" s="49" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L1" s="49" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="M1" s="49" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N1" s="49" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="P1" s="49" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="49" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.5" thickBot="1">
@@ -2510,49 +2525,49 @@
         <v>3000</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="N2" s="9">
         <v>0</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="P2" s="9">
         <v>0</v>
       </c>
       <c r="Q2" s="42" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2565,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2579,7 +2594,7 @@
     <col min="9" max="9" width="8.58203125" style="18"/>
     <col min="10" max="10" width="13.75" style="18" customWidth="1"/>
     <col min="11" max="13" width="8.58203125" style="18"/>
-    <col min="14" max="14" width="17" style="18" customWidth="1"/>
+    <col min="14" max="14" width="40.75" style="18" customWidth="1"/>
     <col min="15" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
@@ -2612,19 +2627,19 @@
         <v>23</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="N1" s="55" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.5" thickBot="1">
@@ -2667,9 +2682,7 @@
       <c r="M2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="34.5" thickBot="1">
       <c r="A3" s="6">
@@ -2691,11 +2704,11 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I3" s="22" t="b">
         <v>0</v>
       </c>
@@ -2711,9 +2724,7 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="17.5" thickBot="1">
       <c r="A4" s="19">
@@ -2735,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="23" t="b">
         <v>0</v>
@@ -2755,9 +2766,7 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="17.5" thickBot="1">
       <c r="A5" s="6">
@@ -2779,10 +2788,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I5" s="22" t="b">
         <v>0</v>
@@ -2799,9 +2808,7 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="34.5" thickBot="1">
       <c r="A6" s="6">
@@ -2823,10 +2830,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I6" s="22" t="b">
         <v>0</v>
@@ -2843,16 +2850,14 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="34.5" thickBot="1">
       <c r="A7" s="6">
         <v>200</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -2867,10 +2872,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" s="22" t="b">
         <v>0</v>
@@ -2888,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="51.5" thickBot="1">
@@ -2896,7 +2901,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -2911,10 +2916,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I8" s="22" t="b">
         <v>0</v>
@@ -2932,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34.5" thickBot="1">
@@ -2940,7 +2945,7 @@
         <v>202</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -2955,10 +2960,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I9" s="22" t="b">
         <v>0</v>
@@ -2976,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="51.5" thickBot="1">
@@ -2984,7 +2989,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -2999,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I10" s="22" t="b">
         <v>0</v>
@@ -3020,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="68.5" thickBot="1">
@@ -3028,7 +3033,7 @@
         <v>231</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -3043,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I11" s="22" t="b">
         <v>0</v>
@@ -3064,7 +3069,7 @@
         <v>232</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17.5" thickBot="1">
@@ -3072,7 +3077,7 @@
         <v>232</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6">
         <v>3</v>
@@ -3087,10 +3092,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I12" s="22" t="b">
         <v>1</v>
@@ -3108,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17.5" thickBot="1">
@@ -3116,7 +3121,7 @@
         <v>300</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -3131,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I13" s="22" t="b">
         <v>1</v>
@@ -3152,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17.5" thickBot="1">
@@ -3160,7 +3165,7 @@
         <v>301</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -3175,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I14" s="22" t="b">
         <v>0</v>
@@ -3202,7 +3207,7 @@
         <v>302</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -3217,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I15" s="22" t="b">
         <v>1</v>
@@ -3238,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="51.5" thickBot="1">
@@ -3246,7 +3251,7 @@
         <v>303</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
@@ -3261,10 +3266,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I16" s="22" t="b">
         <v>1</v>
@@ -3282,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="51.5" thickBot="1">
@@ -3290,7 +3295,7 @@
         <v>331</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -3305,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I17" s="22" t="b">
         <v>1</v>
@@ -3326,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3354,49 +3359,49 @@
         <v>15</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="P1" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3404,7 +3409,7 @@
         <v>100011101</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -3454,7 +3459,7 @@
         <v>100011102</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3504,7 +3509,7 @@
         <v>101012101</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -3554,7 +3559,7 @@
         <v>101012102</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -3604,7 +3609,7 @@
         <v>101012201</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
         <v>2</v>
@@ -3654,7 +3659,7 @@
         <v>101012202</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -3704,7 +3709,7 @@
         <v>101012301</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -3754,7 +3759,7 @@
         <v>101012302</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6">
         <v>3</v>
@@ -3804,7 +3809,7 @@
         <v>101012401</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6">
         <v>4</v>
@@ -3854,7 +3859,7 @@
         <v>101012402</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -3904,7 +3909,7 @@
         <v>101012501</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -3954,7 +3959,7 @@
         <v>101012502</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6">
         <v>5</v>
@@ -4004,7 +4009,7 @@
         <v>102012101</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C14" s="33">
         <v>1</v>
@@ -4054,7 +4059,7 @@
         <v>102012102</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C15" s="36">
         <v>1</v>
@@ -4104,7 +4109,7 @@
         <v>102012103</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C16" s="36">
         <v>1</v>
@@ -4154,7 +4159,7 @@
         <v>102012201</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C17" s="36">
         <v>2</v>
@@ -4204,7 +4209,7 @@
         <v>102012202</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C18" s="36">
         <v>2</v>
@@ -4254,7 +4259,7 @@
         <v>102012203</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C19" s="36">
         <v>2</v>
@@ -4304,7 +4309,7 @@
         <v>102012301</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C20" s="36">
         <v>3</v>
@@ -4354,7 +4359,7 @@
         <v>102012302</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C21" s="36">
         <v>3</v>
@@ -4404,7 +4409,7 @@
         <v>102012303</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C22" s="36">
         <v>3</v>
@@ -4454,7 +4459,7 @@
         <v>102012401</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C23" s="36">
         <v>4</v>
@@ -4504,7 +4509,7 @@
         <v>102012402</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C24" s="36">
         <v>4</v>
@@ -4554,7 +4559,7 @@
         <v>102012403</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C25" s="36">
         <v>4</v>
@@ -4604,7 +4609,7 @@
         <v>102012501</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C26" s="36">
         <v>5</v>
@@ -4654,7 +4659,7 @@
         <v>102012502</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C27" s="36">
         <v>5</v>
@@ -4704,7 +4709,7 @@
         <v>102012503</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C28" s="39">
         <v>5</v>
@@ -4754,7 +4759,7 @@
         <v>103012101</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -4804,7 +4809,7 @@
         <v>103012102</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C30" s="9">
         <v>1</v>
@@ -4854,7 +4859,7 @@
         <v>103012103</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -4904,7 +4909,7 @@
         <v>103012104</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -4954,7 +4959,7 @@
         <v>103012201</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C33" s="9">
         <v>2</v>
@@ -5004,7 +5009,7 @@
         <v>103012202</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C34" s="9">
         <v>2</v>
@@ -5054,7 +5059,7 @@
         <v>103012203</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C35" s="9">
         <v>2</v>
@@ -5104,7 +5109,7 @@
         <v>103012204</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C36" s="9">
         <v>2</v>
@@ -5154,7 +5159,7 @@
         <v>103012301</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C37" s="9">
         <v>3</v>
@@ -5204,7 +5209,7 @@
         <v>103012302</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
@@ -5254,7 +5259,7 @@
         <v>103012303</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C39" s="9">
         <v>3</v>
@@ -5304,7 +5309,7 @@
         <v>103012304</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C40" s="9">
         <v>3</v>
@@ -5354,7 +5359,7 @@
         <v>103012401</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C41" s="9">
         <v>4</v>
@@ -5404,7 +5409,7 @@
         <v>103012402</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C42" s="9">
         <v>4</v>
@@ -5454,7 +5459,7 @@
         <v>103012403</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C43" s="9">
         <v>4</v>
@@ -5504,7 +5509,7 @@
         <v>103012404</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C44" s="9">
         <v>4</v>
@@ -5554,7 +5559,7 @@
         <v>103012501</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C45" s="9">
         <v>5</v>
@@ -5604,7 +5609,7 @@
         <v>103012502</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C46" s="9">
         <v>5</v>
@@ -5654,7 +5659,7 @@
         <v>103012503</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C47" s="9">
         <v>5</v>
@@ -5704,7 +5709,7 @@
         <v>103012504</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C48" s="9">
         <v>5</v>
@@ -5754,7 +5759,7 @@
         <v>131013101</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -5814,7 +5819,7 @@
         <v>131013201</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C50" s="6">
         <v>2</v>
@@ -5874,7 +5879,7 @@
         <v>131013301</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C51" s="6">
         <v>3</v>
@@ -5934,7 +5939,7 @@
         <v>200021101</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
@@ -5984,7 +5989,7 @@
         <v>200021102</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C53" s="6">
         <v>1</v>
@@ -6034,7 +6039,7 @@
         <v>201022101</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -6084,7 +6089,7 @@
         <v>201022102</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C55" s="6">
         <v>1</v>
@@ -6134,7 +6139,7 @@
         <v>201022201</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C56" s="6">
         <v>2</v>
@@ -6184,7 +6189,7 @@
         <v>201022202</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C57" s="6">
         <v>2</v>
@@ -6234,7 +6239,7 @@
         <v>201022301</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C58" s="6">
         <v>3</v>
@@ -6284,7 +6289,7 @@
         <v>201022302</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C59" s="6">
         <v>3</v>
@@ -6334,7 +6339,7 @@
         <v>201022401</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C60" s="6">
         <v>4</v>
@@ -6384,7 +6389,7 @@
         <v>201022402</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C61" s="6">
         <v>4</v>
@@ -6434,7 +6439,7 @@
         <v>201022501</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C62" s="6">
         <v>5</v>
@@ -6484,7 +6489,7 @@
         <v>201022502</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C63" s="6">
         <v>5</v>
@@ -6534,7 +6539,7 @@
         <v>201022111</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C64" s="6">
         <v>1</v>
@@ -6584,7 +6589,7 @@
         <v>201022112</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C65" s="6">
         <v>1</v>
@@ -6634,7 +6639,7 @@
         <v>201022211</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C66" s="6">
         <v>2</v>
@@ -6684,7 +6689,7 @@
         <v>201022212</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C67" s="6">
         <v>2</v>
@@ -6734,7 +6739,7 @@
         <v>201022311</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C68" s="6">
         <v>3</v>
@@ -6784,7 +6789,7 @@
         <v>201022312</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C69" s="6">
         <v>3</v>
@@ -6834,7 +6839,7 @@
         <v>201022411</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C70" s="6">
         <v>4</v>
@@ -6884,7 +6889,7 @@
         <v>201022412</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C71" s="6">
         <v>4</v>
@@ -6934,7 +6939,7 @@
         <v>201022511</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C72" s="6">
         <v>5</v>
@@ -6984,7 +6989,7 @@
         <v>201022512</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C73" s="6">
         <v>5</v>
@@ -7034,7 +7039,7 @@
         <v>201022121</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C74" s="6">
         <v>1</v>
@@ -7084,7 +7089,7 @@
         <v>201022122</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C75" s="6">
         <v>1</v>
@@ -7134,7 +7139,7 @@
         <v>201022123</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -7184,7 +7189,7 @@
         <v>201022221</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C77" s="6">
         <v>2</v>
@@ -7234,7 +7239,7 @@
         <v>201022222</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C78" s="6">
         <v>2</v>
@@ -7284,7 +7289,7 @@
         <v>201022223</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C79" s="6">
         <v>2</v>
@@ -7334,7 +7339,7 @@
         <v>201022321</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C80" s="6">
         <v>3</v>
@@ -7384,7 +7389,7 @@
         <v>201022322</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C81" s="6">
         <v>3</v>
@@ -7434,7 +7439,7 @@
         <v>201022323</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C82" s="6">
         <v>3</v>
@@ -7484,7 +7489,7 @@
         <v>201022421</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C83" s="6">
         <v>4</v>
@@ -7534,7 +7539,7 @@
         <v>201022422</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C84" s="6">
         <v>4</v>
@@ -7584,7 +7589,7 @@
         <v>201022423</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C85" s="6">
         <v>4</v>
@@ -7634,7 +7639,7 @@
         <v>201022521</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C86" s="6">
         <v>5</v>
@@ -7684,7 +7689,7 @@
         <v>201022522</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C87" s="6">
         <v>5</v>
@@ -7734,7 +7739,7 @@
         <v>201022523</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C88" s="6">
         <v>5</v>
@@ -7784,7 +7789,7 @@
         <v>202022101</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C89" s="6">
         <v>1</v>
@@ -7834,7 +7839,7 @@
         <v>202022201</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C90" s="6">
         <v>2</v>
@@ -7884,7 +7889,7 @@
         <v>202022301</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C91" s="6">
         <v>3</v>
@@ -7934,7 +7939,7 @@
         <v>202022401</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C92" s="6">
         <v>4</v>
@@ -7984,7 +7989,7 @@
         <v>202022501</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C93" s="6">
         <v>5</v>
@@ -8034,7 +8039,7 @@
         <v>203022101</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C94" s="6">
         <v>1</v>
@@ -8084,7 +8089,7 @@
         <v>203022102</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C95" s="6">
         <v>1</v>
@@ -8134,7 +8139,7 @@
         <v>203022103</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C96" s="6">
         <v>1</v>
@@ -8184,7 +8189,7 @@
         <v>203022201</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C97" s="6">
         <v>2</v>
@@ -8234,7 +8239,7 @@
         <v>203022202</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C98" s="6">
         <v>2</v>
@@ -8284,7 +8289,7 @@
         <v>203022203</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C99" s="6">
         <v>2</v>
@@ -8334,7 +8339,7 @@
         <v>203022301</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C100" s="6">
         <v>3</v>
@@ -8384,7 +8389,7 @@
         <v>203022302</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C101" s="6">
         <v>3</v>
@@ -8434,7 +8439,7 @@
         <v>203022303</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
@@ -8484,7 +8489,7 @@
         <v>203022401</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C103" s="6">
         <v>4</v>
@@ -8534,7 +8539,7 @@
         <v>203022402</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C104" s="6">
         <v>4</v>
@@ -8584,7 +8589,7 @@
         <v>203022403</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C105" s="6">
         <v>4</v>
@@ -8634,7 +8639,7 @@
         <v>203022501</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C106" s="6">
         <v>5</v>
@@ -8684,7 +8689,7 @@
         <v>203022502</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C107" s="6">
         <v>5</v>
@@ -8734,7 +8739,7 @@
         <v>203022503</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C108" s="6">
         <v>5</v>
@@ -8784,7 +8789,7 @@
         <v>231023101</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C109" s="6">
         <v>1</v>
@@ -8834,7 +8839,7 @@
         <v>231023201</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C110" s="6">
         <v>2</v>
@@ -8884,7 +8889,7 @@
         <v>231023301</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C111" s="6">
         <v>3</v>
@@ -8934,7 +8939,7 @@
         <v>232023101</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C112" s="6">
         <v>1</v>
@@ -8984,7 +8989,7 @@
         <v>232023102</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C113" s="6">
         <v>1</v>
@@ -9034,7 +9039,7 @@
         <v>232023201</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C114" s="6">
         <v>2</v>
@@ -9084,7 +9089,7 @@
         <v>232023202</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C115" s="6">
         <v>2</v>
@@ -9134,7 +9139,7 @@
         <v>232023301</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C116" s="6">
         <v>3</v>
@@ -9184,7 +9189,7 @@
         <v>232023302</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C117" s="6">
         <v>3</v>
@@ -9234,7 +9239,7 @@
         <v>300031101</v>
       </c>
       <c r="B118" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
@@ -9284,7 +9289,7 @@
         <v>301032101</v>
       </c>
       <c r="B119" s="44" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C119" s="1">
         <v>1</v>
@@ -9334,7 +9339,7 @@
         <v>301032201</v>
       </c>
       <c r="B120" s="44" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C120" s="1">
         <v>2</v>
@@ -9384,7 +9389,7 @@
         <v>301032301</v>
       </c>
       <c r="B121" s="44" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C121" s="1">
         <v>3</v>
@@ -9434,7 +9439,7 @@
         <v>301032401</v>
       </c>
       <c r="B122" s="44" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C122" s="1">
         <v>4</v>
@@ -9484,7 +9489,7 @@
         <v>301032501</v>
       </c>
       <c r="B123" s="44" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C123" s="1">
         <v>5</v>
@@ -9534,7 +9539,7 @@
         <v>302032101</v>
       </c>
       <c r="B124" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -9584,7 +9589,7 @@
         <v>302032201</v>
       </c>
       <c r="B125" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C125" s="1">
         <v>2</v>
@@ -9634,7 +9639,7 @@
         <v>302032301</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C126" s="1">
         <v>3</v>
@@ -9684,7 +9689,7 @@
         <v>302032401</v>
       </c>
       <c r="B127" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C127" s="1">
         <v>4</v>
@@ -9734,7 +9739,7 @@
         <v>302032501</v>
       </c>
       <c r="B128" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C128" s="1">
         <v>5</v>
@@ -9784,7 +9789,7 @@
         <v>303032101</v>
       </c>
       <c r="B129" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -9834,7 +9839,7 @@
         <v>303032102</v>
       </c>
       <c r="B130" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -9884,7 +9889,7 @@
         <v>303032201</v>
       </c>
       <c r="B131" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C131" s="1">
         <v>2</v>
@@ -9934,7 +9939,7 @@
         <v>303032202</v>
       </c>
       <c r="B132" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C132" s="1">
         <v>2</v>
@@ -9984,7 +9989,7 @@
         <v>303032301</v>
       </c>
       <c r="B133" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C133" s="1">
         <v>3</v>
@@ -10034,7 +10039,7 @@
         <v>303032302</v>
       </c>
       <c r="B134" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C134" s="1">
         <v>3</v>
@@ -10084,7 +10089,7 @@
         <v>303032401</v>
       </c>
       <c r="B135" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C135" s="1">
         <v>4</v>
@@ -10134,7 +10139,7 @@
         <v>303032402</v>
       </c>
       <c r="B136" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
@@ -10184,7 +10189,7 @@
         <v>303032501</v>
       </c>
       <c r="B137" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C137" s="1">
         <v>5</v>
@@ -10234,7 +10239,7 @@
         <v>303032502</v>
       </c>
       <c r="B138" s="44" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C138" s="1">
         <v>5</v>
@@ -10284,7 +10289,7 @@
         <v>331033101</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -10334,7 +10339,7 @@
         <v>331033201</v>
       </c>
       <c r="B140" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C140" s="1">
         <v>2</v>
@@ -10384,7 +10389,7 @@
         <v>331033301</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C141" s="1">
         <v>3</v>
@@ -10454,19 +10459,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.5" thickBot="1">
@@ -10822,52 +10827,52 @@
         <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="Q1" s="14" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.5" thickBot="1">
@@ -10881,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>0</v>
@@ -10934,7 +10939,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E3" s="6" t="b">
         <v>1</v>
@@ -10987,7 +10992,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
@@ -11040,7 +11045,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E5" s="6" t="b">
         <v>0</v>
@@ -11100,46 +11105,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -11210,70 +11215,70 @@
         <v>15</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="48" t="s">
-        <v>103</v>
-      </c>
       <c r="J1" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="P1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="47" t="s">
-        <v>107</v>
-      </c>
       <c r="Q1" s="47" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="S1" s="49" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="U1" s="60" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="V1" s="49" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="W1" s="49" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="X1" s="49"/>
       <c r="Y1" s="49"/>
@@ -11297,13 +11302,13 @@
         <v>1000</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E2" s="9">
         <v>150</v>
@@ -11384,13 +11389,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9">
         <v>200</v>
@@ -11471,13 +11476,13 @@
         <v>1002</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E4" s="9">
         <v>250</v>
@@ -11558,13 +11563,13 @@
         <v>2000</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E5" s="9">
         <v>700</v>
@@ -11645,13 +11650,13 @@
         <v>2001</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E6" s="9">
         <v>800</v>
@@ -11732,13 +11737,13 @@
         <v>2002</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E7" s="9">
         <v>900</v>
@@ -11819,13 +11824,13 @@
         <v>3000</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E8" s="9">
         <v>4000</v>
@@ -11906,13 +11911,13 @@
         <v>3001</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C9" s="9">
         <v>3</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E9" s="9">
         <v>8000</v>
@@ -11993,13 +11998,13 @@
         <v>3002</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C10" s="9">
         <v>3</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E10" s="9">
         <v>5000</v>
@@ -12080,13 +12085,13 @@
         <v>3003</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C11" s="9">
         <v>3</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E11" s="9">
         <v>10000</v>
@@ -12167,13 +12172,13 @@
         <v>4000</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C12" s="9">
         <v>4</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E12" s="9">
         <v>15000</v>
@@ -12276,31 +12281,31 @@
         <v>15</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G1" s="49" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="51.5" thickBot="1">
@@ -12308,7 +12313,7 @@
         <v>100000</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -12332,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="51.5" thickBot="1">
@@ -12340,7 +12345,7 @@
         <v>200000</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -12364,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34.5" thickBot="1">
@@ -12372,7 +12377,7 @@
         <v>300000</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -12396,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" thickBot="1">
@@ -12404,7 +12409,7 @@
         <v>300001</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -12428,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5" thickBot="1">
@@ -12436,7 +12441,7 @@
         <v>300002</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
@@ -12460,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5" thickBot="1">
@@ -12468,7 +12473,7 @@
         <v>300003</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -12492,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" thickBot="1">
@@ -12500,7 +12505,7 @@
         <v>300004</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
@@ -12524,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.5" thickBot="1">
@@ -12532,7 +12537,7 @@
         <v>300005</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -12556,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34.5" thickBot="1">
@@ -12564,7 +12569,7 @@
         <v>300006</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -12588,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.5" thickBot="1">
@@ -12596,7 +12601,7 @@
         <v>300008</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -12620,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34.5" thickBot="1">
@@ -12628,7 +12633,7 @@
         <v>300009</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
@@ -12652,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34.5" thickBot="1">
@@ -12660,7 +12665,7 @@
         <v>300010</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
@@ -12684,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" thickBot="1">
@@ -12692,7 +12697,7 @@
         <v>300011</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C14" s="9">
         <v>3</v>
@@ -12716,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -12747,40 +12752,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N1" s="18"/>
     </row>
@@ -12789,7 +12794,7 @@
         <v>1000001</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -12831,7 +12836,7 @@
         <v>2000001</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -12873,7 +12878,7 @@
         <v>3000001</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -12914,7 +12919,7 @@
         <v>3000002</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -12955,7 +12960,7 @@
         <v>3000011</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -12996,7 +13001,7 @@
         <v>3000012</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -13037,7 +13042,7 @@
         <v>3000013</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -13078,7 +13083,7 @@
         <v>3000014</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C9" s="9">
         <v>1.5</v>
@@ -13119,7 +13124,7 @@
         <v>3000021</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -13160,7 +13165,7 @@
         <v>3000022</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -13201,7 +13206,7 @@
         <v>3000023</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -13242,7 +13247,7 @@
         <v>3000024</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -13283,7 +13288,7 @@
         <v>3000031</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -13324,7 +13329,7 @@
         <v>3000032</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -13365,7 +13370,7 @@
         <v>3000033</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
@@ -13406,7 +13411,7 @@
         <v>3000034</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C17" s="9">
         <v>1.5</v>
@@ -13447,7 +13452,7 @@
         <v>3000041</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -13488,7 +13493,7 @@
         <v>3000042</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -13529,7 +13534,7 @@
         <v>3000043</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C20" s="9">
         <v>2.5</v>
@@ -13570,7 +13575,7 @@
         <v>3000051</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C21" s="9">
         <v>0.8</v>
@@ -13611,7 +13616,7 @@
         <v>3000061</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C22" s="9">
         <v>1.2</v>
@@ -13652,7 +13657,7 @@
         <v>3000081</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
@@ -13693,7 +13698,7 @@
         <v>3000091</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
@@ -13734,7 +13739,7 @@
         <v>3000092</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C25" s="9">
         <v>1.5</v>
@@ -13775,7 +13780,7 @@
         <v>3000101</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C26" s="9">
         <v>2</v>
@@ -13816,7 +13821,7 @@
         <v>3000102</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C27" s="9">
         <v>2</v>
@@ -13857,7 +13862,7 @@
         <v>3000103</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C28" s="9">
         <v>2</v>
@@ -13898,7 +13903,7 @@
         <v>3000104</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C29" s="9">
         <v>2</v>
@@ -13939,7 +13944,7 @@
         <v>3000105</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
@@ -13980,7 +13985,7 @@
         <v>3000111</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C31" s="9">
         <v>2.5</v>
@@ -14021,7 +14026,7 @@
         <v>3000112</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>2.5</v>
@@ -14062,7 +14067,7 @@
         <v>3000113</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C33" s="9">
         <v>3</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C581AD8-6C77-4948-B4FF-4A92FF30EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FC4FD-9CCA-4ECC-AD2B-67FF1C43B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1250,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1377,9 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1888,28 +1885,28 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="62"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" thickBot="1">
       <c r="A2" s="9">
@@ -2239,213 +2236,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="55" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="57">
+      <c r="A2" s="56">
         <v>2</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <v>2000</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="59">
-        <v>1</v>
-      </c>
-      <c r="F2" s="59">
+      <c r="E2" s="58">
+        <v>1</v>
+      </c>
+      <c r="F2" s="58">
         <v>5</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="58">
         <v>0.1</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="58">
         <v>0.1</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="58"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="57">
+      <c r="A3" s="56">
         <v>2</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <v>2001</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="58">
         <v>2</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="58">
         <v>5</v>
       </c>
-      <c r="G3" s="59">
+      <c r="G3" s="58">
         <v>0.1</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="58">
         <v>0.15</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="58"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="57">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="56">
         <v>2002</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="58">
         <v>3</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="58">
         <v>5</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="58">
         <v>0.2</v>
       </c>
-      <c r="H4" s="59">
+      <c r="H4" s="58">
         <v>0.2</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="58"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="57">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="56">
         <v>3000</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <v>4</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="58">
         <v>5</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="58">
         <v>0.1</v>
       </c>
-      <c r="H5" s="59">
+      <c r="H5" s="58">
         <v>0.1</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="57">
+      <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <v>3001</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="58">
         <v>5</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="58">
         <v>5</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="58">
         <v>0.1</v>
       </c>
-      <c r="H6" s="59">
+      <c r="H6" s="58">
         <v>0.1</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="57">
+      <c r="A7" s="56">
         <v>3</v>
       </c>
-      <c r="B7" s="57">
+      <c r="B7" s="56">
         <v>3002</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="58">
         <v>6</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="58">
         <v>5</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="58">
         <v>0.02</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="58">
         <v>0.02</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="58"/>
+      <c r="J7" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2468,52 +2465,52 @@
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2580,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+    <sheetView topLeftCell="G8" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -2638,7 +2635,7 @@
       <c r="M1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="54" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2896,7 +2893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="51.5" thickBot="1">
+    <row r="8" spans="1:14" ht="34.5" thickBot="1">
       <c r="A8" s="6">
         <v>201</v>
       </c>
@@ -2940,7 +2937,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="34.5" thickBot="1">
+    <row r="9" spans="1:14" ht="17.5" thickBot="1">
       <c r="A9" s="6">
         <v>202</v>
       </c>
@@ -2984,7 +2981,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="51.5" thickBot="1">
+    <row r="10" spans="1:14" ht="17.5" thickBot="1">
       <c r="A10" s="6">
         <v>203</v>
       </c>
@@ -3028,7 +3025,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="68.5" thickBot="1">
+    <row r="11" spans="1:14" ht="34.5" thickBot="1">
       <c r="A11" s="6">
         <v>231</v>
       </c>
@@ -3202,7 +3199,7 @@
       </c>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="85.5" thickBot="1">
+    <row r="15" spans="1:14" ht="34.5" thickBot="1">
       <c r="A15" s="6">
         <v>302</v>
       </c>
@@ -3246,7 +3243,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="51.5" thickBot="1">
+    <row r="16" spans="1:14" ht="34.5" thickBot="1">
       <c r="A16" s="6">
         <v>303</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="51.5" thickBot="1">
+    <row r="17" spans="1:14" ht="34.5" thickBot="1">
       <c r="A17" s="6">
         <v>331</v>
       </c>
@@ -3344,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:K48"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118:K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -5965,7 +5962,7 @@
       <c r="J52" s="6">
         <v>0</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" s="6">
@@ -6015,7 +6012,7 @@
       <c r="J53" s="6">
         <v>0</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" s="6">
@@ -6065,8 +6062,8 @@
       <c r="J54" s="6">
         <v>0</v>
       </c>
-      <c r="K54" s="6">
-        <v>1</v>
+      <c r="K54" s="1">
+        <v>20</v>
       </c>
       <c r="L54" s="6">
         <v>0</v>
@@ -6115,8 +6112,8 @@
       <c r="J55" s="6">
         <v>0</v>
       </c>
-      <c r="K55" s="6">
-        <v>1</v>
+      <c r="K55" s="1">
+        <v>20</v>
       </c>
       <c r="L55" s="6">
         <v>0</v>
@@ -6165,8 +6162,8 @@
       <c r="J56" s="6">
         <v>0</v>
       </c>
-      <c r="K56" s="6">
-        <v>1</v>
+      <c r="K56" s="1">
+        <v>18</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
@@ -6215,8 +6212,8 @@
       <c r="J57" s="6">
         <v>0</v>
       </c>
-      <c r="K57" s="6">
-        <v>1</v>
+      <c r="K57" s="1">
+        <v>18</v>
       </c>
       <c r="L57" s="6">
         <v>0</v>
@@ -6265,8 +6262,8 @@
       <c r="J58" s="6">
         <v>0</v>
       </c>
-      <c r="K58" s="6">
-        <v>1</v>
+      <c r="K58" s="1">
+        <v>16</v>
       </c>
       <c r="L58" s="6">
         <v>0</v>
@@ -6315,8 +6312,8 @@
       <c r="J59" s="6">
         <v>0</v>
       </c>
-      <c r="K59" s="6">
-        <v>1</v>
+      <c r="K59" s="1">
+        <v>16</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
@@ -6365,8 +6362,8 @@
       <c r="J60" s="6">
         <v>0</v>
       </c>
-      <c r="K60" s="6">
-        <v>1</v>
+      <c r="K60" s="1">
+        <v>14</v>
       </c>
       <c r="L60" s="6">
         <v>0</v>
@@ -6415,8 +6412,8 @@
       <c r="J61" s="6">
         <v>0</v>
       </c>
-      <c r="K61" s="6">
-        <v>1</v>
+      <c r="K61" s="1">
+        <v>14</v>
       </c>
       <c r="L61" s="6">
         <v>0</v>
@@ -6465,8 +6462,8 @@
       <c r="J62" s="6">
         <v>0</v>
       </c>
-      <c r="K62" s="6">
-        <v>1</v>
+      <c r="K62" s="1">
+        <v>12</v>
       </c>
       <c r="L62" s="6">
         <v>0</v>
@@ -6515,8 +6512,8 @@
       <c r="J63" s="6">
         <v>0</v>
       </c>
-      <c r="K63" s="6">
-        <v>1</v>
+      <c r="K63" s="1">
+        <v>12</v>
       </c>
       <c r="L63" s="6">
         <v>0</v>
@@ -6565,8 +6562,8 @@
       <c r="J64" s="6">
         <v>0</v>
       </c>
-      <c r="K64" s="6">
-        <v>1</v>
+      <c r="K64" s="1">
+        <v>20</v>
       </c>
       <c r="L64" s="6">
         <v>0</v>
@@ -6615,8 +6612,8 @@
       <c r="J65" s="6">
         <v>10</v>
       </c>
-      <c r="K65" s="6">
-        <v>1</v>
+      <c r="K65" s="1">
+        <v>20</v>
       </c>
       <c r="L65" s="6">
         <v>0</v>
@@ -6665,8 +6662,8 @@
       <c r="J66" s="6">
         <v>0</v>
       </c>
-      <c r="K66" s="6">
-        <v>1</v>
+      <c r="K66" s="1">
+        <v>18</v>
       </c>
       <c r="L66" s="6">
         <v>0</v>
@@ -6715,8 +6712,8 @@
       <c r="J67" s="6">
         <v>10</v>
       </c>
-      <c r="K67" s="6">
-        <v>1</v>
+      <c r="K67" s="1">
+        <v>18</v>
       </c>
       <c r="L67" s="6">
         <v>0</v>
@@ -6765,8 +6762,8 @@
       <c r="J68" s="6">
         <v>0</v>
       </c>
-      <c r="K68" s="6">
-        <v>1</v>
+      <c r="K68" s="1">
+        <v>16</v>
       </c>
       <c r="L68" s="6">
         <v>0</v>
@@ -6815,8 +6812,8 @@
       <c r="J69" s="6">
         <v>10</v>
       </c>
-      <c r="K69" s="6">
-        <v>1</v>
+      <c r="K69" s="1">
+        <v>16</v>
       </c>
       <c r="L69" s="6">
         <v>0</v>
@@ -6865,8 +6862,8 @@
       <c r="J70" s="6">
         <v>0</v>
       </c>
-      <c r="K70" s="6">
-        <v>1</v>
+      <c r="K70" s="1">
+        <v>14</v>
       </c>
       <c r="L70" s="6">
         <v>0</v>
@@ -6915,8 +6912,8 @@
       <c r="J71" s="6">
         <v>10</v>
       </c>
-      <c r="K71" s="6">
-        <v>1</v>
+      <c r="K71" s="1">
+        <v>14</v>
       </c>
       <c r="L71" s="6">
         <v>0</v>
@@ -6965,8 +6962,8 @@
       <c r="J72" s="6">
         <v>0</v>
       </c>
-      <c r="K72" s="6">
-        <v>1</v>
+      <c r="K72" s="1">
+        <v>12</v>
       </c>
       <c r="L72" s="6">
         <v>0</v>
@@ -7015,8 +7012,8 @@
       <c r="J73" s="6">
         <v>10</v>
       </c>
-      <c r="K73" s="6">
-        <v>1</v>
+      <c r="K73" s="1">
+        <v>12</v>
       </c>
       <c r="L73" s="6">
         <v>0</v>
@@ -7065,8 +7062,8 @@
       <c r="J74" s="6">
         <v>0</v>
       </c>
-      <c r="K74" s="6">
-        <v>1</v>
+      <c r="K74" s="1">
+        <v>20</v>
       </c>
       <c r="L74" s="6">
         <v>0</v>
@@ -7115,8 +7112,8 @@
       <c r="J75" s="6">
         <v>10</v>
       </c>
-      <c r="K75" s="6">
-        <v>1</v>
+      <c r="K75" s="1">
+        <v>20</v>
       </c>
       <c r="L75" s="6">
         <v>0</v>
@@ -7165,8 +7162,8 @@
       <c r="J76" s="6">
         <v>10</v>
       </c>
-      <c r="K76" s="6">
-        <v>1</v>
+      <c r="K76" s="1">
+        <v>20</v>
       </c>
       <c r="L76" s="6">
         <v>0</v>
@@ -7215,8 +7212,8 @@
       <c r="J77" s="6">
         <v>0</v>
       </c>
-      <c r="K77" s="6">
-        <v>1</v>
+      <c r="K77" s="1">
+        <v>18</v>
       </c>
       <c r="L77" s="6">
         <v>0</v>
@@ -7265,8 +7262,8 @@
       <c r="J78" s="6">
         <v>10</v>
       </c>
-      <c r="K78" s="6">
-        <v>1</v>
+      <c r="K78" s="1">
+        <v>18</v>
       </c>
       <c r="L78" s="6">
         <v>0</v>
@@ -7315,8 +7312,8 @@
       <c r="J79" s="6">
         <v>10</v>
       </c>
-      <c r="K79" s="6">
-        <v>1</v>
+      <c r="K79" s="1">
+        <v>18</v>
       </c>
       <c r="L79" s="6">
         <v>0</v>
@@ -7365,8 +7362,8 @@
       <c r="J80" s="6">
         <v>0</v>
       </c>
-      <c r="K80" s="6">
-        <v>1</v>
+      <c r="K80" s="1">
+        <v>16</v>
       </c>
       <c r="L80" s="6">
         <v>0</v>
@@ -7415,8 +7412,8 @@
       <c r="J81" s="6">
         <v>10</v>
       </c>
-      <c r="K81" s="6">
-        <v>1</v>
+      <c r="K81" s="1">
+        <v>16</v>
       </c>
       <c r="L81" s="6">
         <v>0</v>
@@ -7465,8 +7462,8 @@
       <c r="J82" s="6">
         <v>10</v>
       </c>
-      <c r="K82" s="6">
-        <v>1</v>
+      <c r="K82" s="1">
+        <v>16</v>
       </c>
       <c r="L82" s="6">
         <v>0</v>
@@ -7515,8 +7512,8 @@
       <c r="J83" s="6">
         <v>0</v>
       </c>
-      <c r="K83" s="6">
-        <v>1</v>
+      <c r="K83" s="1">
+        <v>14</v>
       </c>
       <c r="L83" s="6">
         <v>0</v>
@@ -7565,8 +7562,8 @@
       <c r="J84" s="6">
         <v>10</v>
       </c>
-      <c r="K84" s="6">
-        <v>1</v>
+      <c r="K84" s="1">
+        <v>14</v>
       </c>
       <c r="L84" s="6">
         <v>0</v>
@@ -7615,8 +7612,8 @@
       <c r="J85" s="6">
         <v>10</v>
       </c>
-      <c r="K85" s="6">
-        <v>1</v>
+      <c r="K85" s="1">
+        <v>14</v>
       </c>
       <c r="L85" s="6">
         <v>0</v>
@@ -7665,8 +7662,8 @@
       <c r="J86" s="6">
         <v>0</v>
       </c>
-      <c r="K86" s="6">
-        <v>1</v>
+      <c r="K86" s="1">
+        <v>12</v>
       </c>
       <c r="L86" s="6">
         <v>0</v>
@@ -7715,8 +7712,8 @@
       <c r="J87" s="6">
         <v>10</v>
       </c>
-      <c r="K87" s="6">
-        <v>1</v>
+      <c r="K87" s="1">
+        <v>12</v>
       </c>
       <c r="L87" s="6">
         <v>0</v>
@@ -7765,8 +7762,8 @@
       <c r="J88" s="6">
         <v>10</v>
       </c>
-      <c r="K88" s="6">
-        <v>1</v>
+      <c r="K88" s="1">
+        <v>12</v>
       </c>
       <c r="L88" s="6">
         <v>0</v>
@@ -7815,8 +7812,8 @@
       <c r="J89" s="6">
         <v>0</v>
       </c>
-      <c r="K89" s="6">
-        <v>1</v>
+      <c r="K89" s="1">
+        <v>5</v>
       </c>
       <c r="L89" s="6">
         <v>0</v>
@@ -7865,8 +7862,8 @@
       <c r="J90" s="6">
         <v>0</v>
       </c>
-      <c r="K90" s="6">
-        <v>1</v>
+      <c r="K90" s="1">
+        <v>4.5</v>
       </c>
       <c r="L90" s="6">
         <v>0</v>
@@ -7915,8 +7912,8 @@
       <c r="J91" s="6">
         <v>0</v>
       </c>
-      <c r="K91" s="6">
-        <v>1</v>
+      <c r="K91" s="1">
+        <v>4</v>
       </c>
       <c r="L91" s="6">
         <v>0</v>
@@ -7965,8 +7962,8 @@
       <c r="J92" s="6">
         <v>0</v>
       </c>
-      <c r="K92" s="6">
-        <v>1</v>
+      <c r="K92" s="1">
+        <v>3.5</v>
       </c>
       <c r="L92" s="6">
         <v>0</v>
@@ -8015,8 +8012,8 @@
       <c r="J93" s="6">
         <v>0</v>
       </c>
-      <c r="K93" s="6">
-        <v>1</v>
+      <c r="K93" s="1">
+        <v>3</v>
       </c>
       <c r="L93" s="6">
         <v>0</v>
@@ -8065,8 +8062,8 @@
       <c r="J94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="6">
-        <v>1</v>
+      <c r="K94" s="1">
+        <v>13</v>
       </c>
       <c r="L94" s="6">
         <v>0</v>
@@ -8115,8 +8112,8 @@
       <c r="J95" s="6">
         <v>0</v>
       </c>
-      <c r="K95" s="6">
-        <v>1</v>
+      <c r="K95" s="1">
+        <v>13</v>
       </c>
       <c r="L95" s="6">
         <v>0</v>
@@ -8165,8 +8162,8 @@
       <c r="J96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="6">
-        <v>1</v>
+      <c r="K96" s="1">
+        <v>13</v>
       </c>
       <c r="L96" s="6">
         <v>0</v>
@@ -8215,8 +8212,8 @@
       <c r="J97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="6">
-        <v>1</v>
+      <c r="K97" s="1">
+        <v>12.5</v>
       </c>
       <c r="L97" s="6">
         <v>0</v>
@@ -8265,8 +8262,8 @@
       <c r="J98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="6">
-        <v>1</v>
+      <c r="K98" s="1">
+        <v>12.5</v>
       </c>
       <c r="L98" s="6">
         <v>0</v>
@@ -8315,8 +8312,8 @@
       <c r="J99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="6">
-        <v>1</v>
+      <c r="K99" s="1">
+        <v>12.5</v>
       </c>
       <c r="L99" s="6">
         <v>0</v>
@@ -8365,8 +8362,8 @@
       <c r="J100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="6">
-        <v>1</v>
+      <c r="K100" s="1">
+        <v>12</v>
       </c>
       <c r="L100" s="6">
         <v>0</v>
@@ -8415,8 +8412,8 @@
       <c r="J101" s="6">
         <v>0</v>
       </c>
-      <c r="K101" s="6">
-        <v>1</v>
+      <c r="K101" s="1">
+        <v>12</v>
       </c>
       <c r="L101" s="6">
         <v>0</v>
@@ -8465,8 +8462,8 @@
       <c r="J102" s="6">
         <v>0</v>
       </c>
-      <c r="K102" s="6">
-        <v>1</v>
+      <c r="K102" s="1">
+        <v>12</v>
       </c>
       <c r="L102" s="6">
         <v>0</v>
@@ -8515,8 +8512,8 @@
       <c r="J103" s="6">
         <v>0</v>
       </c>
-      <c r="K103" s="6">
-        <v>1</v>
+      <c r="K103" s="1">
+        <v>11</v>
       </c>
       <c r="L103" s="6">
         <v>0</v>
@@ -8565,8 +8562,8 @@
       <c r="J104" s="6">
         <v>0</v>
       </c>
-      <c r="K104" s="6">
-        <v>1</v>
+      <c r="K104" s="1">
+        <v>11</v>
       </c>
       <c r="L104" s="6">
         <v>0</v>
@@ -8615,8 +8612,8 @@
       <c r="J105" s="6">
         <v>0</v>
       </c>
-      <c r="K105" s="6">
-        <v>1</v>
+      <c r="K105" s="1">
+        <v>11</v>
       </c>
       <c r="L105" s="6">
         <v>0</v>
@@ -8665,8 +8662,8 @@
       <c r="J106" s="6">
         <v>0</v>
       </c>
-      <c r="K106" s="6">
-        <v>1</v>
+      <c r="K106" s="1">
+        <v>10</v>
       </c>
       <c r="L106" s="6">
         <v>0</v>
@@ -8715,8 +8712,8 @@
       <c r="J107" s="6">
         <v>0</v>
       </c>
-      <c r="K107" s="6">
-        <v>1</v>
+      <c r="K107" s="1">
+        <v>10</v>
       </c>
       <c r="L107" s="6">
         <v>0</v>
@@ -8765,8 +8762,8 @@
       <c r="J108" s="6">
         <v>0</v>
       </c>
-      <c r="K108" s="6">
-        <v>1</v>
+      <c r="K108" s="1">
+        <v>10</v>
       </c>
       <c r="L108" s="6">
         <v>0</v>
@@ -8815,8 +8812,8 @@
       <c r="J109" s="6">
         <v>0</v>
       </c>
-      <c r="K109" s="6">
-        <v>1</v>
+      <c r="K109" s="1">
+        <v>0</v>
       </c>
       <c r="L109" s="6">
         <v>60000</v>
@@ -8865,8 +8862,8 @@
       <c r="J110" s="6">
         <v>0</v>
       </c>
-      <c r="K110" s="6">
-        <v>1</v>
+      <c r="K110" s="1">
+        <v>0</v>
       </c>
       <c r="L110" s="6">
         <v>55000</v>
@@ -8915,8 +8912,8 @@
       <c r="J111" s="6">
         <v>0</v>
       </c>
-      <c r="K111" s="6">
-        <v>1</v>
+      <c r="K111" s="1">
+        <v>0</v>
       </c>
       <c r="L111" s="6">
         <v>50000</v>
@@ -8965,8 +8962,8 @@
       <c r="J112" s="6">
         <v>0</v>
       </c>
-      <c r="K112" s="6">
-        <v>1</v>
+      <c r="K112" s="1">
+        <v>0</v>
       </c>
       <c r="L112" s="6">
         <v>0</v>
@@ -9015,8 +9012,8 @@
       <c r="J113" s="6">
         <v>0</v>
       </c>
-      <c r="K113" s="6">
-        <v>1</v>
+      <c r="K113" s="1">
+        <v>0</v>
       </c>
       <c r="L113" s="6">
         <v>0</v>
@@ -9065,8 +9062,8 @@
       <c r="J114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="6">
-        <v>1</v>
+      <c r="K114" s="1">
+        <v>0</v>
       </c>
       <c r="L114" s="6">
         <v>0</v>
@@ -9115,8 +9112,8 @@
       <c r="J115" s="6">
         <v>0</v>
       </c>
-      <c r="K115" s="6">
-        <v>1</v>
+      <c r="K115" s="1">
+        <v>0</v>
       </c>
       <c r="L115" s="6">
         <v>0</v>
@@ -9165,8 +9162,8 @@
       <c r="J116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="6">
-        <v>1</v>
+      <c r="K116" s="1">
+        <v>0</v>
       </c>
       <c r="L116" s="6">
         <v>0</v>
@@ -9215,8 +9212,8 @@
       <c r="J117" s="6">
         <v>0</v>
       </c>
-      <c r="K117" s="6">
-        <v>1</v>
+      <c r="K117" s="1">
+        <v>0</v>
       </c>
       <c r="L117" s="6">
         <v>0</v>
@@ -9316,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L119" s="1">
         <v>0</v>
@@ -9366,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L120" s="1">
         <v>0</v>
@@ -9416,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L121" s="1">
         <v>0</v>
@@ -9466,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
@@ -9516,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L123" s="1">
         <v>0</v>
@@ -9566,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L124" s="1">
         <v>0</v>
@@ -9616,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
@@ -9666,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L126" s="1">
         <v>0</v>
@@ -9716,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L127" s="1">
         <v>0</v>
@@ -9766,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L128" s="1">
         <v>0</v>
@@ -9816,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="K129" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L129" s="1">
         <v>0</v>
@@ -9866,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L130" s="1">
         <v>0</v>
@@ -9915,8 +9912,8 @@
       <c r="J131" s="1">
         <v>3</v>
       </c>
-      <c r="K131" s="45">
-        <v>1</v>
+      <c r="K131" s="1">
+        <v>4.5</v>
       </c>
       <c r="L131" s="1">
         <v>0</v>
@@ -9966,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="1">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="L132" s="1">
         <v>0</v>
@@ -10016,7 +10013,7 @@
         <v>3</v>
       </c>
       <c r="K133" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
@@ -10066,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L134" s="1">
         <v>0</v>
@@ -10116,7 +10113,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L135" s="1">
         <v>0</v>
@@ -10166,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="1">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L136" s="1">
         <v>0</v>
@@ -10216,7 +10213,7 @@
         <v>3</v>
       </c>
       <c r="K137" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L137" s="1">
         <v>0</v>
@@ -10266,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L138" s="1">
         <v>0</v>
@@ -10538,19 +10535,19 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <v>6</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="53">
         <v>23</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="53">
         <v>23</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="53">
         <v>61</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <v>0</v>
       </c>
     </row>
@@ -11083,7 +11080,7 @@
       <c r="P5" s="6">
         <v>1.5</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="62">
         <v>7</v>
       </c>
     </row>
@@ -11211,91 +11208,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="34.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="V1" s="49" t="s">
+      <c r="V1" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="W1" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
     </row>
     <row r="2" spans="1:39" ht="34.5" thickBot="1">
       <c r="A2" s="9">
@@ -11361,10 +11358,10 @@
       <c r="U2" s="9">
         <v>2</v>
       </c>
-      <c r="V2" s="61">
-        <v>0</v>
-      </c>
-      <c r="W2" s="61">
+      <c r="V2" s="60">
+        <v>0</v>
+      </c>
+      <c r="W2" s="60">
         <v>0</v>
       </c>
       <c r="X2" s="9"/>
@@ -11448,10 +11445,10 @@
       <c r="U3" s="9">
         <v>4</v>
       </c>
-      <c r="V3" s="61">
-        <v>0</v>
-      </c>
-      <c r="W3" s="61">
+      <c r="V3" s="60">
+        <v>0</v>
+      </c>
+      <c r="W3" s="60">
         <v>0</v>
       </c>
       <c r="X3" s="9"/>
@@ -11535,10 +11532,10 @@
       <c r="U4" s="9">
         <v>6</v>
       </c>
-      <c r="V4" s="61">
-        <v>0</v>
-      </c>
-      <c r="W4" s="61">
+      <c r="V4" s="60">
+        <v>0</v>
+      </c>
+      <c r="W4" s="60">
         <v>0</v>
       </c>
       <c r="X4" s="9"/>
@@ -11622,10 +11619,10 @@
       <c r="U5" s="9">
         <v>40</v>
       </c>
-      <c r="V5" s="61">
-        <v>0</v>
-      </c>
-      <c r="W5" s="61">
+      <c r="V5" s="60">
+        <v>0</v>
+      </c>
+      <c r="W5" s="60">
         <v>0</v>
       </c>
       <c r="X5" s="9"/>
@@ -11709,10 +11706,10 @@
       <c r="U6" s="9">
         <v>80</v>
       </c>
-      <c r="V6" s="61">
-        <v>0</v>
-      </c>
-      <c r="W6" s="61">
+      <c r="V6" s="60">
+        <v>0</v>
+      </c>
+      <c r="W6" s="60">
         <v>0</v>
       </c>
       <c r="X6" s="9"/>
@@ -11796,10 +11793,10 @@
       <c r="U7" s="9">
         <v>120</v>
       </c>
-      <c r="V7" s="61">
-        <v>0</v>
-      </c>
-      <c r="W7" s="61">
+      <c r="V7" s="60">
+        <v>0</v>
+      </c>
+      <c r="W7" s="60">
         <v>0</v>
       </c>
       <c r="X7" s="9"/>
@@ -11874,10 +11871,10 @@
       <c r="R8" s="9">
         <v>0</v>
       </c>
-      <c r="S8" s="61">
-        <v>0</v>
-      </c>
-      <c r="T8" s="61">
+      <c r="S8" s="60">
+        <v>0</v>
+      </c>
+      <c r="T8" s="60">
         <v>0</v>
       </c>
       <c r="U8" s="9">
@@ -11961,10 +11958,10 @@
       <c r="R9" s="9">
         <v>0</v>
       </c>
-      <c r="S9" s="61">
-        <v>0</v>
-      </c>
-      <c r="T9" s="61">
+      <c r="S9" s="60">
+        <v>0</v>
+      </c>
+      <c r="T9" s="60">
         <v>0</v>
       </c>
       <c r="U9" s="9">
@@ -12048,10 +12045,10 @@
       <c r="R10" s="9">
         <v>0</v>
       </c>
-      <c r="S10" s="61">
-        <v>0</v>
-      </c>
-      <c r="T10" s="61">
+      <c r="S10" s="60">
+        <v>0</v>
+      </c>
+      <c r="T10" s="60">
         <v>0</v>
       </c>
       <c r="U10" s="9">
@@ -12135,10 +12132,10 @@
       <c r="R11" s="9">
         <v>0</v>
       </c>
-      <c r="S11" s="61">
-        <v>0</v>
-      </c>
-      <c r="T11" s="61">
+      <c r="S11" s="60">
+        <v>0</v>
+      </c>
+      <c r="T11" s="60">
         <v>0</v>
       </c>
       <c r="U11" s="9">
@@ -12228,7 +12225,7 @@
       <c r="T12" s="9">
         <v>0</v>
       </c>
-      <c r="U12" s="61">
+      <c r="U12" s="60">
         <v>0</v>
       </c>
       <c r="V12" s="9">
@@ -12277,34 +12274,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" thickBot="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>88</v>
       </c>
     </row>
@@ -12748,43 +12745,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="52" t="s">
         <v>125</v>
       </c>
       <c r="N1" s="18"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FC4FD-9CCA-4ECC-AD2B-67FF1C43B015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E0336-411C-42B0-92B4-4C5C53F92CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -2577,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -3341,7 +3341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K118" sqref="K118:K141"/>
     </sheetView>
   </sheetViews>
@@ -10803,8 +10803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11028,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.5" thickBot="1">

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E0336-411C-42B0-92B4-4C5C53F92CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91D7F8C-517C-4899-AFF2-719FE9CCF636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="246">
   <si>
     <t>Level</t>
   </si>
@@ -535,10 +535,6 @@
     <t>Invincible</t>
   </si>
   <si>
-    <t>Explanation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon_Type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -852,6 +848,20 @@
   </si>
   <si>
     <t>폭격기를 소환해 지정된 지역에 강력한 폭탄을 투하한다</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>강력한 플라즈마 수류탄을 던지며 뒤로 회피한다.</t>
+  </si>
+  <si>
+    <t>Primal_Passive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primal_Active</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1250,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1303,23 +1313,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1366,9 +1364,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1405,9 +1400,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1429,6 +1421,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,28 +1898,28 @@
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="61"/>
+      <c r="G1" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="17.5" thickBot="1">
       <c r="A2" s="9">
@@ -2236,213 +2249,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="56" t="s">
+      <c r="F1" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="56" t="s">
+      <c r="G1" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="I1" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="50">
+        <v>2</v>
+      </c>
+      <c r="B2" s="50">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="55" t="s">
+      <c r="D2" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="52">
+        <v>1</v>
+      </c>
+      <c r="F2" s="52">
+        <v>5</v>
+      </c>
+      <c r="G2" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="50">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="52">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52">
+        <v>5</v>
+      </c>
+      <c r="G3" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="50">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50">
+        <v>2002</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="52">
+        <v>3</v>
+      </c>
+      <c r="F4" s="52">
+        <v>5</v>
+      </c>
+      <c r="G4" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="50">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="52">
+        <v>4</v>
+      </c>
+      <c r="F5" s="52">
+        <v>5</v>
+      </c>
+      <c r="G5" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="56">
-        <v>2</v>
-      </c>
-      <c r="B2" s="56">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="58">
-        <v>1</v>
-      </c>
-      <c r="F2" s="58">
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="50">
+        <v>3</v>
+      </c>
+      <c r="B6" s="50">
+        <v>3001</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="52">
         <v>5</v>
       </c>
-      <c r="G2" s="58">
+      <c r="F6" s="52">
+        <v>5</v>
+      </c>
+      <c r="G6" s="52">
         <v>0.1</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H6" s="52">
         <v>0.1</v>
       </c>
-      <c r="I2" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="57"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="56">
-        <v>2</v>
-      </c>
-      <c r="B3" s="56">
-        <v>2001</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="58">
-        <v>2</v>
-      </c>
-      <c r="F3" s="58">
+      <c r="I6" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="50">
+        <v>3</v>
+      </c>
+      <c r="B7" s="50">
+        <v>3002</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="52">
+        <v>6</v>
+      </c>
+      <c r="F7" s="52">
         <v>5</v>
       </c>
-      <c r="G3" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="58">
-        <v>0.15</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="J3" s="57"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="56">
-        <v>2</v>
-      </c>
-      <c r="B4" s="56">
-        <v>2002</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="58">
-        <v>3</v>
-      </c>
-      <c r="F4" s="58">
-        <v>5</v>
-      </c>
-      <c r="G4" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="58">
-        <v>0.2</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="57"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="56">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="58">
-        <v>4</v>
-      </c>
-      <c r="F5" s="58">
-        <v>5</v>
-      </c>
-      <c r="G5" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="57"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="56">
-        <v>3</v>
-      </c>
-      <c r="B6" s="56">
-        <v>3001</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="58">
-        <v>5</v>
-      </c>
-      <c r="F6" s="58">
-        <v>5</v>
-      </c>
-      <c r="G6" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="57" t="s">
+      <c r="G7" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="H7" s="52">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="J6" s="57"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="56">
-        <v>3</v>
-      </c>
-      <c r="B7" s="56">
-        <v>3002</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="58">
-        <v>6</v>
-      </c>
-      <c r="F7" s="58">
-        <v>5</v>
-      </c>
-      <c r="G7" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="H7" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2465,53 +2478,53 @@
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="43" t="s">
         <v>201</v>
-      </c>
-      <c r="Q1" s="48" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.5" thickBot="1">
@@ -2521,49 +2534,49 @@
       <c r="B2" s="9">
         <v>3000</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>203</v>
+      <c r="C2" s="37" t="s">
+        <v>202</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="N2" s="9">
         <v>0</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="37" t="s">
         <v>58</v>
       </c>
       <c r="P2" s="9">
         <v>0</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="37" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2575,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2591,744 +2604,850 @@
     <col min="9" max="9" width="8.58203125" style="18"/>
     <col min="10" max="10" width="13.75" style="18" customWidth="1"/>
     <col min="11" max="13" width="8.58203125" style="18"/>
-    <col min="14" max="14" width="40.75" style="18" customWidth="1"/>
-    <col min="15" max="16384" width="8.58203125" style="18"/>
+    <col min="14" max="14" width="13" style="18" customWidth="1"/>
+    <col min="15" max="15" width="24.1640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="38.58203125" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="8.58203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A2" s="6">
+      <c r="N1" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A2" s="9">
         <v>100</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A3" s="6">
+      <c r="I2" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A3" s="9">
         <v>101</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A4" s="60">
+        <v>102</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="61">
+        <v>2</v>
+      </c>
+      <c r="D4" s="61">
+        <v>5</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0</v>
+      </c>
+      <c r="F4" s="61">
+        <v>3</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.5" thickBot="1">
-      <c r="A4" s="19">
-        <v>102</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="H4" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A5" s="9">
+        <v>103</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A6" s="9">
+        <v>131</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.5" thickBot="1">
-      <c r="A5" s="6">
-        <v>103</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A7" s="9">
+        <v>200</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="G7" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A8" s="9">
+        <v>201</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E8" s="9">
         <v>2</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A6" s="6">
-        <v>131</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="G8" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A9" s="9">
+        <v>202</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A10" s="9">
+        <v>203</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A7" s="6">
-        <v>200</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="G10" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A11" s="9">
+        <v>231</v>
+      </c>
+      <c r="B11" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>232</v>
+      </c>
+      <c r="N11" s="9">
+        <v>202</v>
+      </c>
+      <c r="O11" s="9">
+        <v>2000</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A12" s="9">
+        <v>232</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="s">
+      <c r="G12" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="37" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A8" s="6">
-        <v>201</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6">
+    <row r="13" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A13" s="9">
+        <v>300</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>9999</v>
+      </c>
+      <c r="K13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A14" s="9">
+        <v>301</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D14" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A15" s="9">
+        <v>302</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="D15" s="9">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9">
+        <v>5</v>
+      </c>
+      <c r="K15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A16" s="9">
+        <v>303</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9">
+        <v>9999</v>
+      </c>
+      <c r="K16" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
         <v>3</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17.5" thickBot="1">
-      <c r="A9" s="6">
-        <v>202</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17.5" thickBot="1">
-      <c r="A10" s="6">
-        <v>203</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A17" s="9">
+        <v>331</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A11" s="6">
-        <v>231</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="D17" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>232</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17.5" thickBot="1">
-      <c r="A12" s="6">
-        <v>232</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="K12" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.5" thickBot="1">
-      <c r="A13" s="6">
-        <v>300</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
         <v>9999</v>
       </c>
-      <c r="K13" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17.5" thickBot="1">
-      <c r="A14" s="6">
+      <c r="K17" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
         <v>301</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A15" s="6">
-        <v>302</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
-        <v>5</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>5</v>
-      </c>
-      <c r="K15" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A16" s="6">
-        <v>303</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>9999</v>
-      </c>
-      <c r="K16" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>3</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7" t="s">
+      <c r="O17" s="9">
+        <v>3002</v>
+      </c>
+      <c r="P17" s="37" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A17" s="6">
-        <v>331</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6">
-        <v>3</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>9999</v>
-      </c>
-      <c r="K17" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3352,25 +3471,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="51">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="25" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -3388,16 +3507,16 @@
       <c r="L1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4002,752 +4121,752 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A14" s="32">
+      <c r="A14" s="28">
         <v>102012101</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="33">
-        <v>1</v>
-      </c>
-      <c r="D14" s="33">
-        <v>0</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="C14" s="29">
+        <v>1</v>
+      </c>
+      <c r="D14" s="29">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
         <v>1.3</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="29">
         <v>0.4</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="29">
         <v>0.77</v>
       </c>
-      <c r="H14" s="33">
-        <v>0</v>
-      </c>
-      <c r="I14" s="33">
-        <v>0</v>
-      </c>
-      <c r="J14" s="33">
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
         <v>0</v>
       </c>
       <c r="K14" s="6">
         <v>1</v>
       </c>
-      <c r="L14" s="33">
-        <v>0</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0</v>
-      </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="O14" s="33">
-        <v>0</v>
-      </c>
-      <c r="P14" s="34">
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0</v>
+      </c>
+      <c r="N14" s="29">
+        <v>0</v>
+      </c>
+      <c r="O14" s="29">
+        <v>0</v>
+      </c>
+      <c r="P14" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A15" s="35">
+      <c r="A15" s="31">
         <v>102012102</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="36">
-        <v>1</v>
-      </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32">
         <v>1.5</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="32">
         <v>0.25</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="32">
         <v>0.77</v>
       </c>
-      <c r="H15" s="36">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36">
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="32">
         <v>0</v>
       </c>
       <c r="K15" s="6">
         <v>1</v>
       </c>
-      <c r="L15" s="36">
-        <v>0</v>
-      </c>
-      <c r="M15" s="36">
-        <v>0</v>
-      </c>
-      <c r="N15" s="36">
-        <v>0</v>
-      </c>
-      <c r="O15" s="36">
-        <v>0</v>
-      </c>
-      <c r="P15" s="37">
+      <c r="L15" s="32">
+        <v>0</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32">
+        <v>0</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <v>102012103</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="36">
-        <v>1</v>
-      </c>
-      <c r="D16" s="36">
-        <v>0</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="32">
         <v>2</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="32">
         <v>0.15</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="32">
         <v>0.77</v>
       </c>
-      <c r="H16" s="36">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32">
         <v>0</v>
       </c>
       <c r="K16" s="6">
         <v>1</v>
       </c>
-      <c r="L16" s="36">
-        <v>0</v>
-      </c>
-      <c r="M16" s="36">
-        <v>0</v>
-      </c>
-      <c r="N16" s="36">
-        <v>0</v>
-      </c>
-      <c r="O16" s="36">
-        <v>0</v>
-      </c>
-      <c r="P16" s="37">
+      <c r="L16" s="32">
+        <v>0</v>
+      </c>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="32">
+        <v>0</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <v>102012201</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="32">
         <v>2</v>
       </c>
-      <c r="D17" s="36">
-        <v>0</v>
-      </c>
-      <c r="E17" s="36">
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="32">
         <v>1.3</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="32">
         <v>0.4</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="32">
         <v>0.77</v>
       </c>
-      <c r="H17" s="36">
-        <v>0</v>
-      </c>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32">
         <v>0</v>
       </c>
       <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="36">
-        <v>0</v>
-      </c>
-      <c r="M17" s="36">
-        <v>0</v>
-      </c>
-      <c r="N17" s="36">
-        <v>0</v>
-      </c>
-      <c r="O17" s="36">
-        <v>0</v>
-      </c>
-      <c r="P17" s="37">
+      <c r="L17" s="32">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="32">
+        <v>0</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A18" s="35">
+      <c r="A18" s="31">
         <v>102012202</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="32">
         <v>2</v>
       </c>
-      <c r="D18" s="36">
-        <v>0</v>
-      </c>
-      <c r="E18" s="36">
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
         <v>1.5</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="32">
         <v>0.25</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="32">
         <v>0.77</v>
       </c>
-      <c r="H18" s="36">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36">
+      <c r="H18" s="32">
+        <v>0</v>
+      </c>
+      <c r="I18" s="32">
+        <v>0</v>
+      </c>
+      <c r="J18" s="32">
         <v>0</v>
       </c>
       <c r="K18" s="6">
         <v>1</v>
       </c>
-      <c r="L18" s="36">
-        <v>0</v>
-      </c>
-      <c r="M18" s="36">
-        <v>0</v>
-      </c>
-      <c r="N18" s="36">
-        <v>0</v>
-      </c>
-      <c r="O18" s="36">
-        <v>0</v>
-      </c>
-      <c r="P18" s="37">
+      <c r="L18" s="32">
+        <v>0</v>
+      </c>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A19" s="35">
+      <c r="A19" s="31">
         <v>102012203</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="32">
         <v>2</v>
       </c>
-      <c r="D19" s="36">
-        <v>0</v>
-      </c>
-      <c r="E19" s="36">
+      <c r="D19" s="32">
+        <v>0</v>
+      </c>
+      <c r="E19" s="32">
         <v>2</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="32">
         <v>0.15</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="32">
         <v>0.77</v>
       </c>
-      <c r="H19" s="36">
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
-        <v>0</v>
-      </c>
-      <c r="J19" s="36">
+      <c r="H19" s="32">
+        <v>0</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0</v>
+      </c>
+      <c r="J19" s="32">
         <v>0</v>
       </c>
       <c r="K19" s="6">
         <v>1</v>
       </c>
-      <c r="L19" s="36">
-        <v>0</v>
-      </c>
-      <c r="M19" s="36">
-        <v>0</v>
-      </c>
-      <c r="N19" s="36">
-        <v>0</v>
-      </c>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="37">
+      <c r="L19" s="32">
+        <v>0</v>
+      </c>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A20" s="35">
+      <c r="A20" s="31">
         <v>102012301</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="32">
         <v>3</v>
       </c>
-      <c r="D20" s="36">
-        <v>0</v>
-      </c>
-      <c r="E20" s="36">
+      <c r="D20" s="32">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
         <v>1.3</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="32">
         <v>0.4</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="32">
         <v>0.77</v>
       </c>
-      <c r="H20" s="36">
-        <v>0</v>
-      </c>
-      <c r="I20" s="36">
-        <v>0</v>
-      </c>
-      <c r="J20" s="36">
+      <c r="H20" s="32">
+        <v>0</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0</v>
+      </c>
+      <c r="J20" s="32">
         <v>0</v>
       </c>
       <c r="K20" s="6">
         <v>1</v>
       </c>
-      <c r="L20" s="36">
-        <v>0</v>
-      </c>
-      <c r="M20" s="36">
-        <v>0</v>
-      </c>
-      <c r="N20" s="36">
-        <v>0</v>
-      </c>
-      <c r="O20" s="36">
-        <v>0</v>
-      </c>
-      <c r="P20" s="37">
+      <c r="L20" s="32">
+        <v>0</v>
+      </c>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="32">
+        <v>0</v>
+      </c>
+      <c r="O20" s="32">
+        <v>0</v>
+      </c>
+      <c r="P20" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A21" s="35">
+      <c r="A21" s="31">
         <v>102012302</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="32">
         <v>3</v>
       </c>
-      <c r="D21" s="36">
-        <v>0</v>
-      </c>
-      <c r="E21" s="36">
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
         <v>1.5</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="32">
         <v>0.25</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="32">
         <v>0.77</v>
       </c>
-      <c r="H21" s="36">
-        <v>0</v>
-      </c>
-      <c r="I21" s="36">
-        <v>0</v>
-      </c>
-      <c r="J21" s="36">
+      <c r="H21" s="32">
+        <v>0</v>
+      </c>
+      <c r="I21" s="32">
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
         <v>0</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="36">
-        <v>0</v>
-      </c>
-      <c r="M21" s="36">
-        <v>0</v>
-      </c>
-      <c r="N21" s="36">
-        <v>0</v>
-      </c>
-      <c r="O21" s="36">
-        <v>0</v>
-      </c>
-      <c r="P21" s="37">
+      <c r="L21" s="32">
+        <v>0</v>
+      </c>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="32">
+        <v>0</v>
+      </c>
+      <c r="O21" s="32">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A22" s="35">
+      <c r="A22" s="31">
         <v>102012303</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="32">
         <v>3</v>
       </c>
-      <c r="D22" s="36">
-        <v>0</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
         <v>2</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="32">
         <v>0.15</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="32">
         <v>0.77</v>
       </c>
-      <c r="H22" s="36">
-        <v>0</v>
-      </c>
-      <c r="I22" s="36">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
+      <c r="H22" s="32">
+        <v>0</v>
+      </c>
+      <c r="I22" s="32">
+        <v>0</v>
+      </c>
+      <c r="J22" s="32">
         <v>0</v>
       </c>
       <c r="K22" s="6">
         <v>1</v>
       </c>
-      <c r="L22" s="36">
-        <v>0</v>
-      </c>
-      <c r="M22" s="36">
-        <v>0</v>
-      </c>
-      <c r="N22" s="36">
-        <v>0</v>
-      </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="37">
+      <c r="L22" s="32">
+        <v>0</v>
+      </c>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="32">
+        <v>0</v>
+      </c>
+      <c r="O22" s="32">
+        <v>0</v>
+      </c>
+      <c r="P22" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A23" s="35">
+      <c r="A23" s="31">
         <v>102012401</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="32">
         <v>4</v>
       </c>
-      <c r="D23" s="36">
-        <v>0</v>
-      </c>
-      <c r="E23" s="36">
+      <c r="D23" s="32">
+        <v>0</v>
+      </c>
+      <c r="E23" s="32">
         <v>1.3</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="32">
         <v>0.4</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="32">
         <v>0.77</v>
       </c>
-      <c r="H23" s="36">
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
-        <v>0</v>
-      </c>
-      <c r="J23" s="36">
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>0</v>
+      </c>
+      <c r="J23" s="32">
         <v>0</v>
       </c>
       <c r="K23" s="6">
         <v>1</v>
       </c>
-      <c r="L23" s="36">
-        <v>0</v>
-      </c>
-      <c r="M23" s="36">
-        <v>0</v>
-      </c>
-      <c r="N23" s="36">
-        <v>0</v>
-      </c>
-      <c r="O23" s="36">
-        <v>0</v>
-      </c>
-      <c r="P23" s="37">
+      <c r="L23" s="32">
+        <v>0</v>
+      </c>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="32">
+        <v>0</v>
+      </c>
+      <c r="O23" s="32">
+        <v>0</v>
+      </c>
+      <c r="P23" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A24" s="35">
+      <c r="A24" s="31">
         <v>102012402</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="32">
         <v>4</v>
       </c>
-      <c r="D24" s="36">
-        <v>0</v>
-      </c>
-      <c r="E24" s="36">
+      <c r="D24" s="32">
+        <v>0</v>
+      </c>
+      <c r="E24" s="32">
         <v>1.5</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="32">
         <v>0.25</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="32">
         <v>0.77</v>
       </c>
-      <c r="H24" s="36">
-        <v>0</v>
-      </c>
-      <c r="I24" s="36">
-        <v>0</v>
-      </c>
-      <c r="J24" s="36">
+      <c r="H24" s="32">
+        <v>0</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0</v>
+      </c>
+      <c r="J24" s="32">
         <v>0</v>
       </c>
       <c r="K24" s="6">
         <v>1</v>
       </c>
-      <c r="L24" s="36">
-        <v>0</v>
-      </c>
-      <c r="M24" s="36">
-        <v>0</v>
-      </c>
-      <c r="N24" s="36">
-        <v>0</v>
-      </c>
-      <c r="O24" s="36">
-        <v>0</v>
-      </c>
-      <c r="P24" s="37">
+      <c r="L24" s="32">
+        <v>0</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="32">
+        <v>0</v>
+      </c>
+      <c r="O24" s="32">
+        <v>0</v>
+      </c>
+      <c r="P24" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A25" s="35">
+      <c r="A25" s="31">
         <v>102012403</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="32">
         <v>4</v>
       </c>
-      <c r="D25" s="36">
-        <v>0</v>
-      </c>
-      <c r="E25" s="36">
+      <c r="D25" s="32">
+        <v>0</v>
+      </c>
+      <c r="E25" s="32">
         <v>2</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="32">
         <v>0.15</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="32">
         <v>0.77</v>
       </c>
-      <c r="H25" s="36">
-        <v>0</v>
-      </c>
-      <c r="I25" s="36">
-        <v>0</v>
-      </c>
-      <c r="J25" s="36">
+      <c r="H25" s="32">
+        <v>0</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0</v>
+      </c>
+      <c r="J25" s="32">
         <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>1</v>
       </c>
-      <c r="L25" s="36">
-        <v>0</v>
-      </c>
-      <c r="M25" s="36">
-        <v>0</v>
-      </c>
-      <c r="N25" s="36">
-        <v>0</v>
-      </c>
-      <c r="O25" s="36">
-        <v>0</v>
-      </c>
-      <c r="P25" s="37">
+      <c r="L25" s="32">
+        <v>0</v>
+      </c>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="32">
+        <v>0</v>
+      </c>
+      <c r="O25" s="32">
+        <v>0</v>
+      </c>
+      <c r="P25" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A26" s="35">
+      <c r="A26" s="31">
         <v>102012501</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="32">
         <v>5</v>
       </c>
-      <c r="D26" s="36">
-        <v>0</v>
-      </c>
-      <c r="E26" s="36">
+      <c r="D26" s="32">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
         <v>1.3</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="32">
         <v>0.4</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="32">
         <v>0.77</v>
       </c>
-      <c r="H26" s="36">
-        <v>0</v>
-      </c>
-      <c r="I26" s="36">
-        <v>0</v>
-      </c>
-      <c r="J26" s="36">
+      <c r="H26" s="32">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0</v>
+      </c>
+      <c r="J26" s="32">
         <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>1</v>
       </c>
-      <c r="L26" s="36">
-        <v>0</v>
-      </c>
-      <c r="M26" s="36">
-        <v>0</v>
-      </c>
-      <c r="N26" s="36">
-        <v>0</v>
-      </c>
-      <c r="O26" s="36">
-        <v>0</v>
-      </c>
-      <c r="P26" s="37">
+      <c r="L26" s="32">
+        <v>0</v>
+      </c>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="32">
+        <v>0</v>
+      </c>
+      <c r="O26" s="32">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A27" s="35">
+      <c r="A27" s="31">
         <v>102012502</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="32">
         <v>5</v>
       </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36">
+      <c r="D27" s="32">
+        <v>0</v>
+      </c>
+      <c r="E27" s="32">
         <v>1.5</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="32">
         <v>0.25</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="32">
         <v>0.77</v>
       </c>
-      <c r="H27" s="36">
-        <v>0</v>
-      </c>
-      <c r="I27" s="36">
-        <v>0</v>
-      </c>
-      <c r="J27" s="36">
+      <c r="H27" s="32">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
         <v>0</v>
       </c>
       <c r="K27" s="6">
         <v>1</v>
       </c>
-      <c r="L27" s="36">
-        <v>0</v>
-      </c>
-      <c r="M27" s="36">
-        <v>0</v>
-      </c>
-      <c r="N27" s="36">
-        <v>0</v>
-      </c>
-      <c r="O27" s="36">
-        <v>0</v>
-      </c>
-      <c r="P27" s="37">
+      <c r="L27" s="32">
+        <v>0</v>
+      </c>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="32">
+        <v>0</v>
+      </c>
+      <c r="O27" s="32">
+        <v>0</v>
+      </c>
+      <c r="P27" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A28" s="38">
+      <c r="A28" s="34">
         <v>102012503</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="35">
         <v>5</v>
       </c>
-      <c r="D28" s="39">
-        <v>0</v>
-      </c>
-      <c r="E28" s="39">
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" s="35">
         <v>2</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="35">
         <v>0.15</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="35">
         <v>0.77</v>
       </c>
-      <c r="H28" s="39">
-        <v>0</v>
-      </c>
-      <c r="I28" s="39">
-        <v>0</v>
-      </c>
-      <c r="J28" s="39">
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
+        <v>0</v>
+      </c>
+      <c r="J28" s="35">
         <v>0</v>
       </c>
       <c r="K28" s="6">
         <v>1</v>
       </c>
-      <c r="L28" s="39">
-        <v>0</v>
-      </c>
-      <c r="M28" s="39">
-        <v>0</v>
-      </c>
-      <c r="N28" s="39">
-        <v>0</v>
-      </c>
-      <c r="O28" s="39">
-        <v>0</v>
-      </c>
-      <c r="P28" s="40">
+      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M28" s="35">
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
+        <v>0</v>
+      </c>
+      <c r="O28" s="35">
+        <v>0</v>
+      </c>
+      <c r="P28" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4755,7 +4874,7 @@
       <c r="A29" s="9">
         <v>103012101</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C29" s="9">
@@ -4805,7 +4924,7 @@
       <c r="A30" s="9">
         <v>103012102</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="9">
@@ -4855,7 +4974,7 @@
       <c r="A31" s="9">
         <v>103012103</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C31" s="9">
@@ -4905,7 +5024,7 @@
       <c r="A32" s="9">
         <v>103012104</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="9">
@@ -4955,7 +5074,7 @@
       <c r="A33" s="9">
         <v>103012201</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C33" s="9">
@@ -5005,7 +5124,7 @@
       <c r="A34" s="9">
         <v>103012202</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="9">
@@ -5055,7 +5174,7 @@
       <c r="A35" s="9">
         <v>103012203</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C35" s="9">
@@ -5105,7 +5224,7 @@
       <c r="A36" s="9">
         <v>103012204</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C36" s="9">
@@ -5155,7 +5274,7 @@
       <c r="A37" s="9">
         <v>103012301</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="9">
@@ -5205,7 +5324,7 @@
       <c r="A38" s="9">
         <v>103012302</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="9">
@@ -5255,7 +5374,7 @@
       <c r="A39" s="9">
         <v>103012303</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C39" s="9">
@@ -5305,7 +5424,7 @@
       <c r="A40" s="9">
         <v>103012304</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C40" s="9">
@@ -5355,7 +5474,7 @@
       <c r="A41" s="9">
         <v>103012401</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="9">
@@ -5405,7 +5524,7 @@
       <c r="A42" s="9">
         <v>103012402</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="9">
@@ -5455,7 +5574,7 @@
       <c r="A43" s="9">
         <v>103012403</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C43" s="9">
@@ -5505,7 +5624,7 @@
       <c r="A44" s="9">
         <v>103012404</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C44" s="9">
@@ -5555,7 +5674,7 @@
       <c r="A45" s="9">
         <v>103012501</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="37" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="9">
@@ -5605,7 +5724,7 @@
       <c r="A46" s="9">
         <v>103012502</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="37" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="9">
@@ -5655,7 +5774,7 @@
       <c r="A47" s="9">
         <v>103012503</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C47" s="9">
@@ -5705,7 +5824,7 @@
       <c r="A48" s="9">
         <v>103012504</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="37" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="9">
@@ -9235,7 +9354,7 @@
       <c r="A118" s="1">
         <v>300031101</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C118" s="1">
@@ -9285,7 +9404,7 @@
       <c r="A119" s="1">
         <v>301032101</v>
       </c>
-      <c r="B119" s="44" t="s">
+      <c r="B119" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C119" s="1">
@@ -9335,7 +9454,7 @@
       <c r="A120" s="1">
         <v>301032201</v>
       </c>
-      <c r="B120" s="44" t="s">
+      <c r="B120" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C120" s="1">
@@ -9385,7 +9504,7 @@
       <c r="A121" s="1">
         <v>301032301</v>
       </c>
-      <c r="B121" s="44" t="s">
+      <c r="B121" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C121" s="1">
@@ -9435,7 +9554,7 @@
       <c r="A122" s="1">
         <v>301032401</v>
       </c>
-      <c r="B122" s="44" t="s">
+      <c r="B122" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C122" s="1">
@@ -9485,7 +9604,7 @@
       <c r="A123" s="1">
         <v>301032501</v>
       </c>
-      <c r="B123" s="44" t="s">
+      <c r="B123" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C123" s="1">
@@ -9535,7 +9654,7 @@
       <c r="A124" s="1">
         <v>302032101</v>
       </c>
-      <c r="B124" s="44" t="s">
+      <c r="B124" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C124" s="1">
@@ -9585,7 +9704,7 @@
       <c r="A125" s="1">
         <v>302032201</v>
       </c>
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C125" s="1">
@@ -9635,7 +9754,7 @@
       <c r="A126" s="1">
         <v>302032301</v>
       </c>
-      <c r="B126" s="44" t="s">
+      <c r="B126" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C126" s="1">
@@ -9685,7 +9804,7 @@
       <c r="A127" s="1">
         <v>302032401</v>
       </c>
-      <c r="B127" s="44" t="s">
+      <c r="B127" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="1">
@@ -9735,7 +9854,7 @@
       <c r="A128" s="1">
         <v>302032501</v>
       </c>
-      <c r="B128" s="44" t="s">
+      <c r="B128" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C128" s="1">
@@ -9785,7 +9904,7 @@
       <c r="A129" s="1">
         <v>303032101</v>
       </c>
-      <c r="B129" s="44" t="s">
+      <c r="B129" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C129" s="1">
@@ -9835,7 +9954,7 @@
       <c r="A130" s="1">
         <v>303032102</v>
       </c>
-      <c r="B130" s="44" t="s">
+      <c r="B130" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C130" s="1">
@@ -9885,7 +10004,7 @@
       <c r="A131" s="1">
         <v>303032201</v>
       </c>
-      <c r="B131" s="44" t="s">
+      <c r="B131" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="1">
@@ -9935,7 +10054,7 @@
       <c r="A132" s="1">
         <v>303032202</v>
       </c>
-      <c r="B132" s="44" t="s">
+      <c r="B132" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C132" s="1">
@@ -9985,7 +10104,7 @@
       <c r="A133" s="1">
         <v>303032301</v>
       </c>
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C133" s="1">
@@ -10035,7 +10154,7 @@
       <c r="A134" s="1">
         <v>303032302</v>
       </c>
-      <c r="B134" s="44" t="s">
+      <c r="B134" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C134" s="1">
@@ -10085,7 +10204,7 @@
       <c r="A135" s="1">
         <v>303032401</v>
       </c>
-      <c r="B135" s="44" t="s">
+      <c r="B135" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C135" s="1">
@@ -10135,7 +10254,7 @@
       <c r="A136" s="1">
         <v>303032402</v>
       </c>
-      <c r="B136" s="44" t="s">
+      <c r="B136" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C136" s="1">
@@ -10185,7 +10304,7 @@
       <c r="A137" s="1">
         <v>303032501</v>
       </c>
-      <c r="B137" s="44" t="s">
+      <c r="B137" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="1">
@@ -10235,7 +10354,7 @@
       <c r="A138" s="1">
         <v>303032502</v>
       </c>
-      <c r="B138" s="44" t="s">
+      <c r="B138" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C138" s="1">
@@ -10285,7 +10404,7 @@
       <c r="A139" s="1">
         <v>331033101</v>
       </c>
-      <c r="B139" s="44" t="s">
+      <c r="B139" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C139" s="1">
@@ -10335,7 +10454,7 @@
       <c r="A140" s="1">
         <v>331033201</v>
       </c>
-      <c r="B140" s="44" t="s">
+      <c r="B140" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C140" s="1">
@@ -10385,7 +10504,7 @@
       <c r="A141" s="1">
         <v>331033301</v>
       </c>
-      <c r="B141" s="44" t="s">
+      <c r="B141" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C141" s="1">
@@ -10515,19 +10634,19 @@
       <c r="A4" s="19">
         <v>102</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>11</v>
       </c>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
         <v>22</v>
       </c>
-      <c r="E4" s="23">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
         <v>0</v>
       </c>
     </row>
@@ -10535,19 +10654,19 @@
       <c r="A5" s="6">
         <v>103</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="48">
         <v>6</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="48">
         <v>23</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="48">
         <v>23</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="48">
         <v>61</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="48">
         <v>0</v>
       </c>
     </row>
@@ -10803,7 +10922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -10869,7 +10988,7 @@
         <v>84</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.5" thickBot="1">
@@ -10883,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>0</v>
@@ -11080,7 +11199,7 @@
       <c r="P5" s="6">
         <v>1.5</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="56">
         <v>7</v>
       </c>
     </row>
@@ -11208,103 +11327,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="34.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="S1" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" s="48" t="s">
+      <c r="U1" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
     </row>
     <row r="2" spans="1:39" ht="34.5" thickBot="1">
       <c r="A2" s="9">
         <v>1000</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="37" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="37" t="s">
         <v>100</v>
       </c>
       <c r="E2" s="9">
@@ -11358,40 +11477,40 @@
       <c r="U2" s="9">
         <v>2</v>
       </c>
-      <c r="V2" s="60">
-        <v>0</v>
-      </c>
-      <c r="W2" s="60">
+      <c r="V2" s="54">
+        <v>0</v>
+      </c>
+      <c r="W2" s="54">
         <v>0</v>
       </c>
       <c r="X2" s="9"/>
-      <c r="Y2" s="42"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="42"/>
+      <c r="AA2" s="37"/>
       <c r="AB2" s="9"/>
-      <c r="AC2" s="42"/>
+      <c r="AC2" s="37"/>
       <c r="AD2" s="9"/>
-      <c r="AE2" s="42"/>
+      <c r="AE2" s="37"/>
       <c r="AF2" s="9"/>
-      <c r="AG2" s="42"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="9"/>
-      <c r="AI2" s="42"/>
+      <c r="AI2" s="37"/>
       <c r="AJ2" s="9"/>
-      <c r="AK2" s="42"/>
+      <c r="AK2" s="37"/>
       <c r="AL2" s="9"/>
-      <c r="AM2" s="42"/>
+      <c r="AM2" s="37"/>
     </row>
     <row r="3" spans="1:39" ht="34.5" thickBot="1">
       <c r="A3" s="9">
         <v>1001</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>166</v>
+      <c r="B3" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>100</v>
       </c>
       <c r="E3" s="9">
@@ -11445,40 +11564,40 @@
       <c r="U3" s="9">
         <v>4</v>
       </c>
-      <c r="V3" s="60">
-        <v>0</v>
-      </c>
-      <c r="W3" s="60">
+      <c r="V3" s="54">
+        <v>0</v>
+      </c>
+      <c r="W3" s="54">
         <v>0</v>
       </c>
       <c r="X3" s="9"/>
-      <c r="Y3" s="42"/>
+      <c r="Y3" s="37"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="42"/>
+      <c r="AA3" s="37"/>
       <c r="AB3" s="9"/>
-      <c r="AC3" s="42"/>
+      <c r="AC3" s="37"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="42"/>
+      <c r="AE3" s="37"/>
       <c r="AF3" s="9"/>
-      <c r="AG3" s="42"/>
+      <c r="AG3" s="37"/>
       <c r="AH3" s="9"/>
-      <c r="AI3" s="42"/>
+      <c r="AI3" s="37"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="42"/>
+      <c r="AK3" s="37"/>
       <c r="AL3" s="9"/>
-      <c r="AM3" s="42"/>
+      <c r="AM3" s="37"/>
     </row>
     <row r="4" spans="1:39" ht="34.5" thickBot="1">
       <c r="A4" s="9">
         <v>1002</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>167</v>
+      <c r="B4" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="37" t="s">
         <v>100</v>
       </c>
       <c r="E4" s="9">
@@ -11532,40 +11651,40 @@
       <c r="U4" s="9">
         <v>6</v>
       </c>
-      <c r="V4" s="60">
-        <v>0</v>
-      </c>
-      <c r="W4" s="60">
+      <c r="V4" s="54">
+        <v>0</v>
+      </c>
+      <c r="W4" s="54">
         <v>0</v>
       </c>
       <c r="X4" s="9"/>
-      <c r="Y4" s="42"/>
+      <c r="Y4" s="37"/>
       <c r="Z4" s="9"/>
-      <c r="AA4" s="42"/>
+      <c r="AA4" s="37"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="42"/>
+      <c r="AC4" s="37"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="42"/>
+      <c r="AE4" s="37"/>
       <c r="AF4" s="9"/>
-      <c r="AG4" s="42"/>
+      <c r="AG4" s="37"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="42"/>
+      <c r="AI4" s="37"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="42"/>
+      <c r="AK4" s="37"/>
       <c r="AL4" s="9"/>
-      <c r="AM4" s="42"/>
+      <c r="AM4" s="37"/>
     </row>
     <row r="5" spans="1:39" ht="34.5" thickBot="1">
       <c r="A5" s="9">
         <v>2000</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E5" s="9">
@@ -11619,40 +11738,40 @@
       <c r="U5" s="9">
         <v>40</v>
       </c>
-      <c r="V5" s="60">
-        <v>0</v>
-      </c>
-      <c r="W5" s="60">
+      <c r="V5" s="54">
+        <v>0</v>
+      </c>
+      <c r="W5" s="54">
         <v>0</v>
       </c>
       <c r="X5" s="9"/>
-      <c r="Y5" s="42"/>
+      <c r="Y5" s="37"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="42"/>
+      <c r="AA5" s="37"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="42"/>
+      <c r="AC5" s="37"/>
       <c r="AD5" s="9"/>
-      <c r="AE5" s="42"/>
+      <c r="AE5" s="37"/>
       <c r="AF5" s="9"/>
-      <c r="AG5" s="42"/>
+      <c r="AG5" s="37"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="42"/>
+      <c r="AI5" s="37"/>
       <c r="AJ5" s="9"/>
-      <c r="AK5" s="42"/>
+      <c r="AK5" s="37"/>
       <c r="AL5" s="9"/>
-      <c r="AM5" s="42"/>
+      <c r="AM5" s="37"/>
     </row>
     <row r="6" spans="1:39" ht="34.5" thickBot="1">
       <c r="A6" s="9">
         <v>2001</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>168</v>
+      <c r="B6" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="9">
@@ -11706,40 +11825,40 @@
       <c r="U6" s="9">
         <v>80</v>
       </c>
-      <c r="V6" s="60">
-        <v>0</v>
-      </c>
-      <c r="W6" s="60">
+      <c r="V6" s="54">
+        <v>0</v>
+      </c>
+      <c r="W6" s="54">
         <v>0</v>
       </c>
       <c r="X6" s="9"/>
-      <c r="Y6" s="42"/>
+      <c r="Y6" s="37"/>
       <c r="Z6" s="9"/>
-      <c r="AA6" s="42"/>
+      <c r="AA6" s="37"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="42"/>
+      <c r="AC6" s="37"/>
       <c r="AD6" s="9"/>
-      <c r="AE6" s="42"/>
+      <c r="AE6" s="37"/>
       <c r="AF6" s="9"/>
-      <c r="AG6" s="42"/>
+      <c r="AG6" s="37"/>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="42"/>
+      <c r="AI6" s="37"/>
       <c r="AJ6" s="9"/>
-      <c r="AK6" s="42"/>
+      <c r="AK6" s="37"/>
       <c r="AL6" s="9"/>
-      <c r="AM6" s="42"/>
+      <c r="AM6" s="37"/>
     </row>
     <row r="7" spans="1:39" ht="34.5" thickBot="1">
       <c r="A7" s="9">
         <v>2002</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>177</v>
+      <c r="B7" s="37" t="s">
+        <v>176</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="37" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="9">
@@ -11793,41 +11912,41 @@
       <c r="U7" s="9">
         <v>120</v>
       </c>
-      <c r="V7" s="60">
-        <v>0</v>
-      </c>
-      <c r="W7" s="60">
+      <c r="V7" s="54">
+        <v>0</v>
+      </c>
+      <c r="W7" s="54">
         <v>0</v>
       </c>
       <c r="X7" s="9"/>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="37"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="42"/>
+      <c r="AA7" s="37"/>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="42"/>
+      <c r="AC7" s="37"/>
       <c r="AD7" s="9"/>
-      <c r="AE7" s="42"/>
+      <c r="AE7" s="37"/>
       <c r="AF7" s="9"/>
-      <c r="AG7" s="42"/>
+      <c r="AG7" s="37"/>
       <c r="AH7" s="9"/>
-      <c r="AI7" s="42"/>
+      <c r="AI7" s="37"/>
       <c r="AJ7" s="9"/>
-      <c r="AK7" s="42"/>
+      <c r="AK7" s="37"/>
       <c r="AL7" s="9"/>
-      <c r="AM7" s="42"/>
+      <c r="AM7" s="37"/>
     </row>
     <row r="8" spans="1:39" ht="34.5" thickBot="1">
       <c r="A8" s="9">
         <v>3000</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>178</v>
+      <c r="B8" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>179</v>
+      <c r="D8" s="37" t="s">
+        <v>178</v>
       </c>
       <c r="E8" s="9">
         <v>4000</v>
@@ -11871,10 +11990,10 @@
       <c r="R8" s="9">
         <v>0</v>
       </c>
-      <c r="S8" s="60">
-        <v>0</v>
-      </c>
-      <c r="T8" s="60">
+      <c r="S8" s="54">
+        <v>0</v>
+      </c>
+      <c r="T8" s="54">
         <v>0</v>
       </c>
       <c r="U8" s="9">
@@ -11887,34 +12006,34 @@
         <v>0.2</v>
       </c>
       <c r="X8" s="9"/>
-      <c r="Y8" s="42"/>
+      <c r="Y8" s="37"/>
       <c r="Z8" s="9"/>
-      <c r="AA8" s="42"/>
+      <c r="AA8" s="37"/>
       <c r="AB8" s="9"/>
-      <c r="AC8" s="42"/>
+      <c r="AC8" s="37"/>
       <c r="AD8" s="9"/>
-      <c r="AE8" s="42"/>
+      <c r="AE8" s="37"/>
       <c r="AF8" s="9"/>
-      <c r="AG8" s="42"/>
+      <c r="AG8" s="37"/>
       <c r="AH8" s="9"/>
-      <c r="AI8" s="42"/>
+      <c r="AI8" s="37"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="42"/>
+      <c r="AK8" s="37"/>
       <c r="AL8" s="9"/>
-      <c r="AM8" s="42"/>
+      <c r="AM8" s="37"/>
     </row>
     <row r="9" spans="1:39" ht="34.5" thickBot="1">
       <c r="A9" s="9">
         <v>3001</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>180</v>
+      <c r="B9" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="C9" s="9">
         <v>3</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>179</v>
+      <c r="D9" s="37" t="s">
+        <v>178</v>
       </c>
       <c r="E9" s="9">
         <v>8000</v>
@@ -11958,10 +12077,10 @@
       <c r="R9" s="9">
         <v>0</v>
       </c>
-      <c r="S9" s="60">
-        <v>0</v>
-      </c>
-      <c r="T9" s="60">
+      <c r="S9" s="54">
+        <v>0</v>
+      </c>
+      <c r="T9" s="54">
         <v>0</v>
       </c>
       <c r="U9" s="9">
@@ -11974,34 +12093,34 @@
         <v>0.2</v>
       </c>
       <c r="X9" s="9"/>
-      <c r="Y9" s="42"/>
+      <c r="Y9" s="37"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="42"/>
+      <c r="AA9" s="37"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="42"/>
+      <c r="AC9" s="37"/>
       <c r="AD9" s="9"/>
-      <c r="AE9" s="42"/>
+      <c r="AE9" s="37"/>
       <c r="AF9" s="9"/>
-      <c r="AG9" s="42"/>
+      <c r="AG9" s="37"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="42"/>
+      <c r="AI9" s="37"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="42"/>
+      <c r="AK9" s="37"/>
       <c r="AL9" s="9"/>
-      <c r="AM9" s="42"/>
+      <c r="AM9" s="37"/>
     </row>
     <row r="10" spans="1:39" ht="34.5" thickBot="1">
       <c r="A10" s="9">
         <v>3002</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>181</v>
+      <c r="B10" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>179</v>
+      <c r="D10" s="37" t="s">
+        <v>178</v>
       </c>
       <c r="E10" s="9">
         <v>5000</v>
@@ -12045,10 +12164,10 @@
       <c r="R10" s="9">
         <v>0</v>
       </c>
-      <c r="S10" s="60">
-        <v>0</v>
-      </c>
-      <c r="T10" s="60">
+      <c r="S10" s="54">
+        <v>0</v>
+      </c>
+      <c r="T10" s="54">
         <v>0</v>
       </c>
       <c r="U10" s="9">
@@ -12061,34 +12180,34 @@
         <v>0.5</v>
       </c>
       <c r="X10" s="9"/>
-      <c r="Y10" s="42"/>
+      <c r="Y10" s="37"/>
       <c r="Z10" s="9"/>
-      <c r="AA10" s="42"/>
+      <c r="AA10" s="37"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="42"/>
+      <c r="AC10" s="37"/>
       <c r="AD10" s="9"/>
-      <c r="AE10" s="42"/>
+      <c r="AE10" s="37"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="42"/>
+      <c r="AG10" s="37"/>
       <c r="AH10" s="9"/>
-      <c r="AI10" s="42"/>
+      <c r="AI10" s="37"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="42"/>
+      <c r="AK10" s="37"/>
       <c r="AL10" s="9"/>
-      <c r="AM10" s="42"/>
+      <c r="AM10" s="37"/>
     </row>
     <row r="11" spans="1:39" ht="34.5" thickBot="1">
       <c r="A11" s="9">
         <v>3003</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>182</v>
+      <c r="B11" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>179</v>
+      <c r="D11" s="37" t="s">
+        <v>178</v>
       </c>
       <c r="E11" s="9">
         <v>10000</v>
@@ -12132,10 +12251,10 @@
       <c r="R11" s="9">
         <v>0</v>
       </c>
-      <c r="S11" s="60">
-        <v>0</v>
-      </c>
-      <c r="T11" s="60">
+      <c r="S11" s="54">
+        <v>0</v>
+      </c>
+      <c r="T11" s="54">
         <v>0</v>
       </c>
       <c r="U11" s="9">
@@ -12148,34 +12267,34 @@
         <v>0.5</v>
       </c>
       <c r="X11" s="9"/>
-      <c r="Y11" s="42"/>
+      <c r="Y11" s="37"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="42"/>
+      <c r="AA11" s="37"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="42"/>
+      <c r="AC11" s="37"/>
       <c r="AD11" s="9"/>
-      <c r="AE11" s="42"/>
+      <c r="AE11" s="37"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="42"/>
+      <c r="AG11" s="37"/>
       <c r="AH11" s="9"/>
-      <c r="AI11" s="42"/>
+      <c r="AI11" s="37"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="42"/>
+      <c r="AK11" s="37"/>
       <c r="AL11" s="9"/>
-      <c r="AM11" s="42"/>
+      <c r="AM11" s="37"/>
     </row>
     <row r="12" spans="1:39" ht="34.5" thickBot="1">
       <c r="A12" s="9">
         <v>4000</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>185</v>
+      <c r="B12" s="37" t="s">
+        <v>184</v>
       </c>
       <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>186</v>
+      <c r="D12" s="37" t="s">
+        <v>185</v>
       </c>
       <c r="E12" s="9">
         <v>15000</v>
@@ -12225,7 +12344,7 @@
       <c r="T12" s="9">
         <v>0</v>
       </c>
-      <c r="U12" s="60">
+      <c r="U12" s="54">
         <v>0</v>
       </c>
       <c r="V12" s="9">
@@ -12235,21 +12354,21 @@
         <v>0.33</v>
       </c>
       <c r="X12" s="9"/>
-      <c r="Y12" s="42"/>
+      <c r="Y12" s="37"/>
       <c r="Z12" s="9"/>
-      <c r="AA12" s="42"/>
+      <c r="AA12" s="37"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="42"/>
+      <c r="AC12" s="37"/>
       <c r="AD12" s="9"/>
-      <c r="AE12" s="42"/>
+      <c r="AE12" s="37"/>
       <c r="AF12" s="9"/>
-      <c r="AG12" s="42"/>
+      <c r="AG12" s="37"/>
       <c r="AH12" s="9"/>
-      <c r="AI12" s="42"/>
+      <c r="AI12" s="37"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="42"/>
+      <c r="AK12" s="37"/>
       <c r="AL12" s="9"/>
-      <c r="AM12" s="42"/>
+      <c r="AM12" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12274,34 +12393,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" thickBot="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="44" t="s">
         <v>88</v>
       </c>
     </row>
@@ -12309,8 +12428,8 @@
       <c r="A2" s="9">
         <v>100000</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>206</v>
+      <c r="B2" s="37" t="s">
+        <v>205</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -12324,16 +12443,16 @@
       <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="42" t="s">
+      <c r="G2" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="37" t="s">
         <v>112</v>
       </c>
     </row>
@@ -12341,8 +12460,8 @@
       <c r="A3" s="9">
         <v>200000</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>207</v>
+      <c r="B3" s="37" t="s">
+        <v>206</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -12356,16 +12475,16 @@
       <c r="F3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42" t="s">
+      <c r="G3" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12373,8 +12492,8 @@
       <c r="A4" s="9">
         <v>300000</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>208</v>
+      <c r="B4" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -12388,25 +12507,25 @@
       <c r="F4" s="9">
         <v>20</v>
       </c>
-      <c r="G4" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>209</v>
+      <c r="G4" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" thickBot="1">
       <c r="A5" s="9">
         <v>300001</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>208</v>
+      <c r="B5" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -12420,25 +12539,25 @@
       <c r="F5" s="9">
         <v>30</v>
       </c>
-      <c r="G5" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>210</v>
+      <c r="G5" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5" thickBot="1">
       <c r="A6" s="9">
         <v>300002</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>208</v>
+      <c r="B6" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
@@ -12452,25 +12571,25 @@
       <c r="F6" s="9">
         <v>20</v>
       </c>
-      <c r="G6" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42" t="s">
-        <v>211</v>
+      <c r="G6" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5" thickBot="1">
       <c r="A7" s="9">
         <v>300003</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>208</v>
+      <c r="B7" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -12484,25 +12603,25 @@
       <c r="F7" s="9">
         <v>25</v>
       </c>
-      <c r="G7" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="42" t="s">
-        <v>212</v>
+      <c r="G7" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" thickBot="1">
       <c r="A8" s="9">
         <v>300004</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>208</v>
+      <c r="B8" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
@@ -12516,25 +12635,25 @@
       <c r="F8" s="9">
         <v>30</v>
       </c>
-      <c r="G8" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>213</v>
+      <c r="G8" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.5" thickBot="1">
       <c r="A9" s="9">
         <v>300005</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>208</v>
+      <c r="B9" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -12548,25 +12667,25 @@
       <c r="F9" s="9">
         <v>25</v>
       </c>
-      <c r="G9" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>214</v>
+      <c r="G9" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34.5" thickBot="1">
       <c r="A10" s="9">
         <v>300006</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>208</v>
+      <c r="B10" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -12580,25 +12699,25 @@
       <c r="F10" s="9">
         <v>25</v>
       </c>
-      <c r="G10" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="42" t="s">
-        <v>215</v>
+      <c r="G10" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.5" thickBot="1">
       <c r="A11" s="9">
         <v>300008</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>208</v>
+      <c r="B11" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -12612,25 +12731,25 @@
       <c r="F11" s="9">
         <v>30</v>
       </c>
-      <c r="G11" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>216</v>
+      <c r="G11" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34.5" thickBot="1">
       <c r="A12" s="9">
         <v>300009</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>208</v>
+      <c r="B12" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
@@ -12644,25 +12763,25 @@
       <c r="F12" s="9">
         <v>20</v>
       </c>
-      <c r="G12" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="42" t="s">
-        <v>217</v>
+      <c r="G12" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34.5" thickBot="1">
       <c r="A13" s="9">
         <v>300010</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>208</v>
+      <c r="B13" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
@@ -12676,25 +12795,25 @@
       <c r="F13" s="9">
         <v>60</v>
       </c>
-      <c r="G13" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>218</v>
+      <c r="G13" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" thickBot="1">
       <c r="A14" s="9">
         <v>300011</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>208</v>
+      <c r="B14" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="C14" s="9">
         <v>3</v>
@@ -12708,17 +12827,17 @@
       <c r="F14" s="9">
         <v>60</v>
       </c>
-      <c r="G14" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>219</v>
+      <c r="G14" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -12745,43 +12864,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34.5" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="47" t="s">
         <v>125</v>
       </c>
       <c r="N1" s="18"/>
@@ -12790,7 +12909,7 @@
       <c r="A2" s="9">
         <v>1000001</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="9">
@@ -12832,7 +12951,7 @@
       <c r="A3" s="9">
         <v>2000001</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="9">
@@ -12874,7 +12993,7 @@
       <c r="A4" s="9">
         <v>3000001</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="9">
@@ -12915,7 +13034,7 @@
       <c r="A5" s="9">
         <v>3000002</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="9">
@@ -12956,7 +13075,7 @@
       <c r="A6" s="9">
         <v>3000011</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="9">
@@ -12997,7 +13116,7 @@
       <c r="A7" s="9">
         <v>3000012</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="9">
@@ -13038,7 +13157,7 @@
       <c r="A8" s="9">
         <v>3000013</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="9">
@@ -13079,7 +13198,7 @@
       <c r="A9" s="9">
         <v>3000014</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="9">
@@ -13120,7 +13239,7 @@
       <c r="A10" s="9">
         <v>3000021</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="9">
@@ -13161,7 +13280,7 @@
       <c r="A11" s="9">
         <v>3000022</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="9">
@@ -13202,7 +13321,7 @@
       <c r="A12" s="9">
         <v>3000023</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="9">
@@ -13243,7 +13362,7 @@
       <c r="A13" s="9">
         <v>3000024</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C13" s="9">
@@ -13284,7 +13403,7 @@
       <c r="A14" s="9">
         <v>3000031</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="9">
@@ -13325,7 +13444,7 @@
       <c r="A15" s="9">
         <v>3000032</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="9">
@@ -13366,7 +13485,7 @@
       <c r="A16" s="9">
         <v>3000033</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="9">
@@ -13407,7 +13526,7 @@
       <c r="A17" s="9">
         <v>3000034</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="9">
@@ -13448,7 +13567,7 @@
       <c r="A18" s="9">
         <v>3000041</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C18" s="9">
@@ -13489,7 +13608,7 @@
       <c r="A19" s="9">
         <v>3000042</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C19" s="9">
@@ -13530,7 +13649,7 @@
       <c r="A20" s="9">
         <v>3000043</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="9">
@@ -13571,7 +13690,7 @@
       <c r="A21" s="9">
         <v>3000051</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="9">
@@ -13612,7 +13731,7 @@
       <c r="A22" s="9">
         <v>3000061</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C22" s="9">
@@ -13653,7 +13772,7 @@
       <c r="A23" s="9">
         <v>3000081</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="9">
@@ -13694,7 +13813,7 @@
       <c r="A24" s="9">
         <v>3000091</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="9">
@@ -13735,7 +13854,7 @@
       <c r="A25" s="9">
         <v>3000092</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="9">
@@ -13776,7 +13895,7 @@
       <c r="A26" s="9">
         <v>3000101</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="9">
@@ -13817,7 +13936,7 @@
       <c r="A27" s="9">
         <v>3000102</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C27" s="9">
@@ -13858,7 +13977,7 @@
       <c r="A28" s="9">
         <v>3000103</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C28" s="9">
@@ -13899,7 +14018,7 @@
       <c r="A29" s="9">
         <v>3000104</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="9">
@@ -13940,7 +14059,7 @@
       <c r="A30" s="9">
         <v>3000105</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="9">
@@ -13981,7 +14100,7 @@
       <c r="A31" s="9">
         <v>3000111</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="9">
@@ -14022,7 +14141,7 @@
       <c r="A32" s="9">
         <v>3000112</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C32" s="9">
@@ -14063,7 +14182,7 @@
       <c r="A33" s="9">
         <v>3000113</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="37" t="s">
         <v>109</v>
       </c>
       <c r="C33" s="9">

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91D7F8C-517C-4899-AFF2-719FE9CCF636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921BDE3-CA07-4026-8F7B-D045843C3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="245">
   <si>
     <t>Level</t>
   </si>
@@ -713,10 +713,6 @@
   </si>
   <si>
     <t>Crush</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>End</t>
@@ -1917,7 +1913,7 @@
         <v>70</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H1" s="55"/>
     </row>
@@ -2590,7 +2586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -2651,13 +2647,13 @@
         <v>107</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34.5" thickBot="1">
@@ -2728,7 +2724,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>28</v>
@@ -2776,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4" s="61" t="s">
         <v>29</v>
@@ -2824,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>103</v>
@@ -2872,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>108</v>
@@ -2920,7 +2916,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>31</v>
@@ -2970,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>32</v>
@@ -2997,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.5" thickBot="1">
@@ -3020,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>33</v>
@@ -3047,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.5" thickBot="1">
@@ -3070,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>34</v>
@@ -3097,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="34.5" thickBot="1">
@@ -3120,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>35</v>
@@ -3147,7 +3143,7 @@
         <v>2000</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17.5" thickBot="1">
@@ -3170,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>36</v>
@@ -3220,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>38</v>
@@ -3270,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>39</v>
@@ -3297,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.5" thickBot="1">
@@ -3320,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>40</v>
@@ -3347,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="34.5" thickBot="1">
@@ -3370,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>41</v>
@@ -3397,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="34.5" thickBot="1">
@@ -3420,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>42</v>
@@ -3447,7 +3443,7 @@
         <v>3002</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -10922,8 +10918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10988,7 +10984,7 @@
         <v>84</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.5" thickBot="1">
@@ -10996,16 +10992,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6" t="b">
         <v>0</v>
@@ -11014,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="6">
         <v>0</v>
@@ -11035,13 +11031,13 @@
         <v>0</v>
       </c>
       <c r="O2" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="P2" s="6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="17.5" thickBot="1">
@@ -11049,25 +11045,25 @@
         <v>1000</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -11091,10 +11087,10 @@
         <v>150</v>
       </c>
       <c r="P3" s="6">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.5" thickBot="1">
@@ -11102,25 +11098,25 @@
         <v>2000</v>
       </c>
       <c r="B4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -11144,63 +11140,15 @@
         <v>150</v>
       </c>
       <c r="P4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="56">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.5" thickBot="1">
       <c r="A5" s="6">
         <v>3000</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>70</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>150</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="Q5" s="56">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12429,7 +12377,7 @@
         <v>100000</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -12461,7 +12409,7 @@
         <v>200000</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -12493,7 +12441,7 @@
         <v>300000</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -12517,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34.5" thickBot="1">
@@ -12525,7 +12473,7 @@
         <v>300001</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -12549,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5" thickBot="1">
@@ -12557,7 +12505,7 @@
         <v>300002</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
@@ -12581,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34.5" thickBot="1">
@@ -12589,7 +12537,7 @@
         <v>300003</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -12613,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" thickBot="1">
@@ -12621,7 +12569,7 @@
         <v>300004</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
@@ -12645,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.5" thickBot="1">
@@ -12653,7 +12601,7 @@
         <v>300005</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -12677,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34.5" thickBot="1">
@@ -12685,7 +12633,7 @@
         <v>300006</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -12709,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.5" thickBot="1">
@@ -12717,7 +12665,7 @@
         <v>300008</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -12741,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34.5" thickBot="1">
@@ -12749,7 +12697,7 @@
         <v>300009</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
@@ -12773,7 +12721,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34.5" thickBot="1">
@@ -12781,7 +12729,7 @@
         <v>300010</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
@@ -12805,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" thickBot="1">
@@ -12813,7 +12761,7 @@
         <v>300011</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="9">
         <v>3</v>
@@ -12837,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921BDE3-CA07-4026-8F7B-D045843C3127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE29CCF-836C-4165-9FA2-6FAD35EC5DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10918,8 +10918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="2" spans="1:17" ht="17.5" thickBot="1">
       <c r="A2" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -11042,7 +11042,7 @@
     </row>
     <row r="3" spans="1:17" ht="17.5" thickBot="1">
       <c r="A3" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -11095,7 +11095,7 @@
     </row>
     <row r="4" spans="1:17" ht="17.5" thickBot="1">
       <c r="A4" s="6">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -11147,9 +11147,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="17.5" thickBot="1">
-      <c r="A5" s="6">
-        <v>3000</v>
-      </c>
+      <c r="A5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE29CCF-836C-4165-9FA2-6FAD35EC5DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F9A86D-A794-422B-B5C7-D6CF3A3317F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -3456,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z141"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118:K141"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10557,8 +10557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10872,7 +10872,7 @@
         <v>303</v>
       </c>
       <c r="B16" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -10918,7 +10918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F9A86D-A794-422B-B5C7-D6CF3A3317F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E39008-57AD-446F-99BB-F8EF7991A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="18800" windowHeight="13280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Pattern_Hit_Frame" sheetId="11" r:id="rId10"/>
     <sheet name="Passive_Skill" sheetId="12" r:id="rId11"/>
     <sheet name="Creature_Part" sheetId="13" r:id="rId12"/>
+    <sheet name="Mission" sheetId="14" r:id="rId13"/>
+    <sheet name="Reward" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="268">
   <si>
     <t>Level</t>
   </si>
@@ -857,6 +859,82 @@
   </si>
   <si>
     <t>Primal_Active</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission_ID</t>
+  </si>
+  <si>
+    <t>DNA_Essence</t>
+  </si>
+  <si>
+    <t>Scouter_EXP</t>
+  </si>
+  <si>
+    <t>비열한 독의 왕</t>
+  </si>
+  <si>
+    <t>행성 - MTSF</t>
+  </si>
+  <si>
+    <t>베노미드라 토벌</t>
+  </si>
+  <si>
+    <t>베노미드라, 필 데빌</t>
+  </si>
+  <si>
+    <t>근처의 행성계에서 차가운 암석의 행성을 발견했습니다. 해당 행성을 조사하고 행성의 우두머리를 토벌하십시오.</t>
+  </si>
+  <si>
+    <t>Planet_Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material_01</t>
+  </si>
+  <si>
+    <t>Material_02</t>
+  </si>
+  <si>
+    <t>Material_03</t>
+  </si>
+  <si>
+    <t>Material_04</t>
+  </si>
+  <si>
+    <t>베노미드라의 갑각</t>
+  </si>
+  <si>
+    <t>베노미드라의 꼬리</t>
+  </si>
+  <si>
+    <t>베노미드라의 가시</t>
+  </si>
+  <si>
+    <t>베노미드라의 집게발</t>
+  </si>
+  <si>
+    <t>M_01_Percent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_02_Percent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_03_Percent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_04_Percent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1437,6 +1515,9 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2582,6 +2663,163 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC70C6D0-74EA-4AD8-BE5C-D66A4352B3A0}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34.5" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="51.5" thickBot="1">
+      <c r="A2" s="6">
+        <v>100</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3195C9-FEDE-4BF4-A7E9-B3000F216BE6}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="34.5" thickBot="1">
+      <c r="A1" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="51.5" thickBot="1">
+      <c r="A2" s="9">
+        <v>100</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:P17"/>
@@ -10557,8 +10795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E39008-57AD-446F-99BB-F8EF7991A66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3EF59-8289-4310-93D3-0AA98DAF22E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="265">
   <si>
     <t>Level</t>
   </si>
@@ -319,15 +319,6 @@
     <t>Attack_Speed</t>
   </si>
   <si>
-    <t>Slash</t>
-  </si>
-  <si>
-    <t>Strike</t>
-  </si>
-  <si>
-    <t>Thrust</t>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -599,9 +590,6 @@
     <t>카타안킬로 V2</t>
   </si>
   <si>
-    <t>카타안킬로 V3</t>
-  </si>
-  <si>
     <t>듀리노 V2</t>
   </si>
   <si>
@@ -636,22 +624,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>듀리노 V3</t>
-  </si>
-  <si>
     <t>필 데빌 V1</t>
   </si>
   <si>
     <t>무리어미</t>
-  </si>
-  <si>
-    <t>필 데빌 V2</t>
-  </si>
-  <si>
-    <t>시저스도라 V1</t>
-  </si>
-  <si>
-    <t>시저스도라 V2</t>
   </si>
   <si>
     <t>Groggy_HP</t>
@@ -721,15 +697,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1000, 1001, 1002</t>
-  </si>
-  <si>
-    <t>2000, 2001, 2002</t>
-  </si>
-  <si>
-    <t>3000, 3001</t>
-  </si>
-  <si>
     <t>BothHandSwing</t>
   </si>
   <si>
@@ -935,6 +902,34 @@
   </si>
   <si>
     <t>M_04_Percent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001</t>
+  </si>
+  <si>
+    <t>2000, 2001</t>
+  </si>
+  <si>
+    <t>참격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관통</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 지급 차지드 소드</t>
+  </si>
+  <si>
+    <t>기본 지급 부스트 해머</t>
+  </si>
+  <si>
+    <t>기본 지급 플라즈마 라이플</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1994,7 +1989,7 @@
         <v>70</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H1" s="55"/>
     </row>
@@ -2327,31 +2322,31 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>151</v>
-      </c>
       <c r="I1" s="49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2362,10 +2357,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E2" s="52">
         <v>1</v>
@@ -2380,7 +2375,7 @@
         <v>0.1</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J2" s="51"/>
     </row>
@@ -2392,10 +2387,10 @@
         <v>2001</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E3" s="52">
         <v>2</v>
@@ -2410,7 +2405,7 @@
         <v>0.15</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J3" s="51"/>
     </row>
@@ -2422,10 +2417,10 @@
         <v>2002</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E4" s="52">
         <v>3</v>
@@ -2440,7 +2435,7 @@
         <v>0.2</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J4" s="51"/>
     </row>
@@ -2452,10 +2447,10 @@
         <v>3000</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E5" s="52">
         <v>4</v>
@@ -2470,7 +2465,7 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J5" s="51"/>
     </row>
@@ -2482,10 +2477,10 @@
         <v>3001</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E6" s="52">
         <v>5</v>
@@ -2500,7 +2495,7 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J6" s="51"/>
     </row>
@@ -2512,10 +2507,10 @@
         <v>3002</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E7" s="52">
         <v>6</v>
@@ -2530,7 +2525,7 @@
         <v>0.02</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J7" s="51"/>
     </row>
@@ -2556,52 +2551,52 @@
         <v>15</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="P1" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="Q1" s="43" t="s">
         <v>193</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="L1" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="M1" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="P1" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="17.5" thickBot="1">
@@ -2612,7 +2607,7 @@
         <v>3000</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -2681,25 +2676,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.5" thickBot="1">
@@ -2707,16 +2702,16 @@
         <v>100</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F2" s="6">
         <v>2000</v>
@@ -2725,7 +2720,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3195C9-FEDE-4BF4-A7E9-B3000F216BE6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -2746,37 +2741,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" thickBot="1">
       <c r="A1" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="E1" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="G1" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="I1" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>256</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="51.5" thickBot="1">
@@ -2790,25 +2785,25 @@
         <v>1000</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E2" s="9">
         <v>0.3</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G2" s="9">
         <v>0.2</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="I2" s="9">
         <v>0.25</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="K2" s="9">
         <v>0.25</v>
@@ -2873,25 +2868,25 @@
         <v>23</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K1" s="58" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="58" t="s">
-        <v>107</v>
-      </c>
       <c r="N1" s="45" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="34.5" thickBot="1">
@@ -2962,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>28</v>
@@ -3010,7 +3005,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H4" s="61" t="s">
         <v>29</v>
@@ -3058,10 +3053,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5" s="38" t="b">
         <v>0</v>
@@ -3106,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I6" s="38" t="b">
         <v>0</v>
@@ -3154,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>31</v>
@@ -3204,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>32</v>
@@ -3231,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="37" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="17.5" thickBot="1">
@@ -3254,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>33</v>
@@ -3281,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="17.5" thickBot="1">
@@ -3304,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>34</v>
@@ -3331,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="37" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="34.5" thickBot="1">
@@ -3354,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>35</v>
@@ -3381,7 +3376,7 @@
         <v>2000</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="17.5" thickBot="1">
@@ -3404,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>36</v>
@@ -3454,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>38</v>
@@ -3504,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>39</v>
@@ -3531,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17.5" thickBot="1">
@@ -3554,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H15" s="37" t="s">
         <v>40</v>
@@ -3581,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="63" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="34.5" thickBot="1">
@@ -3604,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H16" s="37" t="s">
         <v>41</v>
@@ -3631,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="34.5" thickBot="1">
@@ -3654,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>42</v>
@@ -3681,7 +3676,7 @@
         <v>3002</v>
       </c>
       <c r="P17" s="37" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5109,7 +5104,7 @@
         <v>103012101</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" s="9">
         <v>1</v>
@@ -5209,7 +5204,7 @@
         <v>103012103</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -5259,7 +5254,7 @@
         <v>103012104</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -5309,7 +5304,7 @@
         <v>103012201</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C33" s="9">
         <v>2</v>
@@ -5409,7 +5404,7 @@
         <v>103012203</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C35" s="9">
         <v>2</v>
@@ -5459,7 +5454,7 @@
         <v>103012204</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C36" s="9">
         <v>2</v>
@@ -5509,7 +5504,7 @@
         <v>103012301</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="9">
         <v>3</v>
@@ -5609,7 +5604,7 @@
         <v>103012303</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="9">
         <v>3</v>
@@ -5659,7 +5654,7 @@
         <v>103012304</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C40" s="9">
         <v>3</v>
@@ -5709,7 +5704,7 @@
         <v>103012401</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41" s="9">
         <v>4</v>
@@ -5809,7 +5804,7 @@
         <v>103012403</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C43" s="9">
         <v>4</v>
@@ -5859,7 +5854,7 @@
         <v>103012404</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="9">
         <v>4</v>
@@ -5909,7 +5904,7 @@
         <v>103012501</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" s="9">
         <v>5</v>
@@ -6009,7 +6004,7 @@
         <v>103012503</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" s="9">
         <v>5</v>
@@ -6059,7 +6054,7 @@
         <v>103012504</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" s="9">
         <v>5</v>
@@ -11154,10 +11149,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11172,7 +11167,7 @@
     <col min="12" max="16384" width="8.58203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.5" thickBot="1">
+    <row r="1" spans="1:18" ht="34.5" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -11222,10 +11217,13 @@
         <v>84</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17.5" thickBot="1">
+        <v>207</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="51.5" thickBot="1">
       <c r="A2" s="6">
         <v>1000</v>
       </c>
@@ -11236,7 +11234,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="E2" s="6" t="b">
         <v>1</v>
@@ -11277,8 +11275,11 @@
       <c r="Q2" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="17.5" thickBot="1">
+      <c r="R2" s="37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="51.5" thickBot="1">
       <c r="A3" s="6">
         <v>2000</v>
       </c>
@@ -11289,7 +11290,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="E3" s="6" t="b">
         <v>0</v>
@@ -11330,8 +11331,11 @@
       <c r="Q3" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="17.5" thickBot="1">
+      <c r="R3" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17.5" thickBot="1">
       <c r="A4" s="6">
         <v>3000</v>
       </c>
@@ -11342,7 +11346,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>0</v>
@@ -11383,8 +11387,11 @@
       <c r="Q4" s="56">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="17.5" thickBot="1">
+      <c r="R4" s="63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.5" thickBot="1">
       <c r="A5" s="6"/>
     </row>
   </sheetData>
@@ -11405,46 +11412,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" t="s">
-        <v>135</v>
-      </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -11499,10 +11506,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B4BE54-90AE-4DAF-BA80-4CA3867A9D82}">
-  <dimension ref="A1:AM12"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8:U11"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11515,19 +11522,19 @@
         <v>15</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>76</v>
@@ -11536,7 +11543,7 @@
         <v>77</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J1" s="42" t="s">
         <v>79</v>
@@ -11548,37 +11555,37 @@
         <v>81</v>
       </c>
       <c r="M1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="Q1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q1" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="41" t="s">
-        <v>96</v>
-      </c>
       <c r="S1" s="43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U1" s="53" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V1" s="43" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="W1" s="43" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="X1" s="43"/>
       <c r="Y1" s="43"/>
@@ -11602,13 +11609,13 @@
         <v>1000</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" s="9">
         <v>150</v>
@@ -11689,13 +11696,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" s="9">
         <v>200</v>
@@ -11773,25 +11780,25 @@
     </row>
     <row r="4" spans="1:39" ht="34.5" thickBot="1">
       <c r="A4" s="9">
-        <v>1002</v>
+        <v>2000</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="C4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="F4" s="9">
         <v>5</v>
       </c>
       <c r="G4" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -11809,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N4" s="9">
         <v>0</v>
@@ -11833,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="V4" s="54">
         <v>0</v>
@@ -11860,25 +11867,25 @@
     </row>
     <row r="5" spans="1:39" ht="34.5" thickBot="1">
       <c r="A5" s="9">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F5" s="9">
         <v>5</v>
       </c>
       <c r="G5" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -11920,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="V5" s="54">
         <v>0</v>
@@ -11947,25 +11954,25 @@
     </row>
     <row r="6" spans="1:39" ht="34.5" thickBot="1">
       <c r="A6" s="9">
-        <v>2001</v>
+        <v>3000</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C6" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E6" s="9">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="F6" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -11983,37 +11990,37 @@
         <v>0</v>
       </c>
       <c r="M6" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="54">
+        <v>0</v>
+      </c>
+      <c r="T6" s="54">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>5000</v>
+      </c>
+      <c r="V6" s="9">
+        <v>3000</v>
+      </c>
+      <c r="W6" s="9">
         <v>0.2</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>80</v>
-      </c>
-      <c r="V6" s="54">
-        <v>0</v>
-      </c>
-      <c r="W6" s="54">
-        <v>0</v>
       </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="37"/>
@@ -12034,25 +12041,25 @@
     </row>
     <row r="7" spans="1:39" ht="34.5" thickBot="1">
       <c r="A7" s="9">
-        <v>2002</v>
+        <v>4000</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C7" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="E7" s="9">
-        <v>900</v>
+        <v>15000</v>
       </c>
       <c r="F7" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="9">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -12088,19 +12095,19 @@
         <v>0</v>
       </c>
       <c r="S7" s="9">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
       </c>
-      <c r="U7" s="9">
-        <v>120</v>
-      </c>
-      <c r="V7" s="54">
-        <v>0</v>
-      </c>
-      <c r="W7" s="54">
-        <v>0</v>
+      <c r="U7" s="54">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>7000</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.33</v>
       </c>
       <c r="X7" s="9"/>
       <c r="Y7" s="37"/>
@@ -12119,76 +12126,7 @@
       <c r="AL7" s="9"/>
       <c r="AM7" s="37"/>
     </row>
-    <row r="8" spans="1:39" ht="34.5" thickBot="1">
-      <c r="A8" s="9">
-        <v>3000</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4000</v>
-      </c>
-      <c r="F8" s="9">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9">
-        <v>40</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="54">
-        <v>0</v>
-      </c>
-      <c r="T8" s="54">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>5000</v>
-      </c>
-      <c r="V8" s="9">
-        <v>3000</v>
-      </c>
-      <c r="W8" s="9">
-        <v>0.2</v>
-      </c>
+    <row r="8" spans="1:39" ht="17.5" thickBot="1">
       <c r="X8" s="9"/>
       <c r="Y8" s="37"/>
       <c r="Z8" s="9"/>
@@ -12206,77 +12144,7 @@
       <c r="AL8" s="9"/>
       <c r="AM8" s="37"/>
     </row>
-    <row r="9" spans="1:39" ht="34.5" thickBot="1">
-      <c r="A9" s="9">
-        <v>3001</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="9">
-        <v>8000</v>
-      </c>
-      <c r="F9" s="9">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9">
-        <v>65</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="54">
-        <v>0</v>
-      </c>
-      <c r="T9" s="54">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>7000</v>
-      </c>
-      <c r="V9" s="9">
-        <v>6000</v>
-      </c>
-      <c r="W9" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="X9" s="9"/>
+    <row r="9" spans="1:39" ht="17.5" thickBot="1">
       <c r="Y9" s="37"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="37"/>
@@ -12293,77 +12161,7 @@
       <c r="AL9" s="9"/>
       <c r="AM9" s="37"/>
     </row>
-    <row r="10" spans="1:39" ht="34.5" thickBot="1">
-      <c r="A10" s="9">
-        <v>3002</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="9">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9">
-        <v>50</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-      <c r="S10" s="54">
-        <v>0</v>
-      </c>
-      <c r="T10" s="54">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>5000</v>
-      </c>
-      <c r="V10" s="9">
-        <v>2000</v>
-      </c>
-      <c r="W10" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="X10" s="9"/>
+    <row r="10" spans="1:39" ht="17.5" thickBot="1">
       <c r="Y10" s="37"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="37"/>
@@ -12380,80 +12178,7 @@
       <c r="AL10" s="9"/>
       <c r="AM10" s="37"/>
     </row>
-    <row r="11" spans="1:39" ht="34.5" thickBot="1">
-      <c r="A11" s="9">
-        <v>3003</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F11" s="9">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9">
-        <v>85</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-      <c r="S11" s="54">
-        <v>0</v>
-      </c>
-      <c r="T11" s="54">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9">
-        <v>7000</v>
-      </c>
-      <c r="V11" s="9">
-        <v>4000</v>
-      </c>
-      <c r="W11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="37"/>
+    <row r="11" spans="1:39" ht="17.5" thickBot="1">
       <c r="AB11" s="9"/>
       <c r="AC11" s="37"/>
       <c r="AD11" s="9"/>
@@ -12467,93 +12192,6 @@
       <c r="AL11" s="9"/>
       <c r="AM11" s="37"/>
     </row>
-    <row r="12" spans="1:39" ht="34.5" thickBot="1">
-      <c r="A12" s="9">
-        <v>4000</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="9">
-        <v>4</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="9">
-        <v>15000</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>100</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
-        <v>7500</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12" s="54">
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>7000</v>
-      </c>
-      <c r="W12" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="37"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12566,7 +12204,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -12581,39 +12219,39 @@
         <v>15</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>119</v>
-      </c>
       <c r="H1" s="43" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="51.5" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.5" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>204</v>
+      <c r="B2" s="39" t="s">
+        <v>257</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -12637,15 +12275,15 @@
         <v>0</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="51.5" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.5" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>205</v>
+      <c r="B3" s="39" t="s">
+        <v>258</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -12669,15 +12307,15 @@
         <v>0</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34.5" thickBot="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17.5" thickBot="1">
       <c r="A4" s="9">
         <v>300000</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>206</v>
+      <c r="B4" s="1">
+        <v>3000</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -12701,15 +12339,15 @@
         <v>0</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34.5" thickBot="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17.5" thickBot="1">
       <c r="A5" s="9">
         <v>300001</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>206</v>
+      <c r="B5" s="1">
+        <v>3000</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -12733,15 +12371,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5" thickBot="1">
       <c r="A6" s="9">
         <v>300002</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>206</v>
+      <c r="B6" s="1">
+        <v>3000</v>
       </c>
       <c r="C6" s="9">
         <v>4</v>
@@ -12765,15 +12403,15 @@
         <v>0</v>
       </c>
       <c r="J6" s="37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34.5" thickBot="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.5" thickBot="1">
       <c r="A7" s="9">
         <v>300003</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>206</v>
+      <c r="B7" s="1">
+        <v>3000</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -12797,15 +12435,15 @@
         <v>0</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="34.5" thickBot="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17.5" thickBot="1">
       <c r="A8" s="9">
         <v>300004</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>206</v>
+      <c r="B8" s="1">
+        <v>3000</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
@@ -12829,15 +12467,15 @@
         <v>0</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34.5" thickBot="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.5" thickBot="1">
       <c r="A9" s="9">
         <v>300005</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>206</v>
+      <c r="B9" s="1">
+        <v>3000</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
@@ -12861,15 +12499,15 @@
         <v>0</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34.5" thickBot="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.5" thickBot="1">
       <c r="A10" s="9">
         <v>300006</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>206</v>
+      <c r="B10" s="1">
+        <v>3000</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -12893,15 +12531,15 @@
         <v>0</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34.5" thickBot="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.5" thickBot="1">
       <c r="A11" s="9">
         <v>300008</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>206</v>
+      <c r="B11" s="1">
+        <v>3000</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -12925,15 +12563,15 @@
         <v>0</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="34.5" thickBot="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17.5" thickBot="1">
       <c r="A12" s="9">
         <v>300009</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>206</v>
+      <c r="B12" s="1">
+        <v>3000</v>
       </c>
       <c r="C12" s="9">
         <v>2</v>
@@ -12957,15 +12595,15 @@
         <v>0</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="34.5" thickBot="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.5" thickBot="1">
       <c r="A13" s="9">
         <v>300010</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>206</v>
+      <c r="B13" s="1">
+        <v>3000</v>
       </c>
       <c r="C13" s="9">
         <v>5</v>
@@ -12989,15 +12627,15 @@
         <v>0</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="34.5" thickBot="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17.5" thickBot="1">
       <c r="A14" s="9">
         <v>300011</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>206</v>
+      <c r="B14" s="1">
+        <v>3000</v>
       </c>
       <c r="C14" s="9">
         <v>3</v>
@@ -13021,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -13052,40 +12690,40 @@
         <v>15</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="46" t="s">
+      <c r="L1" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="M1" s="47" t="s">
         <v>122</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>125</v>
       </c>
       <c r="N1" s="18"/>
     </row>
@@ -13094,7 +12732,7 @@
         <v>1000001</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -13136,7 +12774,7 @@
         <v>2000001</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -13178,7 +12816,7 @@
         <v>3000001</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -13219,7 +12857,7 @@
         <v>3000002</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="9">
         <v>1</v>
@@ -13260,7 +12898,7 @@
         <v>3000011</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="9">
         <v>1</v>
@@ -13301,7 +12939,7 @@
         <v>3000012</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="9">
         <v>1</v>
@@ -13342,7 +12980,7 @@
         <v>3000013</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="9">
         <v>2</v>
@@ -13383,7 +13021,7 @@
         <v>3000014</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="9">
         <v>1.5</v>
@@ -13424,7 +13062,7 @@
         <v>3000021</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -13465,7 +13103,7 @@
         <v>3000022</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -13506,7 +13144,7 @@
         <v>3000023</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -13547,7 +13185,7 @@
         <v>3000024</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -13588,7 +13226,7 @@
         <v>3000031</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -13629,7 +13267,7 @@
         <v>3000032</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -13670,7 +13308,7 @@
         <v>3000033</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
@@ -13711,7 +13349,7 @@
         <v>3000034</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="9">
         <v>1.5</v>
@@ -13752,7 +13390,7 @@
         <v>3000041</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
@@ -13793,7 +13431,7 @@
         <v>3000042</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" s="9">
         <v>1</v>
@@ -13834,7 +13472,7 @@
         <v>3000043</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C20" s="9">
         <v>2.5</v>
@@ -13875,7 +13513,7 @@
         <v>3000051</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="9">
         <v>0.8</v>
@@ -13916,7 +13554,7 @@
         <v>3000061</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C22" s="9">
         <v>1.2</v>
@@ -13957,7 +13595,7 @@
         <v>3000081</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C23" s="9">
         <v>2</v>
@@ -13998,7 +13636,7 @@
         <v>3000091</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
@@ -14039,7 +13677,7 @@
         <v>3000092</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25" s="9">
         <v>1.5</v>
@@ -14080,7 +13718,7 @@
         <v>3000101</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="9">
         <v>2</v>
@@ -14121,7 +13759,7 @@
         <v>3000102</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C27" s="9">
         <v>2</v>
@@ -14162,7 +13800,7 @@
         <v>3000103</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C28" s="9">
         <v>2</v>
@@ -14203,7 +13841,7 @@
         <v>3000104</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>2</v>
@@ -14244,7 +13882,7 @@
         <v>3000105</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
@@ -14285,7 +13923,7 @@
         <v>3000111</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="9">
         <v>2.5</v>
@@ -14326,7 +13964,7 @@
         <v>3000112</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" s="9">
         <v>2.5</v>
@@ -14367,7 +14005,7 @@
         <v>3000113</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" s="9">
         <v>3</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3EF59-8289-4310-93D3-0AA98DAF22E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BADF66-3592-45A2-A1DC-1CBC8CCC66CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1963,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2251,22 +2251,22 @@
         <v>300010</v>
       </c>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="C13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G13" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.5" thickBot="1">
@@ -11151,7 +11151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -12672,7 +12672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BADF66-3592-45A2-A1DC-1CBC8CCC66CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A0CEC9-874B-4741-B97B-32578C1D9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1963,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -10790,8 +10790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -10985,13 +10985,13 @@
         <v>203</v>
       </c>
       <c r="B10" s="6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A0CEC9-874B-4741-B97B-32578C1D9452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF39A460-C939-4171-9423-D9679ED9D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="275">
   <si>
     <t>Level</t>
   </si>
@@ -931,6 +931,36 @@
   <si>
     <t>기본 지급 플라즈마 라이플</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightAndLeftStamp</t>
+  </si>
+  <si>
+    <t>StampAndSwing</t>
+  </si>
+  <si>
+    <t>StampAndShoot</t>
+  </si>
+  <si>
+    <t>LeftAndRightSwing</t>
+  </si>
+  <si>
+    <t>SwingAndBothStamp</t>
+  </si>
+  <si>
+    <t>HeadStamp</t>
+  </si>
+  <si>
+    <t>Clap</t>
+  </si>
+  <si>
+    <t>Breath</t>
+  </si>
+  <si>
+    <t>ThornShoot</t>
+  </si>
+  <si>
+    <t>ThornFromSky</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1514,6 +1544,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1961,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2290,6 +2323,236 @@
       </c>
       <c r="G14" s="9">
         <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A15" s="1">
+        <v>400000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>87</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.5" thickBot="1">
+      <c r="A16" s="1">
+        <v>400001</v>
+      </c>
+      <c r="B16" s="1">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>175</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A17" s="1">
+        <v>400002</v>
+      </c>
+      <c r="B17" s="1">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A18" s="1">
+        <v>400003</v>
+      </c>
+      <c r="B18" s="1">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A19" s="1">
+        <v>400004</v>
+      </c>
+      <c r="B19" s="1">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <v>198</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A20" s="1">
+        <v>400005</v>
+      </c>
+      <c r="B20" s="1">
+        <v>132</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A21" s="1">
+        <v>400006</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A22" s="1">
+        <v>400007</v>
+      </c>
+      <c r="B22" s="1">
+        <v>228</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A23" s="1">
+        <v>400008</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A24" s="1">
+        <v>400009</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2804,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -10790,7 +11053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -12201,10 +12464,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -12662,6 +12925,326 @@
         <v>206</v>
       </c>
     </row>
+    <row r="15" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A15" s="6">
+        <v>400000</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20</v>
+      </c>
+      <c r="G15" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A16" s="6">
+        <v>400001</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6">
+        <v>18</v>
+      </c>
+      <c r="F16" s="6">
+        <v>40</v>
+      </c>
+      <c r="G16" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A17" s="6">
+        <v>400002</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6">
+        <v>35</v>
+      </c>
+      <c r="G17" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A18" s="6">
+        <v>400003</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6">
+        <v>20</v>
+      </c>
+      <c r="G18" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A19" s="6">
+        <v>400004</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>15</v>
+      </c>
+      <c r="E19" s="6">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6">
+        <v>40</v>
+      </c>
+      <c r="G19" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A20" s="6">
+        <v>400005</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6">
+        <v>40</v>
+      </c>
+      <c r="G20" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A21" s="6">
+        <v>400006</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6">
+        <v>20</v>
+      </c>
+      <c r="G21" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A22" s="6">
+        <v>400007</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13</v>
+      </c>
+      <c r="E22" s="6">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6">
+        <v>60</v>
+      </c>
+      <c r="G22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A23" s="6">
+        <v>400008</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6">
+        <v>11</v>
+      </c>
+      <c r="F23" s="6">
+        <v>50</v>
+      </c>
+      <c r="G23" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A24" s="6">
+        <v>400009</v>
+      </c>
+      <c r="B24" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>80</v>
+      </c>
+      <c r="G24" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12670,10 +13253,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -14041,6 +14624,785 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="34" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A34" s="1">
+        <v>4000001</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A35" s="1">
+        <v>4000002</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A36" s="1">
+        <v>4000011</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A37" s="1">
+        <v>4000012</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A38" s="1">
+        <v>4000013</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A39" s="1">
+        <v>4000014</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A40" s="1">
+        <v>4000021</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A41" s="1">
+        <v>4000022</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A42" s="1">
+        <v>4000023</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A43" s="1">
+        <v>4000031</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A44" s="1">
+        <v>4000032</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A45" s="1">
+        <v>4000041</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A46" s="1">
+        <v>4000042</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A47" s="1">
+        <v>4000043</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A48" s="1">
+        <v>4000051</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A49" s="1">
+        <v>4000061</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A50" s="1">
+        <v>4000071</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A51" s="1">
+        <v>4000081</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A52" s="1">
+        <v>4000091</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF39A460-C939-4171-9423-D9679ED9D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D45755-D446-4E21-BF35-52A698E8F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="277">
   <si>
     <t>Level</t>
   </si>
@@ -961,6 +961,12 @@
   </si>
   <si>
     <t>ThornFromSky</t>
+  </si>
+  <si>
+    <t>Hit_06</t>
+  </si>
+  <si>
+    <t>Hit_07</t>
   </si>
 </sst>
 </file>
@@ -1545,8 +1551,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1994,15 +2000,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" thickBot="1">
+    <row r="1" spans="1:9" ht="17.5" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
@@ -2021,12 +2027,17 @@
       <c r="F1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="55"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="2" spans="1:9" ht="17.5" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
@@ -2046,10 +2057,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.5" thickBot="1">
+    <row r="3" spans="1:9" ht="17.5" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
@@ -2069,10 +2086,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.5" thickBot="1">
+    <row r="4" spans="1:9" ht="17.5" thickBot="1">
       <c r="A4" s="9">
         <v>300000</v>
       </c>
@@ -2092,10 +2115,16 @@
         <v>0</v>
       </c>
       <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.5" thickBot="1">
+    <row r="5" spans="1:9" ht="17.5" thickBot="1">
       <c r="A5" s="9">
         <v>300001</v>
       </c>
@@ -2115,10 +2144,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.5" thickBot="1">
+    <row r="6" spans="1:9" ht="17.5" thickBot="1">
       <c r="A6" s="9">
         <v>300002</v>
       </c>
@@ -2138,10 +2173,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.5" thickBot="1">
+    <row r="7" spans="1:9" ht="17.5" thickBot="1">
       <c r="A7" s="9">
         <v>300003</v>
       </c>
@@ -2161,10 +2202,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.5" thickBot="1">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1">
       <c r="A8" s="9">
         <v>300004</v>
       </c>
@@ -2184,10 +2231,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.5" thickBot="1">
+    <row r="9" spans="1:9" ht="17.5" thickBot="1">
       <c r="A9" s="9">
         <v>300005</v>
       </c>
@@ -2207,10 +2260,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.5" thickBot="1">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1">
       <c r="A10" s="9">
         <v>300006</v>
       </c>
@@ -2230,10 +2289,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.5" thickBot="1">
+    <row r="11" spans="1:9" ht="17.5" thickBot="1">
       <c r="A11" s="9">
         <v>300008</v>
       </c>
@@ -2253,10 +2318,16 @@
         <v>0</v>
       </c>
       <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.5" thickBot="1">
+    <row r="12" spans="1:9" ht="17.5" thickBot="1">
       <c r="A12" s="9">
         <v>300009</v>
       </c>
@@ -2276,33 +2347,45 @@
         <v>0</v>
       </c>
       <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.5" thickBot="1">
+    <row r="13" spans="1:9" ht="17.5" thickBot="1">
       <c r="A13" s="9">
         <v>300010</v>
       </c>
       <c r="B13" s="9">
-        <v>260</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D13" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E13" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F13" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G13" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.5" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.5" thickBot="1">
       <c r="A14" s="9">
         <v>300011</v>
       </c>
@@ -2322,237 +2405,303 @@
         <v>0</v>
       </c>
       <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A15" s="1">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A15" s="9">
         <v>400000</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>87</v>
       </c>
-      <c r="C15" s="1">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A16" s="1">
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
+        <v>169</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A16" s="9">
         <v>400001</v>
       </c>
-      <c r="B16" s="1">
-        <v>88</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="9">
+        <v>89</v>
+      </c>
+      <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="1">
-        <v>175</v>
-      </c>
-      <c r="E16" s="1">
-        <v>200</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A17" s="1">
+      <c r="D16" s="9">
+        <v>167</v>
+      </c>
+      <c r="E16" s="9">
+        <v>6</v>
+      </c>
+      <c r="F16" s="9">
+        <v>166</v>
+      </c>
+      <c r="G16" s="9">
+        <v>15</v>
+      </c>
+      <c r="H16" s="9">
+        <v>180</v>
+      </c>
+      <c r="I16" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A17" s="9">
         <v>400002</v>
       </c>
-      <c r="B17" s="1">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17" s="9">
+        <v>89</v>
+      </c>
+      <c r="C17" s="9">
         <v>7</v>
       </c>
-      <c r="D17" s="1">
-        <v>175</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A18" s="1">
+      <c r="D17" s="9">
+        <v>167</v>
+      </c>
+      <c r="E17" s="9">
+        <v>6</v>
+      </c>
+      <c r="F17" s="9">
+        <v>156</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A18" s="9">
         <v>400003</v>
       </c>
-      <c r="B18" s="1">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A19" s="1">
+      <c r="B18" s="9">
+        <v>89</v>
+      </c>
+      <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="9">
+        <v>177</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A19" s="9">
         <v>400004</v>
       </c>
-      <c r="B19" s="1">
-        <v>85</v>
-      </c>
-      <c r="C19" s="1">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1">
-        <v>198</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A20" s="1">
+      <c r="B19" s="9">
+        <v>89</v>
+      </c>
+      <c r="C19" s="9">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9">
+        <v>177</v>
+      </c>
+      <c r="E19" s="9">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9">
+        <v>219</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A20" s="9">
         <v>400005</v>
       </c>
-      <c r="B20" s="1">
-        <v>132</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A21" s="1">
+      <c r="B20" s="9">
+        <v>141</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A21" s="9">
         <v>400006</v>
       </c>
-      <c r="B21" s="1">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A22" s="1">
+      <c r="B21" s="9">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A22" s="9">
         <v>400007</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="9">
         <v>228</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A23" s="1">
+    <row r="23" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A23" s="9">
         <v>400008</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A24" s="1">
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.5" thickBot="1">
+      <c r="A24" s="9">
         <v>400009</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -12466,8 +12615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -12926,322 +13075,322 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A15" s="6">
+      <c r="A15" s="9">
         <v>400000</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="9">
         <v>4000</v>
       </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
         <v>8</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>12</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <v>20</v>
       </c>
-      <c r="G15" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="G15" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A16" s="6">
+      <c r="A16" s="9">
         <v>400001</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="9">
         <v>4000</v>
       </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="9">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="9">
         <v>18</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="9">
         <v>40</v>
       </c>
-      <c r="G16" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="G16" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A17" s="6">
+      <c r="A17" s="9">
         <v>400002</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="9">
         <v>4000</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9">
+        <v>35</v>
+      </c>
+      <c r="G17" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A18" s="9">
+        <v>400003</v>
+      </c>
+      <c r="B18" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
-        <v>14</v>
-      </c>
-      <c r="E17" s="6">
-        <v>17</v>
-      </c>
-      <c r="F17" s="6">
-        <v>35</v>
-      </c>
-      <c r="G17" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A18" s="6">
-        <v>400003</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="D18" s="9">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9">
+        <v>20</v>
+      </c>
+      <c r="G18" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A19" s="9">
+        <v>400004</v>
+      </c>
+      <c r="B19" s="9">
         <v>4000</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9">
+        <v>40</v>
+      </c>
+      <c r="G19" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A20" s="9">
+        <v>400005</v>
+      </c>
+      <c r="B20" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
         <v>10</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E20" s="9">
         <v>12</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F20" s="9">
+        <v>40</v>
+      </c>
+      <c r="G20" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A21" s="9">
+        <v>400006</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6</v>
+      </c>
+      <c r="E21" s="9">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9">
         <v>20</v>
       </c>
-      <c r="G18" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A19" s="6">
-        <v>400004</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="G21" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A22" s="9">
+        <v>400007</v>
+      </c>
+      <c r="B22" s="9">
         <v>4000</v>
       </c>
-      <c r="C19" s="6">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6">
-        <v>15</v>
-      </c>
-      <c r="E19" s="6">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6">
-        <v>40</v>
-      </c>
-      <c r="G19" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A20" s="6">
-        <v>400005</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>13</v>
+      </c>
+      <c r="E22" s="9">
+        <v>16</v>
+      </c>
+      <c r="F22" s="9">
+        <v>60</v>
+      </c>
+      <c r="G22" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A23" s="9">
+        <v>400008</v>
+      </c>
+      <c r="B23" s="9">
         <v>4000</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6">
-        <v>40</v>
-      </c>
-      <c r="G20" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A21" s="6">
-        <v>400006</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="C23" s="9">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>9</v>
+      </c>
+      <c r="E23" s="9">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9">
+        <v>50</v>
+      </c>
+      <c r="G23" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A24" s="9">
+        <v>400009</v>
+      </c>
+      <c r="B24" s="9">
         <v>4000</v>
       </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6">
-        <v>9</v>
-      </c>
-      <c r="F21" s="6">
-        <v>20</v>
-      </c>
-      <c r="G21" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A22" s="6">
-        <v>400007</v>
-      </c>
-      <c r="B22" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>13</v>
-      </c>
-      <c r="E22" s="6">
-        <v>16</v>
-      </c>
-      <c r="F22" s="6">
-        <v>60</v>
-      </c>
-      <c r="G22" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A23" s="6">
-        <v>400008</v>
-      </c>
-      <c r="B23" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6">
-        <v>50</v>
-      </c>
-      <c r="G23" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.5" thickBot="1">
-      <c r="A24" s="6">
-        <v>400009</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
         <v>80</v>
       </c>
-      <c r="G24" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="G24" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37" t="s">
         <v>274</v>
       </c>
     </row>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D45755-D446-4E21-BF35-52A698E8F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B10E12-E69A-40B0-82B7-EA690A2BB9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2003,7 +2003,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2593,7 +2593,7 @@
         <v>400006</v>
       </c>
       <c r="B21" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21" s="9">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B10E12-E69A-40B0-82B7-EA690A2BB9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06182DE-7716-433D-B61F-9C05DF404DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="277">
   <si>
     <t>Level</t>
   </si>
@@ -2002,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -4099,10 +4099,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:Z143"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -6692,214 +6692,214 @@
       <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="17.5" thickBot="1">
-      <c r="A52" s="6">
+      <c r="A52" s="9">
         <v>200021101</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6">
-        <v>1</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6">
-        <v>0</v>
-      </c>
-      <c r="P52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" ht="17.5" thickBot="1">
-      <c r="A53" s="6">
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+      <c r="O52" s="9">
+        <v>0</v>
+      </c>
+      <c r="P52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A53" s="9">
         <v>200021102</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="6">
-        <v>1</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6">
-        <v>0</v>
-      </c>
-      <c r="P53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" ht="17.5" thickBot="1">
-      <c r="A54" s="6">
-        <v>201022101</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>20</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" ht="17.5" thickBot="1">
-      <c r="A55" s="6">
-        <v>201022102</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>20</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6">
-        <v>0</v>
-      </c>
-      <c r="P55" s="6">
+      <c r="C53" s="9">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A54" s="9">
+        <v>200021103</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
+        <v>0</v>
+      </c>
+      <c r="P54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A55" s="9">
+        <v>200021104</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9">
+        <v>0</v>
+      </c>
+      <c r="O55" s="9">
+        <v>0</v>
+      </c>
+      <c r="P55" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="17.5" thickBot="1">
       <c r="A56" s="6">
-        <v>201022201</v>
+        <v>201022101</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="6">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L56" s="6">
         <v>0</v>
@@ -6943,13 +6943,13 @@
     </row>
     <row r="57" spans="1:26" ht="17.5" thickBot="1">
       <c r="A57" s="6">
-        <v>201022202</v>
+        <v>201022102</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L57" s="6">
         <v>0</v>
@@ -6993,13 +6993,13 @@
     </row>
     <row r="58" spans="1:26" ht="17.5" thickBot="1">
       <c r="A58" s="6">
-        <v>201022301</v>
+        <v>201022201</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L58" s="6">
         <v>0</v>
@@ -7043,13 +7043,13 @@
     </row>
     <row r="59" spans="1:26" ht="17.5" thickBot="1">
       <c r="A59" s="6">
-        <v>201022302</v>
+        <v>201022202</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" s="6">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L59" s="6">
         <v>0</v>
@@ -7093,13 +7093,13 @@
     </row>
     <row r="60" spans="1:26" ht="17.5" thickBot="1">
       <c r="A60" s="6">
-        <v>201022401</v>
+        <v>201022301</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L60" s="6">
         <v>0</v>
@@ -7143,13 +7143,13 @@
     </row>
     <row r="61" spans="1:26" ht="17.5" thickBot="1">
       <c r="A61" s="6">
-        <v>201022402</v>
+        <v>201022302</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" s="6">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L61" s="6">
         <v>0</v>
@@ -7193,13 +7193,13 @@
     </row>
     <row r="62" spans="1:26" ht="17.5" thickBot="1">
       <c r="A62" s="6">
-        <v>201022501</v>
+        <v>201022401</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="6">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L62" s="6">
         <v>0</v>
@@ -7243,13 +7243,13 @@
     </row>
     <row r="63" spans="1:26" ht="17.5" thickBot="1">
       <c r="A63" s="6">
-        <v>201022502</v>
+        <v>201022402</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="6">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L63" s="6">
         <v>0</v>
@@ -7293,22 +7293,22 @@
     </row>
     <row r="64" spans="1:26" ht="17.5" thickBot="1">
       <c r="A64" s="6">
-        <v>201022111</v>
+        <v>201022501</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D64" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" s="6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F64" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G64" s="6">
         <v>1</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L64" s="6">
         <v>0</v>
@@ -7341,21 +7341,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="34.5" thickBot="1">
+    <row r="65" spans="1:16" ht="17.5" thickBot="1">
       <c r="A65" s="6">
-        <v>201022112</v>
+        <v>201022502</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="F65" s="6">
         <v>0.25</v>
@@ -7370,10 +7370,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L65" s="6">
         <v>0</v>
@@ -7393,13 +7393,13 @@
     </row>
     <row r="66" spans="1:16" ht="17.5" thickBot="1">
       <c r="A66" s="6">
-        <v>201022211</v>
+        <v>201022111</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L66" s="6">
         <v>0</v>
@@ -7443,13 +7443,13 @@
     </row>
     <row r="67" spans="1:16" ht="34.5" thickBot="1">
       <c r="A67" s="6">
-        <v>201022212</v>
+        <v>201022112</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C67" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="6">
         <v>1</v>
@@ -7473,7 +7473,7 @@
         <v>10</v>
       </c>
       <c r="K67" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L67" s="6">
         <v>0</v>
@@ -7493,13 +7493,13 @@
     </row>
     <row r="68" spans="1:16" ht="17.5" thickBot="1">
       <c r="A68" s="6">
-        <v>201022311</v>
+        <v>201022211</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C68" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
@@ -7523,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L68" s="6">
         <v>0</v>
@@ -7543,13 +7543,13 @@
     </row>
     <row r="69" spans="1:16" ht="34.5" thickBot="1">
       <c r="A69" s="6">
-        <v>201022312</v>
+        <v>201022212</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C69" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>10</v>
       </c>
       <c r="K69" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L69" s="6">
         <v>0</v>
@@ -7593,13 +7593,13 @@
     </row>
     <row r="70" spans="1:16" ht="17.5" thickBot="1">
       <c r="A70" s="6">
-        <v>201022411</v>
+        <v>201022311</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C70" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L70" s="6">
         <v>0</v>
@@ -7643,13 +7643,13 @@
     </row>
     <row r="71" spans="1:16" ht="34.5" thickBot="1">
       <c r="A71" s="6">
-        <v>201022412</v>
+        <v>201022312</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -7673,7 +7673,7 @@
         <v>10</v>
       </c>
       <c r="K71" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L71" s="6">
         <v>0</v>
@@ -7693,13 +7693,13 @@
     </row>
     <row r="72" spans="1:16" ht="17.5" thickBot="1">
       <c r="A72" s="6">
-        <v>201022511</v>
+        <v>201022411</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C72" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L72" s="6">
         <v>0</v>
@@ -7743,13 +7743,13 @@
     </row>
     <row r="73" spans="1:16" ht="34.5" thickBot="1">
       <c r="A73" s="6">
-        <v>201022512</v>
+        <v>201022412</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>10</v>
       </c>
       <c r="K73" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L73" s="6">
         <v>0</v>
@@ -7793,19 +7793,19 @@
     </row>
     <row r="74" spans="1:16" ht="17.5" thickBot="1">
       <c r="A74" s="6">
-        <v>201022121</v>
+        <v>201022511</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C74" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F74" s="6">
         <v>0.1</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L74" s="6">
         <v>0</v>
@@ -7843,19 +7843,19 @@
     </row>
     <row r="75" spans="1:16" ht="34.5" thickBot="1">
       <c r="A75" s="6">
-        <v>201022122</v>
+        <v>201022512</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C75" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" s="6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="F75" s="6">
         <v>0.25</v>
@@ -7873,7 +7873,7 @@
         <v>10</v>
       </c>
       <c r="K75" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L75" s="6">
         <v>0</v>
@@ -7891,12 +7891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="34.5" thickBot="1">
+    <row r="76" spans="1:16" ht="17.5" thickBot="1">
       <c r="A76" s="6">
-        <v>201022123</v>
+        <v>201022121</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76" s="6">
         <v>1</v>
@@ -7905,22 +7905,22 @@
         <v>2</v>
       </c>
       <c r="E76" s="6">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="F76" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G76" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="6">
         <v>0</v>
       </c>
       <c r="I76" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
         <v>20</v>
@@ -7941,24 +7941,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="17.5" thickBot="1">
+    <row r="77" spans="1:16" ht="34.5" thickBot="1">
       <c r="A77" s="6">
-        <v>201022221</v>
+        <v>201022122</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" s="6">
         <v>2</v>
       </c>
       <c r="E77" s="6">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="F77" s="6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G77" s="6">
         <v>1</v>
@@ -7970,10 +7970,10 @@
         <v>0</v>
       </c>
       <c r="J77" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K77" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L77" s="6">
         <v>0</v>
@@ -7993,13 +7993,13 @@
     </row>
     <row r="78" spans="1:16" ht="34.5" thickBot="1">
       <c r="A78" s="6">
-        <v>201022222</v>
+        <v>201022123</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" s="6">
         <v>2</v>
@@ -8011,19 +8011,19 @@
         <v>0.25</v>
       </c>
       <c r="G78" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="6">
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="6">
         <v>10</v>
       </c>
       <c r="K78" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L78" s="6">
         <v>0</v>
@@ -8041,12 +8041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="34.5" thickBot="1">
+    <row r="79" spans="1:16" ht="17.5" thickBot="1">
       <c r="A79" s="6">
-        <v>201022223</v>
+        <v>201022221</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C79" s="6">
         <v>2</v>
@@ -8055,22 +8055,22 @@
         <v>2</v>
       </c>
       <c r="E79" s="6">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="F79" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G79" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="6">
         <v>0</v>
       </c>
       <c r="I79" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1">
         <v>18</v>
@@ -8091,24 +8091,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="17.5" thickBot="1">
+    <row r="80" spans="1:16" ht="34.5" thickBot="1">
       <c r="A80" s="6">
-        <v>201022321</v>
+        <v>201022222</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C80" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" s="6">
         <v>2</v>
       </c>
       <c r="E80" s="6">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="F80" s="6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G80" s="6">
         <v>1</v>
@@ -8120,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K80" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L80" s="6">
         <v>0</v>
@@ -8143,13 +8143,13 @@
     </row>
     <row r="81" spans="1:16" ht="34.5" thickBot="1">
       <c r="A81" s="6">
-        <v>201022322</v>
+        <v>201022223</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C81" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="6">
         <v>2</v>
@@ -8161,19 +8161,19 @@
         <v>0.25</v>
       </c>
       <c r="G81" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="6">
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="6">
         <v>10</v>
       </c>
       <c r="K81" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L81" s="6">
         <v>0</v>
@@ -8191,12 +8191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="34.5" thickBot="1">
+    <row r="82" spans="1:16" ht="17.5" thickBot="1">
       <c r="A82" s="6">
-        <v>201022323</v>
+        <v>201022321</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C82" s="6">
         <v>3</v>
@@ -8205,22 +8205,22 @@
         <v>2</v>
       </c>
       <c r="E82" s="6">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="F82" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G82" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="6">
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
         <v>16</v>
@@ -8241,24 +8241,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="17.5" thickBot="1">
+    <row r="83" spans="1:16" ht="34.5" thickBot="1">
       <c r="A83" s="6">
-        <v>201022421</v>
+        <v>201022322</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C83" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="6">
         <v>2</v>
       </c>
       <c r="E83" s="6">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="F83" s="6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G83" s="6">
         <v>1</v>
@@ -8270,10 +8270,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K83" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L83" s="6">
         <v>0</v>
@@ -8293,13 +8293,13 @@
     </row>
     <row r="84" spans="1:16" ht="34.5" thickBot="1">
       <c r="A84" s="6">
-        <v>201022422</v>
+        <v>201022323</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C84" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="6">
         <v>2</v>
@@ -8311,19 +8311,19 @@
         <v>0.25</v>
       </c>
       <c r="G84" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="6">
         <v>0</v>
       </c>
       <c r="I84" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="6">
         <v>10</v>
       </c>
       <c r="K84" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L84" s="6">
         <v>0</v>
@@ -8341,12 +8341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="34.5" thickBot="1">
+    <row r="85" spans="1:16" ht="17.5" thickBot="1">
       <c r="A85" s="6">
-        <v>201022423</v>
+        <v>201022421</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C85" s="6">
         <v>4</v>
@@ -8355,22 +8355,22 @@
         <v>2</v>
       </c>
       <c r="E85" s="6">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G85" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="6">
         <v>0</v>
       </c>
       <c r="I85" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K85" s="1">
         <v>14</v>
@@ -8391,24 +8391,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="17.5" thickBot="1">
+    <row r="86" spans="1:16" ht="34.5" thickBot="1">
       <c r="A86" s="6">
-        <v>201022521</v>
+        <v>201022422</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C86" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="6">
         <v>2</v>
       </c>
       <c r="E86" s="6">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="F86" s="6">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G86" s="6">
         <v>1</v>
@@ -8420,10 +8420,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K86" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L86" s="6">
         <v>0</v>
@@ -8443,13 +8443,13 @@
     </row>
     <row r="87" spans="1:16" ht="34.5" thickBot="1">
       <c r="A87" s="6">
-        <v>201022522</v>
+        <v>201022423</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C87" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" s="6">
         <v>2</v>
@@ -8461,19 +8461,19 @@
         <v>0.25</v>
       </c>
       <c r="G87" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="6">
         <v>0</v>
       </c>
       <c r="I87" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" s="6">
         <v>10</v>
       </c>
       <c r="K87" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L87" s="6">
         <v>0</v>
@@ -8491,12 +8491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="34.5" thickBot="1">
+    <row r="88" spans="1:16" ht="17.5" thickBot="1">
       <c r="A88" s="6">
-        <v>201022523</v>
+        <v>201022521</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" s="6">
         <v>5</v>
@@ -8505,22 +8505,22 @@
         <v>2</v>
       </c>
       <c r="E88" s="6">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="F88" s="6">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G88" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="6">
         <v>0</v>
       </c>
       <c r="I88" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K88" s="1">
         <v>12</v>
@@ -8541,74 +8541,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="17.5" thickBot="1">
+    <row r="89" spans="1:16" ht="34.5" thickBot="1">
       <c r="A89" s="6">
-        <v>202022101</v>
+        <v>201022522</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C89" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E89" s="6">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="F89" s="6">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G89" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="6">
         <v>0</v>
       </c>
       <c r="I89" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K89" s="1">
+        <v>12</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6">
+        <v>0</v>
+      </c>
+      <c r="O89" s="6">
+        <v>0</v>
+      </c>
+      <c r="P89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="34.5" thickBot="1">
+      <c r="A90" s="6">
+        <v>201022523</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="6">
         <v>5</v>
       </c>
-      <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6">
-        <v>0</v>
-      </c>
-      <c r="N89" s="6">
-        <v>0</v>
-      </c>
-      <c r="O89" s="6">
-        <v>0</v>
-      </c>
-      <c r="P89" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A90" s="6">
-        <v>202022201</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C90" s="6">
+      <c r="D90" s="6">
         <v>2</v>
       </c>
-      <c r="D90" s="6">
-        <v>0</v>
-      </c>
       <c r="E90" s="6">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="F90" s="6">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="G90" s="6">
         <v>0</v>
@@ -8620,10 +8620,10 @@
         <v>1</v>
       </c>
       <c r="J90" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K90" s="1">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="L90" s="6">
         <v>0</v>
@@ -8643,13 +8643,13 @@
     </row>
     <row r="91" spans="1:16" ht="17.5" thickBot="1">
       <c r="A91" s="6">
-        <v>202022301</v>
+        <v>202022101</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C91" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" s="6">
         <v>0</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L91" s="6">
         <v>0</v>
@@ -8693,13 +8693,13 @@
     </row>
     <row r="92" spans="1:16" ht="17.5" thickBot="1">
       <c r="A92" s="6">
-        <v>202022401</v>
+        <v>202022201</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C92" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" s="6">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L92" s="6">
         <v>0</v>
@@ -8743,13 +8743,13 @@
     </row>
     <row r="93" spans="1:16" ht="17.5" thickBot="1">
       <c r="A93" s="6">
-        <v>202022501</v>
+        <v>202022301</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C93" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
         <v>0</v>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L93" s="6">
         <v>0</v>
@@ -8793,37 +8793,37 @@
     </row>
     <row r="94" spans="1:16" ht="17.5" thickBot="1">
       <c r="A94" s="6">
-        <v>203022101</v>
+        <v>202022401</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C94" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94" s="6">
         <v>0</v>
       </c>
       <c r="E94" s="6">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="F94" s="6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G94" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" s="6">
         <v>0</v>
       </c>
       <c r="I94" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="6">
         <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="L94" s="6">
         <v>0</v>
@@ -8843,37 +8843,37 @@
     </row>
     <row r="95" spans="1:16" ht="17.5" thickBot="1">
       <c r="A95" s="6">
-        <v>203022102</v>
+        <v>202022501</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C95" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
         <v>0</v>
       </c>
       <c r="E95" s="6">
-        <v>0.7</v>
+        <v>1.85</v>
       </c>
       <c r="F95" s="6">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G95" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="6">
         <v>0</v>
       </c>
       <c r="I95" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="6">
         <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L95" s="6">
         <v>0</v>
@@ -8893,10 +8893,10 @@
     </row>
     <row r="96" spans="1:16" ht="17.5" thickBot="1">
       <c r="A96" s="6">
-        <v>203022103</v>
+        <v>203022101</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C96" s="6">
         <v>1</v>
@@ -8905,16 +8905,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F96" s="6">
         <v>0.2</v>
       </c>
       <c r="G96" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="6">
         <v>0</v>
@@ -8943,22 +8943,22 @@
     </row>
     <row r="97" spans="1:16" ht="17.5" thickBot="1">
       <c r="A97" s="6">
-        <v>203022201</v>
+        <v>203022102</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C97" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="6">
         <v>0</v>
       </c>
       <c r="E97" s="6">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F97" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G97" s="6">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="1">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L97" s="6">
         <v>0</v>
@@ -8993,28 +8993,28 @@
     </row>
     <row r="98" spans="1:16" ht="17.5" thickBot="1">
       <c r="A98" s="6">
-        <v>203022202</v>
+        <v>203022103</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
         <v>2</v>
       </c>
-      <c r="D98" s="6">
-        <v>0</v>
-      </c>
-      <c r="E98" s="6">
-        <v>0.7</v>
-      </c>
       <c r="F98" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G98" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" s="6">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="1">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L98" s="6">
         <v>0</v>
@@ -9043,10 +9043,10 @@
     </row>
     <row r="99" spans="1:16" ht="17.5" thickBot="1">
       <c r="A99" s="6">
-        <v>203022203</v>
+        <v>203022201</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C99" s="6">
         <v>2</v>
@@ -9055,16 +9055,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F99" s="6">
         <v>0.2</v>
       </c>
       <c r="G99" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" s="6">
         <v>0</v>
@@ -9093,22 +9093,22 @@
     </row>
     <row r="100" spans="1:16" ht="17.5" thickBot="1">
       <c r="A100" s="6">
-        <v>203022301</v>
+        <v>203022202</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C100" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" s="6">
         <v>0</v>
       </c>
       <c r="E100" s="6">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F100" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G100" s="6">
         <v>1</v>
@@ -9123,7 +9123,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L100" s="6">
         <v>0</v>
@@ -9143,28 +9143,28 @@
     </row>
     <row r="101" spans="1:16" ht="17.5" thickBot="1">
       <c r="A101" s="6">
-        <v>203022302</v>
+        <v>203022203</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C101" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" s="6">
         <v>0</v>
       </c>
       <c r="E101" s="6">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F101" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G101" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="6">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="1">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L101" s="6">
         <v>0</v>
@@ -9193,10 +9193,10 @@
     </row>
     <row r="102" spans="1:16" ht="17.5" thickBot="1">
       <c r="A102" s="6">
-        <v>203022303</v>
+        <v>203022301</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C102" s="6">
         <v>3</v>
@@ -9205,16 +9205,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F102" s="6">
         <v>0.2</v>
       </c>
       <c r="G102" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="6">
         <v>0</v>
@@ -9243,22 +9243,22 @@
     </row>
     <row r="103" spans="1:16" ht="17.5" thickBot="1">
       <c r="A103" s="6">
-        <v>203022401</v>
+        <v>203022302</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C103" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D103" s="6">
         <v>0</v>
       </c>
       <c r="E103" s="6">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F103" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G103" s="6">
         <v>1</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L103" s="6">
         <v>0</v>
@@ -9293,28 +9293,28 @@
     </row>
     <row r="104" spans="1:16" ht="17.5" thickBot="1">
       <c r="A104" s="6">
-        <v>203022402</v>
+        <v>203022303</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C104" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104" s="6">
         <v>0</v>
       </c>
       <c r="E104" s="6">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F104" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G104" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" s="6">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L104" s="6">
         <v>0</v>
@@ -9343,10 +9343,10 @@
     </row>
     <row r="105" spans="1:16" ht="17.5" thickBot="1">
       <c r="A105" s="6">
-        <v>203022403</v>
+        <v>203022401</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C105" s="6">
         <v>4</v>
@@ -9355,16 +9355,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F105" s="6">
         <v>0.2</v>
       </c>
       <c r="G105" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="6">
         <v>0</v>
@@ -9393,22 +9393,22 @@
     </row>
     <row r="106" spans="1:16" ht="17.5" thickBot="1">
       <c r="A106" s="6">
-        <v>203022501</v>
+        <v>203022402</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C106" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" s="6">
         <v>0</v>
       </c>
       <c r="E106" s="6">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="F106" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G106" s="6">
         <v>1</v>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L106" s="6">
         <v>0</v>
@@ -9443,28 +9443,28 @@
     </row>
     <row r="107" spans="1:16" ht="17.5" thickBot="1">
       <c r="A107" s="6">
-        <v>203022502</v>
+        <v>203022403</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C107" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="6">
         <v>0</v>
       </c>
       <c r="E107" s="6">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="F107" s="6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G107" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="6">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L107" s="6">
         <v>0</v>
@@ -9493,10 +9493,10 @@
     </row>
     <row r="108" spans="1:16" ht="17.5" thickBot="1">
       <c r="A108" s="6">
-        <v>203022503</v>
+        <v>203022501</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C108" s="6">
         <v>5</v>
@@ -9505,16 +9505,16 @@
         <v>0</v>
       </c>
       <c r="E108" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F108" s="6">
         <v>0.2</v>
       </c>
       <c r="G108" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="6">
         <v>0</v>
@@ -9541,45 +9541,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="34.5" thickBot="1">
+    <row r="109" spans="1:16" ht="17.5" thickBot="1">
       <c r="A109" s="6">
-        <v>231023101</v>
+        <v>203022502</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C109" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109" s="6">
         <v>0</v>
       </c>
       <c r="E109" s="6">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F109" s="6">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="G109" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="6">
         <v>0</v>
       </c>
       <c r="I109" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J109" s="6">
         <v>0</v>
       </c>
       <c r="K109" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L109" s="6">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="M109" s="6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N109" s="6">
         <v>0</v>
@@ -9591,45 +9591,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="34.5" thickBot="1">
+    <row r="110" spans="1:16" ht="17.5" thickBot="1">
       <c r="A110" s="6">
-        <v>231023201</v>
+        <v>203022503</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C110" s="6">
+        <v>5</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
         <v>2</v>
       </c>
-      <c r="D110" s="6">
-        <v>0</v>
-      </c>
-      <c r="E110" s="6">
-        <v>1</v>
-      </c>
       <c r="F110" s="6">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G110" s="6">
         <v>0</v>
       </c>
       <c r="H110" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J110" s="6">
         <v>0</v>
       </c>
       <c r="K110" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L110" s="6">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="M110" s="6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N110" s="6">
         <v>0</v>
@@ -9643,13 +9643,13 @@
     </row>
     <row r="111" spans="1:16" ht="34.5" thickBot="1">
       <c r="A111" s="6">
-        <v>231023301</v>
+        <v>231023101</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C111" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111" s="6">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="6">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="M111" s="6">
         <v>1.5</v>
@@ -9691,15 +9691,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="17.5" thickBot="1">
+    <row r="112" spans="1:16" ht="34.5" thickBot="1">
       <c r="A112" s="6">
-        <v>232023101</v>
+        <v>231023201</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C112" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" s="6">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0.33</v>
       </c>
       <c r="G112" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="6">
         <v>0</v>
       </c>
       <c r="I112" s="6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J112" s="6">
         <v>0</v>
@@ -9726,10 +9726,10 @@
         <v>0</v>
       </c>
       <c r="L112" s="6">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="M112" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N112" s="6">
         <v>0</v>
@@ -9741,34 +9741,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="17.5" thickBot="1">
+    <row r="113" spans="1:16" ht="34.5" thickBot="1">
       <c r="A113" s="6">
-        <v>232023102</v>
+        <v>231023301</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C113" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D113" s="6">
         <v>0</v>
       </c>
       <c r="E113" s="6">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="F113" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="G113" s="6">
+        <v>0</v>
+      </c>
+      <c r="H113" s="6">
+        <v>0</v>
+      </c>
+      <c r="I113" s="6">
         <v>0.5</v>
       </c>
-      <c r="G113" s="6">
-        <v>0</v>
-      </c>
-      <c r="H113" s="6">
-        <v>2</v>
-      </c>
-      <c r="I113" s="6">
-        <v>0</v>
-      </c>
       <c r="J113" s="6">
         <v>0</v>
       </c>
@@ -9776,10 +9776,10 @@
         <v>0</v>
       </c>
       <c r="L113" s="6">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="M113" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N113" s="6">
         <v>0</v>
@@ -9793,13 +9793,13 @@
     </row>
     <row r="114" spans="1:16" ht="17.5" thickBot="1">
       <c r="A114" s="6">
-        <v>232023201</v>
+        <v>232023101</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C114" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="6">
         <v>0</v>
@@ -9843,13 +9843,13 @@
     </row>
     <row r="115" spans="1:16" ht="17.5" thickBot="1">
       <c r="A115" s="6">
-        <v>232023202</v>
+        <v>232023102</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C115" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" s="6">
         <v>0</v>
@@ -9893,13 +9893,13 @@
     </row>
     <row r="116" spans="1:16" ht="17.5" thickBot="1">
       <c r="A116" s="6">
-        <v>232023301</v>
+        <v>232023201</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C116" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" s="6">
         <v>0</v>
@@ -9943,13 +9943,13 @@
     </row>
     <row r="117" spans="1:16" ht="17.5" thickBot="1">
       <c r="A117" s="6">
-        <v>232023302</v>
+        <v>232023202</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117" s="6">
         <v>0</v>
@@ -9992,129 +9992,129 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="17.5" thickBot="1">
-      <c r="A118" s="1">
+      <c r="A118" s="6">
+        <v>232023301</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="6">
+        <v>3</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118" s="6">
+        <v>1</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="G118" s="6">
+        <v>1</v>
+      </c>
+      <c r="H118" s="6">
+        <v>0</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="6">
+        <v>0</v>
+      </c>
+      <c r="M118" s="6">
+        <v>0</v>
+      </c>
+      <c r="N118" s="6">
+        <v>0</v>
+      </c>
+      <c r="O118" s="6">
+        <v>0</v>
+      </c>
+      <c r="P118" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A119" s="6">
+        <v>232023302</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" s="6">
+        <v>3</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0</v>
+      </c>
+      <c r="E119" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="6">
+        <v>0</v>
+      </c>
+      <c r="H119" s="6">
+        <v>2</v>
+      </c>
+      <c r="I119" s="6">
+        <v>0</v>
+      </c>
+      <c r="J119" s="6">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0</v>
+      </c>
+      <c r="L119" s="6">
+        <v>0</v>
+      </c>
+      <c r="M119" s="6">
+        <v>0</v>
+      </c>
+      <c r="N119" s="6">
+        <v>0</v>
+      </c>
+      <c r="O119" s="6">
+        <v>0</v>
+      </c>
+      <c r="P119" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A120" s="1">
         <v>300031101</v>
       </c>
-      <c r="B118" s="39" t="s">
+      <c r="B120" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1">
-        <v>0</v>
-      </c>
-      <c r="F118" s="1">
-        <v>1</v>
-      </c>
-      <c r="G118" s="1">
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
         <v>0.67</v>
       </c>
-      <c r="H118" s="1">
-        <v>0</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0</v>
-      </c>
-      <c r="J118" s="1">
-        <v>0</v>
-      </c>
-      <c r="K118" s="1">
-        <v>0</v>
-      </c>
-      <c r="L118" s="1">
-        <v>0</v>
-      </c>
-      <c r="M118" s="1">
-        <v>0</v>
-      </c>
-      <c r="N118" s="1">
-        <v>0</v>
-      </c>
-      <c r="O118" s="1">
-        <v>0</v>
-      </c>
-      <c r="P118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="44" thickBot="1">
-      <c r="A119" s="1">
-        <v>301032101</v>
-      </c>
-      <c r="B119" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F119" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G119" s="1">
-        <v>0</v>
-      </c>
-      <c r="H119" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I119" s="1">
-        <v>0</v>
-      </c>
-      <c r="J119" s="1">
-        <v>0</v>
-      </c>
-      <c r="K119" s="1">
-        <v>10</v>
-      </c>
-      <c r="L119" s="1">
-        <v>0</v>
-      </c>
-      <c r="M119" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N119" s="1">
-        <v>0</v>
-      </c>
-      <c r="O119" s="1">
-        <v>0</v>
-      </c>
-      <c r="P119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="44" thickBot="1">
-      <c r="A120" s="1">
-        <v>301032201</v>
-      </c>
-      <c r="B120" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C120" s="1">
-        <v>2</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0</v>
-      </c>
-      <c r="E120" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F120" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G120" s="1">
-        <v>0</v>
-      </c>
       <c r="H120" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="K120" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L120" s="1">
         <v>0</v>
       </c>
       <c r="M120" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N120" s="1">
         <v>0</v>
@@ -10143,13 +10143,13 @@
     </row>
     <row r="121" spans="1:16" ht="44" thickBot="1">
       <c r="A121" s="1">
-        <v>301032301</v>
+        <v>301032101</v>
       </c>
       <c r="B121" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L121" s="1">
         <v>0</v>
@@ -10193,13 +10193,13 @@
     </row>
     <row r="122" spans="1:16" ht="44" thickBot="1">
       <c r="A122" s="1">
-        <v>301032401</v>
+        <v>301032201</v>
       </c>
       <c r="B122" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C122" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="1">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L122" s="1">
         <v>0</v>
@@ -10243,13 +10243,13 @@
     </row>
     <row r="123" spans="1:16" ht="44" thickBot="1">
       <c r="A123" s="1">
-        <v>301032501</v>
+        <v>301032301</v>
       </c>
       <c r="B123" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C123" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="H123" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I123" s="1">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L123" s="1">
         <v>0</v>
@@ -10291,30 +10291,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="17.5" thickBot="1">
+    <row r="124" spans="1:16" ht="44" thickBot="1">
       <c r="A124" s="1">
-        <v>302032101</v>
+        <v>301032401</v>
       </c>
       <c r="B124" s="39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C124" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="F124" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G124" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H124" s="1">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
@@ -10323,13 +10323,13 @@
         <v>0</v>
       </c>
       <c r="K124" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L124" s="1">
         <v>0</v>
       </c>
       <c r="M124" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N124" s="1">
         <v>0</v>
@@ -10341,30 +10341,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="17.5" thickBot="1">
+    <row r="125" spans="1:16" ht="44" thickBot="1">
       <c r="A125" s="1">
-        <v>302032201</v>
+        <v>301032501</v>
       </c>
       <c r="B125" s="39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C125" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
       </c>
       <c r="E125" s="1">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="F125" s="1">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G125" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H125" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -10373,13 +10373,13 @@
         <v>0</v>
       </c>
       <c r="K125" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L125" s="1">
         <v>0</v>
       </c>
       <c r="M125" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N125" s="1">
         <v>0</v>
@@ -10393,13 +10393,13 @@
     </row>
     <row r="126" spans="1:16" ht="17.5" thickBot="1">
       <c r="A126" s="1">
-        <v>302032301</v>
+        <v>302032101</v>
       </c>
       <c r="B126" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C126" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L126" s="1">
         <v>0</v>
@@ -10443,13 +10443,13 @@
     </row>
     <row r="127" spans="1:16" ht="17.5" thickBot="1">
       <c r="A127" s="1">
-        <v>302032401</v>
+        <v>302032201</v>
       </c>
       <c r="B127" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L127" s="1">
         <v>0</v>
@@ -10493,13 +10493,13 @@
     </row>
     <row r="128" spans="1:16" ht="17.5" thickBot="1">
       <c r="A128" s="1">
-        <v>302032501</v>
+        <v>302032301</v>
       </c>
       <c r="B128" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C128" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" s="1">
         <v>0</v>
@@ -10523,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L128" s="1">
         <v>0</v>
@@ -10543,22 +10543,22 @@
     </row>
     <row r="129" spans="1:16" ht="17.5" thickBot="1">
       <c r="A129" s="1">
-        <v>303032101</v>
+        <v>302032401</v>
       </c>
       <c r="B129" s="39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129" s="1">
         <v>0</v>
       </c>
       <c r="E129" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F129" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G129" s="1">
         <v>0.67</v>
@@ -10570,10 +10570,10 @@
         <v>0</v>
       </c>
       <c r="J129" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K129" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L129" s="1">
         <v>0</v>
@@ -10593,28 +10593,28 @@
     </row>
     <row r="130" spans="1:16" ht="17.5" thickBot="1">
       <c r="A130" s="1">
-        <v>303032102</v>
+        <v>302032501</v>
       </c>
       <c r="B130" s="39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C130" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1">
         <v>0</v>
       </c>
       <c r="E130" s="1">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F130" s="1">
         <v>0.25</v>
       </c>
       <c r="G130" s="1">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="H130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="1">
         <v>0</v>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L130" s="1">
         <v>0</v>
@@ -10643,13 +10643,13 @@
     </row>
     <row r="131" spans="1:16" ht="17.5" thickBot="1">
       <c r="A131" s="1">
-        <v>303032201</v>
+        <v>303032101</v>
       </c>
       <c r="B131" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>3</v>
       </c>
       <c r="K131" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L131" s="1">
         <v>0</v>
@@ -10693,13 +10693,13 @@
     </row>
     <row r="132" spans="1:16" ht="17.5" thickBot="1">
       <c r="A132" s="1">
-        <v>303032202</v>
+        <v>303032102</v>
       </c>
       <c r="B132" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
         <v>0</v>
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L132" s="1">
         <v>0</v>
@@ -10743,13 +10743,13 @@
     </row>
     <row r="133" spans="1:16" ht="17.5" thickBot="1">
       <c r="A133" s="1">
-        <v>303032301</v>
+        <v>303032201</v>
       </c>
       <c r="B133" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C133" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="K133" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L133" s="1">
         <v>0</v>
@@ -10793,13 +10793,13 @@
     </row>
     <row r="134" spans="1:16" ht="17.5" thickBot="1">
       <c r="A134" s="1">
-        <v>303032302</v>
+        <v>303032202</v>
       </c>
       <c r="B134" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C134" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L134" s="1">
         <v>0</v>
@@ -10843,13 +10843,13 @@
     </row>
     <row r="135" spans="1:16" ht="17.5" thickBot="1">
       <c r="A135" s="1">
-        <v>303032401</v>
+        <v>303032301</v>
       </c>
       <c r="B135" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C135" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" s="1">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>3</v>
       </c>
       <c r="K135" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L135" s="1">
         <v>0</v>
@@ -10893,13 +10893,13 @@
     </row>
     <row r="136" spans="1:16" ht="17.5" thickBot="1">
       <c r="A136" s="1">
-        <v>303032402</v>
+        <v>303032302</v>
       </c>
       <c r="B136" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C136" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" s="1">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L136" s="1">
         <v>0</v>
@@ -10943,13 +10943,13 @@
     </row>
     <row r="137" spans="1:16" ht="17.5" thickBot="1">
       <c r="A137" s="1">
-        <v>303032501</v>
+        <v>303032401</v>
       </c>
       <c r="B137" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C137" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" s="1">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>0.67</v>
       </c>
       <c r="H137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="1">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>3</v>
       </c>
       <c r="K137" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L137" s="1">
         <v>0</v>
@@ -10993,13 +10993,13 @@
     </row>
     <row r="138" spans="1:16" ht="17.5" thickBot="1">
       <c r="A138" s="1">
-        <v>303032502</v>
+        <v>303032402</v>
       </c>
       <c r="B138" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C138" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="1">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L138" s="1">
         <v>0</v>
@@ -11043,40 +11043,40 @@
     </row>
     <row r="139" spans="1:16" ht="17.5" thickBot="1">
       <c r="A139" s="1">
-        <v>331033101</v>
+        <v>303032501</v>
       </c>
       <c r="B139" s="39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
       </c>
       <c r="E139" s="1">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F139" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G139" s="1">
         <v>0.67</v>
       </c>
       <c r="H139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
       </c>
       <c r="J139" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L139" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="M139" s="1">
         <v>0</v>
@@ -11093,28 +11093,28 @@
     </row>
     <row r="140" spans="1:16" ht="17.5" thickBot="1">
       <c r="A140" s="1">
-        <v>331033201</v>
+        <v>303032502</v>
       </c>
       <c r="B140" s="39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C140" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
       </c>
       <c r="E140" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F140" s="1">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="G140" s="1">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H140" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" s="1">
         <v>0</v>
@@ -11123,10 +11123,10 @@
         <v>0</v>
       </c>
       <c r="K140" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L140" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="M140" s="1">
         <v>0</v>
@@ -11143,13 +11143,13 @@
     </row>
     <row r="141" spans="1:16" ht="17.5" thickBot="1">
       <c r="A141" s="1">
-        <v>331033301</v>
+        <v>331033101</v>
       </c>
       <c r="B141" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C141" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
@@ -11176,18 +11176,118 @@
         <v>0</v>
       </c>
       <c r="L141" s="1">
+        <v>80000</v>
+      </c>
+      <c r="M141" s="1">
+        <v>0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A142" s="1">
+        <v>331033201</v>
+      </c>
+      <c r="B142" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F142" s="1">
+        <v>5</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>70000</v>
+      </c>
+      <c r="M142" s="1">
+        <v>0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>0</v>
+      </c>
+      <c r="P142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="17.5" thickBot="1">
+      <c r="A143" s="1">
+        <v>331033301</v>
+      </c>
+      <c r="B143" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F143" s="1">
+        <v>5</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
         <v>60000</v>
       </c>
-      <c r="M141" s="1">
-        <v>0</v>
-      </c>
-      <c r="N141" s="1">
-        <v>0</v>
-      </c>
-      <c r="O141" s="1">
-        <v>0</v>
-      </c>
-      <c r="P141" s="1">
+      <c r="M143" s="1">
+        <v>0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>0</v>
+      </c>
+      <c r="P143" s="1">
         <v>0</v>
       </c>
     </row>
@@ -11202,8 +11302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11332,22 +11432,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A7" s="6">
+      <c r="A7" s="48">
         <v>200</v>
       </c>
-      <c r="B7" s="6">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6">
-        <v>60</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7" s="48">
+        <v>27</v>
+      </c>
+      <c r="C7" s="48">
+        <v>7</v>
+      </c>
+      <c r="D7" s="48">
+        <v>37</v>
+      </c>
+      <c r="E7" s="48">
+        <v>8</v>
+      </c>
+      <c r="F7" s="48">
         <v>0</v>
       </c>
       <c r="G7" s="7"/>
@@ -13404,8 +13504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:M52"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06182DE-7716-433D-B61F-9C05DF404DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7286F3-5ECE-4092-8776-462C051972CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -3231,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F9EEC3-3347-4F2E-9FD6-D990126A68DE}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>212</v>
@@ -4101,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z143"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:P55"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11303,7 +11303,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7286F3-5ECE-4092-8776-462C051972CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C291320B-C86C-4BB2-BBE6-09E0EE98BC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -2002,7 +2002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -11302,7 +11302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4641B29-CC44-455D-883E-5A1946D4920E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -12715,8 +12715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -13182,7 +13182,7 @@
         <v>4000</v>
       </c>
       <c r="C15" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="9">
         <v>8</v>
@@ -13214,7 +13214,7 @@
         <v>4000</v>
       </c>
       <c r="C16" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9">
         <v>15</v>
@@ -13246,7 +13246,7 @@
         <v>4000</v>
       </c>
       <c r="C17" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="9">
         <v>14</v>
@@ -13278,7 +13278,7 @@
         <v>4000</v>
       </c>
       <c r="C18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="9">
         <v>10</v>
@@ -13310,7 +13310,7 @@
         <v>4000</v>
       </c>
       <c r="C19" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="9">
         <v>15</v>
@@ -13504,8 +13504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -14874,781 +14874,781 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>4000001</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
         <v>0.5</v>
       </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0</v>
-      </c>
-      <c r="M34" s="1">
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>4000002</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
         <v>0.5</v>
       </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0</v>
-      </c>
-      <c r="M35" s="1">
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>4000011</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
         <v>0.5</v>
       </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0</v>
-      </c>
-      <c r="M36" s="1">
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>4000012</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
         <v>0.5</v>
       </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A38" s="1">
+      <c r="A38" s="6">
         <v>4000013</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="6">
         <v>1.2</v>
       </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
         <v>0.5</v>
       </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0</v>
-      </c>
-      <c r="M38" s="1">
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A39" s="1">
+      <c r="A39" s="6">
         <v>4000014</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="6">
         <v>1.2</v>
       </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
         <v>0.5</v>
       </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A40" s="1">
+      <c r="A40" s="6">
         <v>4000021</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
         <v>0.5</v>
       </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A41" s="1">
+      <c r="A41" s="6">
         <v>4000022</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
         <v>0.5</v>
       </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>4000023</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>1.5</v>
       </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
         <v>0.5</v>
       </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A43" s="1">
+      <c r="A43" s="6">
         <v>4000031</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="6">
         <v>1.2</v>
       </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
         <v>0.5</v>
       </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A44" s="1">
+      <c r="A44" s="6">
         <v>4000032</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
         <v>0.5</v>
       </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A45" s="1">
+      <c r="A45" s="6">
         <v>4000041</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="6">
         <v>1.2</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
         <v>0.5</v>
       </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A46" s="1">
+      <c r="A46" s="6">
         <v>4000042</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="6">
         <v>1.2</v>
       </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
         <v>0.5</v>
       </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A47" s="1">
+      <c r="A47" s="6">
         <v>4000043</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="6">
         <v>1.7</v>
       </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-      <c r="M47" s="1">
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>1</v>
+      </c>
+      <c r="M47" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A48" s="1">
+      <c r="A48" s="6">
         <v>4000051</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="6">
         <v>2</v>
       </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A49" s="1">
+      <c r="A49" s="6">
         <v>4000061</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="6">
         <v>1.5</v>
       </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>1</v>
-      </c>
-      <c r="M49" s="1">
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A50" s="1">
+      <c r="A50" s="6">
         <v>4000071</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D50" s="1">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
         <v>2</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A51" s="1">
+      <c r="A51" s="6">
         <v>4000081</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="6">
         <v>1.5</v>
       </c>
-      <c r="D51" s="1">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
         <v>0.5</v>
       </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A52" s="1">
+      <c r="A52" s="6">
         <v>4000091</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
         <v>0.5</v>
       </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C291320B-C86C-4BB2-BBE6-09E0EE98BC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2E6F1-FAA0-41E2-BD6F-F4321C155E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="280">
   <si>
     <t>Level</t>
   </si>
@@ -967,6 +967,15 @@
   </si>
   <si>
     <t>Hit_07</t>
+  </si>
+  <si>
+    <t>HeadStampAndTail</t>
+  </si>
+  <si>
+    <t>StampAndTail</t>
+  </si>
+  <si>
+    <t>SwingAndStampAndTail</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -11663,8 +11672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11814,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -12713,10 +12722,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF6987-036D-4D15-B153-A7C2B7571C6B}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -13494,6 +13503,102 @@
         <v>274</v>
       </c>
     </row>
+    <row r="25" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A25" s="9">
+        <v>400010</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2</v>
+      </c>
+      <c r="D25" s="9">
+        <v>10</v>
+      </c>
+      <c r="E25" s="9">
+        <v>12</v>
+      </c>
+      <c r="F25" s="9">
+        <v>40</v>
+      </c>
+      <c r="G25" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.5" thickBot="1">
+      <c r="A26" s="9">
+        <v>400011</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9">
+        <v>20</v>
+      </c>
+      <c r="G26" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="34.5" thickBot="1">
+      <c r="A27" s="9">
+        <v>400012</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C27" s="9">
+        <v>4</v>
+      </c>
+      <c r="D27" s="9">
+        <v>15</v>
+      </c>
+      <c r="E27" s="9">
+        <v>18</v>
+      </c>
+      <c r="F27" s="9">
+        <v>40</v>
+      </c>
+      <c r="G27" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13502,10 +13607,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -15652,6 +15757,375 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A53" s="9">
+        <v>4000101</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="9">
+        <v>2</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9">
+        <v>2</v>
+      </c>
+      <c r="M53" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A54" s="9">
+        <v>4000102</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="9">
+        <v>1</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A55" s="9">
+        <v>4000111</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A56" s="9">
+        <v>4000112</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A57" s="9">
+        <v>4000113</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A58" s="9">
+        <v>4000121</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="9">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A59" s="9">
+        <v>4000122</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
+        <v>0</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="9">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A60" s="9">
+        <v>4000123</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9">
+        <v>1</v>
+      </c>
+      <c r="M60" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A61" s="9">
+        <v>4000124</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="9">
+        <v>0</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2E6F1-FAA0-41E2-BD6F-F4321C155E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7B457E-60A4-4C7E-88B1-B0A9D0F7946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -2011,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -11672,7 +11672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7B457E-60A4-4C7E-88B1-B0A9D0F7946E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469ED26-A60F-4599-80E5-1E64D1EF393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -11672,7 +11672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C931ABBA-9A51-4E37-A8BC-ACBFBA422EE1}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -13609,8 +13609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -14979,781 +14979,781 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A34" s="6">
+      <c r="A34" s="9">
         <v>4000001</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <v>0.5</v>
       </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A35" s="6">
+      <c r="A35" s="9">
         <v>4000002</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>0.5</v>
       </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A36" s="6">
+      <c r="A36" s="9">
         <v>4000011</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
         <v>0.5</v>
       </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A37" s="6">
+      <c r="A37" s="9">
         <v>4000012</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
         <v>0.5</v>
       </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A38" s="6">
+      <c r="A38" s="9">
         <v>4000013</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="9">
         <v>1.2</v>
       </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
         <v>0.5</v>
       </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A39" s="6">
+      <c r="A39" s="9">
         <v>4000014</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="9">
         <v>1.2</v>
       </c>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="D39" s="9">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0</v>
+      </c>
+      <c r="I39" s="9">
         <v>0.5</v>
       </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A40" s="6">
+      <c r="A40" s="9">
         <v>4000021</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="C40" s="9">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
         <v>0.5</v>
       </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A41" s="6">
+      <c r="A41" s="9">
         <v>4000022</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
         <v>0.5</v>
       </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A42" s="6">
+      <c r="A42" s="9">
         <v>4000023</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="9">
         <v>1.5</v>
       </c>
-      <c r="D42" s="6">
-        <v>0</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
         <v>0.5</v>
       </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
+      <c r="J42" s="9">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A43" s="6">
+      <c r="A43" s="9">
         <v>4000031</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="9">
         <v>1.2</v>
       </c>
-      <c r="D43" s="6">
-        <v>0</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
         <v>0.5</v>
       </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
+      <c r="J43" s="9">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A44" s="6">
+      <c r="A44" s="9">
         <v>4000032</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="9">
         <v>1.2</v>
       </c>
-      <c r="D44" s="6">
-        <v>0</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
         <v>0.5</v>
       </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A45" s="6">
+      <c r="A45" s="9">
         <v>4000041</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="9">
         <v>1.2</v>
       </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
         <v>0.5</v>
       </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6">
+      <c r="J45" s="9">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A46" s="6">
+      <c r="A46" s="9">
         <v>4000042</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="9">
         <v>1.2</v>
       </c>
-      <c r="D46" s="6">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
         <v>0.5</v>
       </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A47" s="6">
+      <c r="A47" s="9">
         <v>4000043</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="9">
         <v>1.7</v>
       </c>
-      <c r="D47" s="6">
-        <v>0</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>1</v>
-      </c>
-      <c r="M47" s="6">
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1</v>
+      </c>
+      <c r="M47" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A48" s="6">
+      <c r="A48" s="9">
         <v>4000051</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="9">
         <v>2</v>
       </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6">
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
         <v>2</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A49" s="6">
+      <c r="A49" s="9">
         <v>4000061</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="9">
         <v>1.5</v>
       </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>1</v>
-      </c>
-      <c r="M49" s="6">
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>1</v>
+      </c>
+      <c r="M49" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A50" s="6">
+      <c r="A50" s="9">
         <v>4000071</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
+      <c r="D50" s="9">
+        <v>0</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
         <v>2</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A51" s="6">
+      <c r="A51" s="9">
         <v>4000081</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="9">
         <v>1.5</v>
       </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
         <v>0.5</v>
       </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A52" s="6">
+      <c r="A52" s="9">
         <v>4000091</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6">
-        <v>0</v>
-      </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
         <v>0.5</v>
       </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
         <v>0</v>
       </c>
     </row>
@@ -16129,5 +16129,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469ED26-A60F-4599-80E5-1E64D1EF393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E396743-7B48-4976-A4B2-FE485444318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -2011,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2109,10 +2109,10 @@
         <v>300000</v>
       </c>
       <c r="B4" s="9">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C4" s="9">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -2370,19 +2370,19 @@
         <v>300010</v>
       </c>
       <c r="B13" s="9">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="C13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="9">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.5" thickBot="1">
@@ -11673,7 +11673,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -11823,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -13609,7 +13609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40959465-D723-4554-828C-67A081B8DBB5}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34:M61"/>
     </sheetView>
   </sheetViews>
@@ -14979,1150 +14979,1150 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A34" s="9">
+      <c r="A34" s="6">
         <v>4000001</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="9">
-        <v>1</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
         <v>0.5</v>
       </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>4000002</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="9">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9">
-        <v>0</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
         <v>0.5</v>
       </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>0</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0</v>
-      </c>
-      <c r="M35" s="9">
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A36" s="9">
+      <c r="A36" s="6">
         <v>4000011</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="9">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
         <v>0.5</v>
       </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="9">
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>4000012</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="9">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9">
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
         <v>0.5</v>
       </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A38" s="9">
+      <c r="A38" s="6">
         <v>4000013</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="6">
         <v>1.2</v>
       </c>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0</v>
-      </c>
-      <c r="I38" s="9">
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
         <v>0.5</v>
       </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="9">
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>4000014</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <v>1.2</v>
       </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
         <v>0.5</v>
       </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A40" s="9">
+      <c r="A40" s="6">
         <v>4000021</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="9">
-        <v>1</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
         <v>0.5</v>
       </c>
-      <c r="J40" s="9">
-        <v>0</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" s="9">
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>4000022</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="9">
-        <v>1</v>
-      </c>
-      <c r="D41" s="9">
-        <v>0</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0</v>
-      </c>
-      <c r="F41" s="9">
-        <v>0</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
         <v>0.5</v>
       </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A42" s="9">
+      <c r="A42" s="6">
         <v>4000023</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="6">
         <v>1.5</v>
       </c>
-      <c r="D42" s="9">
-        <v>0</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="9">
-        <v>0</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
         <v>0.5</v>
       </c>
-      <c r="J42" s="9">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9">
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>4000031</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="6">
         <v>1.2</v>
       </c>
-      <c r="D43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0</v>
-      </c>
-      <c r="F43" s="9">
-        <v>0</v>
-      </c>
-      <c r="G43" s="9">
-        <v>0</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0</v>
-      </c>
-      <c r="I43" s="9">
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
         <v>0.5</v>
       </c>
-      <c r="J43" s="9">
-        <v>0</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0</v>
-      </c>
-      <c r="L43" s="9">
-        <v>0</v>
-      </c>
-      <c r="M43" s="9">
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A44" s="9">
+      <c r="A44" s="6">
         <v>4000032</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="6">
         <v>1.2</v>
       </c>
-      <c r="D44" s="9">
-        <v>0</v>
-      </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="9">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0</v>
-      </c>
-      <c r="I44" s="9">
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
         <v>0.5</v>
       </c>
-      <c r="J44" s="9">
-        <v>0</v>
-      </c>
-      <c r="K44" s="9">
-        <v>0</v>
-      </c>
-      <c r="L44" s="9">
-        <v>0</v>
-      </c>
-      <c r="M44" s="9">
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A45" s="9">
+      <c r="A45" s="6">
         <v>4000041</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="6">
         <v>1.2</v>
       </c>
-      <c r="D45" s="9">
-        <v>0</v>
-      </c>
-      <c r="E45" s="9">
-        <v>0</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>0</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
         <v>0.5</v>
       </c>
-      <c r="J45" s="9">
-        <v>0</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0</v>
-      </c>
-      <c r="L45" s="9">
-        <v>0</v>
-      </c>
-      <c r="M45" s="9">
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A46" s="9">
+      <c r="A46" s="6">
         <v>4000042</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="6">
         <v>1.2</v>
       </c>
-      <c r="D46" s="9">
-        <v>0</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="9">
-        <v>0</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
         <v>0.5</v>
       </c>
-      <c r="J46" s="9">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9">
-        <v>0</v>
-      </c>
-      <c r="M46" s="9">
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A47" s="9">
+      <c r="A47" s="6">
         <v>4000043</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="D47" s="9">
-        <v>0</v>
-      </c>
-      <c r="E47" s="9">
-        <v>0</v>
-      </c>
-      <c r="F47" s="9">
-        <v>0</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0</v>
-      </c>
-      <c r="J47" s="9">
-        <v>0</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0</v>
-      </c>
-      <c r="L47" s="9">
-        <v>1</v>
-      </c>
-      <c r="M47" s="9">
+      <c r="C47" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>1</v>
+      </c>
+      <c r="M47" s="6">
         <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A48" s="9">
+      <c r="A48" s="6">
         <v>4000051</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="6">
         <v>2</v>
       </c>
-      <c r="D48" s="9">
-        <v>0</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9">
-        <v>0</v>
-      </c>
-      <c r="K48" s="9">
-        <v>0</v>
-      </c>
-      <c r="L48" s="9">
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
         <v>2</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A49" s="9">
+      <c r="A49" s="6">
         <v>4000061</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49" s="6">
         <v>1.5</v>
       </c>
-      <c r="D49" s="9">
-        <v>0</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0</v>
-      </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="9">
-        <v>0</v>
-      </c>
-      <c r="K49" s="9">
-        <v>0</v>
-      </c>
-      <c r="L49" s="9">
-        <v>1</v>
-      </c>
-      <c r="M49" s="9">
+    </row>
+    <row r="50" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A50" s="6">
+        <v>4000071</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>2</v>
+      </c>
+      <c r="M50" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A51" s="6">
+        <v>4000081</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A50" s="9">
-        <v>4000071</v>
-      </c>
-      <c r="B50" s="37" t="s">
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A52" s="6">
+        <v>4000091</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D50" s="9">
-        <v>0</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-      <c r="J50" s="9">
-        <v>0</v>
-      </c>
-      <c r="K50" s="9">
-        <v>0</v>
-      </c>
-      <c r="L50" s="9">
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A53" s="6">
+        <v>4000101</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="6">
         <v>2</v>
       </c>
-      <c r="M50" s="9">
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A51" s="9">
-        <v>4000081</v>
-      </c>
-      <c r="B51" s="37" t="s">
+      <c r="M53" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A54" s="6">
+        <v>4000102</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A55" s="6">
+        <v>4000111</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A56" s="6">
+        <v>4000112</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A57" s="6">
+        <v>4000113</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A58" s="6">
+        <v>4000121</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A59" s="6">
+        <v>4000122</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A60" s="6">
+        <v>4000123</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>1</v>
+      </c>
+      <c r="M60" s="6">
         <v>1.5</v>
       </c>
-      <c r="D51" s="9">
-        <v>0</v>
-      </c>
-      <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
+    </row>
+    <row r="61" spans="1:13" ht="17.5" thickBot="1">
+      <c r="A61" s="6">
+        <v>4000124</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
         <v>0.5</v>
       </c>
-      <c r="J51" s="9">
-        <v>0</v>
-      </c>
-      <c r="K51" s="9">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A52" s="9">
-        <v>4000091</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="9">
-        <v>1</v>
-      </c>
-      <c r="D52" s="9">
-        <v>0</v>
-      </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0</v>
-      </c>
-      <c r="K52" s="9">
-        <v>0</v>
-      </c>
-      <c r="L52" s="9">
-        <v>0</v>
-      </c>
-      <c r="M52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A53" s="9">
-        <v>4000101</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="9">
-        <v>2</v>
-      </c>
-      <c r="D53" s="9">
-        <v>0</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0</v>
-      </c>
-      <c r="K53" s="9">
-        <v>0</v>
-      </c>
-      <c r="L53" s="9">
-        <v>2</v>
-      </c>
-      <c r="M53" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A54" s="9">
-        <v>4000102</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="9">
-        <v>1</v>
-      </c>
-      <c r="D54" s="9">
-        <v>0</v>
-      </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J54" s="9">
-        <v>0</v>
-      </c>
-      <c r="K54" s="9">
-        <v>0</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0</v>
-      </c>
-      <c r="M54" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A55" s="9">
-        <v>4000111</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="9">
-        <v>1</v>
-      </c>
-      <c r="D55" s="9">
-        <v>0</v>
-      </c>
-      <c r="E55" s="9">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9">
-        <v>0</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J55" s="9">
-        <v>0</v>
-      </c>
-      <c r="K55" s="9">
-        <v>0</v>
-      </c>
-      <c r="L55" s="9">
-        <v>0</v>
-      </c>
-      <c r="M55" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A56" s="9">
-        <v>4000112</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="9">
-        <v>1</v>
-      </c>
-      <c r="D56" s="9">
-        <v>0</v>
-      </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9">
-        <v>0</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J56" s="9">
-        <v>0</v>
-      </c>
-      <c r="K56" s="9">
-        <v>0</v>
-      </c>
-      <c r="L56" s="9">
-        <v>0</v>
-      </c>
-      <c r="M56" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A57" s="9">
-        <v>4000113</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="9">
-        <v>1</v>
-      </c>
-      <c r="D57" s="9">
-        <v>0</v>
-      </c>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0</v>
-      </c>
-      <c r="K57" s="9">
-        <v>0</v>
-      </c>
-      <c r="L57" s="9">
-        <v>0</v>
-      </c>
-      <c r="M57" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A58" s="9">
-        <v>4000121</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="D58" s="9">
-        <v>0</v>
-      </c>
-      <c r="E58" s="9">
-        <v>0</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J58" s="9">
-        <v>0</v>
-      </c>
-      <c r="K58" s="9">
-        <v>0</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0</v>
-      </c>
-      <c r="M58" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A59" s="9">
-        <v>4000122</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="D59" s="9">
-        <v>0</v>
-      </c>
-      <c r="E59" s="9">
-        <v>0</v>
-      </c>
-      <c r="F59" s="9">
-        <v>0</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J59" s="9">
-        <v>0</v>
-      </c>
-      <c r="K59" s="9">
-        <v>0</v>
-      </c>
-      <c r="L59" s="9">
-        <v>0</v>
-      </c>
-      <c r="M59" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A60" s="9">
-        <v>4000123</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="9">
-        <v>1.7</v>
-      </c>
-      <c r="D60" s="9">
-        <v>0</v>
-      </c>
-      <c r="E60" s="9">
-        <v>0</v>
-      </c>
-      <c r="F60" s="9">
-        <v>0</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-      <c r="J60" s="9">
-        <v>0</v>
-      </c>
-      <c r="K60" s="9">
-        <v>0</v>
-      </c>
-      <c r="L60" s="9">
-        <v>1</v>
-      </c>
-      <c r="M60" s="9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="17.5" thickBot="1">
-      <c r="A61" s="9">
-        <v>4000124</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="9">
-        <v>1</v>
-      </c>
-      <c r="D61" s="9">
-        <v>0</v>
-      </c>
-      <c r="E61" s="9">
-        <v>0</v>
-      </c>
-      <c r="F61" s="9">
-        <v>0</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="J61" s="9">
-        <v>0</v>
-      </c>
-      <c r="K61" s="9">
-        <v>0</v>
-      </c>
-      <c r="L61" s="9">
-        <v>0</v>
-      </c>
-      <c r="M61" s="9">
+      <c r="J61" s="6">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
         <v>0.5</v>
       </c>
     </row>

--- a/Assets/04Table/TS.xlsx
+++ b/Assets/04Table/TS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgm\Unity\ProjectTS\Assets\04Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun2i\OneDrive\바탕 화면\Project TS\ProjectTS\Assets\04Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E396743-7B48-4976-A4B2-FE485444318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0FB1DC-D708-4D95-8B5F-D69E24508E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="0" windowWidth="23610" windowHeight="13280" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="60" windowWidth="18514" windowHeight="10740" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Stats" sheetId="1" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1562,6 +1562,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1849,9 +1852,9 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="51.5" thickBot="1">
+    <row r="1" spans="1:16" ht="53.15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17.5" thickBot="1">
+    <row r="2" spans="1:16" ht="18" thickBot="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1946,59 +1949,59 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="17.5" thickBot="1">
+    <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="17.5" thickBot="1">
+    <row r="4" spans="1:16" ht="18" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="17.5" thickBot="1">
+    <row r="5" spans="1:16" ht="18" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="17.5" thickBot="1">
+    <row r="6" spans="1:16" ht="18" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="17.5" thickBot="1">
+    <row r="7" spans="1:16" ht="18" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="17.5" thickBot="1">
+    <row r="8" spans="1:16" ht="18" thickBot="1">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="17.5" thickBot="1">
+    <row r="9" spans="1:16" ht="18" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="17.5" thickBot="1">
+    <row r="10" spans="1:16" ht="18" thickBot="1">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="17.5" thickBot="1">
+    <row r="11" spans="1:16" ht="18" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="17.5" thickBot="1">
+    <row r="12" spans="1:16" ht="18" thickBot="1">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="17.5" thickBot="1">
+    <row r="13" spans="1:16" ht="18" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="17.5" thickBot="1">
+    <row r="14" spans="1:16" ht="18" thickBot="1">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="17.5" thickBot="1">
+    <row r="15" spans="1:16" ht="18" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="17.5" thickBot="1">
+    <row r="16" spans="1:16" ht="18" thickBot="1">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
@@ -2011,13 +2014,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12095B65-F917-4276-968D-9F2F6177233E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" thickBot="1">
+    <row r="1" spans="1:9" ht="18" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>15</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1">
+    <row r="2" spans="1:9" ht="18" thickBot="1">
       <c r="A2" s="9">
         <v>100000</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.5" thickBot="1">
+    <row r="3" spans="1:9" ht="18" thickBot="1">
       <c r="A3" s="9">
         <v>200000</v>
       </c>
@@ -2104,7 +2107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.5" thickBot="1">
+    <row r="4" spans="1:9" ht="18" thickBot="1">
       <c r="A4" s="9">
         <v>300000</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.5" thickBot="1">
+    <row r="5" spans="1:9" ht="18" thickBot="1">
       <c r="A5" s="9">
         <v>300001</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.5" thickBot="1">
+    <row r="6" spans="1:9" ht="18" thickBot="1">
       <c r="A6" s="9">
         <v>300002</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.5" thickBot="1">
+    <row r="7" spans="1:9" ht="18" thickBot="1">
       <c r="A7" s="9">
         <v>300003</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1">
+    <row r="8" spans="1:9" ht="18" thickBot="1">
       <c r="A8" s="9">
         <v>300004</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.5" thickBot="1">
+    <row r="9" spans="1:9" ht="18" thickBot="1">
       <c r="A9" s="9">
         <v>300005</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1">
+    <row r="10" spans="1:9" ht="18" thickBot="1">
       <c r="A10" s="9">
         <v>300006</v>
       </c>
@@ -2307,7 +2310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.5" thickBot="1">
+    <row r="11" spans="1:9" ht="18" thickBot="1">
       <c r="A11" s="9">
         <v>300008</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.5" thickBot="1">
+    <row r="12" spans="1:9" ht="18" thickBot="1">
       <c r="A12" s="9">
         <v>300009</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.5" thickBot="1">
+    <row r="13" spans="1:9" ht="18" thickBot="1">
       <c r="A13" s="9">
         <v>300010</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1">
+    <row r="14" spans="1:9" ht="18" thickBot="1">
       <c r="A14" s="9">
         <v>300011</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1">
+    <row r="15" spans="1:9" ht="18" thickBot="1">
       <c r="A15" s="9">
         <v>400000</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.5" thickBot="1">
+    <row r="16" spans="1:9" ht="18" thickBot="1">
       <c r="A16" s="9">
         <v>400001</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.5" thickBot="1">
+    <row r="17" spans="1:9" ht="18" thickBot="1">
       <c r="A17" s="9">
         <v>400002</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="17.5" thickBot="1">
+    <row r="18" spans="1:9" ht="18" thickBot="1">
       <c r="A18" s="9">
         <v>400003</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.5" thickBot="1">
+    <row r="19" spans="1:9" ht="18" thickBot="1">
       <c r="A19" s="9">
         <v>400004</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="17.5" thickBot="1">
+    <row r="20" spans="1:9" ht="18" thickBot="1">
       <c r="A20" s="9">
         <v>400005</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17.5" thickBot="1">
+    <row r="21" spans="1:9" ht="18" thickBot="1">
       <c r="A21" s="9">
         <v>400006</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17.5" thickBot="1">
+    <row r="22" spans="1:9" ht="18" thickBot="1">
       <c r="A22" s="9">
         <v>400007</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17.5" thickBot="1">
+    <row r="23" spans="1:9" ht="18" thickBot="1">
       <c r="A23" s="9">
         <v>400008</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.5" thickBot="1">
+    <row r="24" spans="1:9" ht="18" thickBot="1">
       <c r="A24" s="9">
         <v>400009</v>
       </c>
@@ -2727,18 +2730,18 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="17.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="13.2109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.35546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="18" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.08203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="18"/>
+    <col min="6" max="6" width="9.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.0703125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="18" customWidth="1"/>
+    <col min="9" max="9" width="25.35546875" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="8.640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2965,9 +2968,9 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="34.5" thickBot="1">
+    <row r="1" spans="1:17" ht="35.6" thickBot="1">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.5" thickBot="1">
+    <row r="2" spans="1:17" ht="18" thickBot="1">
       <c r="A2" s="18">
         <v>4000</v>
       </c>
@@ -3087,12 +3090,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
   <cols>
     <col min="8" max="8" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" thickBot="1">
+    <row r="1" spans="1:8" ht="35.6" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51.5" thickBot="1">
+    <row r="2" spans="1:8" ht="53.15" thickBot="1">
       <c r="A2" s="6">
         <v>100</v>
       </c>
@@ -3158,9 +3161,9 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.5" thickBot="1">
+    <row r="1" spans="1:11" ht="35.6" thickBot="1">
       <c r="A1" s="40" t="s">
         <v>234</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51.5" thickBot="1">
+    <row r="2" spans="1:11" ht="53.15" thickBot="1">
       <c r="A2" s="9">
         <v>100</v>
       </c>
@@ -3244,23 +3247,23 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="17.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="18"/>
-    <col min="2" max="2" width="14.33203125" style="18" customWidth="1"/>
-    <col min="3" max="6" width="8.58203125" style="18"/>
+    <col min="1" max="1" width="8.5703125" style="18"/>
+    <col min="2" max="2" width="14.35546875" style="18" customWidth="1"/>
+    <col min="3" max="6" width="8.5703125" style="18"/>
     <col min="7" max="7" width="10.5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="21.58203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="18"/>
-    <col min="10" max="10" width="13.75" style="18" customWidth="1"/>
-    <col min="11" max="13" width="8.58203125" style="18"/>
+    <col min="8" max="8" width="21.5703125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="18"/>
+    <col min="10" max="10" width="13.7109375" style="18" customWidth="1"/>
+    <col min="11" max="13" width="8.5703125" style="18"/>
     <col min="14" max="14" width="13" style="18" customWidth="1"/>
-    <col min="15" max="15" width="24.1640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="38.58203125" style="18" customWidth="1"/>
-    <col min="17" max="16384" width="8.58203125" style="18"/>
+    <col min="15" max="15" width="24.140625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="38.5703125" style="18" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34.5" thickBot="1">
+    <row r="1" spans="1:16" ht="35.6" thickBot="1">
       <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
@@ -3310,7 +3313,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="34.5" thickBot="1">
+    <row r="2" spans="1:16" ht="53.15" thickBot="1">
       <c r="A2" s="9">
         <v>100</v>
       </c>
@@ -3358,7 +3361,7 @@
       </c>
       <c r="P2" s="37"/>
     </row>
-    <row r="3" spans="1:16" ht="34.5" thickBot="1">
+    <row r="3" spans="1:16" ht="35.6" thickBot="1">
       <c r="A3" s="9">
         <v>101</v>
       </c>
@@ -3406,7 +3409,7 @@
       </c>
       <c r="P3" s="37"/>
     </row>
-    <row r="4" spans="1:16" ht="17.5" thickBot="1">
+    <row r="4" spans="1:16" ht="18" thickBot="1">
       <c r="A4" s="60">
         <v>102</v>
       </c>
@@ -3454,7 +3457,7 @@
       </c>
       <c r="P4" s="37"/>
     </row>
-    <row r="5" spans="1:16" ht="17.5" thickBot="1">
+    <row r="5" spans="1:16" ht="18" thickBot="1">
       <c r="A5" s="9">
         <v>103</v>
       </c>
@@ -3502,7 +3505,7 @@
       </c>
       <c r="P5" s="37"/>
     </row>
-    <row r="6" spans="1:16" ht="34.5" thickBot="1">
+    <row r="6" spans="1:16" ht="35.6" thickBot="1">
       <c r="A6" s="9">
         <v>131</v>
       </c>
@@ -3550,7 +3553,7 @@
       </c>
       <c r="P6" s="37"/>
     </row>
-    <row r="7" spans="1:16" ht="34.5" thickBot="1">
+    <row r="7" spans="1:16" ht="53.15" thickBot="1">
       <c r="A7" s="9">
         <v>200</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="34.5" thickBot="1">
+    <row r="8" spans="1:16" ht="35.6" thickBot="1">
       <c r="A8" s="9">
         <v>201</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.5" thickBot="1">
+    <row r="9" spans="1:16" ht="18" thickBot="1">
       <c r="A9" s="9">
         <v>202</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="17.5" thickBot="1">
+    <row r="10" spans="1:16" ht="18" thickBot="1">
       <c r="A10" s="9">
         <v>203</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="34.5" thickBot="1">
+    <row r="11" spans="1:16" ht="35.6" thickBot="1">
       <c r="A11" s="9">
         <v>231</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="17.5" thickBot="1">
+    <row r="12" spans="1:16" ht="18" thickBot="1">
       <c r="A12" s="9">
         <v>232</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.5" thickBot="1">
+    <row r="13" spans="1:16" ht="18" thickBot="1">
       <c r="A13" s="9">
         <v>300</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="34.5" thickBot="1">
+    <row r="14" spans="1:16" ht="35.6" thickBot="1">
       <c r="A14" s="9">
         <v>301</v>
       </c>
@@ -3950,7 +3953,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.5" thickBot="1">
+    <row r="15" spans="1:16" ht="18" thickBot="1">
       <c r="A15" s="9">
         <v>302</v>
       </c>
@@ -4000,7 +4003,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="34.5" thickBot="1">
+    <row r="16" spans="1:16" ht="35.6" thickBot="1">
       <c r="A16" s="9">
         <v>303</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="34.5" thickBot="1">
+    <row r="17" spans="1:16" ht="35.6" thickBot="1">
       <c r="A17" s="9">
         <v>331</v>
       </c>
@@ -4110,17 +4113,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC183E9-B7A8-46E9-9BBC-B44B6B1E4A99}">
   <dimension ref="A1:Z143"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="17.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="8.58203125" style="14"/>
+    <col min="1" max="1" width="13.35546875" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="8.5703125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="51">
+    <row r="1" spans="1:16" ht="52.75">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17.5" thickBot="1">
+    <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="6">
         <v>100011102</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="34.5" thickBot="1">
+    <row r="4" spans="1:16" ht="35.6" thickBot="1">
       <c r="A4" s="6">
         <v>101012101</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17.5" thickBot="1">
+    <row r="5" spans="1:16" ht="18" thickBot="1">
       <c r="A5" s="6">
         <v>101012102</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="34.5" thickBot="1">
+    <row r="6" spans="1:16" ht="35.6" thickBot="1">
       <c r="A6" s="6">
         <v>101012201</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="17.5" thickBot="1">
+    <row r="7" spans="1:16" ht="18" thickBot="1">
       <c r="A7" s="6">
         <v>101012202</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="34.5" thickBot="1">
+    <row r="8" spans="1:16" ht="35.6" thickBot="1">
       <c r="A8" s="6">
         <v>101012301</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="17.5" thickBot="1">
+    <row r="9" spans="1:16" ht="18" thickBot="1">
       <c r="A9" s="6">
         <v>101012302</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="34.5" thickBot="1">
+    <row r="10" spans="1:16" ht="35.6" thickBot="1">
       <c r="A10" s="6">
         <v>101012401</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="17.5" thickBot="1">
+    <row r="11" spans="1:16" ht="18" thickBot="1">
       <c r="A11" s="6">
         <v>101012402</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="34.5" thickBot="1">
+    <row r="12" spans="1:16" ht="35.6" thickBot="1">
       <c r="A12" s="6">
         <v>101012501</v>
       </c>
@@ -4720,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="17.5" thickBot="1">
+    <row r="13" spans="1:16" ht="18" thickBot="1">
       <c r="A13" s="6">
         <v>101012502</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="17.5" thickBot="1">
+    <row r="14" spans="1:16" ht="18" thickBot="1">
       <c r="A14" s="28">
         <v>102012101</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.5" thickBot="1">
+    <row r="15" spans="1:16" ht="18" thickBot="1">
       <c r="A15" s="31">
         <v>102012102</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="17.5" thickBot="1">
+    <row r="16" spans="1:16" ht="18" thickBot="1">
       <c r="A16" s="31">
         <v>102012103</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="17.5" thickBot="1">
+    <row r="17" spans="1:16" ht="18" thickBot="1">
       <c r="A17" s="31">
         <v>102012201</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="17.5" thickBot="1">
+    <row r="18" spans="1:16" ht="18" thickBot="1">
       <c r="A18" s="31">
         <v>102012202</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="17.5" thickBot="1">
+    <row r="19" spans="1:16" ht="18" thickBot="1">
       <c r="A19" s="31">
         <v>102012203</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="17.5" thickBot="1">
+    <row r="20" spans="1:16" ht="18" thickBot="1">
       <c r="A20" s="31">
         <v>102012301</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17.5" thickBot="1">
+    <row r="21" spans="1:16" ht="18" thickBot="1">
       <c r="A21" s="31">
         <v>102012302</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.5" thickBot="1">
+    <row r="22" spans="1:16" ht="18" thickBot="1">
       <c r="A22" s="31">
         <v>102012303</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.5" thickBot="1">
+    <row r="23" spans="1:16" ht="18" thickBot="1">
       <c r="A23" s="31">
         <v>102012401</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="17.5" thickBot="1">
+    <row r="24" spans="1:16" ht="18" thickBot="1">
       <c r="A24" s="31">
         <v>102012402</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="17.5" thickBot="1">
+    <row r="25" spans="1:16" ht="18" thickBot="1">
       <c r="A25" s="31">
         <v>102012403</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="17.5" thickBot="1">
+    <row r="26" spans="1:16" ht="18" thickBot="1">
       <c r="A26" s="31">
         <v>102012501</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="17.5" thickBot="1">
+    <row r="27" spans="1:16" ht="18" thickBot="1">
       <c r="A27" s="31">
         <v>102012502</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="17.5" thickBot="1">
+    <row r="28" spans="1:16" ht="18" thickBot="1">
       <c r="A28" s="34">
         <v>102012503</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17.5" thickBot="1">
+    <row r="29" spans="1:16" ht="18" thickBot="1">
       <c r="A29" s="9">
         <v>103012101</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="34.5" thickBot="1">
+    <row r="30" spans="1:16" ht="35.6" thickBot="1">
       <c r="A30" s="9">
         <v>103012102</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17.5" thickBot="1">
+    <row r="31" spans="1:16" ht="18" thickBot="1">
       <c r="A31" s="9">
         <v>103012103</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="17.5" thickBot="1">
+    <row r="32" spans="1:16" ht="18" thickBot="1">
       <c r="A32" s="9">
         <v>103012104</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17.5" thickBot="1">
+    <row r="33" spans="1:16" ht="18" thickBot="1">
       <c r="A33" s="9">
         <v>103012201</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="34.5" thickBot="1">
+    <row r="34" spans="1:16" ht="35.6" thickBot="1">
       <c r="A34" s="9">
         <v>103012202</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="17.5" thickBot="1">
+    <row r="35" spans="1:16" ht="18" thickBot="1">
       <c r="A35" s="9">
         <v>103012203</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="17.5" thickBot="1">
+    <row r="36" spans="1:16" ht="18" thickBot="1">
       <c r="A36" s="9">
         <v>103012204</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="17.5" thickBot="1">
+    <row r="37" spans="1:16" ht="18" thickBot="1">
       <c r="A37" s="9">
         <v>103012301</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="34.5" thickBot="1">
+    <row r="38" spans="1:16" ht="35.6" thickBot="1">
       <c r="A38" s="9">
         <v>103012302</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="17.5" thickBot="1">
+    <row r="39" spans="1:16" ht="18" thickBot="1">
       <c r="A39" s="9">
         <v>103012303</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17.5" thickBot="1">
+    <row r="40" spans="1:16" ht="18" thickBot="1">
       <c r="A40" s="9">
         <v>103012304</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="17.5" thickBot="1">
+    <row r="41" spans="1:16" ht="18" thickBot="1">
       <c r="A41" s="9">
         <v>103012401</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="34.5" thickBot="1">
+    <row r="42" spans="1:16" ht="35.6" thickBot="1">
       <c r="A42" s="9">
         <v>103012402</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="17.5" thickBot="1">
+    <row r="43" spans="1:16" ht="18" thickBot="1">
       <c r="A43" s="9">
         <v>103012403</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="17.5" thickBot="1">
+    <row r="44" spans="1:16" ht="18" thickBot="1">
       <c r="A44" s="9">
         <v>103012404</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="17.5" thickBot="1">
+    <row r="45" spans="1:16" ht="18" thickBot="1">
       <c r="A45" s="9">
         <v>103012501</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="34.5" thickBot="1">
+    <row r="46" spans="1:16" ht="35.6" thickBot="1">
       <c r="A46" s="9">
         <v>103012502</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17.5" thickBot="1">
+    <row r="47" spans="1:16" ht="18" thickBot="1">
       <c r="A47" s="9">
         <v>103012503</v>
       </c>
@@ -6470,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="17.5" thickBot="1">
+    <row r="48" spans="1:16" ht="18" thickBot="1">
       <c r="A48" s="9">
         <v>103012504</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="17.5" thickBot="1">
+    <row r="49" spans="1:26" ht="18" thickBot="1">
       <c r="A49" s="6">
         <v>131013101</v>
       </c>
@@ -6580,7 +6583,7 @@
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
     </row>
-    <row r="50" spans="1:26" ht="17.5" thickBot="1">
+    <row r="50" spans="1:26" ht="18" thickBot="1">
       <c r="A50" s="6">
         <v>131013201</v>
       </c>
@@ -6640,7 +6643,7 @@
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
     </row>
-    <row r="51" spans="1:26" ht="17.5" thickBot="1">
+    <row r="51" spans="1:26" ht="18" thickBot="1">
       <c r="A51" s="6">
         <v>131013301</v>
       </c>
@@ -6700,7 +6703,7 @@
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
     </row>
-    <row r="52" spans="1:26" ht="17.5" thickBot="1">
+    <row r="52" spans="1:26" ht="18" thickBot="1">
       <c r="A52" s="9">
         <v>200021101</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="17.5" thickBot="1">
+    <row r="56" spans="1:26" ht="18" thickBot="1">
       <c r="A56" s="6">
         <v>201022101</v>
       </c>
@@ -6913,11 +6916,11 @@
       <c r="D56" s="6">
         <v>0</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="66">
         <v>0.5</v>
       </c>
-      <c r="F56" s="6">
-        <v>1</v>
+      <c r="F56" s="66">
+        <v>0.1</v>
       </c>
       <c r="G56" s="6">
         <v>1</v>
@@ -6950,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="17.5" thickBot="1">
+    <row r="57" spans="1:26" ht="18" thickBot="1">
       <c r="A57" s="6">
         <v>201022102</v>
       </c>
@@ -6963,10 +6966,10 @@
       <c r="D57" s="6">
         <v>0</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="66">
         <v>1.75</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="66">
         <v>0.25</v>
       </c>
       <c r="G57" s="6">
@@ -7000,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="17.5" thickBot="1">
+    <row r="58" spans="1:26" ht="18" thickBot="1">
       <c r="A58" s="6">
         <v>201022201</v>
       </c>
@@ -7013,11 +7016,11 @@
       <c r="D58" s="6">
         <v>0</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="66">
         <v>0.5</v>
       </c>
-      <c r="F58" s="6">
-        <v>1</v>
+      <c r="F58" s="66">
+        <v>0.1</v>
       </c>
       <c r="G58" s="6">
         <v>1</v>
@@ -7050,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="17.5" thickBot="1">
+    <row r="59" spans="1:26" ht="18" thickBot="1">
       <c r="A59" s="6">
         <v>201022202</v>
       </c>
@@ -7063,10 +7066,10 @@
       <c r="D59" s="6">
         <v>0</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="66">
         <v>1.75</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="66">
         <v>0.25</v>
       </c>
       <c r="G59" s="6">
@@ -7100,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="17.5" thickBot="1">
+    <row r="60" spans="1:26" ht="18" thickBot="1">
       <c r="A60" s="6">
         <v>201022301</v>
       </c>
@@ -7113,11 +7116,11 @@
       <c r="D60" s="6">
         <v>0</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="66">
         <v>0.5</v>
       </c>
-      <c r="F60" s="6">
-        <v>1</v>
+      <c r="F60" s="66">
+        <v>0.1</v>
       </c>
       <c r="G60" s="6">
         <v>1</v>
@@ -7150,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="17.5" thickBot="1">
+    <row r="61" spans="1:26" ht="18" thickBot="1">
       <c r="A61" s="6">
         <v>201022302</v>
       </c>
@@ -7163,10 +7166,10 @@
       <c r="D61" s="6">
         <v>0</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="66">
         <v>1.75</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="66">
         <v>0.25</v>
       </c>
       <c r="G61" s="6">
@@ -7200,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="17.5" thickBot="1">
+    <row r="62" spans="1:26" ht="18" thickBot="1">
       <c r="A62" s="6">
         <v>201022401</v>
       </c>
@@ -7213,11 +7216,11 @@
       <c r="D62" s="6">
         <v>0</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="66">
         <v>0.5</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
+      <c r="F62" s="66">
+        <v>0.1</v>
       </c>
       <c r="G62" s="6">
         <v>1</v>
@@ -7250,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="17.5" thickBot="1">
+    <row r="63" spans="1:26" ht="18" thickBot="1">
       <c r="A63" s="6">
         <v>201022402</v>
       </c>
@@ -7263,10 +7266,10 @@
       <c r="D63" s="6">
         <v>0</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="66">
         <v>1.75</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="66">
         <v>0.25</v>
       </c>
       <c r="G63" s="6">
@@ -7300,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="17.5" thickBot="1">
+    <row r="64" spans="1:26" ht="18" thickBot="1">
       <c r="A64" s="6">
         <v>201022501</v>
       </c>
@@ -7313,11 +7316,11 @@
       <c r="D64" s="6">
         <v>0</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="66">
         <v>0.5</v>
       </c>
-      <c r="F64" s="6">
-        <v>1</v>
+      <c r="F64" s="66">
+        <v>0.1</v>
       </c>
       <c r="G64" s="6">
         <v>1</v>
@@ -7350,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="17.5" thickBot="1">
+    <row r="65" spans="1:16" ht="18" thickBot="1">
       <c r="A65" s="6">
         <v>201022502</v>
       </c>
@@ -7363,10 +7366,10 @@
       <c r="D65" s="6">
         <v>0</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="66">
         <v>1.75</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="66">
         <v>0.25</v>
       </c>
       <c r="G65" s="6">
@@ -7400,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="17.5" thickBot="1">
+    <row r="66" spans="1:16" ht="18" thickBot="1">
       <c r="A66" s="6">
         <v>201022111</v>
       </c>
@@ -7413,10 +7416,10 @@
       <c r="D66" s="6">
         <v>1</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="66">
         <v>0.7</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="66">
         <v>0.1</v>
       </c>
       <c r="G66" s="6">
@@ -7450,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="34.5" thickBot="1">
+    <row r="67" spans="1:16" ht="35.6" thickBot="1">
       <c r="A67" s="6">
         <v>201022112</v>
       </c>
@@ -7463,10 +7466,10 @@
       <c r="D67" s="6">
         <v>1</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="66">
         <v>2.25</v>
       </c>
-      <c r="F67" s="6">
+